--- a/data.xlsx
+++ b/data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,3498 +471,3876 @@
           <t>highlights</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sent_compound</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sent_pos</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sent_neg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DL-61a99ff224590b57c2decc13491a1641</t>
+          <t>DL-5ac62016344eb6e53697f78afd2d87ac</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IoT intrusion detection system based on machine learning and deep learning</t>
+          <t>Nintendo Switch 2 review</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.25195/ijci.v51i1.552</t>
+          <t>https://www.iphoned.nl/reviews/nintendo-switch-2-review/?utm_source=feed&amp;utm_medium=rss&amp;utm_campaign=all</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The proliferation of Internet of Things IoT devices has amplified cybersecurity challenges. This paper evaluates the performance of Machine Learning ML and Deep Learning DL models on two benchmark datasets. For DL, Convolutional Neural Networks CNNs achieved 99.99% accuracy on BoT-IoT and 99.61% on CIC-IDS2017 with preprocessing.</t>
+          <t>The Nintendo Switch 2 is finally available, but do you have to run to the store right now? Read on after the ad. Support iPhoned You use an adsblocker. We need ads to sell our products for free.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>438.32654</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-06-07</t>
-        </is>
-      </c>
+        <v>320.68298</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['This paper evaluates the performance of Machine Learning ML and Deep Learning DL models on two benchmark datasets, BoT-IoT and CIC-IDS2017, to develop efficient IDS.', 'For DL, Convolutional Neural Networks CNNs achieved 99.99% accuracy on BoT-IoT and 99.61% on CIC-IDS2017 with preprocessing, highlighting the critical role of data preparation.']</t>
-        </is>
+          <t>['The Nintendo Switch 2 is finally available, but do you have to run to the store right now? You can read that in our review of the Nintendo Switch 2! Read on after the ad. Support iPhoned You use an adblocker.', "software) Flink much more expensive (both hardware and software) Limited battery life for heavy games Limited battery life for heavy games Unfortunately, no OLED screen Nintendo Switch 2 review It's been over eight years since the first Nintendo Switch", "Conclusion Nintendo Switch 2 review The Nintendo Switch 2 actually does exactly what we expected. It's an improved original Switch."]</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8401999999999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DL-69d6d81234f58a1f35a8bba46d62b338</t>
+          <t>DL-56b3456fa4d4c2c0316f8c748ec38942</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI) and Machine Learning (ML)</t>
+          <t>Nintendo Switch 2 Welcome Tour Review</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.computerweekly.com/de/resources/Kuenstliche-Intelligenz-KI-und-Machine-Learning-ML/seite/7</t>
+          <t>https://www.rocketchainsaw.com.au/review/nintendo-switch-2-welcome-tour-review/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>IT department needs to prepare for AI software Predictive analytics, Next Best Action or spot-on information. Read more by Eugen Klass, OpenText Feature 22 Aug 2018 The Benefits of Machine Learning in Network Management Companies and vendors alike are developing deployment strategies for machine learning. Learn how AI-based technology can help before, during and after a crisis.</t>
+          <t>The Welcome Tour is presented as a virtual museum, an enormous virtual representation of the Switch 2. The camera is set high from an isometric perspective, sometimes zooming out to encompass an entire area with people browsing the exhibits like ants. There’s even some mildly funny dialogue and little set pieces thrown in among the attendees you can chat to.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>404.26236</v>
+        <v>163.04446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-06T00:00:00+00:00</t>
+          <t>2025-06-09T04:20:44+00:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Read more by George Lawton Tip 27 Jul 2018 Using AI and Machine Learning to Identify Threats Machine learning and AI are currently at the forefront of security marketing strategists.', 'The main topics are: Research, development and training of deep learning and machine learning models as well as the implementation of AI and ML projects in companies.', 'The main topics are: Research, development and training of deep learning and machine learning models as well as the implementation of AI and ML projects in companies.']</t>
-        </is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8126</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DL-70a4668aef4ec3a34096c875bc6b30b6</t>
+          <t>DL-2a418e6f75f602bcd521348ca4edc33a</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI) in Surface Water Management: A Comprehensive Review of Methods, Applications, and Challenges</t>
+          <t>Nintendo Switch 2 Camera review - good for GameChat but not much else</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/c018e08c8fc0e5bda58b34e9ee03d089643be825</t>
+          <t>https://www.pockettactics.com/nintendo-switch-2-camera-review</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This review critically explores the integration of Artificial Intelligence (AI) in surface flow management. This study synthesizes recent advances in machine learning (ML), deep learning (DL), the Internet of Things (IoT), remote sensing, and hybrid AI–physics models. It highlights key AI techniques—including Long Short-Term Memory (LSTM), Convolutional Neural Networks (CNNs), Graph Neural networks (GNNs), Transformer models, and Reinforcement Learning.</t>
+          <t>I'm talking about the Nintendo Switch 2 Camera. It doesn't have many uses outside of GameChat, the Switch 2's new social feature, and a few Mario Party Jamboree – Switch 2 Edition minigames. At Pocket Tactics, our experts spend days testing games, phones, tech, and services. We always share honest opinions to help you buy the best.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>367.7154</v>
+        <v>157.74072</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-07T16:55:45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['This review critically explores the integration of Artificial Intelligence (AI) in surface flow management, encompassing applications in streamflow forecasting, sediment transport, flood prediction, water quality monitoring, and infrastructure operations', 'Drawing from over two decades of interdisciplinary literature, this study synthesizes recent advances in machine learning (ML), deep learning (DL), the Internet of Things (IoT), remote sensing, and hybrid AI–physics models.', 'It highlights key AI techniques—including Long Short-Term Memory (LSTM), Convolutional Neural Networks (CNNs), Graph Neural Networks (GNNs), Transformer models, and Reinforcement Learning—and discusses their strengths, limitations, and implementation']</t>
-        </is>
+          <t>["Unlike most reviews on Pocket Tactics, I'm not scoring the Nintendo Switch 2 Camera out of 10 right now. That's because I've not used any other Switch 2 cameras, so there's no prior context to base a score on.", "For more of our post-launch coverage, be sure to take a look at our Nintendo Switch 2 review, Nintendo Switch 2 Pro Controller review, and Mario Kart World review while you're here.", "Or, if you'd rather grab something to complete your new gaming setup, see our guides to the best Nintendo Switch 2 accessories and the best Nintendo Switch 2 controllers."]</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9337</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DL-2328d082cffa01dc8780c79a55b0524d</t>
+          <t>DL-251c66dcd4b421aa53f620b9134f31c2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Machine Learning and Artificial Intelligence in Intensive Care Medicine: Critical Recalibrations from Rule-Based Systems to Frontier Models</t>
+          <t>Nintendo confirms no Switch 2 reviews ahead of launch</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/f8864d9b4acb477681440ec2b79e08dfd2305053</t>
+          <t>https://mobilesyrup.com/2025/06/03/nintendo-confirms-no-switch-2-reviews/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Artificial intelligence (AI) and machine learning (ML) are rapidly transforming clinical decision support systems in intensive care units. This technology has been applied across key ICU domains such as early warning systems, sepsis management, mechanical ventilation, and diagnostic support. We highlight a transition from rule-based systems to more sophisticated machine learning approaches.</t>
+          <t>Report from Video Game Chronicle says a company spokesperson confirmed there would be no pre-launch review units for the press. Further, the report suggests that the press will receive units after launch once an update with unnamed “important features” hits on June 5. This is likely an excuse since consoles have been at events worldwide.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>345.47913</v>
+        <v>146.06949</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-03T20:53:17+00:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Artificial intelligence (AI) and machine learning (ML) are rapidly transforming clinical decision support systems (CDSSs) in intensive care units (ICUs), where vast amounts of real-time data present both an opportunity and a challenge for timely clinical', 'We highlight a transition from rule-based systems to more sophisticated machine learning approaches, including emerging frontier models.', 'Ensuring the safe, effective, and ethical use of AI in intensive care will depend on validated, human-centered systems supported by transdisciplinary collaboration, technological literacy, prospective evaluation, and continuous monitoring.']</t>
-        </is>
+          <t>['That’s not to say that Nintendo expects Switch 2 reviews to be bad; I expect it to be the opposite. However, the press is unpredictable, so one rogue bug or a wave of people against the new price could derail the hype around the console.']</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.0258</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.039</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DL-17d0abbeb6e601d1ab9608d77dd93b52</t>
+          <t>DL-735f6f5e7ee6d998aecda59ababcdbcc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Application of deep learning based on convolutional neural network model in multimodal ultrasound diagnosis of unexplained cervical lymph node enlargement</t>
+          <t>How I plan to review the Nintendo Switch 2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/bc39f9c76b2af8871dad49e24bc7f66df3532f46</t>
+          <t>https://www.theverge.com/nintendo/679346/nintendo-switch-2-review-guidelines-plan-launch</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Statistically significant differences were found in the clinical and ultrasound features of all patients, including location, shape, margin, and color Doppler flow imaging (p0.05). Deep learning models, particularly convolutional neural networks (CNNs), demonstrated great potential in classifying cervical lymph node pathologies using multimodal ultrasound images.</t>
+          <t>Nintendo has decided to not send out early review units to The Verge or other outlets, citing the need for day-one software updates. It’s a way to explore every facet of a new console and get a wide variety of perspectives. This time, we’re going to start with those deeper dives.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>324.37952</v>
+        <v>76.48515</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-04T12:00:00+00:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Deep learning models, particularly convolutional neural networks (CNNs), demonstrated great potential in classifying cervical lymph node pathologies using multimodal ultrasound images, including 2D imaging, color Doppler flow imaging (CDFI), and elastography', 'First, we pre-trained four convolutional neural networks using a public medical image dataset.', 'This study highlights the potential of deep learning in accurately classifying cervical lymph node pathologies.']</t>
-        </is>
+          <t>['Almost everything about the Switch 2 ahead of launch has been a little weird, from the confusing messaging and high pricing to the unfortunately timed connection with spiking tariffs.', 'Intent to keep that strange energy going, Nintendo has decided to not send out early review units to The Verge or other outlets, citing the need for day-one software updates. (This was not the case with the original Switch.)']</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DL-92d3633e5a49946b67c230c48e41462f</t>
+          <t>DL-ccc15128eb3abd5f12b5083c5890631b</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning in Biochemical and Molecular Diagnostics: A Transformative Review of Current Applications and Future Prospects</t>
+          <t>Nintendo Switch 2 Welcome Tour - Unique console launch experience</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.22399/ijcesen.2634</t>
+          <t>https://www.playcentral.de/nintendo-switch-2-welcome-tour-einzigartiges-spielerlebnis-zur-einfuehrung-der-konsole/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Advancements in artificial intelligence (AI) and machine learning (ML) are rapidly transforming the landscape of biochemical and molecular diagnostics. These technologies have demonstrated exceptional capabilities in processing large-scale omics data, identifying subtle biomarker patterns, and enhancing diagnostic accuracy across a wide range of diseases. This review aims to provide a comprehensive overview of current AI/ML applications.</t>
+          <t>Nintendo is known for its unusual and charming games that stand out from the competition. The Nintendo Switch 2 Welcome Tour is designed as an introduction to the new system. It shows both great new features like mouse support as well as obvious inclusions like the HD Rumble. From an educational perspective, it is fascinating to see what design decisions are behind the console.</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>321.5348</v>
+        <v>65.02343999999999</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-03T22:22:32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Advancements in artificial intelligence (AI) and machine learning (ML) are rapidly transforming the landscape of biochemical and molecular diagnostics.', 'We examine the role of machine learning algorithms such as support vector machines, random forests, and deep neural networks in enabling predictive, high-throughput, and personalized diagnostics.', 'By synthesizing current findings and projecting future directions, this review underscores the transformative potential of AI and ML in advancing precision diagnostics and personalized medicine.']</t>
-        </is>
+          <t>["The price of the Nintendo Switch 2 Welcome Tour is hotly debated. With only 9.99 euros to start, the game is relatively cheap. However, some fans argue that it should have been offered as an add-on, similar to Astro's Playroom on the PS5.", 'Interactive experiences and challenges What interactive elements does the game offer? The content of the game is a mixture of quizzes, mini-games and technical demos.']</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9726</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DL-b6cb9b09d363bf777b382ef54b82e50c</t>
+          <t>DL-71efe679f350333810130f285a628d0b</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>How Machines Learn Human Biases in Ethical AI</t>
+          <t>Nintendo Switch 2 Improves Pokémon Karmesin and Purple with Graphics and Frame Rate Update</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://dev.to/williamoliver/how-machines-learn-human-biases-in-ethical-ai-4lfi</t>
+          <t>https://www.playcentral.de/nintendo-switch-2-verbessert-pokemon-karmesin-und-purpur-mit-grafik-und-bildraten-update/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Artificial intelligence systems don't exist in a vacuum. Every algorithm, every neural network, and every machine learning model carries within it the invisible fingerprints of human bias. The relationship between human bias and machine learning isn't simply a technical problem to be solved with better code. This is a fundamental reflection of how our societies think, categorize, and make judgments about the world around us.</t>
+          <t>Version 4.0.0, released on June 2, 2025, brings several improvements when the game is played on the Nintendo Switch 2. This means that as soon as Switch 2 is available, players can download the update and enjoy everything it has to offer. These improvements could eliminate some of the biggest criticisms of Pokémon Karmesin and Purple.</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>319.05383</v>
+        <v>46.0062</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-06T17:47:15+00:00</t>
+          <t>2025-06-03T15:01:19</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>["Artificial intelligence systems don't exist in a vacuum. Every algorithm, every neural network, and every machine learning model carries within it the invisible fingerprints of human bias.", 'The Mechanics of Bias Transfer\nHow Training Data Becomes a Bias Vehicle\nMachine learning algorithms learn patterns from historical data, but this data often contains embedded societal biases.', "The machines are indeed learning our biases—but they're also learning our capacity for fairness, our commitment to justice, and our ability to recognize and correct our mistakes."]</t>
-        </is>
+          <t>['The release of the Nintendo Switch 2 is near, and with it come significant improvements for the popular games Pokémon Karmesin and Purple. These titles from 2022 will experience improved graphics and frame rate thanks to the new console.', 'Although the Nintendo Switch 2 will only be available on June 5, 2025, the major update for these games has already been released and upgrades them to version 4.0.0.', 'The graphics have been optimized for the display of the Nintendo Switch 2 and high-resolution televisions, resulting in improved image quality. In addition, the frame rate has been improved so that the games run more smoothly.']</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8074</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DL-9c2a7d7545d696221c11ddb49953995b</t>
+          <t>DL-b4835f4fe1a96ea2d9f3e5a83449cefc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Current Opportunities for the Integration and Use of Artificial Intelligence and Machine Learning in Clinical Trials: Good Clinical Practice Perspectives</t>
+          <t>I've already tried the'mouse' mode on Nintendo Switch 2, it opens a door that has so far been closed on consoles.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.47912/jscdm.426</t>
+          <t>https://www.xataka.com/videojuegos/he-probado-modo-raton-nintendo-switch-2-abre-puerta-ahora-cerrada-consolas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The integration of artificial intelligence and machine learning (AI/ML) in clinical trials offers immense potential to reshape drug development and research efficiency. This review explores the multifaceted landscape of AI/ML applications. We discuss good machine learning practices focusing on clear scope definition, transparent risk-proportionate management, and robust feature engineering.</t>
+          <t>Nintendo Switch 2 is not a machine to experiment with. The 152 million Switches sold are a reflection that the company has achieved a product that people have liked. They don't need something as disruptive as Switch or Wii in their day, but a continuous console. And apart from the size, a change comes with the optical technology.</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>310.52185</v>
+        <v>25.758955</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-05T16:15:49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['The integration of artificial intelligence and machine learning (AI/ML) in clinical trials offers immense potential to reshape drug development and research efficiency.', 'We discuss good machine learning practices focusing on clear scope definition, transparent risk-proportionate management, and robust feature engineering.']</t>
-        </is>
+          <t>['Turning to the Joy-Con Nintendo Switch 2 is not a machine to experiment with. The 152 million Switches sold, and rising, are a reflection that the company has achieved a product that people have liked.']</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0644</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.031</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DL-a8f5c5b22bcb3f8b7866792846ece2fa</t>
+          <t>DL-4b86e968a9b1646ef4716b8b7c26d9ad</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The outcome prediction method of football matches by the quantum neural network based on deep learning</t>
+          <t>Starting shot for Nintendo Switch 2 – German streamer is already playing Mario Kart World</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/dc02dac4d207f87c2208cc3746810986a1140f38</t>
+          <t>https://www.giga.de/games/startschuss-fuer-nintendo-switch-2-deutsche-streamerin-zockt-schon-mario-kart-world--01JWXN645JPPJSCMF79ZYQ7SQH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Quantum neural networks leverage quantum properties of quantum bits (qubits) such as superposition and entanglement. They have enhanced information processing capabilities and potential pattern mining abilities when dealing with vast, high-dimensional, and complex football match data. This makes QNNs a superior choice compared to traditional neural networks and other advanced models for football match prediction.</t>
+          <t>Nintendo Switch 2: Day-One Patch is here The first gamers already have their Switch 2 at home. Version 20.1.1 is live and there are first experiences with the new hybrid console. Nintendo didn't miss a day, it's already June 5th in New Zealand.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>309.20914</v>
+        <v>24.691505</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-04T14:23:08+00:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Quantum neural networks (QNNs) leverage the unique quantum properties of quantum bits (qubits) such as superposition and entanglement.', 'This makes QNNs a superior choice compared to traditional neural networks and other advanced models for football match prediction.', 'This study focuses on a deep learning (DL)-based QNN model, aiming to construct and optimize this model to analyze historical football match data for high-precision predictions of future match outcomes.']</t>
-        </is>
+          <t>['Nintendo Switch 2: Day-One Patch is here The first gamers already have their Switch 2 at home. Until now, the console was completely useless – a day-one patch from Nintendo was missing. That has now changed.', 'The German streamer LostKittn has not only got her Switch 2, she is even now playing Mario Kart World on Twitch. According to the pinned message of a chat moderator, she has received the console from Nintendo and is allowed to play since 2 pm.', 'Players showcase Switch 2 eShop Other players also share their experiences with Switch 2. On Reddit, users show GabSam, for example, the new and improved Nintendo eShop. It now runs much more smoothly than the one on the old console.']</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.1531</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.039</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DL-c31e8787e5c154d819d965f1bb7d62c9</t>
+          <t>DL-fa269e8a0e19a32b2bf0f8ce731d82b1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Harnessing Artificial Intelligence and Machine Learning for Identifying Quantitative Trait Loci (QTL) Associated with Seed Quality Traits in Crops</t>
+          <t>Mario Kart World on Metacritic: First test scores are live and an absolute dream!</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/6afc5ecd23aed547a6d6e3d956687c5de3d59340</t>
+          <t>https://www.gamepro.de/artikel/mario-kart-world-metacritic-erste-tests-wertung,3434246.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Traditional quantitative trait loci mapping methods have played fundamental role in identifying loci associated with these complex traits. Recent advances in artificial intelligence (AI) and machine learning (ML) provide powerful alternatives that enable more accurate trait prediction, robust marker-trait associations, and efficient feature selection. Beyond soybean, AI/ML methods have enhanced QTL detection in wheat, lettuce, rice, and cotton, supporting trait dissection across diverse crop species.</t>
+          <t>Nintendo Switch 2 is here and we're shooting our first 37 minutes in Mario Kart World Autoplay What's being praised? Nintenduo gives it a score of 92 and writes: "Everything can still change" Nintendo has perfectly balanced classic and modern elements to create an engaging and accessible experience that will delight both veterans and newcomers.</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>306.05902</v>
+        <v>21.261005</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06T10:14:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Recent advances in artificial intelligence (AI) and machine learning (ML) provide powerful alternatives that enable more accurate trait prediction, robust marker-trait associations, and efficient feature selection.', 'This review presents an integrated overview of AI/ML applications in QTL mapping and seed trait prediction, highlighting key methodologies such as LASSO regression, Random Forest, Gradient Boosting, ElasticNet, and deep learning techniques including convolutional', 'neural networks (CNNs) and graph neural networks (GNNs).']</t>
-        </is>
+          <t>["The first ratings for Mario Kart World are enthusiastic. No Nintendo Switch 2 consoles and review samples were sent in advance, we received Nintendo's newest flagship on release day.", "37:48 The Nintendo Switch 2 is here and we're shooting our first 37 minutes in Mario Kart World Autoplay What's being praised?", 'This means: Mario Kart World is the latest and perhaps best part of the long-standing arcade racing series and is taken to the next level with the hardware of Nintendo Switch 2 and an extensive roster of drivers, tracks and endless fun.']</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9413</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DL-0a7d19159bd30b0290897bb044f484f7</t>
+          <t>DL-5d2f13b7c79bab32f93ef41a84b5e6de</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Research and Application Prospects Analysis of Artificial Intelligence and Machine Learning in Weight Loss</t>
+          <t>Pokémon Scarlet &amp; Violet runs at 4K and 60 FPS on Switch 2 after patching.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.54254/2753-8818/2025.au23757</t>
+          <t>https://www.adrenaline.com.br/games/pokemon-scarlet-violet-roda-a-4k-e-60-fps-no-switch-2-apos-patch/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Obesity is the most significant threat to human health. It is estimated that the global number of obese people will exceed 2.16 billion in 2023. AI and machine learning can analyze a large amount of complex data more efficiently and accurately. They have opened new avenues in areas such as analyzing the causes of obesity, predicting obesity risks, diagnosing obesity and determining its subtypes.</t>
+          <t>Pokémon Scarlet &amp; Violet has been plagued by severe performance issues. Nintendo Switch 2 will be able to deliver all of the potential that it's been rated for in 2022.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>304.61728</v>
+        <v>19.365265</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-03T11:54:48+00:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['This paper studies the research achievements of artificial intelligence (AI) and machine learning in Weight Loss in the past decade and analyzes the impacts and application prospects of AI and machine learning on Weight Loss.', 'AI and machine learning can analyze a large amount of complex data (including genetic, gene expression, metabolic, gut microbiota, hormonal, dietary, behavioral, and environmental factors, etc.) more efficiently and accurately.']</t>
-        </is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.3818</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DL-03c2b4f5392137368f4f94d41187e230</t>
+          <t>DL-c561b4eb3764195a1fd4e2ea1b9e581b</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Scientific Machine Learning for Elastic and Acoustic Wave Propagation: Neural Operator and Physics-Guided Neural Network</t>
+          <t>Free update to Pokémon Scarlet and Violet for Nintendo Switch 2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/s25123588</t>
+          <t>https://thatsgaming.nl/gratis-update-pokemon-scarlet-en-violet-voor-nintendo-switch-2/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Scientific machine learning (SciML) offers an emerging alternative to traditional modeling approaches for wave propagation. These physics-based models rely on computationally demanding numerical techniques. However, SciML extends artificial neural network-based wave models with the capability of learning wave physics.</t>
+          <t>Pokémon Scarlet and Pokémon Violet are available for the Nintendo Switch 2. This update makes the adventures in the Paldea region even more exciting. Improved image quality allows fans to recharge their batteries.</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>298.98117</v>
+        <v>16.283064</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-05T09:38:52+00:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['Scientific machine learning (SciML) offers an emerging alternative to the traditional modeling approaches for wave propagation. These physics-based models rely on computationally demanding numerical techniques.', 'Contrary to the physics-intensive methods, particularly physics-informed neural networks (PINNs) presented earlier, this study presents data-driven frameworks of physics-guided neural networks (PgNNs) and neural operators (NOs).', 'NOs extend neural networks to map between functions rather than vectors, enhancing their applicability. This review highlights the potential of NOs in wave propagation modeling, aiming to advance wave-based structural health monitoring (SHM).']</t>
-        </is>
+          <t>["A sharper image quality: the optimizations for both the Nintendo Switch 2's screen and HD televisions provide even better image quality. A higher frame rate: the improved frame rates of the Nintendo Switch 2 allow for more fluid motion.", 'An immersive Paldea: on the Nintendo Switch 2, the already bustling Paldea region comes to life in an unprecedented way, whether players explore the open world, fight Pokémon or complete the Pokédex.', "Trainers who have a Nintendo Switch 2 and Pokémon Scarlet or Pokémon Violet can now experience the games even more intensely and beautifully. And it's completely free. 0 comments 0"]</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8508</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DL-1d7259c267159d168de4f311875c22ec</t>
+          <t>DL-05650dfb79bd8bf7ef997bb2ce2f3cd3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Deep Learning for Video Summarization</t>
+          <t>Nintendo Switch 2 First Impressions And A Surprising Purchasing Score</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.55041/isjem04127</t>
+          <t>https://hothardware.com/news/nintendo-switch-2-first-impressions-and-a-surprising-purchasing</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Abstract This project aims to develop a deep learning-based video summarization system that utilizes Convolutional Neural Networks (CNNs) and Recurrent Neural Networks (RNNs) to analyze video content and generate concise summaries. The system will automatically identify key objects, events, and scenes in videos, and create summaries that capture the essential information. The project will explore various deep learning architectures and techniques to improve the quality and efficiency of video summarization.</t>
+          <t>Nintendo Switch 2 is finally out, and I have some first impressions on the experience of both playing and purchasing the console. I was not lucky enough to secure a preorder ahead of the console's June 5th release. Third-party entrepreneurs were already listing the console for a premium over its $449 MSRP. My local Walmart was nearly empty and upon inquiring, I was told it had around six to eight consoles still available in the back.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>297.37378</v>
+        <v>12.02059</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-06T14:31:00+00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Abstract This project aims to develop a deep learning-based video summarization system that utilizes Convolutional Neural Networks (CNNs) and Recurrent Neural Networks (RNNs) to analyze video content and generate concise summaries.', 'The project will explore various deep learning architectures and techniques to improve the quality and efficiency of video summarization.']</t>
-        </is>
+          <t>['The Nintendo Switch 2 is finally out, and I have some first impressions on the experience of both playing and purchasing the console.']</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.054</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DL-5ddbe893acea3dd2b60151224edd1017</t>
+          <t>DL-cb75051a141fa6e7e2afc84e6953afba</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COMPARATIVE ANALYSIS OF THE CAPABILITIES OF TWO ARTIFICIAL INTELLIGENCE MODELS FOR CHEST X-RAY IMAGE INTERPRETATION</t>
+          <t>IGN goes hands on with Mario Kart World for 5 hours</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17770/etr2025vol2.8573</t>
+          <t>https://mynintendonews.com/2025/06/03/ign-goes-hands-on-with-mario-kart-world-for-5-hours/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Technologies based on machine learning and deep neural networks demonstrate the potential to assist radiologists by accelerating the diagnostic process and reducing subjective errors. The effectiveness of different AI models varies depending on the algorithms, training data used, and methods of analysis. A standardized database of radiographs is used, including normal findings, pneumonia, pulmonary infiltrates, and other pathological conditions.</t>
+          <t>IGN recently attended a hands-on session with Mario Kart World. They have come away suitably impressed by the track designs, the Knockout Tour and the game’s all-important handling.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>284.39667</v>
+        <v>11.560017</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-03T16:37:43+00:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['The automated interpretation of chest X-rays with the help of artificial intelligence (AI) is gaining increasing importance in medical diagnostics.', 'Technologies based on machine learning and deep neural networks demonstrate the potential to assist radiologists by accelerating the diagnostic process and reducing subjective errors.', 'However, the effectiveness of different AI models varies depending on the algorithms, training data used, and methods of analysis.']</t>
-        </is>
+          <t>['We all know that media and influencers won’t be providing pre-launch reviews for the Nintendo Switch 2 hardware and software and you can expect our own reviews some time after launch.']</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5994</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DL-f9c6071325f45e4f28e4fc05136f7145</t>
+          <t>DL-2fa26bf724852abc5c72c9f822028c52</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Optimization of deep learning architecture based on multi-path convolutional neural network algorithm</t>
+          <t>Zelda: The underrated game that deserves a remake for Switch 2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/924271f74deb9d73d6c5ae528f66db1816236442</t>
+          <t>https://www.zazoom.it/2025-06-07/zelda-il-gioco-sottovalutato-che-merita-un-remake-per-switch-2/17144781/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Current multi-stream convolutional neural network (MSCNN) exhibits notable limitations in path cooperation, feature fusion, and resource utilization when handling complex tasks. This study conducts an in-depth investigation of these architectural deficiencies and proposes corresponding improvements. At present, there are some problems in multi-path architecture, such as isolated information among paths. These issues lead to insufficient performance of the model in robustness indicators such as noise resistance, occlusion sensitivity, and sample attack resistance.</t>
+          <t>Nintendo would have the opportunity to strengthen the connection between the past and the future, providing an unforgettable experience. With the advent of the new console, the challenge for Nintendo will be to continue to innovate and deliver experiences that meet the expectations of the passionate. The Legend of Zelda: Tears of the Kingdom game shows up on Nintendo Switch 2 with 20 minutes of gameplay.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>284.07535</v>
+        <v>11.422302</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-07T18:16:28</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Current multi-stream convolutional neural network (MSCNN) exhibits notable limitations in path cooperation, feature fusion, and resource utilization when handling complex tasks.', 'Therefore, the study provides a critical reference for the optimization and practical application of MSCNN, contributing to the application research of deep learning in complex tasks.']</t>
-        </is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8779</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.026</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DL-05946f3c85aa886dcf4d449a48f7fef5</t>
+          <t>DL-c9dfbd021d961275503a96f92b6c77b0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dense Associative Memory in a Nonlinear Optical Hopfield Neural Network</t>
+          <t>Nintendo Switch 2: Better Performance for Pokémon</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2506.07849v1</t>
+          <t>https://www.4p.de/news/pokemon-endlich-fluessig-riesiges-update-fuer-nintendo-switch-2-bringt-das-was-fans-sich-immer-wuenschten/3325530</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Modern Hopfield Neural Networks (HNNs) enhance the performance of simple recurrent neural networks by leveraging the nonlinearities in their energy functions. They have broad applications in combinatorial optimization, high-capacity memory storage, deep learning transformers, and correlated pattern recognition. Thus far, research on DAMs has been primarily theoretical, with implementations limited to CPUs and GPUs.</t>
+          <t>Pokémon on the Nintendo Switch 2: Better Performance and Textures Like in Nintendo Today! -App announced and immediately proved thanks to an enclosed video, the current generation of pocket monsters on the Switch 2 will now finally run in 60 FPS. The resolution has also been noticeably screwed up, so that Karmesin &amp; Purpur look much nicer on the console that will be released on June 5.</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>273.40204</v>
+        <v>11.268749</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-03T15:43:17</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Modern Hopfield Neural Networks (HNNs), also known as Dense Associative Memories (DAMs), enhance the performance of simple recurrent neural networks by leveraging the nonlinearities in their energy functions.', 'They have broad applications in combinatorial optimization, high-capacity memory storage, deep learning transformers, and correlated pattern recognition.', 'In this work, for the first time to our knowledge, we propose and experimentally demonstrate a nonlinear optical Hopfield neural network (NOHNN) system for realizing DAMs using correlated patterns.']</t>
-        </is>
+          <t>['Recommended reading: All information about Pokémon Legends: Z-A Since the update is already there, you can start directly to the release of the Nintendo Switch 2 and experience Pokémon Karmesin &amp; Purpur as it should have been at the time of the release']</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7906</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.044</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DL-7dee3bab98fcec888a13d2450cd8d97f</t>
+          <t>DL-cce7387fccad72acd7b577de07a1a6e3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hyperscale Data Subsidiary askROI Launches Advanced Artificial Intelligence Customer Service Agent</t>
+          <t>Nintendo Switch 2 unboxing: What do you get with the console?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://crweworld.com/article/news-provided-by-globenewswire/3659841/hyperscale-data-subsidiary-askroi-launches-advanced-artificial-intelligence-customer-service-agent</t>
+          <t>https://www.indy100.com/gaming/nintendo-switch-2-unboxing-console-2672317405</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hyperscale Data, Inc. has officially launched an advanced Artificial Intelligence Agent. The AI-powered agent leverages state-of-the-art natural language processing and machine learning capabilities to deliver real-time, context-aware support to customers on a 24/7 basis. AskROI has already instituted its AI Agent within its own customer service system.</t>
+          <t>Nintendo has sent review units out to media outlets for them to check out the new console and games running on it. The first thing that will be seen when unboxing are the two new Joy-Con controllers and main part of the console with the bigger screen. Below that on the next layer down is a brief user manual, a HDMI cable to connect the dock to a TV and the wrist strap accessories that connect to the Switch 2.</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>268.88135</v>
+        <v>9.852751</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-06T15:13:12+00:00</t>
+          <t>2025-06-05T15:19:37</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['(“askROI”), has officially launched an advanced Artificial Intelligence (“AI”) Agent designed to transform customer service operations across industries.', 'The new AI-powered agent leverages state-of-the-art natural language processing and machine learning capabilities to deliver real-time, context-aware support to customers on a 24/7 basis.', 'has already instituted its AI Agent within its own customer service system as well as at Hyperscale Data and is rolling it out further to its family of companies.']</t>
-        </is>
+          <t>['Nintendo has sent Switch 2 review units out to media outlets for them to check out the new console and games running on it.\nindy100 is very fortunate to have been sent one of these units and this is what comes in the box - read our first impressions of']</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5859</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DL-65029dfba327ec3c87e2a012626cac74</t>
+          <t>DL-ec8624ffe681d5f29d095a287c5219aa</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Multi-Point Proximity Encoding For Vector-Mode Geospatial Machine Learning</t>
+          <t>The lack of day one Switch 2 reviews isn't as problematic as it sounds</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2506.05016v1</t>
+          <t>https://www.xda-developers.com/thread/the-lack-of-day-one-switch-2-reviews-isnt-as-problematic-as-it-sounds/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Vector-mode geospatial data must be encoded into an appropriate form in order to be used with traditional machine learning and artificial intelligence models. MultiPoint Proximity (MPP) encoding can be applied to any type of shape, enabling the parameterization of machine learning models with encoded representations.</t>
+          <t>Nintendo has been making a lot of little weird decisions with the Switch 2. Switch 2 pre-orders were flying off the shelves in the US, and the extra stock available at launch is probably going to be swooped up by die hard fans. Is it still a bad look for Nintendo to break tradition like this?</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>262.21692</v>
+        <v>9.773137999999999</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-03T22:01:23+00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['Vector-mode geospatial data -- points, lines, and polygons -- must be encoded into an appropriate form in order to be used with traditional machine learning and artificial intelligence models.', 'The method, MultiPoint Proximity (MPP) encoding, can be applied to any type of shape, enabling the parameterization of machine learning models with encoded representations of vector-mode geospatial features.']</t>
-        </is>
+          <t>["And now, that's happening again, as outlets have confirmed they won't be publishing reviews of the Switch 2 on release day due to Nintendo not providing review units this time around.\nBut in reality, how much does it matter?", 'Switch 2 pre-orders were flying off the shelves in the US, and the extra stock available at launch is probably going to be swooped up by die hard fans.']</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.7722</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DL-d850c29dd27a6ea2791cdf7b6234f0e2</t>
+          <t>DL-8d8caf04d65da8ebac6136b7cec59a11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>What is a machine learning algorithm?</t>
+          <t>Nintendo Switch 2 Unboxing, Setup &amp; What You Need to Know</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.ibm.com/think/topics/machine-learning-algorithms</t>
+          <t>https://www.geeky-gadgets.com/nintendo-switch-2-4/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Industry analysts agree on the importance of machine learning and its underlying algorithms. Most often, training ML algorithms on more data will provide more accurate answers than training on less data. More advanced AI can enable more personalized support, reduce response times, provide speech recognition and improve customer satisfaction.</t>
+          <t>This guide explores the unboxing experience, setup process, design changes, hardware advancements, and new features, while also comparing it to the original Nintendo Switch. The packaging is compact and eco-friendly, underscoring Nintendo’s commitment to reducing environmental impact. Inside the box, you’ll find: The Nintendo Switch 2 console Two redesigned Joy-Con controllers A revamped dock featuring an Ethernet port An HDMI cable A power adapter.</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>260.96863</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>8.219555</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-06-08T13:00:24</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['The easiest way to think about artificial intelligence, machine learning, deep learning and neural networks is to think of them as a series of AI systems from largest to smallest, each encompassing the next.', 'Artificial intelligence (AI) is the overarching system. Machine learning is a subset of AI. Deep learning is a subfield of machine learning, and neural networks make up the backbone of deep learning algorithms.', 'Artificial neural networks: Also known as ANNs, neural networks or simulated neural networks (SNNs), are a subset of machine learning techniques and are at the heart of deep learning algorithms.']</t>
-        </is>
+          <t>['The video below from Zollotech gives us a detailed look at the new Switch console.\nUnboxing: What’s Inside the Box?\nThe unboxing experience of the Nintendo Switch 2 reflects a focus on simplicity and sustainability.', 'Setting Up: From Box to Gameplay\nSetting up the Nintendo Switch 2 is a straightforward process designed to get you gaming quickly.', 'New Features: Enhancing the Experience\nThe Nintendo Switch 2 introduces several new features that enhance the overall user experience and cater to modern gaming needs:\nOnline Functionality: Faster download speeds and a more stable connection improve multiplayer']</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DL-805650fec5d9bb72508fbdc696fd1baa</t>
+          <t>DL-f955c260113cb461bc83d07b7ef513dd</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Artificial intelligence How applicants can use AI in a meaningful way</t>
+          <t>Nintendo Switch 2 Comes With a Below-Average Display and Disappointing HDR Support, New In-Depth Analysis Reveals</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.stuttgarter-zeitung.de/inhalt.kuenstliche-intelligenz-wie-bewerber-sinnvoll-ki-einsetzen-koennen.cb60a909-a9bc-47fa-9fab-615cc8b11887.html</t>
+          <t>https://wccftech.com/nintendo-switch-2-below-average-hdr/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Artificial intelligence can be used for application letters or preparing job interviews. A career coach gives tips on what to watch out for. It is obvious to use artificial intelligence to increase the chances of being hired by a potential new employer.</t>
+          <t>The new analysis by GamingTech takes a good look at the new Nintendo system's display. Measuring the brightness in Zelda: Breath of the Wild returned a maximum value of 420 nits, but in Cyberpunk 2077, it is locked to 450 nit, likely the maximum peak brightness the display is capable of. This peak brightness is not even close to providing a proper HDR experience.</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>260.96426</v>
+        <v>7.700857</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-08T22:08:44+00:00</t>
+          <t>2025-06-05T11:37:00+00:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['Artificial intelligence can be used for application letters or for preparing job interviews. A career coach gives tips on what to watch out for.', 'It is obvious to use artificial intelligence to increase the chances of being hired by a potential new employer. As a result, more and more AI-generated applications end up in the mailboxes of larger companies.', 'How does a meaningful use of AI look like in order to get out of the applicant crowd?']</t>
-        </is>
+          <t>["Related Story Level Up Your Switch 2 Experience With Mumba’s Blade Series, Clear Series Dockable Cases, and Carrying Case\nThe Nintendo Switch 2's HDR support in docked mode fares a little better.", 'The system-level calibration is found to be adequate, and in games like Cyberpunk 2077, the system delivers an HDR experience on par with that of the other versions of the game.', 'In other games like Zelda: Breath of the Wild, the HDR experience is rather disappointing, as the game looks washed out due to its aesthetics and the lack of contrast.\nThe Nintendo Switch 2 launches today worldwide.']</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DL-3726abfda88202fa8d8fbb526d3c9d70</t>
+          <t>DL-daa7370e17bbf6699977f90dd9dcc32e</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Artificial intelligence news</t>
+          <t>Nintendo Switch 2: New game console officially launches today</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://newsroom.ibm.com/latest-news-artificial-intelligence</t>
+          <t>https://www.appgefahren.de/nintendo-switch-2-neue-spielkonsole-geht-heute-offiziell-an-den-start-380403.html</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Governor Maura Healey announced major updates on the state’s effort to grow the artificial intelligence ecosystem in Massachusetts through the Massachusetts AI Hub. The Governor announced a $31 million state grant to expand access to sustainable high-performance computing that is necessary for AI innovation, the hiring of the first director of the AI Hub, and the exploration of a new partnership between AI Hub and Red Hat to create a startup accelerator program for entrepreneurs to develop AI technologies and build cutting-edge AI businesses.</t>
+          <t>Nintendo officially unveiled the new generation of the popular Switch game console, the Nintendo Switch 2. The new model, equipped with a 7.9′′ screen and support for 4K content, is now available on the market. At the same thickness, the console features a significantly larger 7.9-inch LCD screen, 1080p resolution, HDR support, and frame rates of up to 120 fps. If the Switch 2 is connected to a TV via the also updated dock. For 4K playback, the frame</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>257.5847</v>
+        <v>7.661665</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-05T16:01:48+00:00</t>
+          <t>2025-06-05T12:38:11+00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['Category All Categories Artificial intelligence Corporate Hybrid cloud Research and innovation Social impact Think 2025 Uncategorized Author All Authors Andrew Coward Chris McGuire Jonathan H.', 'February 07, 2025\nIBM Study: Gen AI Will Elevate Financial Performance of Banks in 2025\nFebruary 05, 2025\ne&amp;, a global technology group, has collaborated with IBM (NYSE: IBM) to deploy a pioneering, end-to-end, multi-model Artificial Intelligence (AI)', 'For AI, massive amounts of data fuel machine learning models, helping them to recognize patterns, make predictions and solve problems. In most cases, the richer and more diverse the data, the smarter and more adaptive AI becomes.']</t>
-        </is>
+          <t>['But what can the new Nintendo Switch 2 do? Compared to its predecessor, the Nintendo Switch (OLED), the Switch 2 has done quite a bit.', 'At the same thickness, the console features a significantly larger 7.9-inch LCD screen, 1080p resolution, HDR support, and frame rates of up to 120 fps.']</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DL-2ef0393e853b46d7680a44c6cf13c370</t>
+          <t>DL-3b9c455fdfdecda911fc03f986c53590</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Advancements in Artificial Intelligence Applications for Cardiovascular Disease Research</t>
+          <t>Split Fiction is already available for the Nintendo Switch 2.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2506.03698v1</t>
+          <t>https://portugalgamers.pt/split-fiction-ja-esta-disponivel-para-a-nintendo-switch-2/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Recent advancements in artificial intelligence (AI) have revolutionized cardiovascular medicine, particularly through integration with computed tomography (CT), magnetic resonance imaging (MRI), electrocardiography (ECG) and ultrasound (US). Deep learning architectures, including convolutional neural networks, enable automated analysis of medical imaging and physiological signals, surpassing human capabilities in diagnostic accuracy and workflow efficiency.</t>
+          <t>Split Fiction is already available for the Nintendo Switch 2, PlayStation 5, Xbox Series X|S and PC through Steam, Epic Games Store and the EA app, starting at $49.99. GameShare will allow Nintendo Switch 2 owners to invite another player for a local wireless connection with just a copy of the video game. With exclusive Friend Pass functionality from Hazelight Studios, players can invite an online friend to play.</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>255.2831</v>
+        <v>7.1618767</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-06T07:58:52+00:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['Recent advancements in artificial intelligence (AI) have revolutionized cardiovascular medicine, particularly through integration with computed tomography (CT), magnetic resonance imaging (MRI), electrocardiography (ECG) and ultrasound (US).', 'Deep learning architectures, including convolutional neural networks and generative adversarial networks, enable automated analysis of medical imaging and physiological signals, surpassing human capabilities in diagnostic accuracy and workflow efficiency', "This review highlights AI's transformative potential in precision diagnostics while underscoring the need for robust validation protocols to ensure clinical reliability."]</t>
-        </is>
+          <t>["The wait's over — the explosive cooperative adventure by Hazelight Studios and EA, Split Fiction, is already available for the Nintendo Switch 2 as a release title for $49.99!", 'On the newly launched Nintendo Switch 2, players can now experience one of the best-rated video games of 2025 wherever they are and connect with fellow gamers in a collaborative way through GameShare and GameChat to dive on an unforgettable and challenging', 'GameShare will allow Nintendo Switch 2 owners to invite another player for a local wireless connection with just a copy of the video game, even for original Nintendo Switch users.']</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9081</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DL-1958d0274a7a2ffc9c23ba3f6fd528c5</t>
+          <t>DL-d8592a0cf2cffdc39ad7fabcf4457939</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The Role of Artificial Intelligence and Machine Learning in Personalizing Financial Services: An Empirical Study</t>
+          <t>It's already available to buy in stores for the new Nintendo Switch 2.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.55041/isjem04336</t>
+          <t>https://portugalgamers.pt/ja-esta-disponivel-para-compra-nas-lojas-a-nova-nintendo-switch-2/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>This research aims to elucidate the underlying mechanisms, tangible benefits, and inherent challenges associated with the integration of AI and ML within the financial sector. A descriptive research design, employing a mixed-methods approach, was utilized for this investigation. The findings reveal a significant adoption rate and largely positive user perceptions of AI-based financial tools.</t>
+          <t>The Nintendo Switch 2 is out in the shops today. Add your favorite titles to a screen larger than 1080p. Compatible with high dynamic range and update rate up to 120 fps. Match the new Joy-Con 2 commands on the console with the magnetic dials. Each command can be used as a mouse.</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>254.52032</v>
+        <v>6.8640747</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-05T16:28:29+00:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>["Abstract: This research investigates the transformative influence of Artificial Intelligence (AI) and Machine Learning (ML) in personalizing financial services, analyzing the industry's evolution from generic offerings to customer-centric models.", 'The study aims to elucidate the underlying mechanisms, tangible benefits, and inherent challenges associated with the integration of AI and ML within the financial sector, with a specific focus on the Indian context.', 'Furthermore, AI was perceived to enhance financial management by 70% of users and improve decision-making by 76%.']</t>
-        </is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8555</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DL-d089db0c0419fe5bd059fcc9a59c5f05</t>
+          <t>DL-0aac9eb3cc370dc0acf115375a664310</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Video Forgery Detection Using Machine Learning</t>
+          <t>Nintendo Switch 2 launch day build-up live: all the latest news, updates, and our thoughts ahead of the console's release</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/58fadf5104462383f7558448cab29866c94189c8</t>
+          <t>https://www.techradar.com/news/live/nintendo-switch-2-launch-day-build-up-review-in-progress-live</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>This project presents a machine learning-based approach for the detection of video forgeries. The system extracts spatiotemporal features and motion inconsistencies using techniques such as optical flow analysis, frame differencing, and noise residual examination. These features are then analyzed using supervised machine learning models, including Convolutional Neural Networks (CNNs) and Support Vector Machines (SVMs) to distinguish.</t>
+          <t>TechRadar Gaming has been covering huge console and game launches for years - everything from reviews of Nintendo, PlayStation, and Xbox systems to key live events like Nintendo Direct and Summer Game Fest presentations. Here's a quick glance at all the Nintendo Switch 2 launch games you can expect to purchase and play on June 5.</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>254.40643</v>
+        <v>6.4529076</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04T12:00:34</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['This project presents a machine learning-based approach for the detection of video forgeries, focusing on identifying tampered frames, splicing, and copy-move operations.', 'These features are then analyzed using supervised machine learning models, including Convolutional Neural Networks (CNNs) and Support Vector Machines (SVMs), to distinguish.', 'Key Words: Video Forgery Detection, Machine Learning, Digital Forensics, Frame Tampering, Copy-Move Forgery, Splicing Detection, Convolutional Neural Networks (CNN), Support Vector Machine (SVM), Optical Flow, Feature Extraction, Deep Learning, Video']</t>
-        </is>
+          <t>['Like a kid on Christmas Eve, this final day before the Nintendo Switch 2 launch may feel as long as the time between now and its official announcement way back in January. But that’s why we’re here.', 'At TechRadar Gaming, we’ve been covering huge console and game launches for years - everything from reviews of Nintendo, PlayStation, and Xbox systems to key live events like Nintendo Direct and Summer Game Fest presentations.']</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7351</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DL-3c468b445c4582be201d01d65cf476ab</t>
+          <t>DL-ee2569beb5cd763340f09ccc36ad4f33</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Healthcare Transformation: Artificial Intelligence's Transformative Impact in Medical Imaging and Diagnosis</t>
+          <t>Tamagotchi Plaza to be available on Nintendo Switch 2 with exclusive stores</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.51583/ijltemas.2025.140500027</t>
+          <t>https://www.gamesvillage.it/7205733/tamagotchi-plaza-sara-disponibile-su-nintendo-switch-2-con-negozi-esclusivi/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AI is changing the way medical imaging and analysis are done, which is transforming healthcare. Deep learning and machine learning are both AI-powered technologies that are making radiology and imaging-based diagnostics better. Radiology and pathology are being revolutionized by AI, from picture identification and analysis to automated image segmentation and categorization.</t>
+          <t>Nintendo Switch 2 Edition gives players access to three exclusive stores. The new title in the TAMAGOTCHI CONNECTION: CORNER SHOP series is also coming on the Nintendo Switch. Each store offers a unique gameplay where players serve and attract customers, meeting over 100 different Tamagotchis and improving their reputation.</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>254.17438</v>
+        <v>5.8218613</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-06T17:07:41+00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['Abstract: AI is changing the way medical imaging and analysis are done, which is transforming healthcare.', 'Deep learning and machine learning are both AI-powered technologies that are making radiology and imaging-based diagnostics better. They also make early disease identifying and personalized medicine possible.', 'AI is also making predictive analytics, finding new drugs, and virtual health helpers better. AI could completely change healthcare, but there are some problems that need to be fixed before it can be used widely.']</t>
-        </is>
+          <t>['Recommended Articles Nintendo Switch 2 players who already own the original Switch version of TAMGOTCHI PLAZA can access the exclusive content by purchasing the Tamagotchi Plaza update package for Nintendo Switch 2 and can access the exclusive content', 'during the switch to the Nintendo Switch 2 device.', 'TAMAGOTCHI PLAZA brings back the unique and engaging experience of setting up awesome stores and serving cute characters. The Great Gothic King declared that the Tamagotchi Fest would be held in the most exciting city on the planet Tamagotchi.']</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0.7003</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DL-9f3be0e0d1bf1a0f544e35da0317f8d3</t>
+          <t>DL-c076e5bfb5dc9961cab30b68e0ec0dc1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Analysis and correcting pronunciation disorders based on artificial intelligence approach</t>
+          <t>TAMAGOTCHI PLAZA released for the Nintendo Switch 2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/0fe95b1849bd910e4b269043d2a88cc6dde5e409</t>
+          <t>https://game2gether.de/2025/06/tamagotchi-plaza-erscheint-fuer-nintendo-switch-2/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>The main aim of this study is to employ artificial intelligence and machine learning methods to assess and correct pronunciation disorders in post-traumatic military patients. Tasks include reviewing existing research, selecting appropriate machine learning techniques, and generating relevant training data. The results of the two models were compared based on the loss and accuracy functions of the training and validation data, error matrices, and such key metrics as precision, recall, and F1-score.</t>
+          <t>TAMAGOTCHI PLAZA will be released on June 27 for the Nintendo Switch and Nintendo Switch 2. The players take over different shops in Tamahiko Town and can thus interact with over 100 different Tamagotchis. It is important to expand more than a dozen different stores and expand the reputation in the city.</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>253.42688</v>
+        <v>5.5119667</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-08T15:29:52</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['The main aim of this study is to employ artificial intelligence and machine learning methods to assess and correct pronunciation disorders in post-traumatic military patients, acknowledging the critical need for effective communication rehabilitation', 'Tasks include reviewing existing research, selecting appropriate machine learning methods, generating relevant training data, and implementing a software architecture tailored to analyze and correct pronunciation defects in this specific population.', 'The analysis of machine learning methods led to the selection of two experimental models: a Convolutional Neural Network (CNN) utilizing mel-spectrograms for image-based sound representation and a Long Short-Term Memory (LSTM) network combined with mel-frequency']</t>
-        </is>
+          <t>['Learn More Unlock Content Accept Required Service and Unlock Content TAMAGOTCHI PLAZA Nintendo Switch 2 Edition extends the gaming experience with three new stores, bringing the total to 15.']</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0.6597</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DL-1857b493d8fb752db94e8990d70d6b61</t>
+          <t>DL-64e742892b89791778db24a855e573ee</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Neural Network Powered Social Media Forensics</t>
+          <t>Nintendo "Switch 2, using the included HDMI cable" Lack of performance in the first-generation accessory</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.55041/isjem04020</t>
+          <t>https://ascii.jp/elem/000/004/280/4280590/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>The detection of cyberbullying is particularly difficult because the language used online is often informal, ambiguous, filled with slang, abbreviations, emojis, and highly dependent on context. Traditional rule-based systems and machine learning models such as Naive Bayes, SVM, and Decision Trees have shown limited effectiveness. Deep learning approaches, such as CNNs and LSTMs, have improved performance by learning from word sequences and context to some extent.</t>
+          <t>Nintendo announced on Support Official X (Twitter) that they would be using the included "Ultra High Speed HDMI Cable" When connecting Nintendo Switch 2 to a TV, use the included Ultra Highspeed HDMI cable. The most important difference is the transmission speed. It is the standard evolved from those included with the original Switch.</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>250.66698</v>
+        <v>4.839899</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-10T00:00:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['Traditional rule-based systems and machine learning models such as Naive Bayes, SVM, and Decision Trees, while foundational, have shown limited effectiveness as they rely on shallow feature representations like bag-of-words and TF-IDF, which lack semantic', 'Deep learning approaches, such as CNNs and LSTMs, have improved performance by learning from word sequences and context to some extent, but they still struggle with long-range dependencies and are computationally expensive.', 'Compared to traditional and deep learning baselines, this DistilBERT-based approach is hypothesized to achieve superior classification results, demonstrating the strength of transformer-based architectures in handling complex, real-world language tasks']</t>
-        </is>
+          <t>['There are more than four times as many differences in numerical values, and this number must be higher in order to enjoy high-quality, high-frame rate games. The Nintendo Switch 2 is a video game console that supports up to 4K/60 fps in TV mode.']</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0.7264</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DL-53bc193e0b611f2514b54d162c339f26</t>
+          <t>DL-e8fdaa27ea9510e7798fabc955bb2d44</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Artificial Intelligence Empowers Solid-State Batteries for Material Screening and Performance Evaluation</t>
+          <t>The Nintendo Switch 2 eShop is super fast.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/2997acc6a80dcf880a51e9ca1bdc143012834df4</t>
+          <t>https://nintendon.it/2025/06/05/leshop-di-nintendo-switch-2-e-velocissimo-312800</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Highlights The latest advancements in the application of machine learning (ML) for the screening of solid-state battery materials are reviewed. The achievements of various ML algorithms in predicting different performances of the battery management system are discussed. Future challenges and perspectives of artificial intelligence in solid-state battery are discussed.</t>
+          <t>the eShop on the Nintendo Switch 2 is much more responsive and responsive. Even loading the game preview through the simple tab on the main screen is significantly faster. We can only imagine that, over the next few years, this will only get better.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>248.53676</v>
+        <v>4.701618</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-05T07:01:52+00:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['Highlights The latest advancements in the application of machine learning (ML) for the screening of solid-state battery materials are reviewed.', 'Future challenges and perspectives of artificial intelligence in solid-state battery are discussed.']</t>
-        </is>
+          <t>["If there's one part of the original Nintendo Switch that was really annoying, it was definitely the experience of using the eShop. But in the end, it came to a respectable conclusion.", 'It turns out that the eShop on the Nintendo Switch 2 is much more responsive and responsive, allowing you to enjoy the content much more smoothly, both with the classic Joycon 2 keyboards and in mouse mode.']</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8169</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DL-c0cd2c74f9d19314d7563f3e4e782f06</t>
+          <t>DL-9ead5a4840a28021df89936d4039541b</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>'Godfather of AI' launches non-profit to develop 'honest' artificial intelligence</t>
+          <t>Switch 2 games load much slower from cartridges than a microSD Express card or internal storage</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.newsbytesapp.com/news/science/yoshua-bengio-launches-lawzero-to-develop-honest-ai-systems/story</t>
+          <t>https://www.notebookcheck.net/Switch-2-games-load-much-slower-from-cartridges-than-a-microSD-Express-card-or-internal-storage.1032520.0.html</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>What's the story
-Yoshua Bengio, a leading computer scientist and one of the "godfathers" of artificial intelligence (AI), has announced the launch of a non-profit organization called LawZero.
-The group will focus on developing an "honest" AI system that can detect rogue systems trying to deceive humans.
-With an initial funding of $30 million and a team of over a dozen researchers, Bengio is working on this groundbreaking project.</t>
+          <t>Switch 2 specs include internal 256GB UFS storage, which wins the checkered flag with a time of 16.60 seconds. SanDisk, Samsung, and Lexar microSD Express cards finish second between 19.18 and 19.78 seconds, and Game Card finishes in last place.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>247.05429</v>
+        <v>4.325636</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-03T14:19:00</t>
+          <t>2025-06-08T04:13:27+00:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['What\'s the story\nYoshua Bengio, a leading computer scientist and one of the "godfathers" of artificial intelligence (AI), has announced the launch of a non-profit organization called LawZero.', 'The group will focus on developing an "honest" AI system that can detect rogue systems trying to deceive humans.\nWith an initial funding of $30 million and a team of over a dozen researchers, Bengio is working on this groundbreaking project.']</t>
-        </is>
+          <t>['The number of ways to play or store Switch 2 games can confuse buyers. In addition to cartridges, internal storage, and microSD Express cards, gamers can experiment with Game-Key Cards.', "For Nintendo fans who prioritize speed, a new benchmark compares these different formats. It's no shock that the console's built-in flash storage ranks first. Still, the fact that Switch 2 cartridges are significantly slower may surprise gamers."]</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0.5719</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DL-648418b430086418502352faa142f4f6</t>
+          <t>DL-24b1842a456f3df8f5436bc5f2ff0e03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A Comprehensive Study on Medical Image Segmentation using Deep Neural Networks</t>
+          <t>Your Nintendo Switch 2 Launch Kit: The Best Accessories</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/44bc468a417c9165dbb5e9a1632bd8802350fe9a</t>
+          <t>https://www.techlicious.com/guide/nintendo-switch-2-accessories/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Medical Image Segmentation (MIS) using Deep Neural Networks (DNNs) has achieved significant performance improvements and holds great promise for future developments. This paper presents a comprehensive study on MIS based on DNNs. Explainable Artificial Intelligence (XAI) is an important research direction.</t>
+          <t>The official Nintendo Switch 2 Pro Controller is one of the best that money can buy. From controllers to carry cases, cameras to microSD cards, there are plenty of ways to maximize your Switch 2 experience. This wireless controller offers responsive buttons, precise analog sticks, and ergonomic grips designed to keep your hands comfortable during extended play sessions. It also features built-in motion controls and HD rumble.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>246.10933</v>
+        <v>4.2810135</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05T00:00:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['Over the past decade, Medical Image Segmentation (MIS) using Deep Neural Networks (DNNs) has achieved significant performance improvements and holds great promise for future developments.', 'Intelligent Vision Systems are often evaluated based on their output levels, such as Data, Information, Knowledge, Intelligence, and Wisdom (DIKIW),and the state-of-the-art solutions in MIS at these levels are the focus of research.', 'Additionally, Explainable Artificial Intelligence (XAI) has become an important research direction, as it aims to uncover the"black box"nature of previous DNN architectures to meet the requirements of transparency and ethics.']</t>
-        </is>
+          <t>['From controllers to carry cases, cameras to microSD cards, there are plenty of ways to maximize your Switch 2 experience. So without further ado, here are the best Nintendo Switch 2 accessories currently (and shortly) available.', 'Best Controllers for a Premium Play Experience\nNintendo Switch 2 Pro Controller\nIf you’re planning on couch-playing with your Switch 2 in docked mode, a decent controller is an absolute must-have, and the official Nintendo Switch 2 Pro Controller is one']</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9081</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DL-59c0f7f0bd3d90910b40aeaaccb6cdfe</t>
+          <t>DL-9d1bad91e8b4cc20db3b991779086ad1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Editorial: Contemporary applications of machine learning and artificial intelligence for the management of heart failure</t>
+          <t>Islanders: New Shores to debut on PC and console in July</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/afc8dbdc43da18d0387024e5506a72d3e02a028f</t>
+          <t>https://www.gamereactor.it/islanders-new-shores-debuttera-su-pc-e-console-a-luglio-1481313/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>This editorial highlights four original articles published in Frontiers in Cardiovascular Medicine. These studies address early diagnosis through novel biomarkers, disease stratification based on transcriptomics, mechanistic insight into apoptotic pathways, and predictive telemonitoring using real-time AI models. Collectively, these contributions exemplify the transformative potential of data-driven technologies in personalizing care and preventing decompensation in HF.</t>
+          <t>The Station has announced that their sequel to city building, Islanders: New Shores, will be released for PC and consoles in July. The game is described as a fascinating experience that allows players to "explore rooftop volcanic peaks, in fantastically intricate serene environments" the release date is set for July 10th, and the platforms are PC (Steam), Nintendo Switch (no word on Switch 2 yet), PS5 and Xbox Series X/S/S.</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>246.04881</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2025-06-03</t>
-        </is>
-      </c>
+        <v>4.160721</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['This editorial highlights four original articles published in Frontiers in Cardiovascular Medicine that showcase contemporary applications of machine learning and artificial intelligence (AI) in HF management.', 'These studies address early diagnosis through novel biomarkers, disease stratification based on transcriptomics, mechanistic insight into apoptotic pathways, and predictive telemonitoring using real-time AI models.']</t>
-        </is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0.7096</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DL-140b6a953cdf720b2c38583a439bd8b5</t>
+          <t>DL-7fdb288e26fb545394f161b0835d8979</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Exercise Pose Correction using Machine Learning</t>
+          <t>Nintendo Switch 2 with Mario Kart World : Here’s how to make it cheaper with the return of your old Switch!</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/d137d1903634c17c0b3dd171bee1941d6e6cf535</t>
+          <t>https://www.phonandroid.com/nintendo-switch-2-avec-mario-kart-world-voici-comment-lavoir-moins-chere-avec-la-reprise-de-votre-ancienne-switch.html</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Abstract
-This research explores the application of machine learning for correcting exercise poses in real-time. Incorrect exercise form can lead to injuries and reduced effectiveness. This study investigates how pose estimation techniques, particularly using deep learning models like OpenPose and MediaPipe, can detect and correct exercise poses to improve workout outcomes and safety.</t>
+          <t>Switch 2 + Mario Kart World is available at Darty at €499.99. You can save up to €133.20 by recycling your old Switch. The Switch 2 is a new pillar of the franchise. It introduces an open world linking all circuits and 24-player races.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>245.99138</v>
+        <v>4.1212997</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-07T05:00:34+00:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['Abstract\n\nThis research explores the application of machine learning for correcting exercise poses in real-time. Incorrect exercise form can lead to injuries and reduced effectiveness.', 'This study investigates how pose estimation techniques, particularly using deep learning models like OpenPose and MediaPipe, can detect and correct exercise poses to improve workout outcomes and safety.']</t>
-        </is>
+          <t>['A thoroughly reviewed console and an unprecedented Mario Kart The Nintendo Switch 2 marks a real evolution from the original model.', 'It comes with a 7.9-inch 1080p LCD screen, a refresh rate raised to 120 Hz for increased fluidity, and 256GB of internal memory, which can be expanded via a Micro SD Express card (not compatible with older Micro SD cards).']</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0.4939</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DL-3aeef6aa0805df6be78ad08ca71acffa</t>
+          <t>DL-069b859981ec37c594fae5168c6bcee6</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hybrid Deep Learning Architecture with Adaptive Feature Fusion for Multi-Stage Alzheimer’s Disease Classification</t>
+          <t>All official Nintendo Switch 2 accessories: complete list</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/f1ca3dd7effcac5df328207dd6e3b8615464137b</t>
+          <t>https://www.larazon.es/videojuegos/setup-pro/todos-accesorios-oficiales-nintendo-switch-2-lista-completa_20250603683f34e17b27927d3dba1f42.html</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Traditional convolutional neural networks (CNNs) and deep learning models often fail to effectively integrate localized brain changes with global connectivity patterns. The adaptive feature fusion layer facilitates the dynamic integration of features extracted from a ResNet50-based CNN and a vision transformer (ViT)</t>
+          <t>Nintendo has always stood out for its ability to accompany the release of its consoles with a carefully designed environment. In order to enrich the user experience, the company bets on a wide range of essential accessories that enhance the possibilities of the console. The main protagonist is the new camera, an innovative accessory that introduces unique game dynamics and improves connectivity.</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>245.15332</v>
+        <v>4.0957336</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-03T17:46:39+00:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['Traditional convolutional neural networks (CNNs) and deep learning models often fail to effectively integrate localized brain changes with global connectivity patterns, limiting their efficacy in Alzheimer’s disease (AD) classification.', 'Methods: This research proposes a novel deep learning framework for multi-stage Alzheimer’s disease (AD) classification using T1-weighted MRI scans.']</t>
-        </is>
+          <t>['Nintendo has always stood out for its ability to accompany the release of its consoles with a carefully designed environment, and Nintendo Switch 2 is no exception.', 'Nintendo GameCube Controller: Directed at nostalgic gamers, this GameCube classic replica control offers a true retro experience for Switch 2 compatible titles. It is available on the My Nintendo Store for €69.99.', 'The standard Nintendo Switch 2 pack is carefully designed to offer players a complete experience from the moment they open the box, providing all the essential components to immerse themselves in the new generation of Nintendo.']</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8625</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DL-c808b49e07b53cff9ebab49194cb23a4</t>
+          <t>DL-6d0e71949253ac54c4daa072e2911a23</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Neural network for solving differential equations</t>
+          <t>Fortnite Nintendo Switch 2 has no 120fps mode on launch, but it’s a massive improvement over the rancid Switch 1 port</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14419/j7yksy12</t>
+          <t>https://www.videogamer.com/news/fortnite-nintendo-switch-2-no-120fps-mode-launch/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ordinary Differential Equations are fundamental to modelling a wide range of scientific and engineering phenomena, including fluid dynamics, heat conduction, and biological systems. Classical numerical methods such as the finite difference method (FDM) and finite element method (FEM) often suffer from high computational costs, difficulty in handling com- plex boundary conditions, and limited scalability. With the advancement of artificial intelligence, artificial neural networks (ANNs) have emerged as powerful tools for solving differential equations.</t>
+          <t>Epic Games has released the full list of features for the Nintendo Switch 2 Edition of its free-to-play battle royale game. Fortnite runs at 60fps in both docked and handheld play, which is heaps better than the original handheld. The new handheld has higher-quality asseta across the board with textures on-par with other costumes, actual shadows and water shaders.</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>245.05232</v>
+        <v>3.4143295</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-04T14:57:18+00:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['With the advancement of artificial intelligence, artificial neural networks (ANNs) and con-\u200econvolutional neural networks (CNNs) have emerged as powerful tools for solving differential equations.', 'This paper explores the application of \u200eneural networks for solving ODEs and PDEs, analyzing their effectiveness, advantages, and limitations as neural networks are predicted to \u200etransform computational mathematics, offering more accurate results\u200e.']</t>
-        </is>
+          <t>["Our team of gaming experts spend hours testing and reviewing the latest games, to ensure you're reading the most comprehensive guide possible. Rest assured, all imagery and advice is unique and original.", 'Check out how we test and review games here\nEpic Games has released the full list of features for the Nintendo Switch 2 Edition of its free-to-play battle royale game.']</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8658</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.036</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DL-e1f9dfaa843a30f4f9e96de58c8074e3</t>
+          <t>DL-39e749ba8f4fabb28b4c41cfc788cbe9</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Artificial intelligence sees 'harmonisation', experts warn</t>
+          <t>Nintendo Switch 2: everything you need to know about the new console</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.cumhuriyet.com.tr/dunya/uzmanlar-uyardi-yapay-zeka-halusinasyon-goruyor-2407192</t>
+          <t>https://www.publimetro.com.mx/plus/2025/06/05/nintendo-switch-2-todo-lo-que-debes-saber-de-la-nueva-consola/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Artificial intelligence is believed to pass on 'inaccurate and incorrect' information. experts say artificial intelligence produces unrealistic and erroneous data 'as if it had actually arrived' artificial intelligence-enabled chat robots provide prompt responses appropriate to the incoming computed connection. Artificial intelligence aims to produce an appropriate response to incoming commands.</t>
+          <t>Nintendo Switch 2 will cost 13,599 Mexican pesos in Mexico, with no games included. The price goes up to 14.899 in the case of the version with Mario Kart World Photo: Courtesy Nintendo of America The wait finally ended for millions of gamers as the new console officially arrived on June 5th.</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>243.84666</v>
+        <v>3.31678</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-06T11:36:00</t>
+          <t>2025-06-05T03:09:27</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>["Artificial intelligence-enabled chat robots provide prompt responses appropriate to the incoming computed connection, creating the perception that artificial intelligence is 'unbearable', but 'halucinating' like a human can have serious consequences.", 'Hoque pointed out that artificial intelligence models create a text not by confirming the facts, but by estimating potential word remains, noting that artificial intelligence can only produce an erroneous text if the data is missing or obscured.', 'Noting that this is not done specifically intentionally, experts liken artificial intelligence to "halucinating" the disease.']</t>
-        </is>
+          <t>['Nintendo Switch 2 Photo: Courtesy of Nintendo of America It also has a rate of up to 120 fps on some titles, allowing a smoother gaming experience.', 'As for the portable mode, it has a Full HD resolution of 1920 x 1080 pixels and a refresh rate of 120 Hz.', 'The Nintendo Switch 2 can also be used in a semi-portable way thanks to the built-in support that allows you to tilt it up to 150 degrees to find the most comfortable position to play.']</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0772</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.043</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DL-4c6d873a45020d1a120d6063c81eccc3</t>
+          <t>DL-0baa58f2b21229daa16ed87a04ee6380</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Artificial intelligence press releases</t>
+          <t>I missed those games on the release of Nintendo Switch 2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://newsroom.ibm.com/press-releases-artificial-intelligence</t>
+          <t>https://antyweb.pl/tych-gier-zabraklo-mi-na-premierze-nintendo-switch-2</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Month Year Su Mo Tu We Th Fr Sa Year All Years 2025 2024 2023 2022 2021 2020 Category All Categories Artificial intelligence Corporate Hybrid cloud Research and innovation Social impact Tag - Consulting - Generative AI - Security - Sustainability - watsonx Uncategorized Keywords Advanced Search IBM and Inclusive Brains Bring Together AI, Quantum and Neurotechnologies to Improve the Understanding of Brain-Machine Interfaces New AI initiative will co-create gen AI solutions with IBM clients, nurture NYC talent,</t>
+          <t>Nintendo Switch 2 officially went on sale yesterday and is enjoying great interest – also in Poland, where a night event was organized. Nintendo did not have a strong presence among the original titles.</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>243.2945</v>
+        <v>3.1636581</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-03T00:00:00+00:00</t>
+          <t>2025-06-06T10:30:18</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['2025 conference in Boston, Governor Maura Healey announced major updates on the state’s effort to grow the artificial intelligence ecosystem in...', 'and skills of generative artificial intelligence (AI) in the telecom industry through the launch of GSMA...', 'US Open app, including Artificial Intelligence (AI) generated...']</t>
-        </is>
+          <t>['Undoubtedly the biggest hit will be Mario Kart World – a game that develops the concept of racing with the protagonists of Nintendo games giving a breath of freshness with new fun modes.', 'Special mention should be made of Cyberpunk 2077 in the Ultimate edition, which is available on the day of the Nintendo Switch 2 release and offers the full experience of Night City in a portable version.']</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8778</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.067</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DL-15466cf3e5af05a1aa3e355a1cf5c46a</t>
+          <t>DL-2a978e6f0390cba5e2c1c92d76359a8c</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Optical Full Adder Based on Integrated Diffractive Neural Network</t>
+          <t>EE launches exclusive Nintendo Switch 2 bundles</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/mi16060681</t>
+          <t>https://www.techdigest.tv/2025/06/ee-launches-exclusive-nintendo-switch-2-bundles.html?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=ee-launches-exclusive-nintendo-switch-2-bundles</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Since the invention of the first laser in 1960, the development of optical computing technologies has presented both challenges and opportunities. Recent advances in artificial intelligence over the past decade have opened up new horizons for optical computing applications. This study presents an end-to-end truth table direct mapping approach using on-chip deep diffractive neural network (D2NN) technology.</t>
+          <t xml:space="preserve">Share Mobile and broadband provider EE has announced a range of exclusive new bundles for the highly anticipated Nintendo Switch 2 console. Each bundle requires a £20 upfront cost on a 24-month plan and includes the new console, the upcoming Mario Kart World game and a 12-month Nintendo Switch Online subscription with Expansion Pack. A key feature across all bundles is a 24month subscription to EE’s Gamer and Video Data Pass, allowing users to stream and play games without impacting their standard data allowance </t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>242.30751</v>
+        <v>3.096241</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05T08:36:40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['Recent advances in artificial intelligence over the past decade have opened up new horizons for optical computing applications.', 'This study presents an end-to-end truth table direct mapping approach using on-chip deep diffractive neural network (D2NN) technology to achieve highly parallel optical logic operations.']</t>
-        </is>
+          <t>['Share\nMobile and broadband provider EE has announced a range of exclusive new bundles for the highly anticipated Nintendo Switch 2 console.', 'Available from today, June 5th, these packages aim to offer gamers an enhanced experience with included connectivity features.', 'Each bundle requires a £20 upfront cost on a 24-month plan and includes the new Nintendo Switch 2 console, the upcoming Mario Kart World game and a 12-month Nintendo Switch Online subscription with Expansion Pack.']</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6249</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DL-4ea9629206482bd79edbaeb2bfe0ee11</t>
+          <t>DL-4a140a18c5aefde1b5970f7608d46b27</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Deep Learning Decodes Customer Intent: Cognitiv AI Personas Delivers 9X Performance Lift</t>
+          <t>Nintendo Switch 2: Live updates on launch night</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.lelezard.com/en/news-21843776.html</t>
+          <t>https://www.independent.co.uk/extras/indybest/gadgets-tech/video-games-consoles/nintendo-switch-2-stock-live-uk-b2763929.html</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>AI Personas transforms real-time consumer behavior data into dynamic audience profiles. Cognitiv is harnessing deep learning and large language models (LLMs) to give advertisers critical insights unavailable through other technologies. While in beta, AI personas has outperformed advertiser CPA goals by 9x. The offering allows advertisers to gain an unprecedented look "under the hood"</t>
+          <t>Smyths Toys opened all of its shops at midnight, offering a limited amount of walk-in stoc, but doors are closing at 12.30am. Over on Oxford Street, Currys is running a launch event at its flagship store. A few retailers are holding back stock for the early hours of the morning. Retailers are gearing up to drop more Switch 2 stock online as the morning unfolds.</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>241.83534</v>
+        <v>2.9316444</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-04T13:45:48+00:00</t>
+          <t>2025-06-04T21:52:05+00:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['Advertisers are embracing AI to deliver better outcomes, and Cognitiv is harnessing deep learning and large language models (LLMs) to give advertisers critical insights unavailable through other technologies.', '"With over a decade of deep learning innovation and a commitment to delivering meaningful audience experiences, Cognitiv has once again unlocked a more intelligent and precise way for brands to connect with customers," said Eric Danetz, President at Cognitiv', "Cognitiv's Deep Learning Advertising Platform provides marketers with unprecedented flexibility, activating as a Dynamic Deal run through the DSP of your choice, as a managed service DSP, or through its industry-first ContextGPT product."]</t>
-        </is>
+          <t>["Alex Lee4 June 2025 23:10\n57 minutes ago\nIt's almost time\nLess than an hour to go until retailers start going live with Nintendo Switch 2 stock. Who do you think will go first?", 'Unboxing my Switch 2 was like Christmas morning, so I’m excited for you all to experience the same.\nAre you in one of Smyths Toys’s flagship shops already? What’s the vibe? Let me know.', 'Oh, and there will be limited stock of the Nintendo Switch 2 available, too.']</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.3612</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.063</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DL-e161bc8ac514a79f404fba145d20065e</t>
+          <t>DL-be4b0877ab72d480615d2f3254053e13</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Odisha’s First AI-Powered Deep Neural Network Lab Opens in Bhubaneswar</t>
+          <t>Moving my self-hosted empire to Proxmox was a breeze</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://pragativadi.com/odishas-first-ai-powered-deep-neural-network-lab-opens-in-bhubaneswar/</t>
+          <t>https://www.xda-developers.com/thread/moving-my/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Deputy Chief Minister Kanak Vardhan Singh Deo inaugurated Odisha’s first state-of-the-art Deep Neural Network Laboratory today. The lab is designed to promote research in various fields, including unmanned aerial vehicles (UAVs), artificial intelligence (AI), electronic warfare, cognitive communications, AI-powered space surveillance, and hypersonic threat detection, tracking, and situational awareness. It will serve as a strategic platform for AI-driven innovations in missile defence, drone defence, radar signal processing, and</t>
+          <t>Nintendo has been making a lot of little weird decisions with the Switch 2. It's been a long wait for a new generation of consoles since the launch of the original hardware. Fans have speculated on a successor or major upgrade to the Switch.</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>240.07532</v>
+        <v>2.8678513</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-05T16:26:51+00:00</t>
+          <t>2025-06-04T22:16:05+00:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['In a significant move to enhance national capabilities in artificial intelligence and next-generation defence technologies, Deputy Chief Minister Kanak Vardhan Singh Deo inaugurated Odisha’s first state-of-the-art Deep Neural Network (DNN) Laboratory', 'The lab is designed to promote research in various fields, including unmanned aerial vehicles (UAVs), artificial intelligence (AI), electronic warfare, cognitive communications, AI-powered space surveillance, and hypersonic threat detection, tracking,', 'Uday Bhanu Das, Founder and CEO of Krystellar Defence and Aerospace, stated that the DNN Lab would act as a key enabler for developing indigenous, mission-ready AI solutions.']</t>
-        </is>
+          <t>["And now, that's happening again, as outlets have confirmed they won't be publishing reviews of the Switch 2 on release day due to Nintendo not providing review units this time around. But in reality, how much does it matter?", 'Switch 2 pre-orders were flying off the shelves in the US, and the extra stock available at launch is probably going to be swooped up by die hard fans.']</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0.4201</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.034</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DL-6cec96c8bae35b5d0a0845f053d63edb</t>
+          <t>DL-b2b049aaa24705881044f0a75bfc6392</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Quantum Machine Learning Market Outlook 2026: Quantum ML's</t>
+          <t>Nintendo Switch 2 : some players have had a very bad surprise with their console</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.globenewswire.com/news-release/2025/06/06/3094915/28124/en/Quantum-Machine-Learning-Market-Outlook-2026-Quantum-ML-s-Potential-in-Finance-Pharma-and-Cybersecurity-from-2026-to-2040.html</t>
+          <t>https://www.gameblog.fr/jeu-video/ed/news/nintendo-switch-2-mauvaises-surprises-696414</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Quantum Machine Learning (QML) harnesses the unique properties of quantum mechanics-superposition, entanglement, and quantum interference-to potentially solve machine learning problems exponentially faster than classical computers. This quantum advantage becomes particularly pronounced in optimization problems, pattern recognition, and complex data analysis tasks. Current implementations focus on hybrid quantum-classical systems, where quantum processors handle specific computational tasks while classical computers manage data preprocessing, post-processing.</t>
+          <t>Nintendo Switch 2 is always a major event, both for the manufacturer and for the players. This, unfortunately, can involve blindness. At the end of 2020, the launches of the PS5 and Xbox Series marked the story in this sense, in the midst of the coronavirus pandemic.</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>238.33774</v>
+        <v>2.6659985</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-06T00:00:00</t>
+          <t>2025-06-06T11:31:30+00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['Quantum neural networks, quantum support vector machines, and quantum reinforcement learning represent emerging methodologies that could fundamentally transform how artificial intelligence systems learn and make decisions.', 'analysis of machine learning types and quantum applications Quantum deep learning and quantum neural network architectures Training methodologies for quantum neural networks Applications and use cases for quantum neural networks across industries Neural', 'Roadmap\n3 QML ALGORITHMS AND SOFTWARE\n3.1 Machine Learning\n3.2 Types of Machine Learning\n3.3 Quantum Deep Learning and Quantum Neural Networks\n3.3.1 Quantum Deep Learning\n3.3.2 Training Quantum Neural Networks\n3.3.3 Applications for Quantum Neural Networks']</t>
-        </is>
+          <t>['The Nintendo Switch 2 has unfortunately not escaped some unforeseen, as some players have unfortunately had the bitter experience of opening the cardboard of their console.']</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>-0.4118</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DL-5a9f556a81b22cc02b5a97283404e4ef</t>
+          <t>DL-c52009334545d09049979dae231d50d4</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Understanding Stability Mechanisms in Single-Atom Alloys with Theory-infused Deep Learning</t>
+          <t>How to get a Nintendo Switch 2 from Best Buy, GameStop, Target and more</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2506.03031v1</t>
+          <t>https://www.independent.co.uk/extras/indybest/us/nintendo-switch-2-gamestop-best-buy-target-b2762563.html</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>We present an interpretable deep learning model that enhances the prediction of cohesive energy in transition metal alloys (TMAs) by incorporating cohesion theory into a graph neural network framework. The model predicts the total cohesive energy-an indicator of crystal stability-but also disentangles its various contributing factors.</t>
+          <t>Your support helps us to tell the story Read more Support Now From reproductive rights to Big Tech, The Independent is on the ground when the story is developing. Your donation allows us to keep sending journalists to both sides of the story. We believe quality journalism should be available to everyone, paid for by those who can afford it.</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>236.99632</v>
+        <v>2.6303253</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-03T10:15:58</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['We present an interpretable deep learning model that enhances the prediction of cohesive energy in transition metal alloys (TMAs) by incorporating cohesion theory into a graph neural network (GNN) framework.']</t>
-        </is>
+          <t>['We got a first look at the Nintendo Switch 2 – read our hands-on review']</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0.7906</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DL-a94390a10a9982da42d4b4147bbea5ad</t>
+          <t>DL-9e7bd803a3254229cbb9e3b27f0fda79</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Artificial intelligence capabilities in multiple sclerosis</t>
+          <t>Nintendo Switch 2 is here: everything you need to know about the new console</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17116/jnevro202512505114</t>
+          <t>https://www.lavanguardia.com/vida/20250605/10755562/nintendo-switch-2-caracteristicas-modelos-precio-accesorios-juegos.html</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>The literature search was performed in electronic search engines Scopus, eLibrary, PubMed using keywords: multiple sclerosis, diagnosis, prediction, artificial intelligence, machine learning. Scientific articles published between 2018 and 2024 were selected for the review. Results. A summary of AI technologies and machine learning (ML) models is provided.</t>
+          <t>Nintendo Switch 2 comes to stores eight years after the first model surprised with its hybrid design (portable and desktop), but also after one of the biggest commercial triumphs in the history of video games. The rise in the price of both the machine and the games has monopolized the conversation since Nintendo introduced Switch 2 at the beginning of April. This article discusses the price, but also the main features of the console, its compatibility with the original model or its accessories.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>236.93188</v>
+        <v>2.620596</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-05T06:00:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['To systematize current data on the potential use of artificial intelligence (AI) in multiple sclerosis (MS) research. Material and methods.', 'The literature search was performed in electronic search engines Scopus, eLibrary, PubMed using the following keywords: multiple sclerosis, diagnosis, prediction, artificial intelligence, machine learning.', 'A summary of AI technologies and machine learning (ML) models is provided.']</t>
-        </is>
+          <t>["At the moment, few highlighted Games 'Cyberpunk 2077' is one of the most striking games of Nintendo Switch 2 • Mario Kart World: In the absence of a thorough trial, and with only a first hour of play, the first big must-have of Nintendo Switch 2 is this", 'This is a game that incorporates important innovations, such as the inclusion of a great open world, and that demonstrates the leap in power compared to the original Nintendo Switch. • Nintendo Switch 2 Welcome Tour: This collection of minigames and experiences', 'It would be the typical game that comes with the console, but Nintendo has decided to charge 10 euros for it. • Cyberpunk 2077 Ultimate Edition: The ambitious futuristic adventure of CD Projekt Red is one of the most surprising games to see running on']</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0.7227</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.027</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DL-315a2e96a6f2c5f7bf00ec3be3f65133</t>
+          <t>DL-182e127a12c29e22cad855da74591ca5</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A Trustworthiness-based Metaphysics of Artificial Intelligence Systems</t>
+          <t>Zelda: Tears of the Kingdom Modded With Ray Tracing Looks Stunning in New 8K Video</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/1508497d982dea22757c568c837c8cca571f961d</t>
+          <t>https://wccftech.com/zelda-tears-of-the-kingdom-ray-tracing-8k/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Modern AI systems are man-made objects that leverage machine learning to support our lives. The orthodox view simply suggests that AI systems lack well-posed identity and persistence conditions. In this work, we challenge this perspective by introducing a theory of metaphysical identity of AI systems.</t>
+          <t>The Legend of Zelda: Tears of the Kingdom can look stunning with some choice mods on PC, which outshine the recently released Nintendo Switch 2 edition. A new video shared a few days ago shows the latest main entry in the series running on PC via an emulator at 8K resolution with some mods.</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>236.28537</v>
+        <v>2.60289</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-06T12:07:00+00:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Modern AI systems are man-made objects that leverage machine learning to support our lives across a myriad of contexts and applications.', 'In this work, we challenge this perspective by introducing a theory of metaphysical identity of AI systems.', 'We do so by characterizing their kinds and introducing identity criteria -- formal rules that answer the questions"When are two AI systems the same?"and"When does an AI system persist, despite change?"']</t>
-        </is>
+          <t>['As even an RTX 5090 has some trouble running the game at 60 FPS at such a high resolution and with these mods, it would have been unreasonable to expect such a makeover to run on the Nintendo Switch 2, so those who wish to experience the game like never', "Related Story Batman Arkham Knight, One of the Worst Nintendo Switch Ports Ever, Gets Significant Performance Boost on Nintendo Switch 2\nThe fact that The Legend of Zelda: Tears of the Kingdom on Nintendo Switch 2 doesn't feature any transformative visual"]</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0.4767</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.035</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DL-2d180a43047a3868a2c1d760ba5a39db</t>
+          <t>DL-2e469f3f8789d2c101197abc3c31aac9</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FUTURE-PROOF COFFEE PLANT DISEASE DETECTION BASED ON COUNTER-FACTUAL RECOMMENDATION WITH A HYBRID VISION TRANSFORMER AND CONVOLUTIONAL NEURAL NETWORK MODEL</t>
+          <t>Mario Kart World review – the final verdict on the Switch 2’s biggest game</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/6828af14695c9ec8d610a45744c76cd953d3f8cc</t>
+          <t>https://metro.co.uk/2025/06/10/mario-kart-world-review-final-verdict-switch-2s-biggest-game-23373706/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Small-scale farmers lack access to precise and accessible technologies for diagnosing and controlling coffee plant diseases. Traditional machine learning methodologies are restricted to single-disease classification. The proposed model has a unique hybrid model that integrates vision transformer (ViT) and convolutional neural network (CNN) architectures.</t>
+          <t>Mario Kart 8 Deluxe is one of the very few games we’ve ever given a 10/10 score. That’s not something we regret either, especially after the extremely generous Booster Course DLC. The idea of making the next game an open world title seemed an excellent new direction to take the series. It’s very poorly utilised, with lots of hidden secrets and yet nothing of substance to gain from them.</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>234.1151</v>
+        <v>2.5592842</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-10T08:07:26+00:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['Traditional machine learning methodologies are restricted to single-disease classification and lack the intricacies of multi-disease contexts.', 'In this work, the proposed model has a unique hybrid model that integrates vision transformer (ViT) and convolutional neural network (CNN) architectures for the identification and early detection of several coffee plant diseases.']</t>
-        </is>
+          <t>['Thanks to Nintendo not sending out review units of the Nintendo Switch 2 more than a day before launch we’ve previously only been able to do a review in progress of World, during which it became clear that it is not quite the game that many imagined.']</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DL-adb706b9ce371df54c9ed92f93507778</t>
+          <t>DL-f5ec55248d270c706daae41500b0144a</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Studying the Bible with Artificial Intelligence</t>
+          <t>Nintendo Switch 2 launches with Street Fighter 6 demo in the eShop</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://tsn.ua/ru/nauka_it/kto-napisal-bibliyu-iskusstvennyy-intellekt-dal-neozhidannyy-otvet-2844392.html</t>
+          <t>https://www.playcentral.de/nintendo-switch-2-startet-mit-street-fighter-6-demo-im-eshop-durch/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>The Bible /  weknowyourdreams.com Advertisement A new study using artificial intelligence has revealed three different writing styles used to write the Bible. This contradicts the belief in Christianity and Judaism that Moses was the author of the first five books of the Old Testament. Researchers used artificial intelligence to analyze 50 chapters in five books.</t>
+          <t>Street Fighter 6 demo is now available in the Nintendo eShop. It allows players to test some of the game's modes before purchasing. The demo is available on the Nintendo Switch 2 and offers fans the opportunity to try out the game.</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>231.56201</v>
+        <v>2.4698067</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-06T23:15:51</t>
+          <t>2025-06-08T17:02:54</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['The Bible / © weknowyourdreams.com Advertisement A new study using artificial intelligence has revealed three different writing styles used to write the Bible.', 'The researchers used artificial intelligence to analyze 50 chapters in five books, finding inconsistencies in language and content, recurring stories, tone changes, and internal contradictions.', 'Artificial intelligence algorithms have compared the use of words in these sections to three known styles, revealing new connections and helping to clarify longstanding scientific debates.']</t>
-        </is>
+          <t>['It offers players the ability to enjoy the game in 1080p resolution with a refresh rate of 120Hz in handheld or table mode, while it supports 4K at 60Hz in dock mode.', 'Conclusion and Community Issue The availability of the free demo of Street Fighter 6 on the Nintendo Switch 2 is welcome news for all those who were disappointed by the limited number of new games introduced on the console.', 'It offers the opportunity to experience one of the best fighting games of 2023 on the new hardware. How do you find the current line-up of the Nintendo Switch 2? Are you going to try the Street Fighter 6 demo?']</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0.5266999999999999</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DL-9484d4447b912b127ebcda3751f1ea96</t>
+          <t>DL-887a2385045f651122c064ee4d0928fc</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Artificial intelligence and tourism</t>
+          <t>Endless coughs to buy the latest Nintendo console... and miss it</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.lanazione.it/empoli/cronaca/intelligenza-artificiale-ed-enoturismo-ed99151b</t>
+          <t>https://www.vozpopuli.com/altavoz/cultura/colas-interminables-para-comprar-la-ultima-consola-de-nintendo-y-se-quedan-sin-ella.html</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>the city of Vinci will host an internationally significant event dedicated to innovation, sustainability and artificial intelligence applied to the territory as a tourist destination. The event is a continuation of numerous meetings that have taken place in recent years. This year, the event is part of the National Ph.D. program in Artificial Intelligence for Society. Activities will include training workshops, interviews with local operators and study visits to iconic places like the Leonardian Museum.</t>
+          <t>Nintendo announced the launch of their new Nintendo Switch 2 console on May 5th. The lack of'stock' has caused the consequent anger of those who have been left without their longed-for toy. Even some, who had paid in advance months in advance, have ended up without theirs.</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>231.211</v>
+        <v>2.323763</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-05T02:44:37</t>
+          <t>2025-06-07T02:45:07+00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['On Saturday, June 7th, the city of Vinci will host an internationally significant event dedicated to innovation, sustainability and artificial intelligence applied to the territory as a tourist destination: the Artificial Intelligence Bootcamp &amp; Challenge', 'This year, the event is part of the National Ph.D. program in Artificial Intelligence for Society, of the European Alliance Circle U. and a project funded by Pnrr Sobigdata, with the goal of developing AI-driven solutions for the promotion of sustainable']</t>
-        </is>
+          <t>['The Nintendo Switch is today the third best-selling video game console in history and, at the rate it is going, everything indicates that it will soon reach second place.', 'The Nintendo Switch 2 was officially released on June 5, 2025, although there were people who were able to get it on June 4 to try it out earlier. However, there is a big problem with its release: there is not enough stock for everyone.']</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.7184</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DL-f8cf4ba709482df200ef883a26b7c2f1</t>
+          <t>DL-ce5f9cdf63998a111dd0a2e7410853d6</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Key Trend Shaping The Artificial Intelligence In Transportation Market In 2025: Adas Advancements Reshaping Transport</t>
+          <t>Meta in talks with Disney, A24 and others to secure content for VR headsets</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.einpresswire.com/article/819314265/key-trend-shaping-the-artificial-intelligence-in-transportation-market-in-2025-adas-advancements-reshaping-transport</t>
+          <t>https://gigazine.net/gsc_news/en/20250605-meta-vr-contents-from-disney-a24/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>The Business Research Company’s Artificial Intelligence In Transportation Global Market Report 2025 Explores Market Driver, Trends, Regional Insights - Market Sizing &amp; Forecasts Through 2034. The artificial intelligence AI in transportation market size has seen rapid growth in recent years. This represents a compound annual growth rate CAGR of 18.2%.</t>
+          <t>FFmpeg has integrated WebRTC support, enabling ultra-low latency streaming of less than 1 second with OBS, the latest codecs can be selected, and even streaming without a server is now possible X files lawsuit against eight users who tried to unfairly increase their revenue by abusing 'creator revenue sharing' Meta announces details of AI smart glasses 'Aria Gen 2', explaining cutting-edge camera and sensor technology Results of 'MLPerf Training v5.0', which</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>230.71533</v>
+        <v>2.3176193</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-06T09:30:00</t>
+          <t>2025-06-05T06:24:00+00:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['This growth during the historic period is largely due to the use of cameras and sensors for collision avoidance, the real-time analysis capabilities of AI, the use of high-performance computing and deep learning systems.', 'By Machine Learning Technology, it breaks down into Deep Learning, Computer Vision, Context Awareness, and Natural Language Processing. The market is segmented by process into Signal Recognition, Object Recognition, and Data Mining.', 'What Are The Regional Insights Into The Artificial Intelligence In Transportation Market?\nNorth America dominated the AI in transportation market as the largest region in 2024.']</t>
-        </is>
+          <t>["reaffirms plans to invest $100 billion in Arizona over next five years\nPart of 'MetaHuman', a game development tool that allows you to create and move ultra-realistic 3DCG characters for free, is integrated into Unreal Engine 5.6\nThe reason why the Nintendo", "Switch 2 was not loaned to the media for pre-release review was because 'important features and updates for the console' will be provided on the release date of June 5th.", "Speculation is rife that the Chinese-made high-performance AI model 'DeepSeek-R1-0528' may have been distilled using Google's AI 'Gemini'\nAttention is drawn to the warning in the Nintendo Switch 2 manual that reads, 'Do not remove the shatterproof film"]</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0.4588</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.108</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DL-da48604f8809050674fb0acd5ff58c98</t>
+          <t>DL-b080cb5509d88a1ec15ee8a2c6106938</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Interactive web-based Geospatial eXplainable Artificial Intelligence for AI model output exploration</t>
+          <t>Get the most out of your Nintendo Switch 2 with these 3 TVs I've picked to pair with it, including one of the best OLED TVs I've seen</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5194/agile-giss-6-44-2025</t>
+          <t>https://www.techradar.com/televisions/get-the-most-out-of-your-nintendo-switch-2-with-these-3-tvs-ive-picked-to-pair-with-it-including-one-of-the-best-oled-tvs-ive-seen</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>This case study presents a web-based Geospatial eXplainable Artificial Intelligence system demonstrated through a case study for wildfire susceptibility assessment. Using a Random Forest model, the system combines environmental, topographic, and meteorological features to provide global and local insights.</t>
+          <t>TechRadar look for VRR, 120Hz refresh rate and Auto Low Latency Mode. Low input lag for responsive performance and top-notch picture quality are also important. LG B4 48-inch 4K OLED TV : £879 now £849 at Best Buy The LG C4 provides premium OLED picture quality and a full array of gaming features.</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>230.67972</v>
+        <v>2.035572</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-06T08:00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['This case study presents a web-based Geospatial eXplainable Artificial Intelligence (GeoXAI) system demonstrated through a case study for wildfire susceptibility assessment.']</t>
-        </is>
+          <t>['The Nintendo Switch 2 has finally arrived, and it brings several upgrades over its predecessor, including 4K resolution, 120Hz (at 1080p resolution) and HDR support.', 'And there’s no better time to buy one to pair with your Nintendo Switch 2 with ambitious ports such as Cyberpunk: 2077 available from launch.', 'The Switch 2 can once again take advantage of that low input lag time for ultra-responsive performance (crucial for Mario Kart World) and the B4’s 4K, HDR and 120Hz support to level-up their experience from the original Nintendo Switch.']</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0.5719</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.116</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DL-e8df5688a0006993a36b0d8c9804fe5a</t>
+          <t>DL-bc0bf2ef431589eeb38d530dce7bdf45</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Artificial intelligence will respond to Gmail for you.</t>
+          <t>Bouncemasters demo now available on Steam</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://zn.ua/ukr/TECHNOLOGIES/shtuchnij-intelekt-vidpovidatime-na-listi-u-gmail-za-vas.html</t>
+          <t>https://thatsgaming.nl/bouncemasters-demo-nu-beschikbaar-op-steam/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Demis Hassabis is working on a new feature for Gmail. Artificial intelligence will be able to mimic the writing style of email account holders. AI will take into account the accuracy of the letters and personal preferences of the living author.</t>
+          <t>Bouncemasters is a fun physics-based arcade game inspired by Yetisports. The full version comes out on Steam in the third quarter of 2025. TAMAGOTCHI PLAZA is coming to the Nintendo Switch 2 and Nintendo Switch 2. Both versions will be compatible with the Tamagotchi Uni device.</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>229.21416</v>
+        <v>1.8310566</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-05T10:26:43+00:00</t>
+          <t>2025-06-06T18:57:55+00:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['Artificial intelligence will be able to mimic the writing style of email account holders and respond to correspondence itself, Techlusive writes. This tool is still in development.', 'Artificial intelligence can handle these kinds of complex tasks with ease. The algorithm will be able to mimic human writing by analyzing previous correspondence.', "The technology itself is not revolutionary and has been in use for a few years, but DeepMind's artificial intelligence makes it all the more personal. Now the email algorithm will adapt to the personality of each individual author."]</t>
-        </is>
+          <t>['Nintendo Switch 2 players who already own the original Switch version of TAMGOTCHI PLAZA can access the exclusive content by creating the Tamagotchi Plaza Nintendo Switch 2 upgrade package.', 'TAMAGOTCHI PLAZA brings back the unique and engaging experience of the series: setting up idiosyncratic shops and serving cute characters.']</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0.7579</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DL-ccbf583c30d46153c6e95e337f484ea9</t>
+          <t>DL-17c1cd3dca5a8d385d5f912ade6383f3</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A Deep Learning Approach for Detecting Unusual Celestial Phenomena in Astronomical Datasets</t>
+          <t>The Nintendo Switch 2 launches today. Here’s what to know</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.55041/isjem04013</t>
+          <t>https://www.wsaw.com/2025/06/05/nintendo-switch-2-launches-today-heres-what-know/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Detection of Unusual Celestial Phenomena in Astronomical Datasets is a deep learning -powered project implemented using ResNet50, a Convolutional Neural Network (CNN) model, and TensorFlow. Utilizing these it efficiently scans big open-source datasets such as NASA (National Aeronautics and Space Administration), SDSS (Sloan Digital Sky Survey), ESA (European Space Agency), etc.</t>
+          <t>Nintendo’s new console, the Switch 2, arrives on store shelves globally after being announced in April. Nearly all US Best Buy stores opened just after midnight to accommodate eager fans. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table.</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>228.94264</v>
+        <v>1.7731018</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-05T13:46:00+00:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['Abstract: Detection of Unusual Celestial Phenomena in Astronomical Datasets is a deep learning -powered project implemented using ResNet50, a Convolutional Neural Network (CNN) model, and TensorFlow.']</t>
-        </is>
+          <t>['In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.', 'Nintendo Switch 2 gaming devices are stored on the day Nintendo starts selling the new consoles globally, at an electronics store in Tokyo, Japan, on June 5.\nNintendo has also given the console hardware a much-needed upgrade.']</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0.8442</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DL-bddbcbf9e5c66e6a16ad06ae6a391eff</t>
+          <t>DL-6b1dfb573ca972c47a35c3452e0b887c</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>How Artificial Intelligence is Revolutionizing Taekwondo Training</t>
+          <t>With the release of the Nintendo Switch 2, what's the future for the Switch?</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.mastkd.com/2025/06/how-artificial-intelligence-is-revolutionizing-taekwondo-training/</t>
+          <t>https://www.gamekult.com/actualite/avec-la-sortie-de-la-nintendo-switch-2-quel-avenir-pour-la-switch-3050864092.html</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Artificial intelligence (AI) is the ability of machines to learn, reason, and make decisions based on data. In sports, AI is used to: – Analyze movement patterns in real-time – Automatically detect technical errors – Predict opponent behavior – Design personalized training programs Applications of AI in Taekwondo Training 1. Video Fight Analysis Platforms like Keemotion, Dartfish, or systems developed by national federations allow: - Evaluation of each strike, spin, or movement – Identification of</t>
+          <t>Nintendo has always shown a rigorous follow-up on its previous consoles. Examples include the 3DS, which was eligible for new features until 2019 (two years after Switch’s release), and an online store until 2023. The real question would be whether Nintendo would be willing to offer its productions on both machines at the same time.</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>228.93486</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2025-06-03T01:30:58+00:00</t>
-        </is>
-      </c>
+        <v>1.5549698</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['What is Artificial Intelligence and How is it Applied to Sports?\nArtificial intelligence is the ability of machines to learn, reason, and make decisions based on data.', 'Machine Learning for Tactical Prediction\nSome high-performance teams use algorithms that predict opponents’ actions based on their fight history. This helps athletes train anticipatory responses.\n3.', 'Artificial intelligence will not replace the coach, but it is becoming their best ally.']</t>
-        </is>
+          <t>['Samus will be on both Switches A situation that is explained by Nintendo’s legacy, but also by the fact that the adoption rate of the console is probably still questionable at the moment.', 'If Nintendo has not spoken out on this issue, Kyoto is well aware that the switch 2 adoption curve is more uncertain than the first one, in the sense that consumers will be much more reluctant to switch, mainly for price reasons of course.']</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.2732</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.039</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DL-648d4f94ecab629970f0d68be5d3c267</t>
+          <t>DL-05605b9ac8551ba2df3061a3bb23d284</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Artificial intelligence tools in the justice system</t>
+          <t>My Switch 2 Review in Progress: It's Good, but Don't Give In to the FOMO Yet</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.54103/1972-5760/28925</t>
+          <t>https://www.cnet.com/tech/gaming/my-switch-2-review-in-progress-its-good-but-dont-give-in-to-the-fomo-yet/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>This paper analyzes the impact of artificial intelligence on the Italian legal system. The paper examines how AI is evolving from a simple support tool to a self-regulating force. It highlights both opportunities and concerns about the adoption of AI.</t>
+          <t>The Nintendo Switch 2 is all anyone in gaming is talking about right now, and it could very well be the biggest gadget of 2025. By now, thousands of Switch 2 owners have one in hand as well, and the company will certainly sell thousands more this year. This clearly feels like a really good upgrade to aging Switches, but it's also not anything any current Switch owner needs to rush into.</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>228.82834</v>
+        <v>1.5476303</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-06T22:34:00+00:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['This paper analyzes the impact of artificial intelligence on the Italian legal system, examining how AI is evolving from a simple support tool to a self-regulating force.']</t>
-        </is>
+          <t>["By now, thousands of Switch 2 owners have one in hand as well, and the company will certainly sell thousands more this year, especially during the holidays. So, how good is Nintendo's new console? And is it worth upgrading from the original Switch?", "I haven't had enough time to fully review the Switch 2 yet, and the Switch 2 hasn't had enough time to spread its wings and grow its game library. These are early days for Nintendo's new console, but there's some stuff I can already tell you.", "It's a simple thing, but it really makes swapping them into accessories and back into the Switch feel effortless, the way Nintendo always advertised the experience as feeling."]</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8443000000000001</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DL-2a413f5a6b2db0d762d23a23b98e408c</t>
+          <t>DL-f18eecd6ae1aa3953cec4cf5dcc3e634</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Generative AI for Predicting 2D and 3D Wildfire Spread: Beyond Physics-Based Models and Traditional Deep Learning</t>
+          <t>'I own a Switch 2 - this console case beats Nintendo's thanks to one main feature'</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2506.02485v1</t>
+          <t>https://www.birminghammail.co.uk/whats-on/shopping/i-switch-2-console-case-31823315</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>physics-based and deep learning models have advanced wildfire simulation. These limitations hinder timely emergency response, infrastructure protection, and community safety. Generative AI has recently emerged as a transformative approach across research and industry.</t>
+          <t>The Nintendo Switch 2 is out and I was lucky enough to get my hands on the Switch 2 on release day. There are plenty of choices out there, including the official Nintendo Switch 2, which can be bought almost everywhere. Amazon lawnmower reduced from over £100 is 'lightweight' and 'easy to handle'</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>228.05331</v>
+        <v>1.5303574</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-10T10:29:21+00:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['While physics-based and deep learning models have advanced wildfire simulation, they face critical limitations in predicting and visualizing multimodal fire spread in real time, particularly in both 2D and 3D spatial domains using dynamically updated', 'Generative AI has recently emerged as a transformative approach across research and industry.', 'Looking ahead, we identify five key visions for integrating generative AI into wildfire management: multimodal approaches, AI foundation models, conversational AI systems, edge-computing-based scenario generation, and cognitive digital twins.']</t>
-        </is>
+          <t>["The Nintendo Switch 2 is out and in the search for a new case - I might have found my top choice thanks to one main feature\nI was lucky enough to get my hands on the Nintendo Switch 2 on release day, and it's definitely one of my favourite purchases so", "Without going into a massive review of the console, it is the definitive Switch experience, and it's exciting to see what the future holds for it."]</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0.7287</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DL-1896a1d90ca3c0c866eafc331d49de59</t>
+          <t>DL-518e1f4a2492da2505d9f7e5db4b46e6</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Promising Artificial Intelligence Stocks To Follow Now - June 4th</t>
+          <t>Microsoft Launches First Portable Game Console</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.etfdailynews.com/2025/06/07/promising-artificial-intelligence-stocks-to-follow-now-june-4th/</t>
+          <t>https://jurnalul.ro/it/tehnica/microsoft-lansare-prima-consola-jocuri-portabila-1000410.html</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Applied Digital, Super Micro Computer, Salesforce, Snowflake, Tempus AI, QUALCOMM, and Arista Networks are the seven Artificial Intelligence stocks to watch today. By buying these equities, investors gain exposure to firms whose growth and valuation may be driven by AI-powered innovation across industries. The performance of AI stocks typically reflects technological breakthroughs, adoption rates and regulatory developments in the broader AI ecosystem.</t>
+          <t>"Xbox Ally brings together the power offered by Xbox and the freedom offered by Windows," Bond says. The console price and exact launch dates will be announced in the coming months. Microsoft says both models evoke the brand's traditional controllers.</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>227.85324</v>
+        <v>1.5025616</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-07T04:32:55</t>
+          <t>2025-06-09T00:00:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['Artificial intelligence stocks are shares of publicly traded companies that research, develop or deploy AI technologies—such as machine learning, natural language processing and computer vision—to create smarter products and services.', 'The company also provides artificial intelligence cloud services, high performance computing datacenter hosting, and crypto datacenter hosting services.', 'Read Our Latest Research Report on SNOW\nTempus AI (TEM)\nTempus AI Inc. is a technology company advancing precision medicine through the practical application of artificial intelligence principally in healthcare.']</t>
-        </is>
+          <t>['"Xbox Ally and Xbox Ally X are perfect for players who are looking for an accessible gaming experience while travelling, whether by plane or between the two comfortable indoor seats," Microsoft said in a statement, according to the AFP.', "The announcement came just days after Japan's Nintendo launched the Switch 2 portable console."]</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0.6369</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DL-4026fc9631cd5c6560f5aa15aeb30712</t>
+          <t>DL-62f6feb86add6bac2ca72da8a1135b3b</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>British banks get artificial intelligence clearance</t>
+          <t>Belkin unveils new gaming portfolio featuring power-packed charging accessories, gaming essentials</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.finansingundemi.com/haber/ingiliz-bankalarina-yapay-zeka-izni/1855265</t>
+          <t>https://www.tahawultech.com/business/belkin-unveils-new-gaming-portfolio-featuring-power-packed-charging-accessories-gaming-essentials/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>The FCA has partnered with Nvidia to secure artificial intelligence tests. The aim of the joint venture is for banks to test the artificial intelligence safely. Financial institutions in the United Kingdom will be allowed to test artificial intelligence. Investors are awaiting outcome of US-China trade talks in London.</t>
+          <t>Belkin is “Leveling up your play” – bringing a new level of reliability to the gaming ecosystem that differentiates through premium materials, timeless design, and in-house engineering. The new range includes elevated accessories designed to enhance the gaming experience, featuring on-the-go charging solutions, audio gear, robust screen protection, and new travel cases built for effortless portability and protection.</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>227.61809</v>
+        <v>1.5013828</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-09T12:06:00+00:00</t>
+          <t>2025-06-06T17:45:51+00:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['The aim of the joint venture is for banks to test the artificial intelligence safely.', "Starting in October, financial institutions in the United Kingdom will be allowed to test artificial intelligence using Nvidia's enhanced information processing and AI Institutional Software products, the FCA said in a press release.", '"This collaboration will help those who want to test artificial intelligence ideas but do not have the capacity to do so.We will help companies use artificial intelligence to benefit our markets and consumers while supporting economic growth," Jessica']</t>
-        </is>
+          <t>['Belkin’s first iteration of gaming accessories will feature products designed to be compatible with Nintendo Switch 2\nLOS ANGELES, CA – Belkin, a leading consumer electronics brand for over 40 years, today announced its entry into the gaming accessories', 'space with the launch of a new lineup designed to be compatible with the highly anticipated Nintendo Switch 2.', 'Built on decades of experience in power, connectivity and device protection, and released under Belkin’s innovation-focused Future Ventures category, this marks the company’s first collection of products tailored specifically for the gaming community.']</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>0.6705</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DL-012807e6100239a2413822ccd2323ce5</t>
+          <t>DL-5dcc26e57d179cf942f68c4c1a43add8</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Real-Time Monitoring of Underground Mines with IoT and Machine Learning Integration</t>
+          <t>Nintendo Switch 2: Everything to know about the price and features</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/73f10d58269227f784fcec0942b12a45c9881af0</t>
+          <t>https://abc11.com/post/nintendo-switch-2-heres-everything-need-know-price-features/16656981/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>This study explores the application of IoT and machine learning for real-time monitoring in underground mining operations. Underground mining poses significant hazards, including equipment malfunctions, gas leaks, and poor air quality. Support Vector Machines (SVM), Random Forest (RF) and Neural Networks (NN) were employed to analyse this data, predicting equipment failures and identifying hazardous situations.</t>
+          <t>The long-awaited release of the Nintendo Switch 2 is set to arrive early Thursday morning. Here's what to know about the hype behind the Switch 2, the key features of the gaming system and how to buy it. Online pre-orders are largely sold out but gamers can purchase a limited in-store supply starting at 12:01 a.m. ET on Thursday. The Nintendo Switch has sold more than 152 million consoles.</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>227.4787</v>
+        <v>1.4305363</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05T16:14:46</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['Machine learning algorithms, including Support Vector Machines (SVM), Random Forest (RF), and Neural Networks (NN), were employed to analyse this data, predicting equipment failures and identifying hazardous situations.', 'Neural Networks demonstrated the ability to capture intricate patterns but were computationally demanding and slightly underperformed relative to Random Forest.', 'These results highlight the potential of combining IoT with machine learning for effective real-time monitoring in underground mining.']</t>
-        </is>
+          <t>['The price of the Nintendo Switch 2 in the U.S. is $449.99, while a bundle that includes "Mario Kart World" runs $499.99.\nThat price remains unchanged by Trumps tariffs, the Japan-based gaming giant said in April.', '"Nintendo Switch 2 accessories will experience price adjustments from those announced on April 2 due to changes in market conditions," the company said.', '"Other adjustments to the price of any Nintendo product are also possible in the future depending on market conditions."']</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DL-b40559a511274ef759e1c6ca8720f286</t>
+          <t>DL-a77fb4dd359d5198b3f658382e12f176</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Three layer AI neural network for on-chip microcontroller training</t>
+          <t>These Nintendo Switch 2 Edition upgrades can keep you from breaking the bank</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.eenewseurope.com/en/three-layer-ai-neural-network-for-on-chip-microcontroller-training/</t>
+          <t>https://www.pockettactics.com/nintendo-switch/switch-2-edition-upgrades</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Rohm has developed an AI-enabled microcontroller. The ML63Q253 and Q255 devices are intended for fault and anomaly prediction and degradation forecasting using sensing data in applications such as motors. Edge AI models typically depend on network connectivity and high-performance CPUs, which can be costly and difficult to install.</t>
+          <t>I picked up the Nintendo Switch 2 yesterday, losing many hours already to the likes of Mario Kart World and Cyberpunk 2077. On top of the price of the console itself, it'll cost you $1.2k to buy all of the Switch 2 launch games. If you do have those two excellent RPGs, you can actually upgrade them to their Switch 2 versions for free. I'm thrilled to see Pokémon Scarlet and Violet get one.</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>227.21342</v>
+        <v>1.3596001</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-09T11:21:42+00:00</t>
+          <t>2025-06-06T17:42:06</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['Endpoint AI conducts training in the cloud and performs inference on local devices, so network connection is still required. These models typically perform inference via software, necessitating the use of GPUs or high-performance CPUs.', 'Instead, Rohm has implemented a simple 3-layer neural network algorithm to implement its proprietary Solist-AI model running on the AxlCORE-ODL accelerator core to perform learning and inference independently, without the need for cloud or network connectivity', 'AI accelerator brings generative AI to Raspberry Pi 5\nThe AI architecture in the Imagination E-series GPU\nEdge accelerator for generative AI\nThis combination allows the MCUs to independently carry out both learning and inference through on-device learning']</t>
-        </is>
+          <t>['Looking to the future, it appears as though Nintendo is partial to Switch 2 upgrades, just like Xbox and PlayStation with their respective games and consoles, as one of the best Mario Party games, Super Mario Party Jamboree – Nintendo Switch 2 Edition', 'With an upgrade price of $19.99, you can enjoy Kirby and the Forgotten Land Switch 2 Edition. Better still, this comes with the Star-Crossed World DLC, giving you something completely new to experience as you revisit this fun Kirby adventure.', "While I already have a Nintendo Switch 2, I do like knowing that people who don't intend to pick it up just yet – perhaps even for a couple of years – have a reasonable option to upgrade some new Switch games they do buy between now and then, with other"]</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.032</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DL-8ac4a0df2ac5909b67bb52cdaffc473e</t>
+          <t>DL-2ce32c01c084cc6ab184d989c771b28e</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Enhancing DDoS Detection via 3ConFA Feature Fusion and 1D Convolutional Neural Networks</t>
+          <t>The Nintendo Switch 2 already has a flaw: its autonomy</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/5d2972f748f2e70dddcbdc423ff3e77bc2d6c81a</t>
+          <t>https://www.numerama.com/tech/1985971-la-nintendo-switch-2-a-deja-un-defaut-son-autonomie.html</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>This study presents a hybrid deep learning framework that integrates the Three Conditions for Feature Aggregation (3ConFA) framework with a one-dimensional Convolutional Neural Network (1D-CNN) for effective DDoS detection. The proposed hybrid approach outperforms traditional models such as Random Forest, Decision Tree, XGBoost, and standalone CNN, validating the synergistic impact of integrating 3ConFA with deep temporal convolutional modeling.</t>
+          <t>The console is at the level of the very first version of the Switch, dated 2017. Our first tests, with a console set to 50% brightness and 50% audio volume, are not likely to reassure those who feared the worst about Switch 2’s autonomy. Cyberpunk 2077 was first launched for half an hour: the console has been upgraded from 50% battery to 22% battery.</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>225.92342</v>
+        <v>1.3131561</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-06T08:28:24</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['Distributed Denial of Service (DDoS) attacks remain a critical threat to network infrastructure, necessitating timely and precise detection techniques to mitigate their impact.', 'This study presents a hybrid deep learning framework that integrates the Three Conditions for Feature Aggregation (3ConFA) framework with a one-dimensional Convolutional Neural Network (1D-CNN) for effective DDoS detection.', 'Feature fusion was applied by concatenating the aggregated statistical features and the deep features learned by the CNN, then re-selected the most informative features using Recursive Feature Elimination with Cross-Validation (RFECV).']</t>
-        </is>
+          <t>['I accept everything Managing my choices No miracle for Nintendo Switch 2 autonomy Your data deserves better protection. Scams, viruses and ransomware are no longer fatal.', 'If we extrapolate our little experiment (which requires repeating several times to refine), we would barely exceed the two hours of play on Cyberpunk 2077, while we could hope to reach the 3h30 on The Legend of Zelda: Breath of the Wild.', 'The Legend of Zelda: Breath of the Wild consumes a lot on Nintendo Switch 2 // Source: Nino Barbey for Numerama The choice to return to an LCD panel is really not the idea of the century, especially since its refresh rate of 120 Hz must consume more (']</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.738</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.145</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DL-656755d59a3a7110c3348be044ae715b</t>
+          <t>DL-f93e2da6e1d3e279a286496afdb81d0a</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>The AI Effect: How Artificial Intelligence Shapes Consumer Buying Intentions in the Retail Sector</t>
+          <t>I Can't Believe How Much Easier Voice Chat Is on the Switch 2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.55041/isjem04406</t>
+          <t>https://au.pcmag.com/gaming-systems/111364/i-cant-believe-how-much-easier-voice-chat-is-on-the-switch-2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Abstract Artificial Intelligence (AI) is rapidly transforming retail landscape. This study examines how AI-driven technologies influence consumer buying intentions in retail settings. The findings indicate a strong positive association: AI-enabled personalization and service enhancements substantially boost purchase intentions and satisfaction.</t>
+          <t>The Switch 2 promises one of the company’s most ambitious online features yet with GameChat. I tested it before launch to see how Nintendo uses cameras and microphones to turn online gaming into a more fun, welcoming experience. Nintendo Switch 2 should support most USB-C webcams, even those with lower resolutions.</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>225.7506</v>
+        <v>1.2322922</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-03T14:12:48+00:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['Abstract Artificial Intelligence (AI) is rapidly transforming the retail landscape, from personalized marketing to advanced analytics. This study examines how AI-driven technologies influence consumer buying intentions in retail settings.', 'Drawing on survey data and current literature, we employ descriptive statistics and correlation analysis to assess the relationship between AI usage and purchase behavior.', 'The discussion highlights practical implications for retailers (e.g. transparency, trust-building, and data ethics) and confirms that while AI can significantly enhance customer engagement, consumers’ data privacy concerns and trust issues must be addressed']</t>
-        </is>
+          <t>["The Switch 2 promises one of the company’s most ambitious online features yet with GameChat, which is the system's new online communication system.", 'I tested it before launch to see how Nintendo uses cameras and microphones to turn online gaming into a more fun, welcoming experience.', "GameChat is so baked into the Switch 2 experience that there's a dedicated button for it on the Joy-Con controllers. Pressing the new C button launches the GameChat menu that lets you create a lobby or see which friends are online and ready to play."]</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9226</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.038</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DL-6acc7f05a532f4cab01176a0a8f9b537</t>
+          <t>DL-b108c340c0dc3990b6d0f186f3c32267</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Bridging the Artificial Intelligence Governance Gap: The United States' and China's Divergent Approaches to Governing General-Purpose Artificial Intelligence</t>
+          <t>Nintendo Switch2 India Launch On THIS Date --Check Features And Expected Price</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2506.03497v1</t>
+          <t>https://zeenews.india.com/technology/nintendo-switch2-india-launch-on-this-date-check-features-and-expected-price-2911893.html</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>The United States and China are among the world's top players in the development of advanced artificial intelligence (AI) systems. The two countries are keen to lead in global AI governance and development. A look at U.S. and Chinese policy landscapes reveals differences in how the two countries approach the governance of general-purpose artificial intelligence.</t>
+          <t>Nintendo Switch2 has gone out of stock globally within a day of its roll out. Priced at $499, Switch 2 comes with some major features upgrade over previous gen Switch. Switch2 is Powered by Nvidia Terga T239 chip with an octa-core ARM CORTEX- A78C CPU AND 12SM Ampere GPU. It comes with 12GB LPDDR5X RAM AND Faster loading speed.</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>224.75175</v>
+        <v>1.2009258</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-06T00:00:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>["The United States and China are among the world's top players in the development of advanced artificial intelligence (AI) systems, and both are keen to lead in global AI governance and development.", 'A look at U.S. and Chinese policy landscapes reveals differences in how the two countries approach the governance of general-purpose artificial intelligence (GPAI) systems.', 'Three areas of divergence are notable for policymakers: the focus of domestic AI regulation, key principles of domestic AI regulation, and approaches to implementing international AI governance.']</t>
-        </is>
+          <t>['Priced at $499, Switch 2 comes with some major features upgrade over previous gen Switch.\nMajor Specification of Switch2\nDisplay: Nintendo Switch2 comes with larger 7.9-inch 1080p LCD touchscreen with HDR10 support and a refresh rate of 120Hz.']</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DL-6125d235ac83ed6fc52b2514245f0c5d</t>
+          <t>DL-201b8ebcf779d686eb6aa318af25eaa9</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Power Your AI Goals with Intel® Artificial Intelligence Solutions</t>
+          <t>Launched sales of Nintendo Switch 2 - in which countries the console is available</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.intel.com/content/www/us/en/artificial-intelligence/overview.html</t>
+          <t>https://games.24tv.ua/ru/startovali-prodazhi-nintendo-switch-2-v-kakih-stranah-dostupna-konsol-games_n2839620/amp</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Explore Our AI Portfolio Data Science and Development Accelerate AI workflows and AI solution deployment with Intel® open source frameworks, library optimizations, and software tools. Explore AI software resources Learn about AI analytics solutions Get to know Intel® data science workstations Edge, Data Center, and Cloud Maximize your investments from the edge to the cloud using Intel® AI accelerators AI PCs Put the power of AI in hands of your employees with AI. Learn about our application partners Streamline Your AI Efforts with Intel Check</t>
+          <t>Nintendo decided to seriously oppose speculators who traditionally buy consoles for resale at an inflated price. Fans began to take seats in queues a few hours before the opening of the stores. Some even took a break from work to buy a novelty.</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>224.59094</v>
+        <v>1.0896873</v>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['Explore Our AI Portfolio\nData Science and Development\nAccelerate AI workflows and AI solution deployment with Intel® open source frameworks, library optimizations, and software tools.', 'Explore AI software resources\nLearn about AI analytics solutions\nGet to know Intel® data science workstations\nEdge, Data Center, and Cloud\nMaximize your investments from the edge to the cloud using Intel® AI hardware to accelerate and run AI workloads', 'Explore AI processors\nLearn about Intel® AI accelerators\nAI PCs\nPut the power of AI in the hands of your employees with AI PCs built on Intel® Core™ Ultra processors.']</t>
-        </is>
+          <t>['It should be noted that neither in Ukraine nor in Russia Nintendo products are officially sold. On the eve of Nvidia CEO Jensen Huang said that Switch 2 will receive special AI processors that improve the gaming experience in real time.']</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.1779</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.042</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DL-49994670f312700d282932607ed32e40</t>
+          <t>DL-9403699c5a8c3acb6752501c45ccc38e</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Google AI Edge Gallery: When artificial intelligence goes offline</t>
+          <t>Nintendo Switch 2 – Release brings 20 games directly</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.macitynet.it/google-ai-edge-gallery/</t>
+          <t>https://www.toptechnews.de/2025/06/05/nintendo-switch-2-release-bringt-direkt-20-spiele-mit-sich/</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>AI Edge Gallery is an experimental app that allows you to run generative AI models directly on your Android device, without the need for an Internet connection or cloud support. The novelty marks a turning point in Mountain View's strategy, which increasingly focuses on local processing to ensure privacy and speed. It's the antithesis of the cloud-based approach that has dominated the industry in recent years.</t>
+          <t>Nintendo Switch 2, Mario Kart World and more than 20 other titles are now available. Nintendo Switch 2 is the first new Nintendo console to be released since the introduction of Nintendo Switch eight years ago. The new Joy-Con 2 controllers are magnetically attached to the console and can be operated like a mouse by sliding them on a surface.</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>224.3045</v>
+        <v>1.0810165</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-06-04T10:29:34</t>
+          <t>2025-06-05T15:28:24+00:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['Google has spearheaded a small revolution that could change the way we use artificial intelligence on our smartphones.', 'The philosophy is simple but revolutionary: to bring artificial intelligence directly into the pockets of users.', "The AI Edge Gallery is much more than just a technological experiment: it's a concrete demonstration that the future of artificial intelligence could be more decentralized than imagined."]</t>
-        </is>
+          <t>['If a compatible USB-C camera, such as the Nintendo Switch 2 camera (available separately), is connected, up to four people can also communicate with each other via video chat.', 'To optimize the gaming experience of Nintendo Switch titles on Nintendo Switch 2, there will be free updates for selected games that improve graphics or add new features, for example.2 The content of the free updates varies by game.', 'Sid Meier’s Civilization® VII – Nintendo Switch 2 Edition: Players can now influence the course of history on Nintendo Switch 2.']</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DL-8d7430e90ee19f7dd40e81af40cbfc24</t>
+          <t>DL-90b89c57db6bd0dda29585ae2b322970</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>How to Stay Human Amid Artificial Intelligence Surge</t>
+          <t>Switch 2 is important for Nintendo, but also for a Nvidia that does not want to lose ground against AMD.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.ntd.com/how-to-stay-human-amid-artificial-intelligence-surge_1071046.html</t>
+          <t>https://www.xataka.com/videojuegos/switch-2-importante-para-nintendo-tambien-para-nvidia-que-no-quiere-perder-terreno-amd</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Artificial intelligence (AI) is increasingly pervasive, whether it’s apparent or not. From the information we take in to the way we drive, AI is having an impact. And the impact may not just be insidious, but overt.
-NTD spoke with clinical psychologist Dr. Chloe Carmichael to find out more about AI's effects on us.</t>
+          <t>Nintendo Switch 2 returns to the load When a leading company, what it wants is to have even more part of the cake. Nvidia dominates the world of PC video games with an iron hand. AMD is doing well with its latest generations, but the singing voice is still carried by the company led by Jensen Huang.</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>223.97704</v>
+        <v>1.0759926</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-03T00:59:05+00:00</t>
+          <t>2025-06-06T21:47:33+00:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['Artificial intelligence (AI) is increasingly pervasive, whether it’s apparent or not. From the information we take in to the way we drive, AI is having an impact. And the impact may not just be insidious, but overt.', "Chloe Carmichael to find out more about AI's effects on us."]</t>
-        </is>
+          <t>['Nintendo Switch 2 is here.', 'When a new generation of consoles arrives, beyond the new games and experiences it enables, there is a fundamental issue that may not be of much interest to all users, but is of vital importance to the technology industry: who signs the processor.']</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0.4118</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DL-59835a709e035eb9cbe2a1635bd6f06f</t>
+          <t>DL-8eed788f4c6b98f895779a24abd5aba6</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Code of Ethics of AI - Code of Ethics of Artificial Intelligence</t>
+          <t>Nintendo Switch 2 guide: pre-order links, accessories and launch games</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.cnews.ru/book/%D0%9A%D0%BE%D0%B4%D0%B5%D0%BA%D1%81_%D1%8D%D1%82%D0%B8%D0%BA%D0%B8_%D0%98%D0%98_-_%D0%9A%D0%BE%D0%B4%D0%B5%D0%BA%D1%81_%D1%8D%D1%82%D0%B8%D0%BA%D0%B8_%D0%B8%D1%81%D0%BA%D1%83%D1%81%D1%81%D1%82%D0%B2%D0%B5%D0%BD%D0%BD%D0%BE%D0%B3%D0%BE_%D0%B8%D0%BD%D1%82%D0%B5%D0%BB%D0%BB%D0%B5%D0%BA%D1%82%D0%B0</t>
+          <t>https://www.theshortcut.com/p/nintendo-switch-2-guide-pre-order-live</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Code of Ethics in the field of AI was developed in 2021 as part of the National Strategy for the Development of AI in Russia. It was signed by the Government of the Russian Federation, several large companies and research organizations. The Code proclaims the human-oriented approach in the development of AI technologies, principles of data security and information security.</t>
+          <t>There are 10 tech stories in today’s Substack issue of The Shortcut Skip ahead to story 2 to 10 for more Nintendo Switch 2 is arriving at stores across the United States tonight. This is your chance to skip the line. Walmart always has more console inventory and better servers than GameStop.</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>223.58984</v>
+        <v>1.0604935</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-06T00:00:00</t>
+          <t>2025-06-05T03:05:04</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['The Code of Ethics in the field of AI is intended to prevent the use of harmful practices in artificial intelligence systems. It was developed in 2021 as part of the National Strategy for the Development of AI in Russia.', 'The Code, in particular, proclaims the human-oriented approach in the development of AI technologies, the principles of data security and information security, the identification of AI in communication with humans and respect for the autonomy of the human', 'A common set of rules regulates the application of artificial intelligence technologies by organizations.']</t>
-        </is>
+          <t>['My personal Switch 2 pre-order from Target was delayed at the last minute. So I’m in line – with the diehard Nintendo gamers, some of whom arrived at 8am ET – hoping to secure a Switch 2 from Best Buy at midnight. Review coming soon.\nThe best part?']</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>0.7717000000000001</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DL-152bf678e91db3fdeddd6be793bedf33</t>
+          <t>DL-cbe41ea394a2ced64f8f9324991f8418</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Univariate Neural Network Quantitative (NNQ) Approximation by Symmetrized Operators</t>
+          <t>Osceola County Sheriff Lopez to make first court appearance after facing federal charges</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/5fcbefc5cf04315ce8ef336e4461ce609d20186f</t>
+          <t>https://spotonflorida.com/central-florida/5775312/osceola-county-sheriff-lopez-to-make.html</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>This paper deals not only with pointwise and uniform convergence but also Y-valued fractional approximation results by univariate symmetrized neural network (SNN) operators on Banach space Y,. Our main motivation in this work is to compare the convergence results obtained by classical neural network operators and symmetric neural network operator (SMN) operators and try to convert them into numerical examples and graphs through computer programming language Python codes.</t>
+          <t>Sheriff Marcos Lopez has been booked at Lake County Jail without bond. Over 250,000 pay homage to Pope Francis as world leaders prepare to attend funeral.</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>223.51764</v>
+        <v>1.051199</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-06T14:15:38+00:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['This paper deals not only with pointwise and uniform convergence but also Y-valued fractional approximation results by univariate symmetrized neural network (SNN) operators on Banach space Y,..', 'Moreover, our main motivation in this work is to compare the convergence results obtained by classical neural network (NN) operators and symmetric neural network (SNN) operators and try to convert them into numerical examples and graphs through computer']</t>
-        </is>
+          <t>['Environment Day\n09:49 Disneyland ride shuts down after car derails off track: Witness\n08:35 Ex-GOP congressman David Jolly launches Democratic run for Florida governor (Video)\n08:35 Tavares residents concerned over proposed mixed-use development (Video)\n08:35 Experience', "Kissimmee aims to boost visitors through 'gastro tourism,' value-focused vacations (Video)\n08:35 The Morning News | Live Central Florida headlines, weather and traffic (Video)\n08:34 Gamers camp out for Nintendo Switch 2 (Video)\n08:34 Are traffic control"]</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.2969</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.093</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DL-3f9aab86ccce492cd2059b970e0468a9</t>
+          <t>DL-f75243e86744d36c28e7960ee772b4c0</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Optogenetic neural spheroids excite primary neural network</t>
+          <t>Microsoft unveils Xbox gaming handheld launching in 2025 (updated with hands-on)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1741-2552/ade28d</t>
+          <t>https://venturebeat.com/business/microsoft-unveils-xbox-gaming-handheld-launching-in-2025/</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Optical stimulation of in vitro neurons requires prior transfection with light gated ion channels. This additional step brings complexity and requires optimization. Simplification of the process will ease the undertaking of studies on biological neural networks needing external stimulation.</t>
+          <t>Microsoft is diving into the handheld gaming market with its own Xbox-branded handheld in partnership with PC maker Asus. It has the Windows OS, a full Xbox screen experience, and Armoury Crate SE as a central hub for device management. The handheld will compete with rivals such as the Nintendo Switch 2 and the Valve Steam Deck.</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>222.97346</v>
+        <v>1.0159454</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-08T20:53:17+00:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['Simplification of the process will ease the undertaking of studies on biological neural networks needing external stimulation. Approach.', 'We found that the primary neural network can be stimulated through the spheroids. This allows making investigations like network response dynamics and pharmacological perturbations possible. Significance.', 'Thus, our platform provides an on-demand method to stimulate neural preparations for many different studies.']</t>
-        </is>
+          <t>['“The Xbox experience grows with you,” said Sarah Bond, president of Xbox, in the Xbox Showcase.\nThe company plans to launch the handheld in 2025. As such, it will compete with rivals such as the Nintendo Switch 2 and the Valve Steam Deck.', 'This one promises the power of an Xbox experience in your hands. It has a seven-inch IPS VRR screen.\nThe move could inspire both fear and derision, as the prospect for such a move has done in the past.']</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>0.0772</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DL-86a5aa0c46f5cba5a02e206e743e6ea7</t>
+          <t>DL-1c59b6df7e032db28024c576f73acce5</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AI model diagnoses lung cancer using just a laptop</t>
+          <t>It started - Switch 2 with the first technical problems. Difficulties when downloading Mario Kart World</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.news-medical.net/news/20250605/AI-model-diagnoses-lung-cancer-using-just-a-laptop.aspx</t>
+          <t>https://www.gram.pl/news/zaczelo-sie-switch-2-z-pierwszymi-problemami-technicznymi-utrudnienia-przy-pobieraniu-mario-kart-world</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>a revolutionary artificial intelligence (AI) model was developed by Professor Kenji Suzuki and his research team from Institute of Science Tokyo (Science Tokyo) the ultra-lightweight deep learning model assists with lung cancer diagnosis without relying on costly graphics processing unit (GPU) servers or massive datasets. Developed using a unique deep learning approach based on massive-training artificial neural network (MTANN), the model was trained and tested on nothing more than a standard laptop computer.</t>
+          <t>Players who wanted to start their adventure with Nintendo Switch 2 reported serious problems with downloading the game. Error 2813-0171 The phrase "Mario Kart World doesn't want to be downloaded" quickly began to dominate search engines and forums. The source of the problem may be differences in console boot packages.</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>222.51146</v>
+        <v>1.008112</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-06-05T17:21:23+00:00</t>
+          <t>2025-06-06T10:10:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['Thanks to a revolutionary artificial intelligence (AI) model developed by Professor Kenji Suzuki and his research team from Institute of Science Tokyo (Science Tokyo), this far-fetched scenario is now a reality.', 'Developed using a unique deep learning approach based on massive-training artificial neural network (MTANN), the model was trained and tested on nothing more than a standard laptop computer, achieving what once required entire data centers.', 'It was one of the earliest deep learning models that he had developed and improved on.']</t>
-        </is>
+          <t>['Users who purchased Nintendo Switch 2 with Mario Kart World graphics printed directly on the box have problems activating the game.', 'In turn, people who purchased the version with the attached sticker and download code, seem not to experience difficulties. GramTV reports: This is confirmed by reports from the USA.']</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.743</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.196</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DL-f29625f81b1b1e1ec1f0513367421d2a</t>
+          <t>DL-a693f23c7ac4e39135b5cc47d8513970</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ontology-based knowledge representation for bone disease diagnosis: a foundation for safe and sustainable medical artificial intelligence systems</t>
+          <t>Shortly before release: Games and accessories for the Nintendo Switch 2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2506.04756v1</t>
+          <t>https://www.hardwareluxx.de/index.php/news/consumer-electronics/konsolen/66294-kurz-vor-dem-release-spiele-und-zubehoer-fuer-die-nintendo-switch-2.html</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Ontology-based framework for bone disease diagnosis developed in collaboration with Ho Chi Minh City Hospital for Traumatology and Orthopedics. The framework introduces three theoretical contributions: (1) a hierarchical neural network architecture guided by bone disease ontology for segmentation-classification tasks. (3) a multimodal deep learning model that integrates imaging, clinical, and laboratory data through ontological relationships.</t>
+          <t>Nintendo Switch 2 will finally have a successor next Thursday. A new design with a larger screen and of course a more powerful hardware should make the Switch 2 a real 4K console. Some online retailers such as Amazon, MediaMarkt or Coolblue list the starting title “Mario Kart World” from 79 euros and thus 10 euros below the actual price recommendation. This also applies to "The Legend of Zelda: Tears of the Kingdom"</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>222.22005</v>
+        <v>1.0045853</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-03T08:37:58</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['Medical artificial intelligence (AI) systems frequently lack systematic domain expertise integration, potentially compromising diagnostic reliability.', 'The framework introduces three theoretical contributions: (1) a hierarchical neural network architecture guided by bone disease ontology for segmentation-classification tasks, incorporating Visual Language Models (VLMs) through prompts, (2) an ontology-enhanced', 'Visual Question Answering (VQA) system for clinical reasoning, and (3) a multimodal deep learning model that integrates imaging, clinical, and laboratory data through ontological relationships.']</t>
-        </is>
+          <t>['Above all, you should purchase an additional memory card when buying the Nintendo Switch 2, because the integrated 256 GB could quickly become scarce. The official Nintendo SanDisk costs with 256 GB already 55 euros.', 'However, all microSD Express cards with a capacity of theoretically up to 2 TB can be used.', 'These should make data transfer rates of at least 800 MB/s possible, which in addition corresponds to the 10-fold of the predecessor and significantly restricts the selection.']</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>0.5849</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.028</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DL-731838f66898776e9751363e03e492f3</t>
+          <t>DL-736adae141649efa336e9f7ce03ea527</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Through-the-Wall Radar Human Activity Recognition WITHOUT Using Neural Networks</t>
+          <t>The Nintendo Switch 2 launches today. Here’s what to know</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2506.05169v1</t>
+          <t>https://localnews8.com/money/cnn-business-consumer/2025/06/05/the-nintendo-switch-2-launches-today-heres-what-to-know/</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>the earliest related works in this field based on template matching did not require a training process, and I believe they have never died. I would like to try to eschew neural networks to achieve the TWR HAR task and challenge to achieve intelligent recognition as neural network models.</t>
+          <t>Nintendo's new console, the Switch 2, arrives on store shelves globally after being announced in April. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table; or on. a TV when plugged in to its accompanying dock, like its predecessor. Nintendo’s decision to stick with a winning template for the Switch 2 is a testament to the original’s popularity.</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>221.85321</v>
+        <v>0.91181374</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-05T13:14:10</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['After a few years of research in the field of through-the-wall radar (TWR) human activity recognition (HAR), I found that we seem to be stuck in the mindset of training on radar image data through neural network models.', 'In this paper, I would like to try to return to the original path by attempting to eschew neural networks to achieve the TWR HAR task and challenge to achieve intelligent recognition as neural network models.']</t>
-        </is>
+          <t>['In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.\nNintendo has also given the console hardware a much-needed upgrade.', 'The Switch 2 has a larger 7.9-inch display compared to the original Switch’s 6.2-inch screen, and the Joy-Cons now snap to the console magnetically, which should make them easier to attach or remove from the console.']</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9136</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DL-379c16d24d0267f2a8eddceab9e5c265</t>
+          <t>DL-616a7e8681b35c912aff6ad9ed350a31</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ROLE AND IMPACT OF ARTIFICIAL INTELLIGENCE IN TEACHER EDUCATION</t>
+          <t>The Nintendo Switch 2 launches today. Here's what to know</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/286639c69cc46414d41ac1151362e51b6dec5e37</t>
+          <t>https://www.erienewsnow.com/story/52829208/the-nintendo-switch-2-launches-today-heres-what-to-know</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>This research paper explores the emerging role and impact of Artificial Intelligence (AI) in teacher education. This study examines the current applications of AI in teachers, its benefits and challenges, and its potential future implications. The paper also discusses ethical considerations and the need for developing AI literacy among future educators.</t>
+          <t>Nintendo's new console, the Switch 2, arrives on store shelves globally after being announced in April. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table; or on. TV when plugged in to its accompanying dock, like its predecessor. Nintendo’s decision to stick with a winning template for the Switch 2 is a testament to the original’s popularity.</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>221.70636</v>
+        <v>0.91181374</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05T13:22:00+00:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['This research paper explores the emerging role and impact of Artificial Intelligence (AI) in teacher education.', 'This study examines the current applications of AI in teacher education, its benefits and challenges, and its potential future implications.', 'The paper also discusses ethical considerations and the need for developing AI literacy among future educators.']</t>
-        </is>
+          <t>['In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.\nNintendo has also given the console hardware a much-needed upgrade.', 'The Switch 2 has a larger 7.9-inch display compared to the original Switch’s 6.2-inch screen, and the Joy-Cons now snap to the console magnetically, which should make them easier to attach or remove from the console.']</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>0.9136</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DL-55baaf011d6694112436f11e77b8036f</t>
+          <t>DL-876ccd4580e6106d2c30aa8425da537a</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Deep Learning Enhanced Multivariate GARCH</t>
+          <t>The Nintendo Switch 2 launches today. Here’s what to know</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2506.02796v1</t>
+          <t>https://ustimesmirror.com/the-nintendo-switch-2-launches-today-heres-what-to-know/</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LSTM-BEKK integrates deep learning into multivariate GARCH processes. The framework is designed to better capture nonlinear, dynamic, and high-dimensional dependence structures in financial return data.</t>
+          <t>Nintendo's new console, the Switch 2, arrives on store shelves globally. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table. Nintendo’s decision to stick with a winning template for the Switch 2 is a testament to the original’s popularity but also a gamble that its success will endure.</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>220.34659</v>
+        <v>0.91181374</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-05T15:15:59+00:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['This paper introduces a novel multivariate volatility modeling framework, named Long Short-Term Memory enhanced BEKK (LSTM-BEKK), that integrates deep learning into multivariate GARCH processes.', 'By combining the flexibility of recurrent neural networks with the econometric structure of BEKK models, our approach is designed to better capture nonlinear, dynamic, and high-dimensional dependence structures in financial return data.']</t>
-        </is>
+          <t>['The Switch 2 iterates its predecessor with several new features, including a Game Chat function that lets gamers communicate with other players by tapping a button on the console.', 'In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.\nNintendo has also given the console hardware a much-needed upgrade.']</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0.8922</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DL-1da112988488d14d23178b62d609b1e5</t>
+          <t>DL-58363b4cfde0e0889c7251f2961ae5ee</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Artificial Intelligence in Remote Sensing: Advancements, Challenges, and Future Directions for Sustainable Applications</t>
+          <t>The Nintendo Switch 2 : a promising new breath despite some disillusionment</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.9734/air/2025/v26i31363</t>
+          <t>https://s2pmag.ch/avis-la-nintendo-switch-2-un-nouveau-souffle-prometteur-malgre-quelques-desillusions/</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>This chapter explores how artificial intelligence (AI) can be incorporated into remote sensing. It gives a summary of how it can revolutionize a number of fields. The chapter also explores the main obstacles preventing AI from being widely used. This includes issues with data accessibility, model interpretability, training complexity, and ethical considerations.</t>
+          <t>The Nintendo Switch 2 has finally slipped into our hands. What lessons can we learn from these first moments of ownership? A complete and careful case The Switch 2 comes in a package with an almost confusing simplicity, compact dimensions that are unmistakably reminiscent of its grandmother. The console is delivered ready for use, accompanied by the necessary accessories to take full advantage of it.</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>220.01343</v>
+        <v>0.8860931399999999</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09T06:16:01</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['This chapter explores how artificial intelligence (AI) can be incorporated into remote sensing, emphasizing how it can revolutionize a number of fields, such as agriculture, urban planning, disaster relief, and environmental monitoring.', 'It gives a summary of how artificial intelligence (AI) methods, especially machine learning and deep learning, improve the handling, interpretation, and use of data from remote sensing.', 'It also offers a number of real-world examples that show how AI can be used to provide useful insights and facilitate data-driven decision-making.']</t>
-        </is>
+          <t>['A balanced review, promises to be confirmed In the end, this Nintendo Switch 2 turns out to be capable of the best as well as the least good, offering contrasting experiences according to titles and usages.']</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>0.5413</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.025</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DL-eae5e40803f5b9b3e7c946c6c5882101</t>
+          <t>DL-d31952a6c00a7f14a8bb1d96ce43f30c</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Classification of Hoyle State Decay Branches in Active Target Time Projection Chamber using Neural Network</t>
+          <t>Video games: Microsoft unveils the first portable versions of the Xbox</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2506.02506v1</t>
+          <t>https://www.lessentiel.lu/fr/story/jeux-video-microsoft-devoile-les-premieres-versions-portables-de-la-xbox-103361849</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>a multi-class convolutional neural network model has been developed using Keras deep learning library in Python for image-based classification of $12$C Hoyle state decay branches from tracking information. The nuclear events, produced by the 30 MeV $alpha$-particle beam in the SAT-TPC, filled with Ar + CO$_2$ (90:10) gas mixture at atmospheric pressure, have been considered for training and validation.</t>
+          <t>Xbox portable consoles, ROG Ally and Ally X, designed with Asus, will be marketed for the end of the year celebrations. This Twitter content cannot be displayed due to your current choice of cookies. The price of the consoles and exact date of their launch will be announced in the coming months.</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>219.56418</v>
+        <v>0.8757744</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-10T09:56:00+00:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['A multi-class convolutional neural network (CNN) model has been developed using Keras deep learning library in Python for image-based classification of $^{12}$C Hoyle state decay branches from tracking information, recorded by Saha Active Target Time']</t>
-        </is>
+          <t>["Faced with Nintendo Switch 2 The design of both models evokes the brand's traditional handles, with the same buttons, joysticks and handles, but with a longer format to integrate a central screen.", '"Xbox Ally and Xbox Ally X are perfect for players looking for an accessible gaming experience on the go, whether between two planes or between two comfortable lounge chairs," Microsoft said in a press release.']</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DL-9ad8a261bf9ace9cd2823ff85a83fa0d</t>
+          <t>DL-48f470a3b04e45099a9bd8f8b9d0942b</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Designing an optimal recurrent neural network for time series forecasting</t>
+          <t>What comes in the box of the Nintendo Switch 2? Look at the unboxing of the console, the Pro Controller and the camera.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/71611f8dd1fcc4de6733a85aa9f4cafdef2db3ec</t>
+          <t>https://www.tecmundo.com.br/voxel/501558-o-que-vem-na-caixa-do-nintendo-switch-2-confira-unboxing-do-console-pro-controller-e-camera.htm</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Experiments on designing an optimal recurrent neural network for one-stage and multi-stage forecasting of time series have been carried out. Such parameters of the neural network as number of neurons in hidden layers, number of hidden layers and number of training epochs were manipulated.</t>
+          <t>Derek Keller introduces the new model of the Big N, which brings a series of innovations over the first Switch. The new model accompanies the game Mario Kart World, one of the launch titles of the new console. In addition to highlighting the visual and functional changes, the video also reveals technical details and curiosities about the accessories.</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>218.82048</v>
+        <v>0.7912369</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-05T21:33:00+00:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['Experiments on designing an optimal recurrent neural network for one-stage and multi-stage forecasting of time series have been carried out.', 'Such parameters of the recurrent neural network as the number of neurons in hidden layers, the number of hidden layers, the number of training epochs, the mini-sample size were manipulated.', 'It is shown that the method of optimization stochastic gradient descent is more optimal, as it allows obtaining more accurate results with the same architecture of the neural network in the case of a large number of neurons in hidden layers.']</t>
-        </is>
+          <t>['In addition to highlighting the visual and functional changes to the device, the video also reveals technical details and curiosities about the accessories, paving the way for the upcoming full reviews that will soon be available on the Voxel channel', "More compact box and redesigned design One of the first noticeable changes on the Nintendo Switch 2 is the new packaging format. Even though it's a physically larger console, the box has been optimized and it's more compact and organized."]</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DL-34290a48d75a6765b3b1d87496a15629</t>
+          <t>DL-56a2f5145d0be40c3efde1b4a27402f4</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Artificial intelligence for early prediction of alcohol-related liver disease: Advances, challenges, and clinical applications</t>
+          <t>Nintendo Switch 2: The LCD screen receives fierce criticism from fans and experts - and we too would have liked a different display</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.35712/aig.v6.i1.107193</t>
+          <t>https://www.gamepro.de/artikel/nintendo-switch-2-lcd-bildschirm-erntet-heftige-kritik,3434354.html</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Artificial intelligence (AI) has emerged as a powerful tool for predicting ARLD. AI models incorporating transcriptomics, proteomics, and clinical data have demonstrated high diagnostic accuracy. Non-invasive biomarkers, including liver stiffness measurements, have been successfully integrated into AI frameworks for early detection and risk stratification.</t>
+          <t>Switch 2 is out and despite many new display features there is some strong criticism, both from fans and tech enthusiasts. We have therefore looked into it ourselves and also measured it, and we are also disenchanted. The LCD display from the Taiwanese manufacturer InnoLux brings some great functions – for example HDR for higher color dynamics, 120 Hertz and VRR – but also disappoints massively in some central points.</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>218.78302</v>
+        <v>0.78873825</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-08T17:30:00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['Artificial intelligence (AI) has emerged as a powerful tool for predicting ARLD, leveraging multi-omics data, machine learning algorithms, and non-invasive biomarkers.', 'This review explores the current advancements in AI-driven ARLD prediction, highlighting key methodologies such as multi-omics data integration, gut microbiome-based modeling, and predictive analytics using machine learning techniques.', 'AI models incorporating transcriptomics, proteomics, and clinical data have demonstrated high diagnostic accuracy, with some achieving an area under the curve exceeding 0.90.']</t>
-        </is>
+          <t>['Until a pixel is switched to another color, it takes a while, and the resulting image artifacts are perceived as ghosting or blurring.', 'And in this respect, the Switch 2 display with its 120 Hertz is particularly vulnerable, as many buyers write in the comments below the post. How do we rate the display of the Nintendo Switch 2?']</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.073</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DL-5497ba530fc46df6a5313879976318fa</t>
+          <t>DL-380770c64735dbc1c56d63a05fb4b763</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Artificial Intelligence Enables Increased Efficiency in Automotive Production</t>
+          <t>What are the best TVs to choose for the Nintendo Switch 2?</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.latribuneauto.com/reportages/fabrication/15643-lintelligence-artificielle-permet-un-gain-defficacite-en-matiere-de-production-automobile</t>
+          <t>https://www.frandroid.com/guide-dachat/2638901_quels-sont-les-meilleurs-tv-a-choisir-pour-la-switch-2</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Audi uses Artificial Intelligence (AI) in many areas of the company. The goal is to make full use of the potential of AI and data in business processes and customer experience with services and products. It is in the areas of production and logistics that the IA currently has the greatest impact in the automotive industry.</t>
+          <t>The Nintendo Switch 2 is available and to take full advantage of the power of the new Nintendo console, it is essential to choose a TV at the right height. The definition The Ultra HD 4K definition is now indispensable for the Switch 2, which offers graphics in very high resolution when used in dock mode. This resolution provides an image of remarkable sharpness, with finer details and greater immersion.</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>217.51059</v>
+        <v>0.77731705</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-06-05T13:19:15+00:00</t>
+          <t>2025-06-07T17:00:06</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['Efficiency, quality improvement: Audi uses Artificial Intelligence (AI) in many areas of the company to achieve these objectives.', 'The Tender Toucan project saves time with generative AI Audi has begun to use Artificial Intelligence to analyze tenders in its tendering process.', 'Audi cooperates closely with, among others, the Innovation Park Artificial Intelligence (IPAI) in Heilbronn. The IPAI is set to become the largest Artificial Intelligence network in Europe. On the same subject']</t>
-        </is>
+          <t>['Philips The One PUS8909 // Source: Philips In short, whether you prefer reactivity, image quality, brightness or immersion, there are now televisions perfectly suited to the Nintendo Switch 2.', 'OLED, Mini LED, QLED or LED, each technology has its advantages, but all the references cited here guarantee a fluid, immersive gaming experience that is faithful to the vision of Nintendo game creators.', 'All you need to know about the Switch 2 Want to know everything about the Nintendo Switch 2 after the Direct announcements? Find our video recap on YouTube for a quick and clear summary.']</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>0.7964</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DL-b5a49ca8385673219fea603aaf4540a9</t>
+          <t>DL-4de785c3d00dac3779286d8e34763c81</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Artificial intelligence reveals new unknown details about authors of Bible books</t>
+          <t>How to Transfer Your Switch Data to Nintendo Switch 2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.antena3.ro/life/stiinta/inteligenta-artificiala-dezvaluie-noi-detalii-nestiute-pana-acum-despre-autorii-cartilor-din-biblie-748572.html</t>
+          <t>https://www.iphoneincanada.ca/2025/06/05/how-to-transfer-your-data-nintendo-switch-2/</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Artificial intelligence (AI) is transforming everything — from medicine to finance. The results of the study were published in the PLOS One magazine. How the AI was used to analyze the Bible By examining subtle variations in the use of words in texts.</t>
+          <t>Nintendo provides a streamlined way to conduct a system transfer from Nintendo Switch to the Switch 2. Players can transfer profile data, save data, screenshots or video, and system settings. Nintendo notes that there is an expiry date for all system transfer data.</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>217.42966</v>
+        <v>0.7033539</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-06-06T00:00:00</t>
+          <t>2025-06-05T11:06:10+00:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['Artificial intelligence reveals new details hitherto unknown about the authors of the books of the Bible The statistical model based on AI was able to attribute the authors of the chapters of the Bible with a high probability.', "Photo: Getty Images Artificial intelligence (AI) is transforming everything — from medicine and film to finance. So why could it not also be used to study one of humanity's most venerated sacred texts: the Bible?", 'Then they used the model in the chapters where it is not certain who wrote them, and artificial intelligence managed to match them with one of the three writing styles. She also explained what words or expressions helped her make that decision.']</t>
-        </is>
+          <t>['By selecting ‘ I Don’t Have a Nintendo Switch 2 Yet’, you can upload your data to Nintendo’s servers in anticipation of when your Nintendo Switch 2 arrives.', 'Follow the on-screen prompts until you’re sent a ‘Verification code’ to your My Nintendo account email address. Input the code and select ‘Send Data to the Server’. This will then upload your save data to Nintendo’s cloud servers.', 'Once the upload is complete, you can review the system transfer information and select ‘Start Restoring Factory Settings’ to complete the process. Note: This will delete all data from the original console.']</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>0.4939</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DL-74321f9225a2583962eb4639a1c341de</t>
+          <t>DL-c7b1d654f43bf3a0aede5a40cc6ebaca</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>AI for Creatives – Using Artificial Intelligence for Graphics and Design</t>
+          <t>You probably don't have this Switch 2 launch title on your screen and it comes with a pretty cool co-op feature</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://gi.de/veranstaltung/ki-fuer-kreative-kuenstliche-intelligenz-fuer-grafik-und-design-nutzen-7</t>
+          <t>https://www.gamepro.de/artikel/nintendo-switch-2-gameshare-survival-kids,3434002.html</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>In this one-day online seminar, you will learn how to use AI as a design assistance for the idea-finding and development of your products. The focus is on the understanding of generative AI and the practical application of AI tools in graphics and design. Together with Jenny Habermehl, you create creative images for brand design, advertising campaigns and presentations.</t>
+          <t>This week, Nintendo Switch 2 comes out with a whole series of launch titles that you can play directly on the new console on June 5th. This includes Survival Kids, which besides Mario Kart World or Donkey Kong flies rather under the radar. You take on the role of four children who are stranded on an island and explore crafts and the surroundings to find a way home.</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>216.11703</v>
+        <v>0.6768379</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-06-04T21:16:24+00:00</t>
+          <t>2025-06-03T11:27:17+00:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['The focus is on the understanding of generative AI and the practical application of AI tools in graphics and design. Together with Jenny Habermehl, you create creative images for brand design, advertising campaigns and presentations.', 'Learning objectives in this AI course • You will understand how generative AI works. • You are familiar with the most important AI tools for graphic design such as ChatGPT, Gemini, Midjourney, Adobe Firefly and Stable Diffusion. • You can profitably use', "the AI tools in the creative process. • You know how artificial intelligence can support the creative process and what you should watch out for so AI doesn't become a killer of creativity."]</t>
-        </is>
+          <t>['So you can play locally on a total of three devices as long as at least one person in the group has a Nintendo Switch 2 and the game supports GameShare. In the case of Survival Kids, the game runs via GameShare with two consoles for both in 60 fps.', 'On the other hand, if you start on three devices, the frame rate is reduced to 30 fps for everyone involved. Nevertheless, this way of playing together is a cool thing that has a lot of potential.']</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DL-9ca7578d489d15bce646adfc92edb263</t>
+          <t>DL-194cd17a14f69417b82c9c6d47023133</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CViTLNN: A Hybrid Approach based on Vision Transformer and Liquid Neural Network for COVID-19 Detection</t>
+          <t>High demand makes Nintendo Switch 2 sell out in Brazil on its first day of release.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/dd40a8ac65e46dd70fdc1639a9681b73eeb68c26</t>
+          <t>https://www1.folha.uol.com.br/tec/2025/06/alta-demanda-faz-nintendo-switch-2-esgotar-no-brasil-no-primeiro-dia-de-vendas.shtml</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Conventional deep learning models for COVID-19 detection in Chest X-Ray (CXR) images face challenges in poor generalization and high computational demands. This study proposes CViTLNN, a novel hybrid model combining Vision Transformers (ViTs) and Liquid Neural Networks (LNNs) to improve feature extraction and classification. The self-attention mechanism of ViTs effectively captures global and local dependencies in CXR images.</t>
+          <t>Nintendo Switch 2, a new video game console from the Japanese company, went off the shelf this Friday in the global markets. It's already sold out in major Brazilian stores due to high demand. The console has a suggested price of R$4,499.90 in the standard version, no games.</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>215.24144</v>
+        <v>0.6761894000000001</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05T21:23:16+00:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['Conventional deep learning models for COVID-19 detection in Chest X-Ray (CXR) images face challenges in poor generalization across imaging conditions and high computational demands.', 'To address these issues, this study proposes CViTLNN, a novel hybrid model combining Vision Transformers (ViTs) and Liquid Neural Networks (LNNs) to improve feature extraction and classification.']</t>
-        </is>
+          <t>['Ampere predicts that Switch 2 sales will surpass 100 million units by 2030. See more about the Nintendo Switch 2.', 'Novelties The new console will have an improved 7.9-inch LCD screen, with HDR support and refresh rates of up to 120 Hz, ensuring smoother display.']</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>-0.4019</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.081</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DL-c94947b8b43c979e6e3de13dbfbc8a17</t>
+          <t>DL-1f7196f9804c69956dd1ea78f94a50cf</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Enhancing book genre classification with BERT and InceptionV3: a deep learning approach for libraries</t>
+          <t>Switch 2: Why Nintendo doesn't want you to remove the display slide</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/a735b8f5d33a449ca57665f68eb06fd0b5498657</t>
+          <t>https://t3n.de/news/switch-2-nintendo-display-folie-1691041/</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>This study proposes a hybrid deep learning model that integrates visual and textual features for enhanced genre classification. We employ InceptionV3, an advanced convolutional neural network architecture, to extract visual features from book cover images and bidirectional encoder representations from transformers. A scaled dot-product attention mechanism is used to effectively fuse these multimodal features, dynamically weighting their contributions based on contextual relevance.</t>
+          <t>On June 5, 2025, the new Nintendo console Switch 2 will officially go on sale. Pre-ordering is currently not possible on major online trading platforms. It is currently unknown when the console will be available again. Nintendo explicitly warns against removing the factory-mounted display slide.</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>214.82646</v>
+        <v>0.6726607999999999</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-04T11:45:37</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['To address these limitations, this study proposes a hybrid deep learning model that integrates visual and textual features for enhanced genre classification.', 'Specifically, we employ InceptionV3, an advanced convolutional neural network architecture, to extract visual features from book cover images and bidirectional encoder representations from transformers (BERT) to analyze textual data from book titles.', 'This study highlights the potential of deep learning in improving automated genre classification, offering a scalable and adaptable solution for libraries and digital platforms.']</t>
-        </is>
+          <t>['Switch 2 is supposed to get new charging mode Nintendo is supposed to have found a solution for this with the Switch 2 – namely a battery-saving charging mode as usual with smartphones.', "View 8 images This retro technology has collector's value today Source: More on this topic MIT Technology Review Nintendo"]</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.1027</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.032</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DL-a8b4bfa689c58e795c1024166c5aec26</t>
+          <t>DL-0baa3766bc883eba68c2dbbae1038cce</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Palkovics: Hungary's National Laboratory for Artificial Intelligence is among country's top research institutions</t>
+          <t>Donkey Kong Bananza: Release date, trailer and highlights</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://abouthungary.hu/news-in-brief/palkovics-hungary-s-national-laboratory-for-artificial-intelligence-is-among-country-s-top-research-institutions</t>
+          <t>https://www.netcost-security.fr/mobilite/252228/donkey-kong-bananza-date-de-sortie-bande-annonce-et-exclusivites-eclairantes/</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>László Palkovics said MILAB is tightly linked to the Artificial Intelligence Coalition. In a few weeks, the AI labs will have access to a dashboard showing who is doing what in the field of AI in Hungary.</t>
+          <t>The Nintendo Switch 2 is now available with an exciting set of new games. Donkey Kong Bonanza is a must-see for fans of the iconic character. Discover key details, including the release date and pre-command options.</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>214.73409</v>
+        <v>0.6710968</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-06-03T18:45:45+00:00</t>
+          <t>2025-06-06T16:22:33+00:00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>["László Palkovics, the government commissioner for artificial intelligence (AI), said Hungary's National Laboratory for Artificial Intelligence (MILAB) is among the country's top research institutions.", 'Speaking at the SZTAKI (Computer and Automation Research Institute) in Budapest on Monday, Palkovics said MILAB is tightly linked to the Artificial Intelligence Coalition established by companies, universities, and scientific workshops in 2018, adding', 'Hungarian research institutes, Palkovics noted, have been involved in artificial intelligence since the 1970s and 1980s, which is why Hungary is well-positioned in AI research and development.']</t>
-        </is>
+          <t>['To make the Switch 2 more attractive, Nintendo has released a number of games compatible only with this console. One of the games in question is a new title with Donkey Kong.', 'We will review the details of the new game, the release date of Donkey Kong Bonanza, the price, the pre-order options and the gameplay. Note that this game is only available for the Nintendo Switch 2.']</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>0.4939</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DL-1d9dafbf5b36c87555164e84063c9f7c</t>
+          <t>DL-c530336e1b88c22a95418a5f5123d3a8</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Dynamic-Step-Size Regulation in Pulse-Coupled Neural Networks</t>
+          <t>I think Nintendo played it very safe with Switch 2 - but that's not a bad thing</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/37f68f42600a9e745c53771a7dc390a7b70c50d5</t>
+          <t>https://www.indy100.com/gaming/nintendo-switch-2-first-impressions-features-gameplay-gamechat-gameshare</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Pulse-coupled neural networks (PCNNs) are capable of segmenting digital images in a multistage unsupervised fashion. A dynamic-step-size mechanism is proposed, utilizing trigonometric functions to adaptively control segmentation granularity. Experimental results further demonstrate enhanced robustness under noise (92.1% Dice at =0.2), outperforming SPCNN and PCNN with IoU = 0.8863.</t>
+          <t>Nintendo has just straight up called this the Switch 2 - no SNES, Wii-U or 3DS confusion here, it's clearly a successor to the Switch. This is very indicative of the route Nintendo has gone down with the new console. It's undeniably more of an upgrade rather than something completely new and revolutionary with Nintendo seemingly playing it very safe. There are now a lot more competitors in this market because of its success, such as the Steam Deck.</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>213.99115</v>
+        <v>0.658247</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-05T15:07:15</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['Pulse-coupled neural networks (PCNNs) are capable of segmenting digital images in a multistage unsupervised fashion; however, optimal output selection remains challenging.']</t>
-        </is>
+          <t>['With the Switch and this concept proving such a hit, Nintendo has understandably not wanted to veer too much away from what made the original Switch so successful, instead refining the experience with the Switch 2 with new features, better performance']</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>0.8687</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.051</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DL-ab2d4472eafd102887687b3f01d58038</t>
+          <t>DL-fb44e9ba1c36059416a5f81b3d4717bc</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Britain forms artificial intelligence pool</t>
+          <t>Nintendo Switch 2 is here - first impressions</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.dunya.com/dunya/ingiltere-yapay-zeka-havuzu-olusturuyor-haberi-780059</t>
+          <t>https://www.gram.pl/artykul/nintendo-switch-2-juz-tu-jest-pierwsze-wrazenia</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>British Prime Minister Keir Starmer said by 2030, 7.5 million employees will be trained in artificial intelligence. They put artificial intelligence and technology at the heart of the country's economic growth. Starmer also said that some technology companies will support the pool of talent.</t>
+          <t>Nintendo Switch 2 is one of my favorite consoles, which has accompanied me in various roles for over eight years. The first Switch was with me until the release of the OLED version in 2021. I forgave myself for Lite, because it did not correspond to my preferences of playing mainly on TV.</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>213.50272</v>
+        <v>0.62556076</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-06-09T13:36:00</t>
+          <t>2025-06-07T19:00:00</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['British Prime Minister Keir Starmer said that by 2030, 7.5 million employees will be trained in artificial intelligence, creating a pool of talent.', "They put artificial intelligence and technology at the heart of the country's economic growth, Starmer said at the opening of London Technology Week.", 'Noting that technology is undergoing a major transformation, Starmer said artificial intelligence "has made a tremendous contribution" to many sectors, particularly health and defence, describing it as a transformative force in many industries.']</t>
-        </is>
+          <t>['But when the long-awaited Switch 2 appeared on the horizon, placing a pre-release order was obvious.', 'I will immediately point out that this text is not a racial review of the equipment, but rather an impression, a collection of first impressions and thoughts about the new Nintendo toy.', 'Nintendo Switch 2 is a console that can be labeled the “new generation”, and at the same time it is very strongly rooted in what the first Switch accustomed us to. More a subdued but significant evolution than a surprising revolution.']</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>0.7351</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DL-e2feecb5e6af41f45053af7cee7aaa65</t>
+          <t>DL-6f733f86e304a8935fcf4754a27bb178</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Artificial Intelligence Applications in Emotional Regulation: An Integrated Review</t>
+          <t>New Florida education commissioner selected, Trump and Putin discuss Ukraine and Iran and Pasco County launches "Summer Haul Pass"</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/c962b371a734e2da99d582037e6ced3b5ba6f58c</t>
+          <t>https://baynews9.com/fl/tampa/evening-briefing/2025/06/04/evening-briefing-tampa-june-4-2025</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Artificial intelligence has emerged as an innovative tool to support emotional regulation processes. This paper presents an integrative review of the scientific literature on AI applications in this context. The results suggest these technologies offer potential for expanding access to psychological interventions, customizing self-regulatory strategies and promoting early identification of emotional difficulties.</t>
+          <t>Your Weather Planner It will be partly to mostly cloudy on Thursday with highs in the upper 80s. Low temperatures fall to the mid 70s overnight with scattered storms ending in the evening. Donald Trump talks to Putin on Ukraine and Iran, says it was 'not a conversation that will lead to immediate Peace'</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>213.30176</v>
+        <v>0.6108513</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-04T20:45:00+00:00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['With the advancement of digital technologies, artificial intelligence has emerged as an innovative tool to support emotional regulation processes.', 'This paper presents an integrative review of the scientific literature on AI applications in this context, focusing on approaches such as natural language processing, therapeutic chatbots, immersive virtual reality environments and automated biofeedback']</t>
-        </is>
+          <t>["NATO defence ministers meeting\nBET Experience 2025, annual week of 'entertainment, engagement, and empowerment all anchored in the brilliance and creativity of Black culture' ahead of the Black Entertainment Television\nNintendo releases the new Nintendo", 'Switch 2 games console, which features a bigger screen and better graphics than its predecessor.']</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.038</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DL-f613cb132103712de6c534a59beb81d1</t>
+          <t>DL-52361e315938e25ca5f998c23b324103</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Energy consumption analysis and prediction in exercise training based on accelerometer sensors and deep learning</t>
+          <t>Nintendo Switch 2: Should I buy it now or wait?</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/550e3aa780c4b14130e4891fab10791a8a79d4ac</t>
+          <t>https://www.presse-citron.net/nintendo-switch-2-faut-il-lacheter-maintenant-ou-attendre/</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>This study proposes an optimized energy consumption prediction model based on accelerometer sensor data and deep learning techniques. In this study, a model architecture integrating Convolutional Neural Network (CNN), Bidirectional Long-Term Memory (Bi-LSTM) network is constructed, with a focus on optimizing local feature extraction, temporal modeling, and dynamic weight allocation capabilities.</t>
+          <t>Nintendo is changing its habits with the Switch 2. For the first time in years, the Kyoto firm did not send its console to journalists several weeks before the launch. As a result, in-depth testing will arrive after the sale, leaving some players in uncertainty.</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>213.08379</v>
+        <v>0.4359665</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-05T10:19:31+00:00</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['This study proposes an optimized energy consumption prediction model based on accelerometer sensor data and deep learning techniques.', 'In this study, a model architecture integrating Convolutional Neural Network (CNN), Bidirectional Long Short-Term Memory (Bi-LSTM) network, and an attention mechanism is constructed, with a focus on optimizing local feature extraction, temporal modeling']</t>
-        </is>
+          <t>['So, are we buying Switch 2 today or not? The decision ultimately depends on your player profile and your priorities. The unconditional Nintendo fans and early adopters assumed will in any case dark without remorse.', 'I think the more measured players will benefit from waiting for our full review next week by identifying the console’s strengths and weaknesses, and then being able to make a fully informed choice.']</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.053</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DL-f18eb1706c876b54ad9bc0b943b8c848</t>
+          <t>DL-265565bae7e63a61079d64b43bdbf11e</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Artificial intelligence is "halucinating" by transferring non-existent data as it actually arrived</t>
+          <t>Nintendo Switch 2: What is the real power of the console Cyberpunk 2077 answers</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://haber.mynet.com/yapay-zeka-var-olmayan-verileri-gercekte-varmiscasina-aktararak-halusinasyon-goruyor-110107213584</t>
+          <t>https://diariodelyaqui.mx/nacional/nintendo-switch-2-cual-es-la-verdadera-potencia-de-la-consola-cyberpunk-2077-lo-responde/110733</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Artificial intelligence is always thought to transmit "free and accurate" information. Artificial intelligence produces unrealistic and erroneous data "as if it had actually arrived" artificial intelligence-enabled chat robots provide prompt responses appropriate to the incoming chat connection. Prof Ehsan Hoque said artificial intelligence is a form of "deception"</t>
+          <t>Cyberpunk 2077 has been a technically demanding game. This is why it was a surprise to see it run smoothly on Nintendo Switch 2 with a good graphical level. The CD Projekt Red game has served as an unofficial but very revealing test of the console's potential.</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>212.85439</v>
+        <v>0.38474274</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-06-06T21:18:00+00:00</t>
+          <t>2025-06-06T00:00:00</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['Artificial intelligence-enabled chat robots provide prompt responses appropriate to the incoming chat connection, creating the perception that artificial intelligence is "unbearable", but "halucinating" like a human can have serious consequences.', 'Hoque pointed out that artificial intelligence models create a text not by confirming the facts, but by estimating potential word remains, noting that artificial intelligence can only produce an erroneous text if the data is missing or obscured.', 'Noting that this is not done specifically intentionally, experts liken artificial intelligence to "halucinating" the disease.']</t>
-        </is>
+          <t>['COMPARISON WITH OTHER CONSOLIDATIONS An analysis conducted by the Bits Analyzer channel compared the performance of Cyberpunk 2077 on Switch 2 to that of PS4 Pro and Xbox Series S.', "In 'Quality' mode, the Nintendo console achieves 1080p on both laptop and desktop thanks to the DLSS.", "In 'Resolution' mode, it maintains this resolution on the dock, but on the laptop it drops to 720p, with an increase in frame rate of up to 40 fps, although not always stable."]</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>0.2617</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.033</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DL-1197769f05913b9a5e643398900c8081</t>
+          <t>DL-d75fb6cd5f8f9f354bda0b190d88b772</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FPA-based weighted average ensemble of deep learning models for classification of lung cancer using CT scan images</t>
+          <t>10 Tech Stocks on Wall Street’s Radar</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.semanticscholar.org/paper/aad6faaa8600c63d14378764f99d4eaa76d9c7e3</t>
+          <t>https://www.insidermonkey.com/blog/10-tech-stocks-on-wall-streets-radar-1549836/</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Lung cancer, particularly adenocarcinoma, is one of the deadliest forms and severely impacts human life. Early diagnosis and appropriate treatment significantly increase patient survival rates. The proposed study demonstrates the potential of deep learning and neural networks to transform cancer diagnosis, helping early detection and improving treatment outcomes.</t>
+          <t>Mark Malek said that not all sectors react the same to market headlines. He added that news can even create chances for late investors to join in. In fact, the opportunity in the mid to long term will transcend these sort of news items.</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>212.50673</v>
+        <v>0.2867546</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-09T14:02:05+00:00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['This study proposes a novel lung cancer detection framework using a Flower Pollination Algorithm (FPA)-based weighted ensemble of three high-performing pretrained Convolutional Neural Networks (CNNs): VGG16, ResNet101V2, and InceptionV3.', 'The proposed study demonstrates the potential of deep learning and neural networks to transform cancer diagnosis, helping early detection and improving treatment outcomes.']</t>
-        </is>
+          <t>['On June 5, B.Riley increased its price target on Silicon Motion Technology Corporation (NASDAQ:SIMO) to $90 from $75 and reaffirmed its Buy rating on the stock.', 'The firm pointed to the expanded Nvidia Bluefield DPU win and the upcoming Nintendo Switch 2 cycle as drivers of longer-term gains for the company.']</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>0.7845</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DL-8865f5131483c751b24d09f2d70ed033</t>
+          <t>DL-1c749b3242262132fa02efa86da3ad6e</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Artificial Intelligence in Human Resource Management: Awareness and Perceptions Among HR Professionals in Ghana.</t>
+          <t>Mario Kart World review: You need to know these things before it drops</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://doi.org/10.51583/ijltemas.2025.140500035</t>
+          <t>https://www.the-independent.com/extras/indybest/gadgets-tech/video-games-consoles/mario-kart-world-review-b2763892.html</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Abstract: AI Adoption in Ghanaian HR This study investigated how HR professionals in Ghana perceive and plan to use Artificial Intelligence (AI) in their roles. Employing a mixed-methods approach, researchers surveyed 200 HR professionals across various industries (banking, telecom, education) and conducted follow-up interviews.</t>
+          <t>Your support helps us to tell the story Read more Support Now From reproductive rights to climate change to Big Tech, The Independent is on the ground when the story is developing. Your donation allows us to keep sending journalists to both sides of the story. We choose not to lock Americans out of our reporting and analysis with paywalls. Expectations are sky-high for the latest entry in the 33-year-old racing series, which carries the weight of a new console’s fortunes on its shoulders.</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>212.31075</v>
+        <v>0.15307999</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-04T20:26:36</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['Abstract: AI Adoption in Ghanaian HR This study investigated how HR professionals in Ghana perceive and plan to use Artificial Intelligence (AI) in their roles.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>DL-2d85967ff27fe89e99b5f23d795c7832</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Nigeria Establishes $7.5m Artificial Intelligence Centre with Gates Foundation</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>https://www.haberler.com/guncel/nijerya-gates-vakfi-ile-7-5-milyon-dolarlik-yapay-zeka-merkezi-kuruyor-18709350-haberi/</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Nigerian federal government has implemented a $7.5m "Nigeria Artificial Intelligence Realization Centre" The Gates Foundation will provide up to $7.5million in funding for the three-year project. The centre will co-ordinate the implementation of mature artificial intelligence solutions.</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>212.30615</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2025-06-04T13:34:34</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['The Nigerian federal government, in co-operation with the Gates Foundation, has implemented a $7.5m "Nigeria Artificial Intelligence Realization Centre", aimed at widespread implementation of artificial intelligence-based solutions.', 'Uche Amaonwu, director of the Gates Foundation Nigeria, said artificial intelligence is transforming global approaches to development issues.', 'The centre is expected to play a leading role in identifying and disseminating highly effective artificial intelligence solutions. Nigeria is expected to set an example for responsible artificial intelligence innovation in Africa.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>DL-a190798ecb1aa3eb3e1bd2560ba30437</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>MicroAlgo Inc. Adopts Quantum Phase Estimation (QPE) Method to Enhance Quantum Neural Network Training</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>https://www.prnewswire.com/news-releases/microalgo-inc-adopts-quantum-phase-estimation-qpe-method-to-enhance-quantum-neural-network-training-302475390.html</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Quantum Neural Networks (QNNs) combine the advantages of quantum computing and machine learning. Quantum Phase Estimation (QPE) is a key technique in quantum computing that leverages quantum superposition and interference principles to efficiently estimate the phase information of quantum states. In quantum neural network training, QPE is used to optimize network parameters.</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>212.27596</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2025-06-06T14:20:00+00:00</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>["Quantum phase estimation has brought revolutionary changes to various fields through its application in MicroAlgo's quantum neural network training.", 'In natural language processing, by optimizing network parameters, quantum neural networks can better understand and generate natural language text, demonstrating significant advantages in tasks such as machine translation, intelligent customer service', "At the same time, by precisely estimating the phase of quantum states, quantum phase estimation also optimizes the parameters of the neural network, enhancing the network's accuracy, making the neural network perform more outstandingly in various tasks"]</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>DL-8131ac2538a44969b9dce79060f554b1</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>SMEs take a lead in competing with artificial intelligence</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>https://www.kent09.com.tr/kobiler-yapay-zeka-ile-rekabette-bir-adim-onde</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Turkish SMEs are making a difference in digital transformation with artificial intelligence and technology. According to Turkish Chamber of Exporters (CME) data, SMEs account for 95 per cent of the country's enterprises. Ninety-five per cent rely on artificial intelligence to produce.</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>212.2368</v>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>['Turkish SMEs are benefiting from global competition by accelerating digital transformation with artificial intelligence and technology.', 'Istanbul (IGFA) -- In Turkey, SMEs are making a difference in digital transformation with artificial intelligence and technology.', 'According to a survey of 600 IT experts, SMEs are more likely to invest in artificial intelligence than institutional companies.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>DL-fc2e4b8bc164ed193eb7ab7881075225</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Vietnamese Cluster and Artificial Intelligence Week in Da Nang</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>https://baoquangnam.vn/tuan-le-cong-nghe-chuoi-khoi-va-tri-tue-nhan-tao-viet-nam-tai-da-nang-3156113.html</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Vietnamese Mass Sequencing &amp;amp; Artificial Intelligence Week in Da Nang (QNO) Super Vietnam 2025 is a global conference to connect and develop mass-sequencing technology, artificial intelligence 2025. Each event was attended by 120 keynote speakers and thousands of invited guests from home and abroad. Super Vietnam Expo offers a diverse view of the global tech ecosystem.</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>212.21817</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2025-06-05T10:06:01</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>['Science &amp;amp; Technology Vietnamese Mass Sequencing &amp;amp; Artificial Intelligence Week in Da Nang (QNO) -- From March to June 6, Orochi Network Inc., FPT Online, Da Nang Center for Research, Training and Circuit Design &amp;amp; Artificial Intelligence (DASC', ') co-hosted Vietnamese Mass Sequencing &amp;amp; Artificial Intelligence Week -- Super Vietnam 2025.', "It's also home to conferences on technology trends, future investment outlooks and applications of blockchain and artificial intelligence in business; the Super Vietnam PitchFest; Blockchain, AI forums, etc."]</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>DL-870577573e271efda8c65763e1696259</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Optimal Usage of Artificial Intelligence in Public Relations in Odisha</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.55041/isjem04319</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>This research explores the transformative role of Artificial Intelligence (AI) in Public Relations (PR) within the regional context of Odisha, India. This study identifies how AI tools are being utilized, what barriers exist, and how ethical, localized, and hybrid strategies can bridge the gap. Findings suggest that while AI enhances efficiency and strategic targeting, its effectiveness is limited by a lack of cultural sensitivity, Odia language integration, and infrastructure disparities.</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>212.19739</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2025-06-08</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>['Abstract: This research explores the transformative role of Artificial Intelligence (AI) in Public Relations (PR) within the regional context of Odisha, India.', 'While global adoption of AI in communication is accelerating, Odisha presents a distinct case due to its linguistic diversity, cultural richness, and urban-rural digital divide.', 'Recommendations include developing regional AI tools, training communicators in ethical AI use, and fostering public-private collaborations for inclusive digital communication.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>DL-9047be89d9620ef5b4e9cd24fd0f07d2</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Digital transformation in higher education: the emerging role of Artificial Intelligence</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>https://www.semanticscholar.org/paper/0e3586f53244ed91eef1283db0a313a9298f6d79</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>paper presents a structured narrative bibliography review on the role of artificial intelligence (AI) in the digital transformation of higher education. 46 refereed scientific papers identified four key thematic axes: current applications of AI in educational contexts. The review highlights both opportunities and risks: AI can improve educational effectiveness, automate administrative tasks and promote student-centred learning.</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>211.86978</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>['This paper presents a structured narrative bibliography review on the role of artificial intelligence (AI) in the digital transformation of higher education.', ', the ethical and pedagogical challenges arising from automation, and the limited longitudinal assessment of the actual impact of AI on student performance.', 'The findings underline the need for a critical and interdisciplinary view that guides responsible adoption of AI in universities, aligning technological innovation with pedagogical values, inclusion and institutional ethics.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>DL-504d0c804a760d1d1410d98e0601da89</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>India Artificial Intelligence Market Valuation to Reach USD 12,429.6 Million by 2033 - at a CAGR of 27.6%</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>https://www.openpr.com/news/4048048/india-artificial-intelligence-market-valuation-to-reach-usd</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>India Artificial Intelligence Market 2025-2033 According to IMARC Group's report. India artificial intelligence market size was valued at USD 1,251.8 Million in 2024. The Indian AI market is undergoing rapid transformation, fueled by technology development and the growth in digital adoption across industries.</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>211.54092</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2025-06-03T06:53:00+00:00</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>['How Big is the India Artificial Intelligence Industry ?', 'AIaaS is making AI tools widely accessible, giving SMEs a chance to make use of machine learning even without substantial building investments.', 'India Artificial Intelligence Industry Segmentation:\nThe report has segmented the market into the following categories:\nBreakup by Type:\n• Narrow/Weak Artificial Intelligence\n• General/Strong Artificial Intelligence\nBreakup by Offering:\n• Hardware\n• Software']</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>DL-2ca378c36840a4ca83774f4da6b2dc11</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Enhancing diagnostic accuracy in bone fracture detection: A comparative study of customized and pre-trained deep learning models on X-ray images</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.21833/ijaas.2025.05.008</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Deep learning provides a useful alternative by automating the process of fracture detection. In this research, five models were tested: one custom Convolutional Neural Network (CNN) and four pre-trained models. The models’ performance was measured using accuracy, precision, recall, and F1-score.</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>211.17955</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['Deep learning provides a useful alternative by automating the process of fracture detection.', 'In this research, five models were tested: one custom Convolutional Neural Network (CNN) and four pre-trained models — AlexNet, DenseNet121, ResNet152, and EfficientNetB3.', 'The findings of this study emphasize the value of using advanced deep learning architectures for medical image analysis.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>DL-33d2a8dd1d8f9058284c681440a14ebe</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Developing Inexpensive Maintenance Plans For Machine Learning And Ai Applications In Technological Systems</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.63682/jns.v13i1.7169</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>To maintain accuracy and keep up with constantly changing data patterns, AI and ML systems need constant monitoring, frequent model changes, and retraining. Proactive maintenance, which uses ML algorithms to foresee issues before they happen and save repair costs and downtime, is one of the innovative ideas mentioned in the article.</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>211.13132</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>2025-06-07</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>['By enhancing data analytics and increasing operational efficiency via their integration into IT infrastructures, artificial intelligence (AI) and machine learning (ML) have transformed corporate operations.', 'Discovering the most cost-effective methods to enhance maintenance solutions for AI and ML installations is the primary goal of this study.', 'Businesses may better use their resources, decrease risks, and increase the lifespan of their AI and ML systems if they take preventative actions.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>DL-4c79d07685ed45e6afbe7db65f43cf4e</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Impact of artificial intelligence on students’ creativity in ODL: the mediating role of happiness</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1108/aaouj-01-2025-0010</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Artificial intelligence (AI) is an emerging research variable. It aims to enhance students' cognitive and creative abilities through the use of AI applications to better think and perform in their various academic fields. Today, AI tools and applications are rapidly growing in the education sector and have not yet been fully studied in online and distance learning settings.</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>210.9688</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2025-06-06</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>["Artificial intelligence (AI) is an emerging research variable. It aims to enhance students' cognitive and creative abilities through the use of AI applications to better think and perform in their various academic fields.", 'Based on the theory of planned behavior, the objective of this study is to highlight the role of AI in SC in ODL education.', 'Additionally, the results show that AI is positively related to SC indirectly through its impact on happiness, highlighting the mediating role of psychological well-being in the relationship between AI and creativity.In today’s diverse and highly competitive']</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>DL-5cd222fc65b4fbdc86a7895803054853</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>GM-VGG-Net: A Gray Matter-Based Deep Learning Network for Autism Classification</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>https://www.semanticscholar.org/paper/1c2a91321c4adebe57a89cccdc23a531cca411f3</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Around 1 in 59 individuals is diagnosed with Autism Spectrum Disorder (ASD) Conventionally, ASD has been diagnosed using functional brain regions, regions of interest, or multi-tissue-based training in artificial intelligence models. The objective of the exhibit study is to develop an efficient deep learning network for diagnosing ASD using whole brain gray matter (GM) tissues. We trained our deep network with 132 MRI T1 images from normal controls and 140 MRI images from ASD patients sourced from the Autism Brain Imaging Data Exchange (AB</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>210.90143</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>2025-06-03</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>['Conventionally, ASD has been diagnosed using functional brain regions, regions of interest, or multi-tissue-based training in artificial intelligence models.', 'Methods: In this work, we developed a VGG-based deep learning network capable of diagnosing autism using whole brain gray matter (GM) tissues.', 'Our deep learning model accomplished a training accuracy of 97% and a validation accuracy of 96% over 50 epochs without overfitting.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>DL-f9fb0810594c86c155aaa83cd2fcf023</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Category: Artificial Intelligence</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>https://newsroom.intel.com/artificial-intelligence?filters=%5B-7300596454,-8111542043%5D</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>161 results Intel-Backed AI PC Help Cut Eye Lesion Detection from Weeks to Seconds New Intel Xeon 6 CPUs to Maximize GPU-Accelerated AI Performance May 22, 2025 AI Assistant Builder Delivers Free AI Assistants May 20, 2025 Intel Gaudi 3 ExpandsAvailability to Drive AI Innovation at Scale May 19, 2025 Media Alert: Intel at Microsoft Build 2025 May 8, 2025 Core Ultra 200V to the Rescue for Near-Extinct Bears April 15, 2025 Page 1 of</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>210.68033</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>2025-06-03T16:10:24+00:00</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['161 results\nIntel-Backed AI PC Helps Cut Eye Lesion Detection from Weeks to Seconds\nNew Intel Xeon 6 CPUs to Maximize GPU-Accelerated AI Performance\nMay 22, 2025\nAI Assistant Builder Delivers Free AI Assistants\nMay 20, 2025\nIntel Gaudi 3 Expands Availability', 'Launches Arc B-Series Graphics Cards\nDecember 3, 2024\nIntel AI Platforms at the Olympic Games Paris 2024\nNovember 25, 2024\nIntel Launches First AI PC Intel Core Ultra Desktop Processors\nOctober 10, 2024\nIntel Celebrates AI Innovations by Students with', '3 AI Accelerators\nPress Kit: Artificial Intelligence at Intel\nUpdated September 19, 2024\nNew Core Ultra Processors Deliver Breakthrough Performance, Efficiency for the AI PC Age\nSeptember 3, 2024\nIntel Unlocks New Laptop Efficiency with Speed\nSeptember']</t>
-        </is>
+          <t>['That feels choppy compared to the silky smooth frame rate of single player mode at first, but your eyes will adjust to the difference before you’ve finished your first race.\nopen image in gallery Split-screen dials back the frame rate but keeps 24-player', 'races and the ability to explore the open world ( Nintendo )\nAs an aside, if you don’t think you can spot the difference between games running at 30, 60 and 120 frames per second, the Nintendo Switch 2 Welcome Tour has a special minigame where you can']</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>0.7906</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4034,7 +4412,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>artificial intelligence</t>
+          <t>What are the latest and most unbiased reviews or ratings or experiences on the Nintendo Switch 2. Please ensure the articles are solely on the Nintendo Switch 2.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -4094,14 +4472,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10000</v>
+        <v>88</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>artificial intelligence</t>
+          <t>What are the latest and most unbiased reviews or ratings or experiences on the Nintendo Switch 2. Please ensure the articles are solely on the Nintendo Switch 2.</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>320.68298</v>
+        <v>320.6878</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>163.04446</v>
+        <v>163.0597</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>157.74072</v>
+        <v>157.74315</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>146.06949</v>
+        <v>146.0713</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76.48515</v>
+        <v>76.48631</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>65.02343999999999</v>
+        <v>65.02419999999999</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>46.0062</v>
+        <v>46.007133</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.758955</v>
+        <v>25.759068</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24.691505</v>
+        <v>24.691805</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>21.261005</v>
+        <v>21.261477</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.365265</v>
+        <v>19.36528</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.283064</v>
+        <v>16.283268</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.02059</v>
+        <v>12.020853</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.560017</v>
+        <v>11.56027</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11.422302</v>
+        <v>11.422516</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.268749</v>
+        <v>11.269152</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9.852751</v>
+        <v>9.852928</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.773137999999999</v>
+        <v>9.773457000000001</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.219555</v>
+        <v>8.218931</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.700857</v>
+        <v>7.700903</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>7.661665</v>
+        <v>7.6617393</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7.1618767</v>
+        <v>7.1621685</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6.8640747</v>
+        <v>6.864105</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.4529076</v>
+        <v>6.452999</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5.8218613</v>
+        <v>5.8221245</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5.5119667</v>
+        <v>5.511585</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.839899</v>
+        <v>4.806385</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.701618</v>
+        <v>4.701643</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4.325636</v>
+        <v>4.325392</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.2810135</v>
+        <v>4.281063</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4.160721</v>
+        <v>4.1608124</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4.1212997</v>
+        <v>4.1213493</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4.0957336</v>
+        <v>4.095972</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.4143295</v>
+        <v>3.4143333</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.31678</v>
+        <v>3.3168545</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.1636581</v>
+        <v>3.1638184</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.096241</v>
+        <v>3.0962734</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.9316444</v>
+        <v>2.9316483</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2.6659985</v>
+        <v>2.666113</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2.6303253</v>
+        <v>2.630474</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.620596</v>
+        <v>2.6206264</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2.60289</v>
+        <v>2.6030064</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2.5592842</v>
+        <v>2.5434074</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2.4698067</v>
+        <v>2.4696312</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2462,218 +2462,218 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DL-887a2385045f651122c064ee4d0928fc</t>
+          <t>DL-37c373fee1dff1bb24a16495a09080f5</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Endless coughs to buy the latest Nintendo console... and miss it</t>
+          <t>Nintendo Switch 2 vs Nintendo Switch : what are the main differences?</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.vozpopuli.com/altavoz/cultura/colas-interminables-para-comprar-la-ultima-consola-de-nintendo-y-se-quedan-sin-ella.html</t>
+          <t>https://www.numerama.com/tech/1988347-nintendo-switch-2-vs-nintendo-switch-quelles-sont-les-principales-differences.html</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Nintendo announced the launch of their new Nintendo Switch 2 console on May 5th. The lack of'stock' has caused the consequent anger of those who have been left without their longed-for toy. Even some, who had paid in advance months in advance, have ended up without theirs.</t>
+          <t>Switch 2 is a direct evolution of the Switch (Standard and OLED) it is also able to play its games, thanks to backwards compatibility. The launch catalogue already offers its own exclusives with the latest Mario Kart World, available only on this new model. There are also many improvements that, when completed, make this console a much more significant advance than the OLED Switch had been compared to the classic Switch.</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.323763</v>
+        <v>2.4266968</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-07T02:45:07+00:00</t>
+          <t>2025-06-10T14:12:11+00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['The Nintendo Switch is today the third best-selling video game console in history and, at the rate it is going, everything indicates that it will soon reach second place.', 'The Nintendo Switch 2 was officially released on June 5, 2025, although there were people who were able to get it on June 4 to try it out earlier. However, there is a big problem with its release: there is not enough stock for everyone.']</t>
+          <t>['The Nintendo Switch 2 relies on a catalogue of exclusive games. Mario kart World is the first of its kind and there is no chance that it will be seen on previous generations. So a big argument: that of ensuring compatibility with the next games.', 'Which Nintendo Switch to choose? After reviewing the many differences between the models, the question remains: what is the best choice for Nintendo Switch in 2025?', 'In short, the Switch 2 is now the best option at Nintendo, not only because it’s the latest console to date (the OLED Switch was not specifically recommended at the time of its release). But this new Switch 2 marks a new chapter.']</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>-0.7184</v>
+        <v>0.8268</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="J47" t="n">
-        <v>0.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DL-ce5f9cdf63998a111dd0a2e7410853d6</t>
+          <t>DL-887a2385045f651122c064ee4d0928fc</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Meta in talks with Disney, A24 and others to secure content for VR headsets</t>
+          <t>Endless coughs to buy the latest Nintendo console... and miss it</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://gigazine.net/gsc_news/en/20250605-meta-vr-contents-from-disney-a24/</t>
+          <t>https://www.vozpopuli.com/altavoz/cultura/colas-interminables-para-comprar-la-ultima-consola-de-nintendo-y-se-quedan-sin-ella.html</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>FFmpeg has integrated WebRTC support, enabling ultra-low latency streaming of less than 1 second with OBS, the latest codecs can be selected, and even streaming without a server is now possible X files lawsuit against eight users who tried to unfairly increase their revenue by abusing 'creator revenue sharing' Meta announces details of AI smart glasses 'Aria Gen 2', explaining cutting-edge camera and sensor technology Results of 'MLPerf Training v5.0', which</t>
+          <t>Nintendo announced the launch of their new Nintendo Switch 2 console on May 5th. The lack of'stock' has caused the consequent anger of those who have been left without their longed-for toy. Even some, who had paid in advance months in advance, have ended up without theirs.</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2.3176193</v>
+        <v>2.3237877</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-05T06:24:00+00:00</t>
+          <t>2025-06-07T02:45:07+00:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>["reaffirms plans to invest $100 billion in Arizona over next five years\nPart of 'MetaHuman', a game development tool that allows you to create and move ultra-realistic 3DCG characters for free, is integrated into Unreal Engine 5.6\nThe reason why the Nintendo", "Switch 2 was not loaned to the media for pre-release review was because 'important features and updates for the console' will be provided on the release date of June 5th.", "Speculation is rife that the Chinese-made high-performance AI model 'DeepSeek-R1-0528' may have been distilled using Google's AI 'Gemini'\nAttention is drawn to the warning in the Nintendo Switch 2 manual that reads, 'Do not remove the shatterproof film"]</t>
+          <t>['The Nintendo Switch is today the third best-selling video game console in history and, at the rate it is going, everything indicates that it will soon reach second place.', 'The Nintendo Switch 2 was officially released on June 5, 2025, although there were people who were able to get it on June 4 to try it out earlier. However, there is a big problem with its release: there is not enough stock for everyone.']</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.4588</v>
+        <v>-0.7184</v>
       </c>
       <c r="I48" t="n">
-        <v>0.133</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.108</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DL-b080cb5509d88a1ec15ee8a2c6106938</t>
+          <t>DL-ce5f9cdf63998a111dd0a2e7410853d6</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Get the most out of your Nintendo Switch 2 with these 3 TVs I've picked to pair with it, including one of the best OLED TVs I've seen</t>
+          <t>Meta in talks with Disney, A24 and others to secure content for VR headsets</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.techradar.com/televisions/get-the-most-out-of-your-nintendo-switch-2-with-these-3-tvs-ive-picked-to-pair-with-it-including-one-of-the-best-oled-tvs-ive-seen</t>
+          <t>https://gigazine.net/gsc_news/en/20250605-meta-vr-contents-from-disney-a24/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TechRadar look for VRR, 120Hz refresh rate and Auto Low Latency Mode. Low input lag for responsive performance and top-notch picture quality are also important. LG B4 48-inch 4K OLED TV : £879 now £849 at Best Buy The LG C4 provides premium OLED picture quality and a full array of gaming features.</t>
+          <t>FFmpeg has integrated WebRTC support, enabling ultra-low latency streaming of less than 1 second with OBS, the latest codecs can be selected, and even streaming without a server is now possible X files lawsuit against eight users who tried to unfairly increase their revenue by abusing 'creator revenue sharing' Meta announces details of AI smart glasses 'Aria Gen 2', explaining cutting-edge camera and sensor technology Results of 'MLPerf Training v5.0', which</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2.035572</v>
+        <v>2.3176746</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-06T08:00:00</t>
+          <t>2025-06-05T06:24:00+00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['The Nintendo Switch 2 has finally arrived, and it brings several upgrades over its predecessor, including 4K resolution, 120Hz (at 1080p resolution) and HDR support.', 'And there’s no better time to buy one to pair with your Nintendo Switch 2 with ambitious ports such as Cyberpunk: 2077 available from launch.', 'The Switch 2 can once again take advantage of that low input lag time for ultra-responsive performance (crucial for Mario Kart World) and the B4’s 4K, HDR and 120Hz support to level-up their experience from the original Nintendo Switch.']</t>
+          <t>["reaffirms plans to invest $100 billion in Arizona over next five years\nPart of 'MetaHuman', a game development tool that allows you to create and move ultra-realistic 3DCG characters for free, is integrated into Unreal Engine 5.6\nThe reason why the Nintendo", "Switch 2 was not loaned to the media for pre-release review was because 'important features and updates for the console' will be provided on the release date of June 5th.", "Speculation is rife that the Chinese-made high-performance AI model 'DeepSeek-R1-0528' may have been distilled using Google's AI 'Gemini'\nAttention is drawn to the warning in the Nintendo Switch 2 manual that reads, 'Do not remove the shatterproof film"]</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.5719</v>
+        <v>0.4588</v>
       </c>
       <c r="I49" t="n">
-        <v>0.181</v>
+        <v>0.133</v>
       </c>
       <c r="J49" t="n">
-        <v>0.116</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DL-bc0bf2ef431589eeb38d530dce7bdf45</t>
+          <t>DL-b080cb5509d88a1ec15ee8a2c6106938</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Bouncemasters demo now available on Steam</t>
+          <t>Get the most out of your Nintendo Switch 2 with these 3 TVs I've picked to pair with it, including one of the best OLED TVs I've seen</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://thatsgaming.nl/bouncemasters-demo-nu-beschikbaar-op-steam/</t>
+          <t>https://www.techradar.com/televisions/get-the-most-out-of-your-nintendo-switch-2-with-these-3-tvs-ive-picked-to-pair-with-it-including-one-of-the-best-oled-tvs-ive-seen</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Bouncemasters is a fun physics-based arcade game inspired by Yetisports. The full version comes out on Steam in the third quarter of 2025. TAMAGOTCHI PLAZA is coming to the Nintendo Switch 2 and Nintendo Switch 2. Both versions will be compatible with the Tamagotchi Uni device.</t>
+          <t>TechRadar look for VRR, 120Hz refresh rate and Auto Low Latency Mode. Low input lag for responsive performance and top-notch picture quality are also important. LG B4 48-inch 4K OLED TV : £879 now £849 at Best Buy The LG C4 provides premium OLED picture quality and a full array of gaming features.</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.8310566</v>
+        <v>2.0356522</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-06T18:57:55+00:00</t>
+          <t>2025-06-06T08:00:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['Nintendo Switch 2 players who already own the original Switch version of TAMGOTCHI PLAZA can access the exclusive content by creating the Tamagotchi Plaza Nintendo Switch 2 upgrade package.', 'TAMAGOTCHI PLAZA brings back the unique and engaging experience of the series: setting up idiosyncratic shops and serving cute characters.']</t>
+          <t>['The Nintendo Switch 2 has finally arrived, and it brings several upgrades over its predecessor, including 4K resolution, 120Hz (at 1080p resolution) and HDR support.', 'And there’s no better time to buy one to pair with your Nintendo Switch 2 with ambitious ports such as Cyberpunk: 2077 available from launch.', 'The Switch 2 can once again take advantage of that low input lag time for ultra-responsive performance (crucial for Mario Kart World) and the B4’s 4K, HDR and 120Hz support to level-up their experience from the original Nintendo Switch.']</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0.7579</v>
+        <v>0.5719</v>
       </c>
       <c r="I50" t="n">
-        <v>0.137</v>
+        <v>0.181</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DL-17c1cd3dca5a8d385d5f912ade6383f3</t>
+          <t>DL-bc0bf2ef431589eeb38d530dce7bdf45</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 launches today. Here’s what to know</t>
+          <t>Bouncemasters demo now available on Steam</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.wsaw.com/2025/06/05/nintendo-switch-2-launches-today-heres-what-know/</t>
+          <t>https://thatsgaming.nl/bouncemasters-demo-nu-beschikbaar-op-steam/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Nintendo’s new console, the Switch 2, arrives on store shelves globally after being announced in April. Nearly all US Best Buy stores opened just after midnight to accommodate eager fans. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table.</t>
+          <t>Bouncemasters is a fun physics-based arcade game inspired by Yetisports. The full version comes out on Steam in the third quarter of 2025. TAMAGOTCHI PLAZA is coming to the Nintendo Switch 2 and Nintendo Switch 2. Both versions will be compatible with the Tamagotchi Uni device.</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.7731018</v>
+        <v>1.8311577</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-05T13:46:00+00:00</t>
+          <t>2025-06-06T18:57:55+00:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.', 'Nintendo Switch 2 gaming devices are stored on the day Nintendo starts selling the new consoles globally, at an electronics store in Tokyo, Japan, on June 5.\nNintendo has also given the console hardware a much-needed upgrade.']</t>
+          <t>['Nintendo Switch 2 players who already own the original Switch version of TAMGOTCHI PLAZA can access the exclusive content by creating the Tamagotchi Plaza Nintendo Switch 2 upgrade package.', 'TAMAGOTCHI PLAZA brings back the unique and engaging experience of the series: setting up idiosyncratic shops and serving cute characters.']</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0.8442</v>
+        <v>0.7579</v>
       </c>
       <c r="I51" t="n">
-        <v>0.171</v>
+        <v>0.137</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2682,126 +2682,126 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DL-6b1dfb573ca972c47a35c3452e0b887c</t>
+          <t>DL-17c1cd3dca5a8d385d5f912ade6383f3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>With the release of the Nintendo Switch 2, what's the future for the Switch?</t>
+          <t>The Nintendo Switch 2 launches today. Here’s what to know</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.gamekult.com/actualite/avec-la-sortie-de-la-nintendo-switch-2-quel-avenir-pour-la-switch-3050864092.html</t>
+          <t>https://www.wsaw.com/2025/06/05/nintendo-switch-2-launches-today-heres-what-know/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Nintendo has always shown a rigorous follow-up on its previous consoles. Examples include the 3DS, which was eligible for new features until 2019 (two years after Switch’s release), and an online store until 2023. The real question would be whether Nintendo would be willing to offer its productions on both machines at the same time.</t>
+          <t>Nintendo’s new console, the Switch 2, arrives on store shelves globally after being announced in April. Nearly all US Best Buy stores opened just after midnight to accommodate eager fans. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table.</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.5549698</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
+        <v>1.7731247</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-06-05T13:46:00+00:00</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['Samus will be on both Switches A situation that is explained by Nintendo’s legacy, but also by the fact that the adoption rate of the console is probably still questionable at the moment.', 'If Nintendo has not spoken out on this issue, Kyoto is well aware that the switch 2 adoption curve is more uncertain than the first one, in the sense that consumers will be much more reluctant to switch, mainly for price reasons of course.']</t>
+          <t>['In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.', 'Nintendo Switch 2 gaming devices are stored on the day Nintendo starts selling the new consoles globally, at an electronics store in Tokyo, Japan, on June 5.\nNintendo has also given the console hardware a much-needed upgrade.']</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>-0.2732</v>
+        <v>0.8442</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>0.171</v>
       </c>
       <c r="J52" t="n">
-        <v>0.039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DL-05605b9ac8551ba2df3061a3bb23d284</t>
+          <t>DL-6b1dfb573ca972c47a35c3452e0b887c</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>My Switch 2 Review in Progress: It's Good, but Don't Give In to the FOMO Yet</t>
+          <t>With the release of the Nintendo Switch 2, what's the future for the Switch?</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.cnet.com/tech/gaming/my-switch-2-review-in-progress-its-good-but-dont-give-in-to-the-fomo-yet/</t>
+          <t>https://www.gamekult.com/actualite/avec-la-sortie-de-la-nintendo-switch-2-quel-avenir-pour-la-switch-3050864092.html</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 is all anyone in gaming is talking about right now, and it could very well be the biggest gadget of 2025. By now, thousands of Switch 2 owners have one in hand as well, and the company will certainly sell thousands more this year. This clearly feels like a really good upgrade to aging Switches, but it's also not anything any current Switch owner needs to rush into.</t>
+          <t>Nintendo has always shown a rigorous follow-up on its previous consoles. Examples include the 3DS, which was eligible for new features until 2019 (two years after Switch’s release), and an online store until 2023. The real question would be whether Nintendo would be willing to offer its productions on both machines at the same time.</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.5476303</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2025-06-06T22:34:00+00:00</t>
-        </is>
-      </c>
+        <v>1.5550461</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>["By now, thousands of Switch 2 owners have one in hand as well, and the company will certainly sell thousands more this year, especially during the holidays. So, how good is Nintendo's new console? And is it worth upgrading from the original Switch?", "I haven't had enough time to fully review the Switch 2 yet, and the Switch 2 hasn't had enough time to spread its wings and grow its game library. These are early days for Nintendo's new console, but there's some stuff I can already tell you.", "It's a simple thing, but it really makes swapping them into accessories and back into the Switch feel effortless, the way Nintendo always advertised the experience as feeling."]</t>
+          <t>['Samus will be on both Switches A situation that is explained by Nintendo’s legacy, but also by the fact that the adoption rate of the console is probably still questionable at the moment.', 'If Nintendo has not spoken out on this issue, Kyoto is well aware that the switch 2 adoption curve is more uncertain than the first one, in the sense that consumers will be much more reluctant to switch, mainly for price reasons of course.']</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0.8443000000000001</v>
+        <v>-0.2732</v>
       </c>
       <c r="I53" t="n">
-        <v>0.177</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DL-f18eecd6ae1aa3953cec4cf5dcc3e634</t>
+          <t>DL-05605b9ac8551ba2df3061a3bb23d284</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>'I own a Switch 2 - this console case beats Nintendo's thanks to one main feature'</t>
+          <t>My Switch 2 Review in Progress: It's Good, but Don't Give In to the FOMO Yet</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.birminghammail.co.uk/whats-on/shopping/i-switch-2-console-case-31823315</t>
+          <t>https://www.cnet.com/tech/gaming/my-switch-2-review-in-progress-its-good-but-dont-give-in-to-the-fomo-yet/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 is out and I was lucky enough to get my hands on the Switch 2 on release day. There are plenty of choices out there, including the official Nintendo Switch 2, which can be bought almost everywhere. Amazon lawnmower reduced from over £100 is 'lightweight' and 'easy to handle'</t>
+          <t>The Nintendo Switch 2 is all anyone in gaming is talking about right now, and it could very well be the biggest gadget of 2025. By now, thousands of Switch 2 owners have one in hand as well, and the company will certainly sell thousands more this year. This clearly feels like a really good upgrade to aging Switches, but it's also not anything any current Switch owner needs to rush into.</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1.5303574</v>
+        <v>1.5476952</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-10T10:29:21+00:00</t>
+          <t>2025-06-06T22:34:00+00:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>["The Nintendo Switch 2 is out and in the search for a new case - I might have found my top choice thanks to one main feature\nI was lucky enough to get my hands on the Nintendo Switch 2 on release day, and it's definitely one of my favourite purchases so", "Without going into a massive review of the console, it is the definitive Switch experience, and it's exciting to see what the future holds for it."]</t>
+          <t>["By now, thousands of Switch 2 owners have one in hand as well, and the company will certainly sell thousands more this year, especially during the holidays. So, how good is Nintendo's new console? And is it worth upgrading from the original Switch?", "I haven't had enough time to fully review the Switch 2 yet, and the Switch 2 hasn't had enough time to spread its wings and grow its game library. These are early days for Nintendo's new console, but there's some stuff I can already tell you.", "It's a simple thing, but it really makes swapping them into accessories and back into the Switch feel effortless, the way Nintendo always advertised the experience as feeling."]</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0.7287</v>
+        <v>0.8443000000000001</v>
       </c>
       <c r="I54" t="n">
-        <v>0.137</v>
+        <v>0.177</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2810,42 +2810,42 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DL-518e1f4a2492da2505d9f7e5db4b46e6</t>
+          <t>DL-f18eecd6ae1aa3953cec4cf5dcc3e634</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Microsoft Launches First Portable Game Console</t>
+          <t>'I own a Switch 2 - this console case beats Nintendo's thanks to one main feature'</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://jurnalul.ro/it/tehnica/microsoft-lansare-prima-consola-jocuri-portabila-1000410.html</t>
+          <t>https://www.birminghammail.co.uk/whats-on/shopping/i-switch-2-console-case-31823315</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>"Xbox Ally brings together the power offered by Xbox and the freedom offered by Windows," Bond says. The console price and exact launch dates will be announced in the coming months. Microsoft says both models evoke the brand's traditional controllers.</t>
+          <t>The Nintendo Switch 2 is out and I was lucky enough to get my hands on the Switch 2 on release day. There are plenty of choices out there, including the official Nintendo Switch 2, which can be bought almost everywhere. Amazon lawnmower reduced from over £100 is 'lightweight' and 'easy to handle'</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1.5025616</v>
+        <v>1.5207672</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-09T00:00:00</t>
+          <t>2025-06-10T10:29:21+00:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['"Xbox Ally and Xbox Ally X are perfect for players who are looking for an accessible gaming experience while travelling, whether by plane or between the two comfortable indoor seats," Microsoft said in a statement, according to the AFP.', "The announcement came just days after Japan's Nintendo launched the Switch 2 portable console."]</t>
+          <t>["The Nintendo Switch 2 is out and in the search for a new case - I might have found my top choice thanks to one main feature\nI was lucky enough to get my hands on the Nintendo Switch 2 on release day, and it's definitely one of my favourite purchases so", "Without going into a massive review of the console, it is the definitive Switch experience, and it's exciting to see what the future holds for it."]</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0.6369</v>
+        <v>0.7287</v>
       </c>
       <c r="I55" t="n">
-        <v>0.097</v>
+        <v>0.137</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2854,42 +2854,42 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DL-62f6feb86add6bac2ca72da8a1135b3b</t>
+          <t>DL-518e1f4a2492da2505d9f7e5db4b46e6</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Belkin unveils new gaming portfolio featuring power-packed charging accessories, gaming essentials</t>
+          <t>Microsoft Launches First Portable Game Console</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.tahawultech.com/business/belkin-unveils-new-gaming-portfolio-featuring-power-packed-charging-accessories-gaming-essentials/</t>
+          <t>https://jurnalul.ro/it/tehnica/microsoft-lansare-prima-consola-jocuri-portabila-1000410.html</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Belkin is “Leveling up your play” – bringing a new level of reliability to the gaming ecosystem that differentiates through premium materials, timeless design, and in-house engineering. The new range includes elevated accessories designed to enhance the gaming experience, featuring on-the-go charging solutions, audio gear, robust screen protection, and new travel cases built for effortless portability and protection.</t>
+          <t>"Xbox Ally brings together the power offered by Xbox and the freedom offered by Windows," Bond says. The console price and exact launch dates will be announced in the coming months. Microsoft says both models evoke the brand's traditional controllers.</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1.5013828</v>
+        <v>1.5027504</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-06T17:45:51+00:00</t>
+          <t>2025-06-09T00:00:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['Belkin’s first iteration of gaming accessories will feature products designed to be compatible with Nintendo Switch 2\nLOS ANGELES, CA – Belkin, a leading consumer electronics brand for over 40 years, today announced its entry into the gaming accessories', 'space with the launch of a new lineup designed to be compatible with the highly anticipated Nintendo Switch 2.', 'Built on decades of experience in power, connectivity and device protection, and released under Belkin’s innovation-focused Future Ventures category, this marks the company’s first collection of products tailored specifically for the gaming community.']</t>
+          <t>['"Xbox Ally and Xbox Ally X are perfect for players who are looking for an accessible gaming experience while travelling, whether by plane or between the two comfortable indoor seats," Microsoft said in a statement, according to the AFP.', "The announcement came just days after Japan's Nintendo launched the Switch 2 portable console."]</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0.6705</v>
+        <v>0.6369</v>
       </c>
       <c r="I56" t="n">
-        <v>0.104</v>
+        <v>0.097</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2898,346 +2898,346 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DL-5dcc26e57d179cf942f68c4c1a43add8</t>
+          <t>DL-62f6feb86add6bac2ca72da8a1135b3b</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2: Everything to know about the price and features</t>
+          <t>Belkin unveils new gaming portfolio featuring power-packed charging accessories, gaming essentials</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://abc11.com/post/nintendo-switch-2-heres-everything-need-know-price-features/16656981/</t>
+          <t>https://www.tahawultech.com/business/belkin-unveils-new-gaming-portfolio-featuring-power-packed-charging-accessories-gaming-essentials/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>The long-awaited release of the Nintendo Switch 2 is set to arrive early Thursday morning. Here's what to know about the hype behind the Switch 2, the key features of the gaming system and how to buy it. Online pre-orders are largely sold out but gamers can purchase a limited in-store supply starting at 12:01 a.m. ET on Thursday. The Nintendo Switch has sold more than 152 million consoles.</t>
+          <t>Belkin is “Leveling up your play” – bringing a new level of reliability to the gaming ecosystem that differentiates through premium materials, timeless design, and in-house engineering. The new range includes elevated accessories designed to enhance the gaming experience, featuring on-the-go charging solutions, audio gear, robust screen protection, and new travel cases built for effortless portability and protection.</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.4305363</v>
+        <v>1.501461</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-05T16:14:46</t>
+          <t>2025-06-06T17:45:51+00:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['The price of the Nintendo Switch 2 in the U.S. is $449.99, while a bundle that includes "Mario Kart World" runs $499.99.\nThat price remains unchanged by Trumps tariffs, the Japan-based gaming giant said in April.', '"Nintendo Switch 2 accessories will experience price adjustments from those announced on April 2 due to changes in market conditions," the company said.', '"Other adjustments to the price of any Nintendo product are also possible in the future depending on market conditions."']</t>
+          <t>['Belkin’s first iteration of gaming accessories will feature products designed to be compatible with Nintendo Switch 2\nLOS ANGELES, CA – Belkin, a leading consumer electronics brand for over 40 years, today announced its entry into the gaming accessories', 'space with the launch of a new lineup designed to be compatible with the highly anticipated Nintendo Switch 2.', 'Built on decades of experience in power, connectivity and device protection, and released under Belkin’s innovation-focused Future Ventures category, this marks the company’s first collection of products tailored specifically for the gaming community.']</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-0.34</v>
+        <v>0.6705</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="J57" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DL-a77fb4dd359d5198b3f658382e12f176</t>
+          <t>DL-5dcc26e57d179cf942f68c4c1a43add8</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>These Nintendo Switch 2 Edition upgrades can keep you from breaking the bank</t>
+          <t>Nintendo Switch 2: Everything to know about the price and features</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.pockettactics.com/nintendo-switch/switch-2-edition-upgrades</t>
+          <t>https://abc11.com/post/nintendo-switch-2-heres-everything-need-know-price-features/16656981/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>I picked up the Nintendo Switch 2 yesterday, losing many hours already to the likes of Mario Kart World and Cyberpunk 2077. On top of the price of the console itself, it'll cost you $1.2k to buy all of the Switch 2 launch games. If you do have those two excellent RPGs, you can actually upgrade them to their Switch 2 versions for free. I'm thrilled to see Pokémon Scarlet and Violet get one.</t>
+          <t>The long-awaited release of the Nintendo Switch 2 is set to arrive early Thursday morning. Here's what to know about the hype behind the Switch 2, the key features of the gaming system and how to buy it. Online pre-orders are largely sold out but gamers can purchase a limited in-store supply starting at 12:01 a.m. ET on Thursday. The Nintendo Switch has sold more than 152 million consoles.</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1.3596001</v>
+        <v>1.4305553</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-06T17:42:06</t>
+          <t>2025-06-05T16:14:46</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['Looking to the future, it appears as though Nintendo is partial to Switch 2 upgrades, just like Xbox and PlayStation with their respective games and consoles, as one of the best Mario Party games, Super Mario Party Jamboree – Nintendo Switch 2 Edition', 'With an upgrade price of $19.99, you can enjoy Kirby and the Forgotten Land Switch 2 Edition. Better still, this comes with the Star-Crossed World DLC, giving you something completely new to experience as you revisit this fun Kirby adventure.', "While I already have a Nintendo Switch 2, I do like knowing that people who don't intend to pick it up just yet – perhaps even for a couple of years – have a reasonable option to upgrade some new Switch games they do buy between now and then, with other"]</t>
+          <t>['The price of the Nintendo Switch 2 in the U.S. is $449.99, while a bundle that includes "Mario Kart World" runs $499.99.\nThat price remains unchanged by Trumps tariffs, the Japan-based gaming giant said in April.', '"Nintendo Switch 2 accessories will experience price adjustments from those announced on April 2 due to changes in market conditions," the company said.', '"Other adjustments to the price of any Nintendo product are also possible in the future depending on market conditions."']</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>0.8979</v>
+        <v>-0.34</v>
       </c>
       <c r="I58" t="n">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.032</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DL-2ce32c01c084cc6ab184d989c771b28e</t>
+          <t>DL-a77fb4dd359d5198b3f658382e12f176</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 already has a flaw: its autonomy</t>
+          <t>These Nintendo Switch 2 Edition upgrades can keep you from breaking the bank</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.numerama.com/tech/1985971-la-nintendo-switch-2-a-deja-un-defaut-son-autonomie.html</t>
+          <t>https://www.pockettactics.com/nintendo-switch/switch-2-edition-upgrades</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>The console is at the level of the very first version of the Switch, dated 2017. Our first tests, with a console set to 50% brightness and 50% audio volume, are not likely to reassure those who feared the worst about Switch 2’s autonomy. Cyberpunk 2077 was first launched for half an hour: the console has been upgraded from 50% battery to 22% battery.</t>
+          <t>I picked up the Nintendo Switch 2 yesterday, losing many hours already to the likes of Mario Kart World and Cyberpunk 2077. On top of the price of the console itself, it'll cost you $1.2k to buy all of the Switch 2 launch games. If you do have those two excellent RPGs, you can actually upgrade them to their Switch 2 versions for free. I'm thrilled to see Pokémon Scarlet and Violet get one.</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1.3131561</v>
+        <v>1.3596745</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-06T08:28:24</t>
+          <t>2025-06-06T17:42:06</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['I accept everything Managing my choices No miracle for Nintendo Switch 2 autonomy Your data deserves better protection. Scams, viruses and ransomware are no longer fatal.', 'If we extrapolate our little experiment (which requires repeating several times to refine), we would barely exceed the two hours of play on Cyberpunk 2077, while we could hope to reach the 3h30 on The Legend of Zelda: Breath of the Wild.', 'The Legend of Zelda: Breath of the Wild consumes a lot on Nintendo Switch 2 // Source: Nino Barbey for Numerama The choice to return to an LCD panel is really not the idea of the century, especially since its refresh rate of 120 Hz must consume more (']</t>
+          <t>['Looking to the future, it appears as though Nintendo is partial to Switch 2 upgrades, just like Xbox and PlayStation with their respective games and consoles, as one of the best Mario Party games, Super Mario Party Jamboree – Nintendo Switch 2 Edition', 'With an upgrade price of $19.99, you can enjoy Kirby and the Forgotten Land Switch 2 Edition. Better still, this comes with the Star-Crossed World DLC, giving you something completely new to experience as you revisit this fun Kirby adventure.', "While I already have a Nintendo Switch 2, I do like knowing that people who don't intend to pick it up just yet – perhaps even for a couple of years – have a reasonable option to upgrade some new Switch games they do buy between now and then, with other"]</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-0.738</v>
+        <v>0.8979</v>
       </c>
       <c r="I59" t="n">
-        <v>0.064</v>
+        <v>0.181</v>
       </c>
       <c r="J59" t="n">
-        <v>0.145</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DL-f93e2da6e1d3e279a286496afdb81d0a</t>
+          <t>DL-2ce32c01c084cc6ab184d989c771b28e</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>I Can't Believe How Much Easier Voice Chat Is on the Switch 2</t>
+          <t>The Nintendo Switch 2 already has a flaw: its autonomy</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://au.pcmag.com/gaming-systems/111364/i-cant-believe-how-much-easier-voice-chat-is-on-the-switch-2</t>
+          <t>https://www.numerama.com/tech/1985971-la-nintendo-switch-2-a-deja-un-defaut-son-autonomie.html</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>The Switch 2 promises one of the company’s most ambitious online features yet with GameChat. I tested it before launch to see how Nintendo uses cameras and microphones to turn online gaming into a more fun, welcoming experience. Nintendo Switch 2 should support most USB-C webcams, even those with lower resolutions.</t>
+          <t>The console is at the level of the very first version of the Switch, dated 2017. Our first tests, with a console set to 50% brightness and 50% audio volume, are not likely to reassure those who feared the worst about Switch 2’s autonomy. Cyberpunk 2077 was first launched for half an hour: the console has been upgraded from 50% battery to 22% battery.</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.2322922</v>
+        <v>1.3132324</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-03T14:12:48+00:00</t>
+          <t>2025-06-06T08:28:24</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>["The Switch 2 promises one of the company’s most ambitious online features yet with GameChat, which is the system's new online communication system.", 'I tested it before launch to see how Nintendo uses cameras and microphones to turn online gaming into a more fun, welcoming experience.', "GameChat is so baked into the Switch 2 experience that there's a dedicated button for it on the Joy-Con controllers. Pressing the new C button launches the GameChat menu that lets you create a lobby or see which friends are online and ready to play."]</t>
+          <t>['I accept everything Managing my choices No miracle for Nintendo Switch 2 autonomy Your data deserves better protection. Scams, viruses and ransomware are no longer fatal.', 'If we extrapolate our little experiment (which requires repeating several times to refine), we would barely exceed the two hours of play on Cyberpunk 2077, while we could hope to reach the 3h30 on The Legend of Zelda: Breath of the Wild.', 'The Legend of Zelda: Breath of the Wild consumes a lot on Nintendo Switch 2 // Source: Nino Barbey for Numerama The choice to return to an LCD panel is really not the idea of the century, especially since its refresh rate of 120 Hz must consume more (']</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>0.9226</v>
+        <v>-0.738</v>
       </c>
       <c r="I60" t="n">
-        <v>0.264</v>
+        <v>0.064</v>
       </c>
       <c r="J60" t="n">
-        <v>0.038</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DL-b108c340c0dc3990b6d0f186f3c32267</t>
+          <t>DL-f93e2da6e1d3e279a286496afdb81d0a</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Nintendo Switch2 India Launch On THIS Date --Check Features And Expected Price</t>
+          <t>I Can't Believe How Much Easier Voice Chat Is on the Switch 2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://zeenews.india.com/technology/nintendo-switch2-india-launch-on-this-date-check-features-and-expected-price-2911893.html</t>
+          <t>https://au.pcmag.com/gaming-systems/111364/i-cant-believe-how-much-easier-voice-chat-is-on-the-switch-2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Nintendo Switch2 has gone out of stock globally within a day of its roll out. Priced at $499, Switch 2 comes with some major features upgrade over previous gen Switch. Switch2 is Powered by Nvidia Terga T239 chip with an octa-core ARM CORTEX- A78C CPU AND 12SM Ampere GPU. It comes with 12GB LPDDR5X RAM AND Faster loading speed.</t>
+          <t>The Switch 2 promises one of the company’s most ambitious online features yet with GameChat. I tested it before launch to see how Nintendo uses cameras and microphones to turn online gaming into a more fun, welcoming experience. Nintendo Switch 2 should support most USB-C webcams, even those with lower resolutions.</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1.2009258</v>
+        <v>1.2323608</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-06T00:00:00</t>
+          <t>2025-06-03T14:12:48+00:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['Priced at $499, Switch 2 comes with some major features upgrade over previous gen Switch.\nMajor Specification of Switch2\nDisplay: Nintendo Switch2 comes with larger 7.9-inch 1080p LCD touchscreen with HDR10 support and a refresh rate of 120Hz.']</t>
+          <t>["The Switch 2 promises one of the company’s most ambitious online features yet with GameChat, which is the system's new online communication system.", 'I tested it before launch to see how Nintendo uses cameras and microphones to turn online gaming into a more fun, welcoming experience.', "GameChat is so baked into the Switch 2 experience that there's a dedicated button for it on the Joy-Con controllers. Pressing the new C button launches the GameChat menu that lets you create a lobby or see which friends are online and ready to play."]</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>0.9226</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>0.264</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DL-201b8ebcf779d686eb6aa318af25eaa9</t>
+          <t>DL-b108c340c0dc3990b6d0f186f3c32267</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Launched sales of Nintendo Switch 2 - in which countries the console is available</t>
+          <t>Nintendo Switch2 India Launch On THIS Date --Check Features And Expected Price</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://games.24tv.ua/ru/startovali-prodazhi-nintendo-switch-2-v-kakih-stranah-dostupna-konsol-games_n2839620/amp</t>
+          <t>https://zeenews.india.com/technology/nintendo-switch2-india-launch-on-this-date-check-features-and-expected-price-2911893.html</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Nintendo decided to seriously oppose speculators who traditionally buy consoles for resale at an inflated price. Fans began to take seats in queues a few hours before the opening of the stores. Some even took a break from work to buy a novelty.</t>
+          <t>Nintendo Switch2 has gone out of stock globally within a day of its roll out. Priced at $499, Switch 2 comes with some major features upgrade over previous gen Switch. Switch2 is Powered by Nvidia Terga T239 chip with an octa-core ARM CORTEX- A78C CPU AND 12SM Ampere GPU. It comes with 12GB LPDDR5X RAM AND Faster loading speed.</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1.0896873</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
+        <v>1.2009792</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-06-06T00:00:00</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['It should be noted that neither in Ukraine nor in Russia Nintendo products are officially sold. On the eve of Nvidia CEO Jensen Huang said that Switch 2 will receive special AI processors that improve the gaming experience in real time.']</t>
+          <t>['Priced at $499, Switch 2 comes with some major features upgrade over previous gen Switch.\nMajor Specification of Switch2\nDisplay: Nintendo Switch2 comes with larger 7.9-inch 1080p LCD touchscreen with HDR10 support and a refresh rate of 120Hz.']</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>-0.1779</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DL-9403699c5a8c3acb6752501c45ccc38e</t>
+          <t>DL-201b8ebcf779d686eb6aa318af25eaa9</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 – Release brings 20 games directly</t>
+          <t>Launched sales of Nintendo Switch 2 - in which countries the console is available</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.toptechnews.de/2025/06/05/nintendo-switch-2-release-bringt-direkt-20-spiele-mit-sich/</t>
+          <t>https://games.24tv.ua/ru/startovali-prodazhi-nintendo-switch-2-v-kakih-stranah-dostupna-konsol-games_n2839620/amp</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2, Mario Kart World and more than 20 other titles are now available. Nintendo Switch 2 is the first new Nintendo console to be released since the introduction of Nintendo Switch eight years ago. The new Joy-Con 2 controllers are magnetically attached to the console and can be operated like a mouse by sliding them on a surface.</t>
+          <t>Nintendo decided to seriously oppose speculators who traditionally buy consoles for resale at an inflated price. Fans began to take seats in queues a few hours before the opening of the stores. Some even took a break from work to buy a novelty.</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1.0810165</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2025-06-05T15:28:24+00:00</t>
-        </is>
-      </c>
+        <v>1.0896988</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['If a compatible USB-C camera, such as the Nintendo Switch 2 camera (available separately), is connected, up to four people can also communicate with each other via video chat.', 'To optimize the gaming experience of Nintendo Switch titles on Nintendo Switch 2, there will be free updates for selected games that improve graphics or add new features, for example.2 The content of the free updates varies by game.', 'Sid Meier’s Civilization® VII – Nintendo Switch 2 Edition: Players can now influence the course of history on Nintendo Switch 2.']</t>
+          <t>['It should be noted that neither in Ukraine nor in Russia Nintendo products are officially sold. On the eve of Nvidia CEO Jensen Huang said that Switch 2 will receive special AI processors that improve the gaming experience in real time.']</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>0.743</v>
+        <v>-0.1779</v>
       </c>
       <c r="I63" t="n">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DL-90b89c57db6bd0dda29585ae2b322970</t>
+          <t>DL-9403699c5a8c3acb6752501c45ccc38e</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Switch 2 is important for Nintendo, but also for a Nvidia that does not want to lose ground against AMD.</t>
+          <t>Nintendo Switch 2 – Release brings 20 games directly</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.xataka.com/videojuegos/switch-2-importante-para-nintendo-tambien-para-nvidia-que-no-quiere-perder-terreno-amd</t>
+          <t>https://www.toptechnews.de/2025/06/05/nintendo-switch-2-release-bringt-direkt-20-spiele-mit-sich/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 returns to the load When a leading company, what it wants is to have even more part of the cake. Nvidia dominates the world of PC video games with an iron hand. AMD is doing well with its latest generations, but the singing voice is still carried by the company led by Jensen Huang.</t>
+          <t>Nintendo Switch 2, Mario Kart World and more than 20 other titles are now available. Nintendo Switch 2 is the first new Nintendo console to be released since the introduction of Nintendo Switch eight years ago. The new Joy-Con 2 controllers are magnetically attached to the console and can be operated like a mouse by sliding them on a surface.</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1.0759926</v>
+        <v>1.0810337</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-06T21:47:33+00:00</t>
+          <t>2025-06-05T15:28:24+00:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['Nintendo Switch 2 is here.', 'When a new generation of consoles arrives, beyond the new games and experiences it enables, there is a fundamental issue that may not be of much interest to all users, but is of vital importance to the technology industry: who signs the processor.']</t>
+          <t>['If a compatible USB-C camera, such as the Nintendo Switch 2 camera (available separately), is connected, up to four people can also communicate with each other via video chat.', 'To optimize the gaming experience of Nintendo Switch titles on Nintendo Switch 2, there will be free updates for selected games that improve graphics or add new features, for example.2 The content of the free updates varies by game.', 'Sid Meier’s Civilization® VII – Nintendo Switch 2 Edition: Players can now influence the course of history on Nintendo Switch 2.']</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>0.4118</v>
+        <v>0.743</v>
       </c>
       <c r="I64" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.106</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3246,42 +3246,42 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DL-8eed788f4c6b98f895779a24abd5aba6</t>
+          <t>DL-90b89c57db6bd0dda29585ae2b322970</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 guide: pre-order links, accessories and launch games</t>
+          <t>Switch 2 is important for Nintendo, but also for a Nvidia that does not want to lose ground against AMD.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.theshortcut.com/p/nintendo-switch-2-guide-pre-order-live</t>
+          <t>https://www.xataka.com/videojuegos/switch-2-importante-para-nintendo-tambien-para-nvidia-que-no-quiere-perder-terreno-amd</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>There are 10 tech stories in today’s Substack issue of The Shortcut Skip ahead to story 2 to 10 for more Nintendo Switch 2 is arriving at stores across the United States tonight. This is your chance to skip the line. Walmart always has more console inventory and better servers than GameStop.</t>
+          <t>Nintendo Switch 2 returns to the load When a leading company, what it wants is to have even more part of the cake. Nvidia dominates the world of PC video games with an iron hand. AMD is doing well with its latest generations, but the singing voice is still carried by the company led by Jensen Huang.</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.0604935</v>
+        <v>1.0760536</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-05T03:05:04</t>
+          <t>2025-06-06T21:47:33+00:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['My personal Switch 2 pre-order from Target was delayed at the last minute. So I’m in line – with the diehard Nintendo gamers, some of whom arrived at 8am ET – hoping to secure a Switch 2 from Best Buy at midnight. Review coming soon.\nThe best part?']</t>
+          <t>['Nintendo Switch 2 is here.', 'When a new generation of consoles arrives, beyond the new games and experiences it enables, there is a fundamental issue that may not be of much interest to all users, but is of vital importance to the technology industry: who signs the processor.']</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>0.7717000000000001</v>
+        <v>0.4118</v>
       </c>
       <c r="I65" t="n">
-        <v>0.146</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3290,221 +3290,221 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DL-cbe41ea394a2ced64f8f9324991f8418</t>
+          <t>DL-8eed788f4c6b98f895779a24abd5aba6</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Osceola County Sheriff Lopez to make first court appearance after facing federal charges</t>
+          <t>Nintendo Switch 2 guide: pre-order links, accessories and launch games</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://spotonflorida.com/central-florida/5775312/osceola-county-sheriff-lopez-to-make.html</t>
+          <t>https://www.theshortcut.com/p/nintendo-switch-2-guide-pre-order-live</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sheriff Marcos Lopez has been booked at Lake County Jail without bond. Over 250,000 pay homage to Pope Francis as world leaders prepare to attend funeral.</t>
+          <t>There are 10 tech stories in today’s Substack issue of The Shortcut Skip ahead to story 2 to 10 for more Nintendo Switch 2 is arriving at stores across the United States tonight. This is your chance to skip the line. Walmart always has more console inventory and better servers than GameStop.</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.051199</v>
+        <v>1.0605202</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-06T14:15:38+00:00</t>
+          <t>2025-06-05T03:05:04</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['Environment Day\n09:49 Disneyland ride shuts down after car derails off track: Witness\n08:35 Ex-GOP congressman David Jolly launches Democratic run for Florida governor (Video)\n08:35 Tavares residents concerned over proposed mixed-use development (Video)\n08:35 Experience', "Kissimmee aims to boost visitors through 'gastro tourism,' value-focused vacations (Video)\n08:35 The Morning News | Live Central Florida headlines, weather and traffic (Video)\n08:34 Gamers camp out for Nintendo Switch 2 (Video)\n08:34 Are traffic control"]</t>
+          <t>['My personal Switch 2 pre-order from Target was delayed at the last minute. So I’m in line – with the diehard Nintendo gamers, some of whom arrived at 8am ET – hoping to secure a Switch 2 from Best Buy at midnight. Review coming soon.\nThe best part?']</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>-0.2969</v>
+        <v>0.7717000000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>0.048</v>
+        <v>0.146</v>
       </c>
       <c r="J66" t="n">
-        <v>0.093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DL-f75243e86744d36c28e7960ee772b4c0</t>
+          <t>DL-cbe41ea394a2ced64f8f9324991f8418</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Microsoft unveils Xbox gaming handheld launching in 2025 (updated with hands-on)</t>
+          <t>Osceola County Sheriff Lopez to make first court appearance after facing federal charges</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://venturebeat.com/business/microsoft-unveils-xbox-gaming-handheld-launching-in-2025/</t>
+          <t>https://spotonflorida.com/central-florida/5775312/osceola-county-sheriff-lopez-to-make.html</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Microsoft is diving into the handheld gaming market with its own Xbox-branded handheld in partnership with PC maker Asus. It has the Windows OS, a full Xbox screen experience, and Armoury Crate SE as a central hub for device management. The handheld will compete with rivals such as the Nintendo Switch 2 and the Valve Steam Deck.</t>
+          <t>Sheriff Marcos Lopez has been booked at Lake County Jail without bond. Over 250,000 pay homage to Pope Francis as world leaders prepare to attend funeral.</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1.0159454</v>
+        <v>1.0512486</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-06-08T20:53:17+00:00</t>
+          <t>2025-06-06T14:15:38+00:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['“The Xbox experience grows with you,” said Sarah Bond, president of Xbox, in the Xbox Showcase.\nThe company plans to launch the handheld in 2025. As such, it will compete with rivals such as the Nintendo Switch 2 and the Valve Steam Deck.', 'This one promises the power of an Xbox experience in your hands. It has a seven-inch IPS VRR screen.\nThe move could inspire both fear and derision, as the prospect for such a move has done in the past.']</t>
+          <t>['Environment Day\n09:49 Disneyland ride shuts down after car derails off track: Witness\n08:35 Ex-GOP congressman David Jolly launches Democratic run for Florida governor (Video)\n08:35 Tavares residents concerned over proposed mixed-use development (Video)\n08:35 Experience', "Kissimmee aims to boost visitors through 'gastro tourism,' value-focused vacations (Video)\n08:35 The Morning News | Live Central Florida headlines, weather and traffic (Video)\n08:34 Gamers camp out for Nintendo Switch 2 (Video)\n08:34 Are traffic control"]</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.0772</v>
+        <v>-0.2969</v>
       </c>
       <c r="I67" t="n">
-        <v>0.024</v>
+        <v>0.048</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DL-1c59b6df7e032db28024c576f73acce5</t>
+          <t>DL-f75243e86744d36c28e7960ee772b4c0</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>It started - Switch 2 with the first technical problems. Difficulties when downloading Mario Kart World</t>
+          <t>Microsoft unveils Xbox gaming handheld launching in 2025 (updated with hands-on)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.gram.pl/news/zaczelo-sie-switch-2-z-pierwszymi-problemami-technicznymi-utrudnienia-przy-pobieraniu-mario-kart-world</t>
+          <t>https://venturebeat.com/business/microsoft-unveils-xbox-gaming-handheld-launching-in-2025/</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Players who wanted to start their adventure with Nintendo Switch 2 reported serious problems with downloading the game. Error 2813-0171 The phrase "Mario Kart World doesn't want to be downloaded" quickly began to dominate search engines and forums. The source of the problem may be differences in console boot packages.</t>
+          <t>Microsoft is diving into the handheld gaming market with its own Xbox-branded handheld in partnership with PC maker Asus. It has the Windows OS, a full Xbox screen experience, and Armoury Crate SE as a central hub for device management. The handheld will compete with rivals such as the Nintendo Switch 2 and the Valve Steam Deck.</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.008112</v>
+        <v>1.0158577</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-06-06T10:10:00</t>
+          <t>2025-06-08T20:53:17+00:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['Users who purchased Nintendo Switch 2 with Mario Kart World graphics printed directly on the box have problems activating the game.', 'In turn, people who purchased the version with the attached sticker and download code, seem not to experience difficulties. GramTV reports: This is confirmed by reports from the USA.']</t>
+          <t>['“The Xbox experience grows with you,” said Sarah Bond, president of Xbox, in the Xbox Showcase.\nThe company plans to launch the handheld in 2025. As such, it will compete with rivals such as the Nintendo Switch 2 and the Valve Steam Deck.', 'This one promises the power of an Xbox experience in your hands. It has a seven-inch IPS VRR screen.\nThe move could inspire both fear and derision, as the prospect for such a move has done in the past.']</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>-0.743</v>
+        <v>0.0772</v>
       </c>
       <c r="I68" t="n">
-        <v>0.065</v>
+        <v>0.024</v>
       </c>
       <c r="J68" t="n">
-        <v>0.196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DL-a693f23c7ac4e39135b5cc47d8513970</t>
+          <t>DL-1c59b6df7e032db28024c576f73acce5</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Shortly before release: Games and accessories for the Nintendo Switch 2</t>
+          <t>It started - Switch 2 with the first technical problems. Difficulties when downloading Mario Kart World</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.hardwareluxx.de/index.php/news/consumer-electronics/konsolen/66294-kurz-vor-dem-release-spiele-und-zubehoer-fuer-die-nintendo-switch-2.html</t>
+          <t>https://www.gram.pl/news/zaczelo-sie-switch-2-z-pierwszymi-problemami-technicznymi-utrudnienia-przy-pobieraniu-mario-kart-world</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 will finally have a successor next Thursday. A new design with a larger screen and of course a more powerful hardware should make the Switch 2 a real 4K console. Some online retailers such as Amazon, MediaMarkt or Coolblue list the starting title “Mario Kart World” from 79 euros and thus 10 euros below the actual price recommendation. This also applies to "The Legend of Zelda: Tears of the Kingdom"</t>
+          <t>Players who wanted to start their adventure with Nintendo Switch 2 reported serious problems with downloading the game. Error 2813-0171 The phrase "Mario Kart World doesn't want to be downloaded" quickly began to dominate search engines and forums. The source of the problem may be differences in console boot packages.</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1.0045853</v>
+        <v>1.0081596</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-06-03T08:37:58</t>
+          <t>2025-06-06T10:10:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['Above all, you should purchase an additional memory card when buying the Nintendo Switch 2, because the integrated 256 GB could quickly become scarce. The official Nintendo SanDisk costs with 256 GB already 55 euros.', 'However, all microSD Express cards with a capacity of theoretically up to 2 TB can be used.', 'These should make data transfer rates of at least 800 MB/s possible, which in addition corresponds to the 10-fold of the predecessor and significantly restricts the selection.']</t>
+          <t>['Users who purchased Nintendo Switch 2 with Mario Kart World graphics printed directly on the box have problems activating the game.', 'In turn, people who purchased the version with the attached sticker and download code, seem not to experience difficulties. GramTV reports: This is confirmed by reports from the USA.']</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.5849</v>
+        <v>-0.743</v>
       </c>
       <c r="I69" t="n">
-        <v>0.099</v>
+        <v>0.065</v>
       </c>
       <c r="J69" t="n">
-        <v>0.028</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DL-736adae141649efa336e9f7ce03ea527</t>
+          <t>DL-a693f23c7ac4e39135b5cc47d8513970</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 launches today. Here’s what to know</t>
+          <t>Shortly before release: Games and accessories for the Nintendo Switch 2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://localnews8.com/money/cnn-business-consumer/2025/06/05/the-nintendo-switch-2-launches-today-heres-what-to-know/</t>
+          <t>https://www.hardwareluxx.de/index.php/news/consumer-electronics/konsolen/66294-kurz-vor-dem-release-spiele-und-zubehoer-fuer-die-nintendo-switch-2.html</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Nintendo's new console, the Switch 2, arrives on store shelves globally after being announced in April. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table; or on. a TV when plugged in to its accompanying dock, like its predecessor. Nintendo’s decision to stick with a winning template for the Switch 2 is a testament to the original’s popularity.</t>
+          <t>Nintendo Switch 2 will finally have a successor next Thursday. A new design with a larger screen and of course a more powerful hardware should make the Switch 2 a real 4K console. Some online retailers such as Amazon, MediaMarkt or Coolblue list the starting title “Mario Kart World” from 79 euros and thus 10 euros below the actual price recommendation. This also applies to "The Legend of Zelda: Tears of the Kingdom"</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.91181374</v>
+        <v>1.0046387</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-06-05T13:14:10</t>
+          <t>2025-06-03T08:37:58</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.\nNintendo has also given the console hardware a much-needed upgrade.', 'The Switch 2 has a larger 7.9-inch display compared to the original Switch’s 6.2-inch screen, and the Joy-Cons now snap to the console magnetically, which should make them easier to attach or remove from the console.']</t>
+          <t>['Above all, you should purchase an additional memory card when buying the Nintendo Switch 2, because the integrated 256 GB could quickly become scarce. The official Nintendo SanDisk costs with 256 GB already 55 euros.', 'However, all microSD Express cards with a capacity of theoretically up to 2 TB can be used.', 'These should make data transfer rates of at least 800 MB/s possible, which in addition corresponds to the 10-fold of the predecessor and significantly restricts the selection.']</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.9136</v>
+        <v>0.5849</v>
       </c>
       <c r="I70" t="n">
-        <v>0.194</v>
+        <v>0.099</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="71">
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.91181374</v>
+        <v>0.9118271</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DL-876ccd4580e6106d2c30aa8425da537a</t>
+          <t>DL-736adae141649efa336e9f7ce03ea527</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3564,32 +3564,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://ustimesmirror.com/the-nintendo-switch-2-launches-today-heres-what-to-know/</t>
+          <t>https://localnews8.com/money/cnn-business-consumer/2025/06/05/the-nintendo-switch-2-launches-today-heres-what-to-know/</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Nintendo's new console, the Switch 2, arrives on store shelves globally. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table. Nintendo’s decision to stick with a winning template for the Switch 2 is a testament to the original’s popularity but also a gamble that its success will endure.</t>
+          <t>Nintendo's new console, the Switch 2, arrives on store shelves globally after being announced in April. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table; or on. a TV when plugged in to its accompanying dock, like its predecessor. Nintendo’s decision to stick with a winning template for the Switch 2 is a testament to the original’s popularity.</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.91181374</v>
+        <v>0.9118271</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-06-05T15:15:59+00:00</t>
+          <t>2025-06-05T13:14:10</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['The Switch 2 iterates its predecessor with several new features, including a Game Chat function that lets gamers communicate with other players by tapping a button on the console.', 'In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.\nNintendo has also given the console hardware a much-needed upgrade.']</t>
+          <t>['In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.\nNintendo has also given the console hardware a much-needed upgrade.', 'The Switch 2 has a larger 7.9-inch display compared to the original Switch’s 6.2-inch screen, and the Joy-Cons now snap to the console magnetically, which should make them easier to attach or remove from the console.']</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.8922</v>
+        <v>0.9136</v>
       </c>
       <c r="I72" t="n">
-        <v>0.212</v>
+        <v>0.194</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3598,123 +3598,123 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DL-58363b4cfde0e0889c7251f2961ae5ee</t>
+          <t>DL-876ccd4580e6106d2c30aa8425da537a</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 : a promising new breath despite some disillusionment</t>
+          <t>The Nintendo Switch 2 launches today. Here’s what to know</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://s2pmag.ch/avis-la-nintendo-switch-2-un-nouveau-souffle-prometteur-malgre-quelques-desillusions/</t>
+          <t>https://ustimesmirror.com/the-nintendo-switch-2-launches-today-heres-what-to-know/</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 has finally slipped into our hands. What lessons can we learn from these first moments of ownership? A complete and careful case The Switch 2 comes in a package with an almost confusing simplicity, compact dimensions that are unmistakably reminiscent of its grandmother. The console is delivered ready for use, accompanied by the necessary accessories to take full advantage of it.</t>
+          <t>Nintendo's new console, the Switch 2, arrives on store shelves globally. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table. Nintendo’s decision to stick with a winning template for the Switch 2 is a testament to the original’s popularity but also a gamble that its success will endure.</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.8860931399999999</v>
+        <v>0.9118271</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-06-09T06:16:01</t>
+          <t>2025-06-05T15:15:59+00:00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['A balanced review, promises to be confirmed In the end, this Nintendo Switch 2 turns out to be capable of the best as well as the least good, offering contrasting experiences according to titles and usages.']</t>
+          <t>['The Switch 2 iterates its predecessor with several new features, including a Game Chat function that lets gamers communicate with other players by tapping a button on the console.', 'In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.\nNintendo has also given the console hardware a much-needed upgrade.']</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.5413</v>
+        <v>0.8922</v>
       </c>
       <c r="I73" t="n">
-        <v>0.094</v>
+        <v>0.212</v>
       </c>
       <c r="J73" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DL-d31952a6c00a7f14a8bb1d96ce43f30c</t>
+          <t>DL-58363b4cfde0e0889c7251f2961ae5ee</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Video games: Microsoft unveils the first portable versions of the Xbox</t>
+          <t>The Nintendo Switch 2 : a promising new breath despite some disillusionment</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.lessentiel.lu/fr/story/jeux-video-microsoft-devoile-les-premieres-versions-portables-de-la-xbox-103361849</t>
+          <t>https://s2pmag.ch/avis-la-nintendo-switch-2-un-nouveau-souffle-prometteur-malgre-quelques-desillusions/</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Xbox portable consoles, ROG Ally and Ally X, designed with Asus, will be marketed for the end of the year celebrations. This Twitter content cannot be displayed due to your current choice of cookies. The price of the consoles and exact date of their launch will be announced in the coming months.</t>
+          <t>The Nintendo Switch 2 has finally slipped into our hands. What lessons can we learn from these first moments of ownership? A complete and careful case The Switch 2 comes in a package with an almost confusing simplicity, compact dimensions that are unmistakably reminiscent of its grandmother. The console is delivered ready for use, accompanied by the necessary accessories to take full advantage of it.</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.8757744</v>
+        <v>0.8862343</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-06-10T09:56:00+00:00</t>
+          <t>2025-06-09T06:16:01</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>["Faced with Nintendo Switch 2 The design of both models evokes the brand's traditional handles, with the same buttons, joysticks and handles, but with a longer format to integrate a central screen.", '"Xbox Ally and Xbox Ally X are perfect for players looking for an accessible gaming experience on the go, whether between two planes or between two comfortable lounge chairs," Microsoft said in a press release.']</t>
+          <t>['A balanced review, promises to be confirmed In the end, this Nintendo Switch 2 turns out to be capable of the best as well as the least good, offering contrasting experiences according to titles and usages.']</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>0.5413</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>0.094</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DL-48f470a3b04e45099a9bd8f8b9d0942b</t>
+          <t>DL-d31952a6c00a7f14a8bb1d96ce43f30c</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>What comes in the box of the Nintendo Switch 2? Look at the unboxing of the console, the Pro Controller and the camera.</t>
+          <t>Video games: Microsoft unveils the first portable versions of the Xbox</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.tecmundo.com.br/voxel/501558-o-que-vem-na-caixa-do-nintendo-switch-2-confira-unboxing-do-console-pro-controller-e-camera.htm</t>
+          <t>https://www.lessentiel.lu/fr/story/jeux-video-microsoft-devoile-les-premieres-versions-portables-de-la-xbox-103361849</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Derek Keller introduces the new model of the Big N, which brings a series of innovations over the first Switch. The new model accompanies the game Mario Kart World, one of the launch titles of the new console. In addition to highlighting the visual and functional changes, the video also reveals technical details and curiosities about the accessories.</t>
+          <t>Xbox portable consoles, ROG Ally and Ally X, designed with Asus, will be marketed for the end of the year celebrations. This Twitter content cannot be displayed due to your current choice of cookies. The price of the consoles and exact date of their launch will be announced in the coming months.</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.7912369</v>
+        <v>0.8698616</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-06-05T21:33:00+00:00</t>
+          <t>2025-06-10T09:56:00+00:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['In addition to highlighting the visual and functional changes to the device, the video also reveals technical details and curiosities about the accessories, paving the way for the upcoming full reviews that will soon be available on the Voxel channel', "More compact box and redesigned design One of the first noticeable changes on the Nintendo Switch 2 is the new packaging format. Even though it's a physically larger console, the box has been optimized and it's more compact and organized."]</t>
+          <t>["Faced with Nintendo Switch 2 The design of both models evokes the brand's traditional handles, with the same buttons, joysticks and handles, but with a longer format to integrate a central screen.", '"Xbox Ally and Xbox Ally X are perfect for players looking for an accessible gaming experience on the go, whether between two planes or between two comfortable lounge chairs," Microsoft said in a press release.']</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -3730,130 +3730,130 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DL-56a2f5145d0be40c3efde1b4a27402f4</t>
+          <t>DL-48f470a3b04e45099a9bd8f8b9d0942b</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2: The LCD screen receives fierce criticism from fans and experts - and we too would have liked a different display</t>
+          <t>What comes in the box of the Nintendo Switch 2? Look at the unboxing of the console, the Pro Controller and the camera.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.gamepro.de/artikel/nintendo-switch-2-lcd-bildschirm-erntet-heftige-kritik,3434354.html</t>
+          <t>https://www.tecmundo.com.br/voxel/501558-o-que-vem-na-caixa-do-nintendo-switch-2-confira-unboxing-do-console-pro-controller-e-camera.htm</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Switch 2 is out and despite many new display features there is some strong criticism, both from fans and tech enthusiasts. We have therefore looked into it ourselves and also measured it, and we are also disenchanted. The LCD display from the Taiwanese manufacturer InnoLux brings some great functions – for example HDR for higher color dynamics, 120 Hertz and VRR – but also disappoints massively in some central points.</t>
+          <t>Derek Keller introduces the new model of the Big N, which brings a series of innovations over the first Switch. The new model accompanies the game Mario Kart World, one of the launch titles of the new console. In addition to highlighting the visual and functional changes, the video also reveals technical details and curiosities about the accessories.</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.78873825</v>
+        <v>0.79125595</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-06-08T17:30:00</t>
+          <t>2025-06-05T21:33:00+00:00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['Until a pixel is switched to another color, it takes a while, and the resulting image artifacts are perceived as ghosting or blurring.', 'And in this respect, the Switch 2 display with its 120 Hertz is particularly vulnerable, as many buyers write in the comments below the post. How do we rate the display of the Nintendo Switch 2?']</t>
+          <t>['In addition to highlighting the visual and functional changes to the device, the video also reveals technical details and curiosities about the accessories, paving the way for the upcoming full reviews that will soon be available on the Voxel channel', "More compact box and redesigned design One of the first noticeable changes on the Nintendo Switch 2 is the new packaging format. Even though it's a physically larger console, the box has been optimized and it's more compact and organized."]</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.1531</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.108</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DL-380770c64735dbc1c56d63a05fb4b763</t>
+          <t>DL-56a2f5145d0be40c3efde1b4a27402f4</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>What are the best TVs to choose for the Nintendo Switch 2?</t>
+          <t>Nintendo Switch 2: The LCD screen receives fierce criticism from fans and experts - and we too would have liked a different display</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.frandroid.com/guide-dachat/2638901_quels-sont-les-meilleurs-tv-a-choisir-pour-la-switch-2</t>
+          <t>https://www.gamepro.de/artikel/nintendo-switch-2-lcd-bildschirm-erntet-heftige-kritik,3434354.html</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 is available and to take full advantage of the power of the new Nintendo console, it is essential to choose a TV at the right height. The definition The Ultra HD 4K definition is now indispensable for the Switch 2, which offers graphics in very high resolution when used in dock mode. This resolution provides an image of remarkable sharpness, with finer details and greater immersion.</t>
+          <t>Switch 2 is out and despite many new display features there is some strong criticism, both from fans and tech enthusiasts. We have therefore looked into it ourselves and also measured it, and we are also disenchanted. The LCD display from the Taiwanese manufacturer InnoLux brings some great functions – for example HDR for higher color dynamics, 120 Hertz and VRR – but also disappoints massively in some central points.</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.77731705</v>
+        <v>0.7887001</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-06-07T17:00:06</t>
+          <t>2025-06-08T17:30:00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['Philips The One PUS8909 // Source: Philips In short, whether you prefer reactivity, image quality, brightness or immersion, there are now televisions perfectly suited to the Nintendo Switch 2.', 'OLED, Mini LED, QLED or LED, each technology has its advantages, but all the references cited here guarantee a fluid, immersive gaming experience that is faithful to the vision of Nintendo game creators.', 'All you need to know about the Switch 2 Want to know everything about the Nintendo Switch 2 after the Direct announcements? Find our video recap on YouTube for a quick and clear summary.']</t>
+          <t>['Until a pixel is switched to another color, it takes a while, and the resulting image artifacts are perceived as ghosting or blurring.', 'And in this respect, the Switch 2 display with its 120 Hertz is particularly vulnerable, as many buyers write in the comments below the post. How do we rate the display of the Nintendo Switch 2?']</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.7964</v>
+        <v>0.1531</v>
       </c>
       <c r="I77" t="n">
-        <v>0.114</v>
+        <v>0.108</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DL-4de785c3d00dac3779286d8e34763c81</t>
+          <t>DL-380770c64735dbc1c56d63a05fb4b763</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>How to Transfer Your Switch Data to Nintendo Switch 2</t>
+          <t>What are the best TVs to choose for the Nintendo Switch 2?</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.iphoneincanada.ca/2025/06/05/how-to-transfer-your-data-nintendo-switch-2/</t>
+          <t>https://www.frandroid.com/guide-dachat/2638901_quels-sont-les-meilleurs-tv-a-choisir-pour-la-switch-2</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Nintendo provides a streamlined way to conduct a system transfer from Nintendo Switch to the Switch 2. Players can transfer profile data, save data, screenshots or video, and system settings. Nintendo notes that there is an expiry date for all system transfer data.</t>
+          <t>The Nintendo Switch 2 is available and to take full advantage of the power of the new Nintendo console, it is essential to choose a TV at the right height. The definition The Ultra HD 4K definition is now indispensable for the Switch 2, which offers graphics in very high resolution when used in dock mode. This resolution provides an image of remarkable sharpness, with finer details and greater immersion.</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.7033539</v>
+        <v>0.7773247</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-06-05T11:06:10+00:00</t>
+          <t>2025-06-07T17:00:06</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['By selecting ‘ I Don’t Have a Nintendo Switch 2 Yet’, you can upload your data to Nintendo’s servers in anticipation of when your Nintendo Switch 2 arrives.', 'Follow the on-screen prompts until you’re sent a ‘Verification code’ to your My Nintendo account email address. Input the code and select ‘Send Data to the Server’. This will then upload your save data to Nintendo’s cloud servers.', 'Once the upload is complete, you can review the system transfer information and select ‘Start Restoring Factory Settings’ to complete the process. Note: This will delete all data from the original console.']</t>
+          <t>['Philips The One PUS8909 // Source: Philips In short, whether you prefer reactivity, image quality, brightness or immersion, there are now televisions perfectly suited to the Nintendo Switch 2.', 'OLED, Mini LED, QLED or LED, each technology has its advantages, but all the references cited here guarantee a fluid, immersive gaming experience that is faithful to the vision of Nintendo game creators.', 'All you need to know about the Switch 2 Want to know everything about the Nintendo Switch 2 after the Direct announcements? Find our video recap on YouTube for a quick and clear summary.']</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.4939</v>
+        <v>0.7964</v>
       </c>
       <c r="I78" t="n">
-        <v>0.076</v>
+        <v>0.114</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -3862,42 +3862,42 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DL-c7b1d654f43bf3a0aede5a40cc6ebaca</t>
+          <t>DL-4de785c3d00dac3779286d8e34763c81</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>You probably don't have this Switch 2 launch title on your screen and it comes with a pretty cool co-op feature</t>
+          <t>How to Transfer Your Switch Data to Nintendo Switch 2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.gamepro.de/artikel/nintendo-switch-2-gameshare-survival-kids,3434002.html</t>
+          <t>https://www.iphoneincanada.ca/2025/06/05/how-to-transfer-your-data-nintendo-switch-2/</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>This week, Nintendo Switch 2 comes out with a whole series of launch titles that you can play directly on the new console on June 5th. This includes Survival Kids, which besides Mario Kart World or Donkey Kong flies rather under the radar. You take on the role of four children who are stranded on an island and explore crafts and the surroundings to find a way home.</t>
+          <t>Nintendo provides a streamlined way to conduct a system transfer from Nintendo Switch to the Switch 2. Players can transfer profile data, save data, screenshots or video, and system settings. Nintendo notes that there is an expiry date for all system transfer data.</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.6768379</v>
+        <v>0.7033691399999999</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-06-03T11:27:17+00:00</t>
+          <t>2025-06-05T11:06:10+00:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['So you can play locally on a total of three devices as long as at least one person in the group has a Nintendo Switch 2 and the game supports GameShare. In the case of Survival Kids, the game runs via GameShare with two consoles for both in 60 fps.', 'On the other hand, if you start on three devices, the frame rate is reduced to 30 fps for everyone involved. Nevertheless, this way of playing together is a cool thing that has a lot of potential.']</t>
+          <t>['By selecting ‘ I Don’t Have a Nintendo Switch 2 Yet’, you can upload your data to Nintendo’s servers in anticipation of when your Nintendo Switch 2 arrives.', 'Follow the on-screen prompts until you’re sent a ‘Verification code’ to your My Nintendo account email address. Input the code and select ‘Send Data to the Server’. This will then upload your save data to Nintendo’s cloud servers.', 'Once the upload is complete, you can review the system transfer information and select ‘Start Restoring Factory Settings’ to complete the process. Note: This will delete all data from the original console.']</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.34</v>
+        <v>0.4939</v>
       </c>
       <c r="I79" t="n">
-        <v>0.036</v>
+        <v>0.076</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3906,440 +3906,484 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DL-194cd17a14f69417b82c9c6d47023133</t>
+          <t>DL-c7b1d654f43bf3a0aede5a40cc6ebaca</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>High demand makes Nintendo Switch 2 sell out in Brazil on its first day of release.</t>
+          <t>You probably don't have this Switch 2 launch title on your screen and it comes with a pretty cool co-op feature</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www1.folha.uol.com.br/tec/2025/06/alta-demanda-faz-nintendo-switch-2-esgotar-no-brasil-no-primeiro-dia-de-vendas.shtml</t>
+          <t>https://www.gamepro.de/artikel/nintendo-switch-2-gameshare-survival-kids,3434002.html</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2, a new video game console from the Japanese company, went off the shelf this Friday in the global markets. It's already sold out in major Brazilian stores due to high demand. The console has a suggested price of R$4,499.90 in the standard version, no games.</t>
+          <t>This week, Nintendo Switch 2 comes out with a whole series of launch titles that you can play directly on the new console on June 5th. This includes Survival Kids, which besides Mario Kart World or Donkey Kong flies rather under the radar. You take on the role of four children who are stranded on an island and explore crafts and the surroundings to find a way home.</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.6761894000000001</v>
+        <v>0.67687225</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-06-05T21:23:16+00:00</t>
+          <t>2025-06-03T11:27:17+00:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['Ampere predicts that Switch 2 sales will surpass 100 million units by 2030. See more about the Nintendo Switch 2.', 'Novelties The new console will have an improved 7.9-inch LCD screen, with HDR support and refresh rates of up to 120 Hz, ensuring smoother display.']</t>
+          <t>['So you can play locally on a total of three devices as long as at least one person in the group has a Nintendo Switch 2 and the game supports GameShare. In the case of Survival Kids, the game runs via GameShare with two consoles for both in 60 fps.', 'On the other hand, if you start on three devices, the frame rate is reduced to 30 fps for everyone involved. Nevertheless, this way of playing together is a cool thing that has a lot of potential.']</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>-0.4019</v>
+        <v>0.34</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="J80" t="n">
-        <v>0.081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DL-1f7196f9804c69956dd1ea78f94a50cf</t>
+          <t>DL-194cd17a14f69417b82c9c6d47023133</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Switch 2: Why Nintendo doesn't want you to remove the display slide</t>
+          <t>High demand makes Nintendo Switch 2 sell out in Brazil on its first day of release.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://t3n.de/news/switch-2-nintendo-display-folie-1691041/</t>
+          <t>https://www1.folha.uol.com.br/tec/2025/06/alta-demanda-faz-nintendo-switch-2-esgotar-no-brasil-no-primeiro-dia-de-vendas.shtml</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>On June 5, 2025, the new Nintendo console Switch 2 will officially go on sale. Pre-ordering is currently not possible on major online trading platforms. It is currently unknown when the console will be available again. Nintendo explicitly warns against removing the factory-mounted display slide.</t>
+          <t>Nintendo Switch 2, a new video game console from the Japanese company, went off the shelf this Friday in the global markets. It's already sold out in major Brazilian stores due to high demand. The console has a suggested price of R$4,499.90 in the standard version, no games.</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.6726607999999999</v>
+        <v>0.6762066</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-06-04T11:45:37</t>
+          <t>2025-06-05T21:23:16+00:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['Switch 2 is supposed to get new charging mode Nintendo is supposed to have found a solution for this with the Switch 2 – namely a battery-saving charging mode as usual with smartphones.', "View 8 images This retro technology has collector's value today Source: More on this topic MIT Technology Review Nintendo"]</t>
+          <t>['Ampere predicts that Switch 2 sales will surpass 100 million units by 2030. See more about the Nintendo Switch 2.', 'Novelties The new console will have an improved 7.9-inch LCD screen, with HDR support and refresh rates of up to 120 Hz, ensuring smoother display.']</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>-0.1027</v>
+        <v>-0.4019</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0.032</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DL-0baa3766bc883eba68c2dbbae1038cce</t>
+          <t>DL-1f7196f9804c69956dd1ea78f94a50cf</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Donkey Kong Bananza: Release date, trailer and highlights</t>
+          <t>Switch 2: Why Nintendo doesn't want you to remove the display slide</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.netcost-security.fr/mobilite/252228/donkey-kong-bananza-date-de-sortie-bande-annonce-et-exclusivites-eclairantes/</t>
+          <t>https://t3n.de/news/switch-2-nintendo-display-folie-1691041/</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 is now available with an exciting set of new games. Donkey Kong Bonanza is a must-see for fans of the iconic character. Discover key details, including the release date and pre-command options.</t>
+          <t>On June 5, 2025, the new Nintendo console Switch 2 will officially go on sale. Pre-ordering is currently not possible on major online trading platforms. It is currently unknown when the console will be available again. Nintendo explicitly warns against removing the factory-mounted display slide.</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.6710968</v>
+        <v>0.67266464</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-06-06T16:22:33+00:00</t>
+          <t>2025-06-04T11:45:37</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['To make the Switch 2 more attractive, Nintendo has released a number of games compatible only with this console. One of the games in question is a new title with Donkey Kong.', 'We will review the details of the new game, the release date of Donkey Kong Bonanza, the price, the pre-order options and the gameplay. Note that this game is only available for the Nintendo Switch 2.']</t>
+          <t>['Switch 2 is supposed to get new charging mode Nintendo is supposed to have found a solution for this with the Switch 2 – namely a battery-saving charging mode as usual with smartphones.', "View 8 images This retro technology has collector's value today Source: More on this topic MIT Technology Review Nintendo"]</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>0.4939</v>
+        <v>-0.1027</v>
       </c>
       <c r="I82" t="n">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DL-c530336e1b88c22a95418a5f5123d3a8</t>
+          <t>DL-0baa3766bc883eba68c2dbbae1038cce</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>I think Nintendo played it very safe with Switch 2 - but that's not a bad thing</t>
+          <t>Donkey Kong Bananza: Release date, trailer and highlights</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.indy100.com/gaming/nintendo-switch-2-first-impressions-features-gameplay-gamechat-gameshare</t>
+          <t>https://www.netcost-security.fr/mobilite/252228/donkey-kong-bananza-date-de-sortie-bande-annonce-et-exclusivites-eclairantes/</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Nintendo has just straight up called this the Switch 2 - no SNES, Wii-U or 3DS confusion here, it's clearly a successor to the Switch. This is very indicative of the route Nintendo has gone down with the new console. It's undeniably more of an upgrade rather than something completely new and revolutionary with Nintendo seemingly playing it very safe. There are now a lot more competitors in this market because of its success, such as the Steam Deck.</t>
+          <t>The Nintendo Switch 2 is now available with an exciting set of new games. Donkey Kong Bonanza is a must-see for fans of the iconic character. Discover key details, including the release date and pre-command options.</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.658247</v>
+        <v>0.67111206</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-06-05T15:07:15</t>
+          <t>2025-06-06T16:22:33+00:00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['With the Switch and this concept proving such a hit, Nintendo has understandably not wanted to veer too much away from what made the original Switch so successful, instead refining the experience with the Switch 2 with new features, better performance']</t>
+          <t>['To make the Switch 2 more attractive, Nintendo has released a number of games compatible only with this console. One of the games in question is a new title with Donkey Kong.', 'We will review the details of the new game, the release date of Donkey Kong Bonanza, the price, the pre-order options and the gameplay. Note that this game is only available for the Nintendo Switch 2.']</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>0.8687</v>
+        <v>0.4939</v>
       </c>
       <c r="I83" t="n">
-        <v>0.175</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J83" t="n">
-        <v>0.051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DL-fb44e9ba1c36059416a5f81b3d4717bc</t>
+          <t>DL-c530336e1b88c22a95418a5f5123d3a8</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 is here - first impressions</t>
+          <t>I think Nintendo played it very safe with Switch 2 - but that's not a bad thing</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.gram.pl/artykul/nintendo-switch-2-juz-tu-jest-pierwsze-wrazenia</t>
+          <t>https://www.indy100.com/gaming/nintendo-switch-2-first-impressions-features-gameplay-gamechat-gameshare</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 is one of my favorite consoles, which has accompanied me in various roles for over eight years. The first Switch was with me until the release of the OLED version in 2021. I forgave myself for Lite, because it did not correspond to my preferences of playing mainly on TV.</t>
+          <t>Nintendo has just straight up called this the Switch 2 - no SNES, Wii-U or 3DS confusion here, it's clearly a successor to the Switch. This is very indicative of the route Nintendo has gone down with the new console. It's undeniably more of an upgrade rather than something completely new and revolutionary with Nintendo seemingly playing it very safe. There are now a lot more competitors in this market because of its success, such as the Steam Deck.</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.62556076</v>
+        <v>0.6582527</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-06-07T19:00:00</t>
+          <t>2025-06-05T15:07:15</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['But when the long-awaited Switch 2 appeared on the horizon, placing a pre-release order was obvious.', 'I will immediately point out that this text is not a racial review of the equipment, but rather an impression, a collection of first impressions and thoughts about the new Nintendo toy.', 'Nintendo Switch 2 is a console that can be labeled the “new generation”, and at the same time it is very strongly rooted in what the first Switch accustomed us to. More a subdued but significant evolution than a surprising revolution.']</t>
+          <t>['With the Switch and this concept proving such a hit, Nintendo has understandably not wanted to veer too much away from what made the original Switch so successful, instead refining the experience with the Switch 2 with new features, better performance']</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>0.7351</v>
+        <v>0.8687</v>
       </c>
       <c r="I84" t="n">
-        <v>0.133</v>
+        <v>0.175</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DL-6f733f86e304a8935fcf4754a27bb178</t>
+          <t>DL-fb44e9ba1c36059416a5f81b3d4717bc</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>New Florida education commissioner selected, Trump and Putin discuss Ukraine and Iran and Pasco County launches "Summer Haul Pass"</t>
+          <t>Nintendo Switch 2 is here - first impressions</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://baynews9.com/fl/tampa/evening-briefing/2025/06/04/evening-briefing-tampa-june-4-2025</t>
+          <t>https://www.gram.pl/artykul/nintendo-switch-2-juz-tu-jest-pierwsze-wrazenia</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Your Weather Planner It will be partly to mostly cloudy on Thursday with highs in the upper 80s. Low temperatures fall to the mid 70s overnight with scattered storms ending in the evening. Donald Trump talks to Putin on Ukraine and Iran, says it was 'not a conversation that will lead to immediate Peace'</t>
+          <t>Nintendo Switch 2 is one of my favorite consoles, which has accompanied me in various roles for over eight years. The first Switch was with me until the release of the OLED version in 2021. I forgave myself for Lite, because it did not correspond to my preferences of playing mainly on TV.</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.6108513</v>
+        <v>0.6255646</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-06-04T20:45:00+00:00</t>
+          <t>2025-06-07T19:00:00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>["NATO defence ministers meeting\nBET Experience 2025, annual week of 'entertainment, engagement, and empowerment all anchored in the brilliance and creativity of Black culture' ahead of the Black Entertainment Television\nNintendo releases the new Nintendo", 'Switch 2 games console, which features a bigger screen and better graphics than its predecessor.']</t>
+          <t>['But when the long-awaited Switch 2 appeared on the horizon, placing a pre-release order was obvious.', 'I will immediately point out that this text is not a racial review of the equipment, but rather an impression, a collection of first impressions and thoughts about the new Nintendo toy.', 'Nintendo Switch 2 is a console that can be labeled the “new generation”, and at the same time it is very strongly rooted in what the first Switch accustomed us to. More a subdued but significant evolution than a surprising revolution.']</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>0.34</v>
+        <v>0.7351</v>
       </c>
       <c r="I85" t="n">
-        <v>0.064</v>
+        <v>0.133</v>
       </c>
       <c r="J85" t="n">
-        <v>0.038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DL-52361e315938e25ca5f998c23b324103</t>
+          <t>DL-6f733f86e304a8935fcf4754a27bb178</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2: Should I buy it now or wait?</t>
+          <t>New Florida education commissioner selected, Trump and Putin discuss Ukraine and Iran and Pasco County launches "Summer Haul Pass"</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.presse-citron.net/nintendo-switch-2-faut-il-lacheter-maintenant-ou-attendre/</t>
+          <t>https://baynews9.com/fl/tampa/evening-briefing/2025/06/04/evening-briefing-tampa-june-4-2025</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Nintendo is changing its habits with the Switch 2. For the first time in years, the Kyoto firm did not send its console to journalists several weeks before the launch. As a result, in-depth testing will arrive after the sale, leaving some players in uncertainty.</t>
+          <t>Your Weather Planner It will be partly to mostly cloudy on Thursday with highs in the upper 80s. Low temperatures fall to the mid 70s overnight with scattered storms ending in the evening. Donald Trump talks to Putin on Ukraine and Iran, says it was 'not a conversation that will lead to immediate Peace'</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.4359665</v>
+        <v>0.6108513</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-06-05T10:19:31+00:00</t>
+          <t>2025-06-04T20:45:00+00:00</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['So, are we buying Switch 2 today or not? The decision ultimately depends on your player profile and your priorities. The unconditional Nintendo fans and early adopters assumed will in any case dark without remorse.', 'I think the more measured players will benefit from waiting for our full review next week by identifying the console’s strengths and weaknesses, and then being able to make a fully informed choice.']</t>
+          <t>["NATO defence ministers meeting\nBET Experience 2025, annual week of 'entertainment, engagement, and empowerment all anchored in the brilliance and creativity of Black culture' ahead of the Black Entertainment Television\nNintendo releases the new Nintendo", 'Switch 2 games console, which features a bigger screen and better graphics than its predecessor.']</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>-0.34</v>
+        <v>0.34</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="J86" t="n">
-        <v>0.053</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DL-265565bae7e63a61079d64b43bdbf11e</t>
+          <t>DL-52361e315938e25ca5f998c23b324103</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2: What is the real power of the console Cyberpunk 2077 answers</t>
+          <t>Nintendo Switch 2: Should I buy it now or wait?</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://diariodelyaqui.mx/nacional/nintendo-switch-2-cual-es-la-verdadera-potencia-de-la-consola-cyberpunk-2077-lo-responde/110733</t>
+          <t>https://www.presse-citron.net/nintendo-switch-2-faut-il-lacheter-maintenant-ou-attendre/</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Cyberpunk 2077 has been a technically demanding game. This is why it was a surprise to see it run smoothly on Nintendo Switch 2 with a good graphical level. The CD Projekt Red game has served as an unofficial but very revealing test of the console's potential.</t>
+          <t>Nintendo is changing its habits with the Switch 2. For the first time in years, the Kyoto firm did not send its console to journalists several weeks before the launch. As a result, in-depth testing will arrive after the sale, leaving some players in uncertainty.</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.38474274</v>
+        <v>0.43597412</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-06-06T00:00:00</t>
+          <t>2025-06-05T10:19:31+00:00</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['COMPARISON WITH OTHER CONSOLIDATIONS An analysis conducted by the Bits Analyzer channel compared the performance of Cyberpunk 2077 on Switch 2 to that of PS4 Pro and Xbox Series S.', "In 'Quality' mode, the Nintendo console achieves 1080p on both laptop and desktop thanks to the DLSS.", "In 'Resolution' mode, it maintains this resolution on the dock, but on the laptop it drops to 720p, with an increase in frame rate of up to 40 fps, although not always stable."]</t>
+          <t>['So, are we buying Switch 2 today or not? The decision ultimately depends on your player profile and your priorities. The unconditional Nintendo fans and early adopters assumed will in any case dark without remorse.', 'I think the more measured players will benefit from waiting for our full review next week by identifying the console’s strengths and weaknesses, and then being able to make a fully informed choice.']</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>0.2617</v>
+        <v>-0.34</v>
       </c>
       <c r="I87" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.033</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DL-d75fb6cd5f8f9f354bda0b190d88b772</t>
+          <t>DL-265565bae7e63a61079d64b43bdbf11e</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>10 Tech Stocks on Wall Street’s Radar</t>
+          <t>Nintendo Switch 2: What is the real power of the console Cyberpunk 2077 answers</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.insidermonkey.com/blog/10-tech-stocks-on-wall-streets-radar-1549836/</t>
+          <t>https://diariodelyaqui.mx/nacional/nintendo-switch-2-cual-es-la-verdadera-potencia-de-la-consola-cyberpunk-2077-lo-responde/110733</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Mark Malek said that not all sectors react the same to market headlines. He added that news can even create chances for late investors to join in. In fact, the opportunity in the mid to long term will transcend these sort of news items.</t>
+          <t>Cyberpunk 2077 has been a technically demanding game. This is why it was a surprise to see it run smoothly on Nintendo Switch 2 with a good graphical level. The CD Projekt Red game has served as an unofficial but very revealing test of the console's potential.</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.2867546</v>
+        <v>0.38476562</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-06-09T14:02:05+00:00</t>
+          <t>2025-06-06T00:00:00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['On June 5, B.Riley increased its price target on Silicon Motion Technology Corporation (NASDAQ:SIMO) to $90 from $75 and reaffirmed its Buy rating on the stock.', 'The firm pointed to the expanded Nvidia Bluefield DPU win and the upcoming Nintendo Switch 2 cycle as drivers of longer-term gains for the company.']</t>
+          <t>['COMPARISON WITH OTHER CONSOLIDATIONS An analysis conducted by the Bits Analyzer channel compared the performance of Cyberpunk 2077 on Switch 2 to that of PS4 Pro and Xbox Series S.', "In 'Quality' mode, the Nintendo console achieves 1080p on both laptop and desktop thanks to the DLSS.", "In 'Resolution' mode, it maintains this resolution on the dock, but on the laptop it drops to 720p, with an increase in frame rate of up to 40 fps, although not always stable."]</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>0.7845</v>
+        <v>0.2617</v>
       </c>
       <c r="I88" t="n">
-        <v>0.182</v>
+        <v>0.08</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>DL-d75fb6cd5f8f9f354bda0b190d88b772</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>10 Tech Stocks on Wall Street’s Radar</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.insidermonkey.com/blog/10-tech-stocks-on-wall-streets-radar-1549836/</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Mark Malek said that not all sectors react the same to market headlines. He added that news can even create chances for late investors to join in. In fact, the opportunity in the mid to long term will transcend these sort of news items.</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.28679657</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2025-06-09T14:02:05+00:00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>['On June 5, B.Riley increased its price target on Silicon Motion Technology Corporation (NASDAQ:SIMO) to $90 from $75 and reaffirmed its Buy rating on the stock.', 'The firm pointed to the expanded Nvidia Bluefield DPU win and the upcoming Nintendo Switch 2 cycle as drivers of longer-term gains for the company.']</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>0.7845</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
           <t>DL-1c749b3242262132fa02efa86da3ad6e</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Mario Kart World review: You need to know these things before it drops</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>https://www.the-independent.com/extras/indybest/gadgets-tech/video-games-consoles/mario-kart-world-review-b2763892.html</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Your support helps us to tell the story Read more Support Now From reproductive rights to climate change to Big Tech, The Independent is on the ground when the story is developing. Your donation allows us to keep sending journalists to both sides of the story. We choose not to lock Americans out of our reporting and analysis with paywalls. Expectations are sky-high for the latest entry in the 33-year-old racing series, which carries the weight of a new console’s fortunes on its shoulders.</t>
         </is>
       </c>
-      <c r="E89" t="n">
+      <c r="E90" t="n">
         <v>0.15307999</v>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>2025-06-04T20:26:36</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['That feels choppy compared to the silky smooth frame rate of single player mode at first, but your eyes will adjust to the difference before you’ve finished your first race.\nopen image in gallery Split-screen dials back the frame rate but keeps 24-player', 'races and the ability to explore the open world ( Nintendo )\nAs an aside, if you don’t think you can spot the difference between games running at 30, 60 and 120 frames per second, the Nintendo Switch 2 Welcome Tour has a special minigame where you can']</t>
         </is>
       </c>
-      <c r="H89" t="n">
+      <c r="H90" t="n">
         <v>0.7906</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I90" t="n">
         <v>0.089</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4472,10 +4516,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>320.6878</v>
+        <v>452.00644</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
@@ -530,42 +530,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DL-56b3456fa4d4c2c0316f8c748ec38942</t>
+          <t>DL-735f6f5e7ee6d998aecda59ababcdbcc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 Welcome Tour Review</t>
+          <t>How I plan to review the Nintendo Switch 2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.rocketchainsaw.com.au/review/nintendo-switch-2-welcome-tour-review/</t>
+          <t>https://www.theverge.com/nintendo/679346/nintendo-switch-2-review-guidelines-plan-launch</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The Welcome Tour is presented as a virtual museum, an enormous virtual representation of the Switch 2. The camera is set high from an isometric perspective, sometimes zooming out to encompass an entire area with people browsing the exhibits like ants. There’s even some mildly funny dialogue and little set pieces thrown in among the attendees you can chat to.</t>
+          <t>Nintendo has decided to not send out early review units to The Verge or other outlets, citing the need for day-one software updates. It’s a way to explore every facet of a new console and get a wide variety of perspectives. This time, we’re going to start with those deeper dives.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>163.0597</v>
+        <v>253.22185</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-09T04:20:44+00:00</t>
+          <t>2025-06-04T12:00:00+00:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Almost everything about the Switch 2 ahead of launch has been a little weird, from the confusing messaging and high pricing to the unfortunately timed connection with spiking tariffs.', 'Intent to keep that strange energy going, Nintendo has decided to not send out early review units to The Verge or other outlets, citing the need for day-one software updates. (This was not the case with the original Switch.)']</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.8126</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.132</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -574,42 +574,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DL-2a418e6f75f602bcd521348ca4edc33a</t>
+          <t>DL-56b3456fa4d4c2c0316f8c748ec38942</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 Camera review - good for GameChat but not much else</t>
+          <t>Nintendo Switch 2 Welcome Tour Review</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.pockettactics.com/nintendo-switch-2-camera-review</t>
+          <t>https://www.rocketchainsaw.com.au/review/nintendo-switch-2-welcome-tour-review/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>I'm talking about the Nintendo Switch 2 Camera. It doesn't have many uses outside of GameChat, the Switch 2's new social feature, and a few Mario Party Jamboree – Switch 2 Edition minigames. At Pocket Tactics, our experts spend days testing games, phones, tech, and services. We always share honest opinions to help you buy the best.</t>
+          <t>The Welcome Tour is presented as a virtual museum, an enormous virtual representation of the Switch 2. The camera is set high from an isometric perspective, sometimes zooming out to encompass an entire area with people browsing the exhibits like ants. There’s even some mildly funny dialogue and little set pieces thrown in among the attendees you can chat to.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>157.74315</v>
+        <v>248.0075</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-07T16:55:45</t>
+          <t>2025-06-09T04:20:44+00:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>["Unlike most reviews on Pocket Tactics, I'm not scoring the Nintendo Switch 2 Camera out of 10 right now. That's because I've not used any other Switch 2 cameras, so there's no prior context to base a score on.", "For more of our post-launch coverage, be sure to take a look at our Nintendo Switch 2 review, Nintendo Switch 2 Pro Controller review, and Mario Kart World review while you're here.", "Or, if you'd rather grab something to complete your new gaming setup, see our guides to the best Nintendo Switch 2 accessories and the best Nintendo Switch 2 controllers."]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9337</v>
+        <v>0.8126</v>
       </c>
       <c r="I4" t="n">
-        <v>0.247</v>
+        <v>0.132</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -618,306 +618,306 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DL-251c66dcd4b421aa53f620b9134f31c2</t>
+          <t>DL-2a418e6f75f602bcd521348ca4edc33a</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nintendo confirms no Switch 2 reviews ahead of launch</t>
+          <t>Nintendo Switch 2 Camera review - good for GameChat but not much else</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://mobilesyrup.com/2025/06/03/nintendo-confirms-no-switch-2-reviews/</t>
+          <t>https://www.pockettactics.com/nintendo-switch-2-camera-review</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Report from Video Game Chronicle says a company spokesperson confirmed there would be no pre-launch review units for the press. Further, the report suggests that the press will receive units after launch once an update with unnamed “important features” hits on June 5. This is likely an excuse since consoles have been at events worldwide.</t>
+          <t>I'm talking about the Nintendo Switch 2 Camera. It doesn't have many uses outside of GameChat, the Switch 2's new social feature, and a few Mario Party Jamboree – Switch 2 Edition minigames. At Pocket Tactics, our experts spend days testing games, phones, tech, and services. We always share honest opinions to help you buy the best.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>146.0713</v>
+        <v>225.95374</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-03T20:53:17+00:00</t>
+          <t>2025-06-07T16:55:45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['That’s not to say that Nintendo expects Switch 2 reviews to be bad; I expect it to be the opposite. However, the press is unpredictable, so one rogue bug or a wave of people against the new price could derail the hype around the console.']</t>
+          <t>["Unlike most reviews on Pocket Tactics, I'm not scoring the Nintendo Switch 2 Camera out of 10 right now. That's because I've not used any other Switch 2 cameras, so there's no prior context to base a score on.", "For more of our post-launch coverage, be sure to take a look at our Nintendo Switch 2 review, Nintendo Switch 2 Pro Controller review, and Mario Kart World review while you're here.", "Or, if you'd rather grab something to complete your new gaming setup, see our guides to the best Nintendo Switch 2 accessories and the best Nintendo Switch 2 controllers."]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.0258</v>
+        <v>0.9337</v>
       </c>
       <c r="I5" t="n">
-        <v>0.055</v>
+        <v>0.247</v>
       </c>
       <c r="J5" t="n">
-        <v>0.039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DL-735f6f5e7ee6d998aecda59ababcdbcc</t>
+          <t>DL-251c66dcd4b421aa53f620b9134f31c2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>How I plan to review the Nintendo Switch 2</t>
+          <t>Nintendo confirms no Switch 2 reviews ahead of launch</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.theverge.com/nintendo/679346/nintendo-switch-2-review-guidelines-plan-launch</t>
+          <t>https://mobilesyrup.com/2025/06/03/nintendo-confirms-no-switch-2-reviews/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nintendo has decided to not send out early review units to The Verge or other outlets, citing the need for day-one software updates. It’s a way to explore every facet of a new console and get a wide variety of perspectives. This time, we’re going to start with those deeper dives.</t>
+          <t>Report from Video Game Chronicle says a company spokesperson confirmed there would be no pre-launch review units for the press. Further, the report suggests that the press will receive units after launch once an update with unnamed “important features” hits on June 5. This is likely an excuse since consoles have been at events worldwide.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76.48631</v>
+        <v>218.52092</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04T12:00:00+00:00</t>
+          <t>2025-06-03T20:53:17+00:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Almost everything about the Switch 2 ahead of launch has been a little weird, from the confusing messaging and high pricing to the unfortunately timed connection with spiking tariffs.', 'Intent to keep that strange energy going, Nintendo has decided to not send out early review units to The Verge or other outlets, citing the need for day-one software updates. (This was not the case with the original Switch.)']</t>
+          <t>['That’s not to say that Nintendo expects Switch 2 reviews to be bad; I expect it to be the opposite. However, the press is unpredictable, so one rogue bug or a wave of people against the new price could derail the hype around the console.']</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-0.0258</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.055</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DL-ccc15128eb3abd5f12b5083c5890631b</t>
+          <t>DL-71efe679f350333810130f285a628d0b</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 Welcome Tour - Unique console launch experience</t>
+          <t>Nintendo Switch 2 Improves Pokémon Karmesin and Purple with Graphics and Frame Rate Update</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.playcentral.de/nintendo-switch-2-welcome-tour-einzigartiges-spielerlebnis-zur-einfuehrung-der-konsole/</t>
+          <t>https://www.playcentral.de/nintendo-switch-2-verbessert-pokemon-karmesin-und-purpur-mit-grafik-und-bildraten-update/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nintendo is known for its unusual and charming games that stand out from the competition. The Nintendo Switch 2 Welcome Tour is designed as an introduction to the new system. It shows both great new features like mouse support as well as obvious inclusions like the HD Rumble. From an educational perspective, it is fascinating to see what design decisions are behind the console.</t>
+          <t>Version 4.0.0, released on June 2, 2025, brings several improvements when the game is played on the Nintendo Switch 2. This means that as soon as Switch 2 is available, players can download the update and enjoy everything it has to offer. These improvements could eliminate some of the biggest criticisms of Pokémon Karmesin and Purple.</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>65.02419999999999</v>
+        <v>78.859695</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-03T22:22:32</t>
+          <t>2025-06-03T15:01:19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>["The price of the Nintendo Switch 2 Welcome Tour is hotly debated. With only 9.99 euros to start, the game is relatively cheap. However, some fans argue that it should have been offered as an add-on, similar to Astro's Playroom on the PS5.", 'Interactive experiences and challenges What interactive elements does the game offer? The content of the game is a mixture of quizzes, mini-games and technical demos.']</t>
+          <t>['The release of the Nintendo Switch 2 is near, and with it come significant improvements for the popular games Pokémon Karmesin and Purple. These titles from 2022 will experience improved graphics and frame rate thanks to the new console.', 'Although the Nintendo Switch 2 will only be available on June 5, 2025, the major update for these games has already been released and upgrades them to version 4.0.0.', 'The graphics have been optimized for the display of the Nintendo Switch 2 and high-resolution televisions, resulting in improved image quality. In addition, the frame rate has been improved so that the games run more smoothly.']</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9726</v>
+        <v>0.8074</v>
       </c>
       <c r="I7" t="n">
-        <v>0.306</v>
+        <v>0.173</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DL-71efe679f350333810130f285a628d0b</t>
+          <t>DL-ccc15128eb3abd5f12b5083c5890631b</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 Improves Pokémon Karmesin and Purple with Graphics and Frame Rate Update</t>
+          <t>Nintendo Switch 2 Welcome Tour - Unique console launch experience</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.playcentral.de/nintendo-switch-2-verbessert-pokemon-karmesin-und-purpur-mit-grafik-und-bildraten-update/</t>
+          <t>https://www.playcentral.de/nintendo-switch-2-welcome-tour-einzigartiges-spielerlebnis-zur-einfuehrung-der-konsole/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Version 4.0.0, released on June 2, 2025, brings several improvements when the game is played on the Nintendo Switch 2. This means that as soon as Switch 2 is available, players can download the update and enjoy everything it has to offer. These improvements could eliminate some of the biggest criticisms of Pokémon Karmesin and Purple.</t>
+          <t>Nintendo is known for its unusual and charming games that stand out from the competition. The Nintendo Switch 2 Welcome Tour is designed as an introduction to the new system. It shows both great new features like mouse support as well as obvious inclusions like the HD Rumble. From an educational perspective, it is fascinating to see what design decisions are behind the console.</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>46.007133</v>
+        <v>65.02605</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-03T15:01:19</t>
+          <t>2025-06-03T22:22:32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['The release of the Nintendo Switch 2 is near, and with it come significant improvements for the popular games Pokémon Karmesin and Purple. These titles from 2022 will experience improved graphics and frame rate thanks to the new console.', 'Although the Nintendo Switch 2 will only be available on June 5, 2025, the major update for these games has already been released and upgrades them to version 4.0.0.', 'The graphics have been optimized for the display of the Nintendo Switch 2 and high-resolution televisions, resulting in improved image quality. In addition, the frame rate has been improved so that the games run more smoothly.']</t>
+          <t>["The price of the Nintendo Switch 2 Welcome Tour is hotly debated. With only 9.99 euros to start, the game is relatively cheap. However, some fans argue that it should have been offered as an add-on, similar to Astro's Playroom on the PS5.", 'Interactive experiences and challenges What interactive elements does the game offer? The content of the game is a mixture of quizzes, mini-games and technical demos.']</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.8074</v>
+        <v>0.9726</v>
       </c>
       <c r="I8" t="n">
-        <v>0.173</v>
+        <v>0.306</v>
       </c>
       <c r="J8" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DL-b4835f4fe1a96ea2d9f3e5a83449cefc</t>
+          <t>DL-5d2f13b7c79bab32f93ef41a84b5e6de</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>I've already tried the'mouse' mode on Nintendo Switch 2, it opens a door that has so far been closed on consoles.</t>
+          <t>Pokémon Scarlet &amp; Violet runs at 4K and 60 FPS on Switch 2 after patching.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.xataka.com/videojuegos/he-probado-modo-raton-nintendo-switch-2-abre-puerta-ahora-cerrada-consolas</t>
+          <t>https://www.adrenaline.com.br/games/pokemon-scarlet-violet-roda-a-4k-e-60-fps-no-switch-2-apos-patch/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 is not a machine to experiment with. The 152 million Switches sold are a reflection that the company has achieved a product that people have liked. They don't need something as disruptive as Switch or Wii in their day, but a continuous console. And apart from the size, a change comes with the optical technology.</t>
+          <t>Pokémon Scarlet &amp; Violet has been plagued by severe performance issues. Nintendo Switch 2 will be able to deliver all of the potential that it's been rated for in 2022.</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.759068</v>
+        <v>34.473312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05T16:15:49</t>
+          <t>2025-06-03T11:54:48+00:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Turning to the Joy-Con Nintendo Switch 2 is not a machine to experiment with. The 152 million Switches sold, and rising, are a reflection that the company has achieved a product that people have liked.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.0644</v>
+        <v>-0.3818</v>
       </c>
       <c r="I9" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.031</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DL-4b86e968a9b1646ef4716b8b7c26d9ad</t>
+          <t>DL-fa269e8a0e19a32b2bf0f8ce731d82b1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Starting shot for Nintendo Switch 2 – German streamer is already playing Mario Kart World</t>
+          <t>Mario Kart World on Metacritic: First test scores are live and an absolute dream!</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.giga.de/games/startschuss-fuer-nintendo-switch-2-deutsche-streamerin-zockt-schon-mario-kart-world--01JWXN645JPPJSCMF79ZYQ7SQH</t>
+          <t>https://www.gamepro.de/artikel/mario-kart-world-metacritic-erste-tests-wertung,3434246.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2: Day-One Patch is here The first gamers already have their Switch 2 at home. Version 20.1.1 is live and there are first experiences with the new hybrid console. Nintendo didn't miss a day, it's already June 5th in New Zealand.</t>
+          <t>Nintendo Switch 2 is here and we're shooting our first 37 minutes in Mario Kart World Autoplay What's being praised? Nintenduo gives it a score of 92 and writes: "Everything can still change" Nintendo has perfectly balanced classic and modern elements to create an engaging and accessible experience that will delight both veterans and newcomers.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24.691805</v>
+        <v>31.769712</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-04T14:23:08+00:00</t>
+          <t>2025-06-06T10:14:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Nintendo Switch 2: Day-One Patch is here The first gamers already have their Switch 2 at home. Until now, the console was completely useless – a day-one patch from Nintendo was missing. That has now changed.', 'The German streamer LostKittn has not only got her Switch 2, she is even now playing Mario Kart World on Twitch. According to the pinned message of a chat moderator, she has received the console from Nintendo and is allowed to play since 2 pm.', 'Players showcase Switch 2 eShop Other players also share their experiences with Switch 2. On Reddit, users show GabSam, for example, the new and improved Nintendo eShop. It now runs much more smoothly than the one on the old console.']</t>
+          <t>["The first ratings for Mario Kart World are enthusiastic. No Nintendo Switch 2 consoles and review samples were sent in advance, we received Nintendo's newest flagship on release day.", "37:48 The Nintendo Switch 2 is here and we're shooting our first 37 minutes in Mario Kart World Autoplay What's being praised?", 'This means: Mario Kart World is the latest and perhaps best part of the long-standing arcade racing series and is taken to the next level with the hardware of Nintendo Switch 2 and an extensive roster of drivers, tracks and endless fun.']</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-0.1531</v>
+        <v>0.9413</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.252</v>
       </c>
       <c r="J10" t="n">
-        <v>0.039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DL-fa269e8a0e19a32b2bf0f8ce731d82b1</t>
+          <t>DL-c561b4eb3764195a1fd4e2ea1b9e581b</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mario Kart World on Metacritic: First test scores are live and an absolute dream!</t>
+          <t>Free update to Pokémon Scarlet and Violet for Nintendo Switch 2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.gamepro.de/artikel/mario-kart-world-metacritic-erste-tests-wertung,3434246.html</t>
+          <t>https://thatsgaming.nl/gratis-update-pokemon-scarlet-en-violet-voor-nintendo-switch-2/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 is here and we're shooting our first 37 minutes in Mario Kart World Autoplay What's being praised? Nintenduo gives it a score of 92 and writes: "Everything can still change" Nintendo has perfectly balanced classic and modern elements to create an engaging and accessible experience that will delight both veterans and newcomers.</t>
+          <t>Pokémon Scarlet and Pokémon Violet are available for the Nintendo Switch 2. This update makes the adventures in the Paldea region even more exciting. Improved image quality allows fans to recharge their batteries.</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>21.261477</v>
+        <v>30.33068</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-06T10:14:00</t>
+          <t>2025-06-05T09:38:52+00:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>["The first ratings for Mario Kart World are enthusiastic. No Nintendo Switch 2 consoles and review samples were sent in advance, we received Nintendo's newest flagship on release day.", "37:48 The Nintendo Switch 2 is here and we're shooting our first 37 minutes in Mario Kart World Autoplay What's being praised?", 'This means: Mario Kart World is the latest and perhaps best part of the long-standing arcade racing series and is taken to the next level with the hardware of Nintendo Switch 2 and an extensive roster of drivers, tracks and endless fun.']</t>
+          <t>["A sharper image quality: the optimizations for both the Nintendo Switch 2's screen and HD televisions provide even better image quality. A higher frame rate: the improved frame rates of the Nintendo Switch 2 allow for more fluid motion.", 'An immersive Paldea: on the Nintendo Switch 2, the already bustling Paldea region comes to life in an unprecedented way, whether players explore the open world, fight Pokémon or complete the Pokédex.', "Trainers who have a Nintendo Switch 2 and Pokémon Scarlet or Pokémon Violet can now experience the games even more intensely and beautifully. And it's completely free. 0 comments 0"]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.9413</v>
+        <v>0.8508</v>
       </c>
       <c r="I11" t="n">
-        <v>0.252</v>
+        <v>0.23</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -926,306 +926,306 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DL-5d2f13b7c79bab32f93ef41a84b5e6de</t>
+          <t>DL-cb75051a141fa6e7e2afc84e6953afba</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pokémon Scarlet &amp; Violet runs at 4K and 60 FPS on Switch 2 after patching.</t>
+          <t>IGN goes hands on with Mario Kart World for 5 hours</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.adrenaline.com.br/games/pokemon-scarlet-violet-roda-a-4k-e-60-fps-no-switch-2-apos-patch/</t>
+          <t>https://mynintendonews.com/2025/06/03/ign-goes-hands-on-with-mario-kart-world-for-5-hours/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Pokémon Scarlet &amp; Violet has been plagued by severe performance issues. Nintendo Switch 2 will be able to deliver all of the potential that it's been rated for in 2022.</t>
+          <t>IGN recently attended a hands-on session with Mario Kart World. They have come away suitably impressed by the track designs, the Knockout Tour and the game’s all-important handling.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.36528</v>
+        <v>27.381319</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-03T11:54:48+00:00</t>
+          <t>2025-06-03T16:37:43+00:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['We all know that media and influencers won’t be providing pre-launch reviews for the Nintendo Switch 2 hardware and software and you can expect our own reviews some time after launch.']</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-0.3818</v>
+        <v>0.5994</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="J12" t="n">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DL-c561b4eb3764195a1fd4e2ea1b9e581b</t>
+          <t>DL-b4835f4fe1a96ea2d9f3e5a83449cefc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Free update to Pokémon Scarlet and Violet for Nintendo Switch 2</t>
+          <t>I've already tried the'mouse' mode on Nintendo Switch 2, it opens a door that has so far been closed on consoles.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://thatsgaming.nl/gratis-update-pokemon-scarlet-en-violet-voor-nintendo-switch-2/</t>
+          <t>https://www.xataka.com/videojuegos/he-probado-modo-raton-nintendo-switch-2-abre-puerta-ahora-cerrada-consolas</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pokémon Scarlet and Pokémon Violet are available for the Nintendo Switch 2. This update makes the adventures in the Paldea region even more exciting. Improved image quality allows fans to recharge their batteries.</t>
+          <t>Nintendo Switch 2 is not a machine to experiment with. The 152 million Switches sold are a reflection that the company has achieved a product that people have liked. They don't need something as disruptive as Switch or Wii in their day, but a continuous console. And apart from the size, a change comes with the optical technology.</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.283268</v>
+        <v>25.756937</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-05T09:38:52+00:00</t>
+          <t>2025-06-05T16:15:49</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>["A sharper image quality: the optimizations for both the Nintendo Switch 2's screen and HD televisions provide even better image quality. A higher frame rate: the improved frame rates of the Nintendo Switch 2 allow for more fluid motion.", 'An immersive Paldea: on the Nintendo Switch 2, the already bustling Paldea region comes to life in an unprecedented way, whether players explore the open world, fight Pokémon or complete the Pokédex.', "Trainers who have a Nintendo Switch 2 and Pokémon Scarlet or Pokémon Violet can now experience the games even more intensely and beautifully. And it's completely free. 0 comments 0"]</t>
+          <t>['Turning to the Joy-Con Nintendo Switch 2 is not a machine to experiment with. The 152 million Switches sold, and rising, are a reflection that the company has achieved a product that people have liked.']</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8508</v>
+        <v>0.0644</v>
       </c>
       <c r="I13" t="n">
-        <v>0.23</v>
+        <v>0.036</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DL-05650dfb79bd8bf7ef997bb2ce2f3cd3</t>
+          <t>DL-4b86e968a9b1646ef4716b8b7c26d9ad</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 First Impressions And A Surprising Purchasing Score</t>
+          <t>Starting shot for Nintendo Switch 2 – German streamer is already playing Mario Kart World</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://hothardware.com/news/nintendo-switch-2-first-impressions-and-a-surprising-purchasing</t>
+          <t>https://www.giga.de/games/startschuss-fuer-nintendo-switch-2-deutsche-streamerin-zockt-schon-mario-kart-world--01JWXN645JPPJSCMF79ZYQ7SQH</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 is finally out, and I have some first impressions on the experience of both playing and purchasing the console. I was not lucky enough to secure a preorder ahead of the console's June 5th release. Third-party entrepreneurs were already listing the console for a premium over its $449 MSRP. My local Walmart was nearly empty and upon inquiring, I was told it had around six to eight consoles still available in the back.</t>
+          <t>Nintendo Switch 2: Day-One Patch is here The first gamers already have their Switch 2 at home. Version 20.1.1 is live and there are first experiences with the new hybrid console. Nintendo didn't miss a day, it's already June 5th in New Zealand.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.020853</v>
+        <v>24.692564</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-06T14:31:00+00:00</t>
+          <t>2025-06-04T14:23:08+00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['The Nintendo Switch 2 is finally out, and I have some first impressions on the experience of both playing and purchasing the console.']</t>
+          <t>['Nintendo Switch 2: Day-One Patch is here The first gamers already have their Switch 2 at home. Until now, the console was completely useless – a day-one patch from Nintendo was missing. That has now changed.', 'The German streamer LostKittn has not only got her Switch 2, she is even now playing Mario Kart World on Twitch. According to the pinned message of a chat moderator, she has received the console from Nintendo and is allowed to play since 2 pm.', 'Players showcase Switch 2 eShop Other players also share their experiences with Switch 2. On Reddit, users show GabSam, for example, the new and improved Nintendo eShop. It now runs much more smoothly than the one on the old console.']</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.5673</v>
+        <v>-0.1531</v>
       </c>
       <c r="I14" t="n">
-        <v>0.114</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.054</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DL-cb75051a141fa6e7e2afc84e6953afba</t>
+          <t>DL-ec8624ffe681d5f29d095a287c5219aa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IGN goes hands on with Mario Kart World for 5 hours</t>
+          <t>The lack of day one Switch 2 reviews isn't as problematic as it sounds</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://mynintendonews.com/2025/06/03/ign-goes-hands-on-with-mario-kart-world-for-5-hours/</t>
+          <t>https://www.xda-developers.com/thread/the-lack-of-day-one-switch-2-reviews-isnt-as-problematic-as-it-sounds/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>IGN recently attended a hands-on session with Mario Kart World. They have come away suitably impressed by the track designs, the Knockout Tour and the game’s all-important handling.</t>
+          <t>Nintendo has been making a lot of little weird decisions with the Switch 2. Switch 2 pre-orders were flying off the shelves in the US, and the extra stock available at launch is probably going to be swooped up by die hard fans. Is it still a bad look for Nintendo to break tradition like this?</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.56027</v>
+        <v>19.407114</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-03T16:37:43+00:00</t>
+          <t>2025-06-03T22:01:23+00:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['We all know that media and influencers won’t be providing pre-launch reviews for the Nintendo Switch 2 hardware and software and you can expect our own reviews some time after launch.']</t>
+          <t>["And now, that's happening again, as outlets have confirmed they won't be publishing reviews of the Switch 2 on release day due to Nintendo not providing review units this time around.\nBut in reality, how much does it matter?", 'Switch 2 pre-orders were flying off the shelves in the US, and the extra stock available at launch is probably going to be swooped up by die hard fans.']</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.5994</v>
+        <v>-0.7722</v>
       </c>
       <c r="I15" t="n">
-        <v>0.154</v>
+        <v>0.041</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DL-2fa26bf724852abc5c72c9f822028c52</t>
+          <t>DL-daa7370e17bbf6699977f90dd9dcc32e</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Zelda: The underrated game that deserves a remake for Switch 2</t>
+          <t>Nintendo Switch 2: New game console officially launches today</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.zazoom.it/2025-06-07/zelda-il-gioco-sottovalutato-che-merita-un-remake-per-switch-2/17144781/</t>
+          <t>https://www.appgefahren.de/nintendo-switch-2-neue-spielkonsole-geht-heute-offiziell-an-den-start-380403.html</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nintendo would have the opportunity to strengthen the connection between the past and the future, providing an unforgettable experience. With the advent of the new console, the challenge for Nintendo will be to continue to innovate and deliver experiences that meet the expectations of the passionate. The Legend of Zelda: Tears of the Kingdom game shows up on Nintendo Switch 2 with 20 minutes of gameplay.</t>
+          <t>Nintendo officially unveiled the new generation of the popular Switch game console, the Nintendo Switch 2. The new model, equipped with a 7.9′′ screen and support for 4K content, is now available on the market. At the same thickness, the console features a significantly larger 7.9-inch LCD screen, 1080p resolution, HDR support, and frame rates of up to 120 fps. If the Switch 2 is connected to a TV via the also updated dock. For 4K playback, the frame</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11.422516</v>
+        <v>15.065126</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-07T18:16:28</t>
+          <t>2025-06-05T12:38:11+00:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['But what can the new Nintendo Switch 2 do? Compared to its predecessor, the Nintendo Switch (OLED), the Switch 2 has done quite a bit.', 'At the same thickness, the console features a significantly larger 7.9-inch LCD screen, 1080p resolution, HDR support, and frame rates of up to 120 fps.']</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8779</v>
+        <v>0.802</v>
       </c>
       <c r="I16" t="n">
-        <v>0.178</v>
+        <v>0.111</v>
       </c>
       <c r="J16" t="n">
-        <v>0.026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DL-c9dfbd021d961275503a96f92b6c77b0</t>
+          <t>DL-cce7387fccad72acd7b577de07a1a6e3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2: Better Performance for Pokémon</t>
+          <t>Nintendo Switch 2 unboxing: What do you get with the console?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.4p.de/news/pokemon-endlich-fluessig-riesiges-update-fuer-nintendo-switch-2-bringt-das-was-fans-sich-immer-wuenschten/3325530</t>
+          <t>https://www.indy100.com/gaming/nintendo-switch-2-unboxing-console-2672317405</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pokémon on the Nintendo Switch 2: Better Performance and Textures Like in Nintendo Today! -App announced and immediately proved thanks to an enclosed video, the current generation of pocket monsters on the Switch 2 will now finally run in 60 FPS. The resolution has also been noticeably screwed up, so that Karmesin &amp; Purpur look much nicer on the console that will be released on June 5.</t>
+          <t>Nintendo has sent review units out to media outlets for them to check out the new console and games running on it. The first thing that will be seen when unboxing are the two new Joy-Con controllers and main part of the console with the bigger screen. Below that on the next layer down is a brief user manual, a HDMI cable to connect the dock to a TV and the wrist strap accessories that connect to the Switch 2.</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.269152</v>
+        <v>14.932243</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-03T15:43:17</t>
+          <t>2025-06-05T15:19:37</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Recommended reading: All information about Pokémon Legends: Z-A Since the update is already there, you can start directly to the release of the Nintendo Switch 2 and experience Pokémon Karmesin &amp; Purpur as it should have been at the time of the release']</t>
+          <t>['Nintendo has sent Switch 2 review units out to media outlets for them to check out the new console and games running on it.\nindy100 is very fortunate to have been sent one of these units and this is what comes in the box - read our first impressions of']</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.7906</v>
+        <v>0.5859</v>
       </c>
       <c r="I17" t="n">
-        <v>0.155</v>
+        <v>0.048</v>
       </c>
       <c r="J17" t="n">
-        <v>0.044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DL-cce7387fccad72acd7b577de07a1a6e3</t>
+          <t>DL-64e742892b89791778db24a855e573ee</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 unboxing: What do you get with the console?</t>
+          <t>Nintendo "Switch 2, using the included HDMI cable" Lack of performance in the first-generation accessory</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.indy100.com/gaming/nintendo-switch-2-unboxing-console-2672317405</t>
+          <t>https://ascii.jp/elem/000/004/280/4280590/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nintendo has sent review units out to media outlets for them to check out the new console and games running on it. The first thing that will be seen when unboxing are the two new Joy-Con controllers and main part of the console with the bigger screen. Below that on the next layer down is a brief user manual, a HDMI cable to connect the dock to a TV and the wrist strap accessories that connect to the Switch 2.</t>
+          <t>Nintendo announced on Support Official X (Twitter) that they would be using the included "Ultra High Speed HDMI Cable" When connecting Nintendo Switch 2 to a TV, use the included Ultra Highspeed HDMI cable. The most important difference is the transmission speed. It is the standard evolved from those included with the original Switch.</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9.852928</v>
+        <v>14.281282</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05T15:19:37</t>
+          <t>2025-06-10T00:00:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['Nintendo has sent Switch 2 review units out to media outlets for them to check out the new console and games running on it.\nindy100 is very fortunate to have been sent one of these units and this is what comes in the box - read our first impressions of']</t>
+          <t>['There are more than four times as many differences in numerical values, and this number must be higher in order to enjoy high-quality, high-frame rate games. The Nintendo Switch 2 is a video game console that supports up to 4K/60 fps in TV mode.']</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.5859</v>
+        <v>0.7264</v>
       </c>
       <c r="I18" t="n">
-        <v>0.048</v>
+        <v>0.129</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1234,86 +1234,86 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DL-ec8624ffe681d5f29d095a287c5219aa</t>
+          <t>DL-0aac9eb3cc370dc0acf115375a664310</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The lack of day one Switch 2 reviews isn't as problematic as it sounds</t>
+          <t>Nintendo Switch 2 launch day build-up live: all the latest news, updates, and our thoughts ahead of the console's release</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.xda-developers.com/thread/the-lack-of-day-one-switch-2-reviews-isnt-as-problematic-as-it-sounds/</t>
+          <t>https://www.techradar.com/news/live/nintendo-switch-2-launch-day-build-up-review-in-progress-live</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nintendo has been making a lot of little weird decisions with the Switch 2. Switch 2 pre-orders were flying off the shelves in the US, and the extra stock available at launch is probably going to be swooped up by die hard fans. Is it still a bad look for Nintendo to break tradition like this?</t>
+          <t>TechRadar Gaming has been covering huge console and game launches for years - everything from reviews of Nintendo, PlayStation, and Xbox systems to key live events like Nintendo Direct and Summer Game Fest presentations. Here's a quick glance at all the Nintendo Switch 2 launch games you can expect to purchase and play on June 5.</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.773457000000001</v>
+        <v>13.722183</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-03T22:01:23+00:00</t>
+          <t>2025-06-04T12:00:34</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>["And now, that's happening again, as outlets have confirmed they won't be publishing reviews of the Switch 2 on release day due to Nintendo not providing review units this time around.\nBut in reality, how much does it matter?", 'Switch 2 pre-orders were flying off the shelves in the US, and the extra stock available at launch is probably going to be swooped up by die hard fans.']</t>
+          <t>['Like a kid on Christmas Eve, this final day before the Nintendo Switch 2 launch may feel as long as the time between now and its official announcement way back in January. But that’s why we’re here.', 'At TechRadar Gaming, we’ve been covering huge console and game launches for years - everything from reviews of Nintendo, PlayStation, and Xbox systems to key live events like Nintendo Direct and Summer Game Fest presentations.']</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-0.7722</v>
+        <v>0.7351</v>
       </c>
       <c r="I19" t="n">
-        <v>0.041</v>
+        <v>0.128</v>
       </c>
       <c r="J19" t="n">
-        <v>0.168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DL-8d8caf04d65da8ebac6136b7cec59a11</t>
+          <t>DL-d8592a0cf2cffdc39ad7fabcf4457939</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 Unboxing, Setup &amp; What You Need to Know</t>
+          <t>It's already available to buy in stores for the new Nintendo Switch 2.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.geeky-gadgets.com/nintendo-switch-2-4/</t>
+          <t>https://portugalgamers.pt/ja-esta-disponivel-para-compra-nas-lojas-a-nova-nintendo-switch-2/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>This guide explores the unboxing experience, setup process, design changes, hardware advancements, and new features, while also comparing it to the original Nintendo Switch. The packaging is compact and eco-friendly, underscoring Nintendo’s commitment to reducing environmental impact. Inside the box, you’ll find: The Nintendo Switch 2 console Two redesigned Joy-Con controllers A revamped dock featuring an Ethernet port An HDMI cable A power adapter.</t>
+          <t>The Nintendo Switch 2 is out in the shops today. Add your favorite titles to a screen larger than 1080p. Compatible with high dynamic range and update rate up to 120 fps. Match the new Joy-Con 2 commands on the console with the magnetic dials. Each command can be used as a mouse.</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.218931</v>
+        <v>12.77504</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-08T13:00:24</t>
+          <t>2025-06-05T16:28:29+00:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['The video below from Zollotech gives us a detailed look at the new Switch console.\nUnboxing: What’s Inside the Box?\nThe unboxing experience of the Nintendo Switch 2 reflects a focus on simplicity and sustainability.', 'Setting Up: From Box to Gameplay\nSetting up the Nintendo Switch 2 is a straightforward process designed to get you gaming quickly.', 'New Features: Enhancing the Experience\nThe Nintendo Switch 2 introduces several new features that enhance the overall user experience and cater to modern gaming needs:\nOnline Functionality: Faster download speeds and a more stable connection improve multiplayer']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8979</v>
+        <v>0.8555</v>
       </c>
       <c r="I20" t="n">
-        <v>0.166</v>
+        <v>0.173</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1322,174 +1322,174 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DL-f955c260113cb461bc83d07b7ef513dd</t>
+          <t>DL-05650dfb79bd8bf7ef997bb2ce2f3cd3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 Comes With a Below-Average Display and Disappointing HDR Support, New In-Depth Analysis Reveals</t>
+          <t>Nintendo Switch 2 First Impressions And A Surprising Purchasing Score</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://wccftech.com/nintendo-switch-2-below-average-hdr/</t>
+          <t>https://hothardware.com/news/nintendo-switch-2-first-impressions-and-a-surprising-purchasing</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The new analysis by GamingTech takes a good look at the new Nintendo system's display. Measuring the brightness in Zelda: Breath of the Wild returned a maximum value of 420 nits, but in Cyberpunk 2077, it is locked to 450 nit, likely the maximum peak brightness the display is capable of. This peak brightness is not even close to providing a proper HDR experience.</t>
+          <t>Nintendo Switch 2 is finally out, and I have some first impressions on the experience of both playing and purchasing the console. I was not lucky enough to secure a preorder ahead of the console's June 5th release. Third-party entrepreneurs were already listing the console for a premium over its $449 MSRP. My local Walmart was nearly empty and upon inquiring, I was told it had around six to eight consoles still available in the back.</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.700903</v>
+        <v>12.0216465</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-05T11:37:00+00:00</t>
+          <t>2025-06-06T14:31:00+00:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>["Related Story Level Up Your Switch 2 Experience With Mumba’s Blade Series, Clear Series Dockable Cases, and Carrying Case\nThe Nintendo Switch 2's HDR support in docked mode fares a little better.", 'The system-level calibration is found to be adequate, and in games like Cyberpunk 2077, the system delivers an HDR experience on par with that of the other versions of the game.', 'In other games like Zelda: Breath of the Wild, the HDR experience is rather disappointing, as the game looks washed out due to its aesthetics and the lack of contrast.\nThe Nintendo Switch 2 launches today worldwide.']</t>
+          <t>['The Nintendo Switch 2 is finally out, and I have some first impressions on the experience of both playing and purchasing the console.']</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.928</v>
+        <v>0.5673</v>
       </c>
       <c r="I21" t="n">
-        <v>0.231</v>
+        <v>0.114</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DL-daa7370e17bbf6699977f90dd9dcc32e</t>
+          <t>DL-2fa26bf724852abc5c72c9f822028c52</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2: New game console officially launches today</t>
+          <t>Zelda: The underrated game that deserves a remake for Switch 2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.appgefahren.de/nintendo-switch-2-neue-spielkonsole-geht-heute-offiziell-an-den-start-380403.html</t>
+          <t>https://www.zazoom.it/2025-06-07/zelda-il-gioco-sottovalutato-che-merita-un-remake-per-switch-2/17144781/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nintendo officially unveiled the new generation of the popular Switch game console, the Nintendo Switch 2. The new model, equipped with a 7.9′′ screen and support for 4K content, is now available on the market. At the same thickness, the console features a significantly larger 7.9-inch LCD screen, 1080p resolution, HDR support, and frame rates of up to 120 fps. If the Switch 2 is connected to a TV via the also updated dock. For 4K playback, the frame</t>
+          <t>Nintendo would have the opportunity to strengthen the connection between the past and the future, providing an unforgettable experience. With the advent of the new console, the challenge for Nintendo will be to continue to innovate and deliver experiences that meet the expectations of the passionate. The Legend of Zelda: Tears of the Kingdom game shows up on Nintendo Switch 2 with 20 minutes of gameplay.</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>7.6617393</v>
+        <v>11.423676</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-05T12:38:11+00:00</t>
+          <t>2025-06-07T18:16:28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['But what can the new Nintendo Switch 2 do? Compared to its predecessor, the Nintendo Switch (OLED), the Switch 2 has done quite a bit.', 'At the same thickness, the console features a significantly larger 7.9-inch LCD screen, 1080p resolution, HDR support, and frame rates of up to 120 fps.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.802</v>
+        <v>0.8779</v>
       </c>
       <c r="I22" t="n">
-        <v>0.111</v>
+        <v>0.178</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DL-3b9c455fdfdecda911fc03f986c53590</t>
+          <t>DL-c9dfbd021d961275503a96f92b6c77b0</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Split Fiction is already available for the Nintendo Switch 2.</t>
+          <t>Nintendo Switch 2: Better Performance for Pokémon</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://portugalgamers.pt/split-fiction-ja-esta-disponivel-para-a-nintendo-switch-2/</t>
+          <t>https://www.4p.de/news/pokemon-endlich-fluessig-riesiges-update-fuer-nintendo-switch-2-bringt-das-was-fans-sich-immer-wuenschten/3325530</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Split Fiction is already available for the Nintendo Switch 2, PlayStation 5, Xbox Series X|S and PC through Steam, Epic Games Store and the EA app, starting at $49.99. GameShare will allow Nintendo Switch 2 owners to invite another player for a local wireless connection with just a copy of the video game. With exclusive Friend Pass functionality from Hazelight Studios, players can invite an online friend to play.</t>
+          <t>Pokémon on the Nintendo Switch 2: Better Performance and Textures Like in Nintendo Today! -App announced and immediately proved thanks to an enclosed video, the current generation of pocket monsters on the Switch 2 will now finally run in 60 FPS. The resolution has also been noticeably screwed up, so that Karmesin &amp; Purpur look much nicer on the console that will be released on June 5.</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7.1621685</v>
+        <v>11.268633</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-06T07:58:52+00:00</t>
+          <t>2025-06-03T15:43:17</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>["The wait's over — the explosive cooperative adventure by Hazelight Studios and EA, Split Fiction, is already available for the Nintendo Switch 2 as a release title for $49.99!", 'On the newly launched Nintendo Switch 2, players can now experience one of the best-rated video games of 2025 wherever they are and connect with fellow gamers in a collaborative way through GameShare and GameChat to dive on an unforgettable and challenging', 'GameShare will allow Nintendo Switch 2 owners to invite another player for a local wireless connection with just a copy of the video game, even for original Nintendo Switch users.']</t>
+          <t>['Recommended reading: All information about Pokémon Legends: Z-A Since the update is already there, you can start directly to the release of the Nintendo Switch 2 and experience Pokémon Karmesin &amp; Purpur as it should have been at the time of the release']</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.9081</v>
+        <v>0.7906</v>
       </c>
       <c r="I23" t="n">
-        <v>0.219</v>
+        <v>0.155</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DL-d8592a0cf2cffdc39ad7fabcf4457939</t>
+          <t>DL-7fdb288e26fb545394f161b0835d8979</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>It's already available to buy in stores for the new Nintendo Switch 2.</t>
+          <t>Nintendo Switch 2 with Mario Kart World : Here’s how to make it cheaper with the return of your old Switch!</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://portugalgamers.pt/ja-esta-disponivel-para-compra-nas-lojas-a-nova-nintendo-switch-2/</t>
+          <t>https://www.phonandroid.com/nintendo-switch-2-avec-mario-kart-world-voici-comment-lavoir-moins-chere-avec-la-reprise-de-votre-ancienne-switch.html</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 is out in the shops today. Add your favorite titles to a screen larger than 1080p. Compatible with high dynamic range and update rate up to 120 fps. Match the new Joy-Con 2 commands on the console with the magnetic dials. Each command can be used as a mouse.</t>
+          <t>Switch 2 + Mario Kart World is available at Darty at €499.99. You can save up to €133.20 by recycling your old Switch. The Switch 2 is a new pillar of the franchise. It introduces an open world linking all circuits and 24-player races.</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6.864105</v>
+        <v>9.114084</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-05T16:28:29+00:00</t>
+          <t>2025-06-07T05:00:34+00:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['A thoroughly reviewed console and an unprecedented Mario Kart The Nintendo Switch 2 marks a real evolution from the original model.', 'It comes with a 7.9-inch 1080p LCD screen, a refresh rate raised to 120 Hz for increased fluidity, and 256GB of internal memory, which can be expanded via a Micro SD Express card (not compatible with older Micro SD cards).']</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.8555</v>
+        <v>0.4939</v>
       </c>
       <c r="I24" t="n">
-        <v>0.173</v>
+        <v>0.08</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1498,42 +1498,42 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DL-0aac9eb3cc370dc0acf115375a664310</t>
+          <t>DL-8d8caf04d65da8ebac6136b7cec59a11</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 launch day build-up live: all the latest news, updates, and our thoughts ahead of the console's release</t>
+          <t>Nintendo Switch 2 Unboxing, Setup &amp; What You Need to Know</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.techradar.com/news/live/nintendo-switch-2-launch-day-build-up-review-in-progress-live</t>
+          <t>https://www.geeky-gadgets.com/nintendo-switch-2-4/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TechRadar Gaming has been covering huge console and game launches for years - everything from reviews of Nintendo, PlayStation, and Xbox systems to key live events like Nintendo Direct and Summer Game Fest presentations. Here's a quick glance at all the Nintendo Switch 2 launch games you can expect to purchase and play on June 5.</t>
+          <t>This guide explores the unboxing experience, setup process, design changes, hardware advancements, and new features, while also comparing it to the original Nintendo Switch. The packaging is compact and eco-friendly, underscoring Nintendo’s commitment to reducing environmental impact. Inside the box, you’ll find: The Nintendo Switch 2 console Two redesigned Joy-Con controllers A revamped dock featuring an Ethernet port An HDMI cable A power adapter.</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.452999</v>
+        <v>8.219427</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-04T12:00:34</t>
+          <t>2025-06-08T13:00:24</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['Like a kid on Christmas Eve, this final day before the Nintendo Switch 2 launch may feel as long as the time between now and its official announcement way back in January. But that’s why we’re here.', 'At TechRadar Gaming, we’ve been covering huge console and game launches for years - everything from reviews of Nintendo, PlayStation, and Xbox systems to key live events like Nintendo Direct and Summer Game Fest presentations.']</t>
+          <t>['The video below from Zollotech gives us a detailed look at the new Switch console.\nUnboxing: What’s Inside the Box?\nThe unboxing experience of the Nintendo Switch 2 reflects a focus on simplicity and sustainability.', 'Setting Up: From Box to Gameplay\nSetting up the Nintendo Switch 2 is a straightforward process designed to get you gaming quickly.', 'New Features: Enhancing the Experience\nThe Nintendo Switch 2 introduces several new features that enhance the overall user experience and cater to modern gaming needs:\nOnline Functionality: Faster download speeds and a more stable connection improve multiplayer']</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.7351</v>
+        <v>0.8979</v>
       </c>
       <c r="I25" t="n">
-        <v>0.128</v>
+        <v>0.166</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1542,42 +1542,42 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DL-ee2569beb5cd763340f09ccc36ad4f33</t>
+          <t>DL-f955c260113cb461bc83d07b7ef513dd</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tamagotchi Plaza to be available on Nintendo Switch 2 with exclusive stores</t>
+          <t>Nintendo Switch 2 Comes With a Below-Average Display and Disappointing HDR Support, New In-Depth Analysis Reveals</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.gamesvillage.it/7205733/tamagotchi-plaza-sara-disponibile-su-nintendo-switch-2-con-negozi-esclusivi/</t>
+          <t>https://wccftech.com/nintendo-switch-2-below-average-hdr/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 Edition gives players access to three exclusive stores. The new title in the TAMAGOTCHI CONNECTION: CORNER SHOP series is also coming on the Nintendo Switch. Each store offers a unique gameplay where players serve and attract customers, meeting over 100 different Tamagotchis and improving their reputation.</t>
+          <t>The new analysis by GamingTech takes a good look at the new Nintendo system's display. Measuring the brightness in Zelda: Breath of the Wild returned a maximum value of 420 nits, but in Cyberpunk 2077, it is locked to 450 nit, likely the maximum peak brightness the display is capable of. This peak brightness is not even close to providing a proper HDR experience.</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5.8221245</v>
+        <v>7.701069</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-06T17:07:41+00:00</t>
+          <t>2025-06-05T11:37:00+00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['Recommended Articles Nintendo Switch 2 players who already own the original Switch version of TAMGOTCHI PLAZA can access the exclusive content by purchasing the Tamagotchi Plaza update package for Nintendo Switch 2 and can access the exclusive content', 'during the switch to the Nintendo Switch 2 device.', 'TAMAGOTCHI PLAZA brings back the unique and engaging experience of setting up awesome stores and serving cute characters. The Great Gothic King declared that the Tamagotchi Fest would be held in the most exciting city on the planet Tamagotchi.']</t>
+          <t>["Related Story Level Up Your Switch 2 Experience With Mumba’s Blade Series, Clear Series Dockable Cases, and Carrying Case\nThe Nintendo Switch 2's HDR support in docked mode fares a little better.", 'The system-level calibration is found to be adequate, and in games like Cyberpunk 2077, the system delivers an HDR experience on par with that of the other versions of the game.', 'In other games like Zelda: Breath of the Wild, the HDR experience is rather disappointing, as the game looks washed out due to its aesthetics and the lack of contrast.\nThe Nintendo Switch 2 launches today worldwide.']</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.7003</v>
+        <v>0.928</v>
       </c>
       <c r="I26" t="n">
-        <v>0.137</v>
+        <v>0.231</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1586,86 +1586,86 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DL-c076e5bfb5dc9961cab30b68e0ec0dc1</t>
+          <t>DL-39e749ba8f4fabb28b4c41cfc788cbe9</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TAMAGOTCHI PLAZA released for the Nintendo Switch 2</t>
+          <t>Nintendo Switch 2: everything you need to know about the new console</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://game2gether.de/2025/06/tamagotchi-plaza-erscheint-fuer-nintendo-switch-2/</t>
+          <t>https://www.publimetro.com.mx/plus/2025/06/05/nintendo-switch-2-todo-lo-que-debes-saber-de-la-nueva-consola/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TAMAGOTCHI PLAZA will be released on June 27 for the Nintendo Switch and Nintendo Switch 2. The players take over different shops in Tamahiko Town and can thus interact with over 100 different Tamagotchis. It is important to expand more than a dozen different stores and expand the reputation in the city.</t>
+          <t>Nintendo Switch 2 will cost 13,599 Mexican pesos in Mexico, with no games included. The price goes up to 14.899 in the case of the version with Mario Kart World Photo: Courtesy Nintendo of America The wait finally ended for millions of gamers as the new console officially arrived on June 5th.</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5.511585</v>
+        <v>7.5558243</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-08T15:29:52</t>
+          <t>2025-06-05T03:09:27</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['Learn More Unlock Content Accept Required Service and Unlock Content TAMAGOTCHI PLAZA Nintendo Switch 2 Edition extends the gaming experience with three new stores, bringing the total to 15.']</t>
+          <t>['Nintendo Switch 2 Photo: Courtesy of Nintendo of America It also has a rate of up to 120 fps on some titles, allowing a smoother gaming experience.', 'As for the portable mode, it has a Full HD resolution of 1920 x 1080 pixels and a refresh rate of 120 Hz.', 'The Nintendo Switch 2 can also be used in a semi-portable way thanks to the built-in support that allows you to tilt it up to 150 degrees to find the most comfortable position to play.']</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.6597</v>
+        <v>0.0772</v>
       </c>
       <c r="I27" t="n">
-        <v>0.125</v>
+        <v>0.048</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DL-64e742892b89791778db24a855e573ee</t>
+          <t>DL-3b9c455fdfdecda911fc03f986c53590</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nintendo "Switch 2, using the included HDMI cable" Lack of performance in the first-generation accessory</t>
+          <t>Split Fiction is already available for the Nintendo Switch 2.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://ascii.jp/elem/000/004/280/4280590/</t>
+          <t>https://portugalgamers.pt/split-fiction-ja-esta-disponivel-para-a-nintendo-switch-2/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Nintendo announced on Support Official X (Twitter) that they would be using the included "Ultra High Speed HDMI Cable" When connecting Nintendo Switch 2 to a TV, use the included Ultra Highspeed HDMI cable. The most important difference is the transmission speed. It is the standard evolved from those included with the original Switch.</t>
+          <t>Split Fiction is already available for the Nintendo Switch 2, PlayStation 5, Xbox Series X|S and PC through Steam, Epic Games Store and the EA app, starting at $49.99. GameShare will allow Nintendo Switch 2 owners to invite another player for a local wireless connection with just a copy of the video game. With exclusive Friend Pass functionality from Hazelight Studios, players can invite an online friend to play.</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.806385</v>
+        <v>7.164835</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-10T00:00:00</t>
+          <t>2025-06-06T07:58:52+00:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['There are more than four times as many differences in numerical values, and this number must be higher in order to enjoy high-quality, high-frame rate games. The Nintendo Switch 2 is a video game console that supports up to 4K/60 fps in TV mode.']</t>
+          <t>["The wait's over — the explosive cooperative adventure by Hazelight Studios and EA, Split Fiction, is already available for the Nintendo Switch 2 as a release title for $49.99!", 'On the newly launched Nintendo Switch 2, players can now experience one of the best-rated video games of 2025 wherever they are and connect with fellow gamers in a collaborative way through GameShare and GameChat to dive on an unforgettable and challenging', 'GameShare will allow Nintendo Switch 2 owners to invite another player for a local wireless connection with just a copy of the video game, even for original Nintendo Switch users.']</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.7264</v>
+        <v>0.9081</v>
       </c>
       <c r="I28" t="n">
-        <v>0.129</v>
+        <v>0.219</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1674,42 +1674,42 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DL-e8fdaa27ea9510e7798fabc955bb2d44</t>
+          <t>DL-2e469f3f8789d2c101197abc3c31aac9</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 eShop is super fast.</t>
+          <t>Mario Kart World review – the final verdict on the Switch 2’s biggest game</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://nintendon.it/2025/06/05/leshop-di-nintendo-switch-2-e-velocissimo-312800</t>
+          <t>https://metro.co.uk/2025/06/10/mario-kart-world-review-final-verdict-switch-2s-biggest-game-23373706/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>the eShop on the Nintendo Switch 2 is much more responsive and responsive. Even loading the game preview through the simple tab on the main screen is significantly faster. We can only imagine that, over the next few years, this will only get better.</t>
+          <t>Mario Kart 8 Deluxe is one of the very few games we’ve ever given a 10/10 score. That’s not something we regret either, especially after the extremely generous Booster Course DLC. The idea of making the next game an open world title seemed an excellent new direction to take the series. It’s very poorly utilised, with lots of hidden secrets and yet nothing of substance to gain from them.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.701643</v>
+        <v>5.9429245</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-05T07:01:52+00:00</t>
+          <t>2025-06-10T08:07:26+00:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>["If there's one part of the original Nintendo Switch that was really annoying, it was definitely the experience of using the eShop. But in the end, it came to a respectable conclusion.", 'It turns out that the eShop on the Nintendo Switch 2 is much more responsive and responsive, allowing you to enjoy the content much more smoothly, both with the classic Joycon 2 keyboards and in mouse mode.']</t>
+          <t>['Thanks to Nintendo not sending out review units of the Nintendo Switch 2 more than a day before launch we’ve previously only been able to do a review in progress of World, during which it became clear that it is not quite the game that many imagined.']</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.8169</v>
+        <v>0.919</v>
       </c>
       <c r="I29" t="n">
-        <v>0.175</v>
+        <v>0.171</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1718,42 +1718,42 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DL-9ead5a4840a28021df89936d4039541b</t>
+          <t>DL-ee2569beb5cd763340f09ccc36ad4f33</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Switch 2 games load much slower from cartridges than a microSD Express card or internal storage</t>
+          <t>Tamagotchi Plaza to be available on Nintendo Switch 2 with exclusive stores</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.notebookcheck.net/Switch-2-games-load-much-slower-from-cartridges-than-a-microSD-Express-card-or-internal-storage.1032520.0.html</t>
+          <t>https://www.gamesvillage.it/7205733/tamagotchi-plaza-sara-disponibile-su-nintendo-switch-2-con-negozi-esclusivi/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Switch 2 specs include internal 256GB UFS storage, which wins the checkered flag with a time of 16.60 seconds. SanDisk, Samsung, and Lexar microSD Express cards finish second between 19.18 and 19.78 seconds, and Game Card finishes in last place.</t>
+          <t>Nintendo Switch 2 Edition gives players access to three exclusive stores. The new title in the TAMAGOTCHI CONNECTION: CORNER SHOP series is also coming on the Nintendo Switch. Each store offers a unique gameplay where players serve and attract customers, meeting over 100 different Tamagotchis and improving their reputation.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4.325392</v>
+        <v>5.8248024</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-08T04:13:27+00:00</t>
+          <t>2025-06-06T17:07:41+00:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['The number of ways to play or store Switch 2 games can confuse buyers. In addition to cartridges, internal storage, and microSD Express cards, gamers can experiment with Game-Key Cards.', "For Nintendo fans who prioritize speed, a new benchmark compares these different formats. It's no shock that the console's built-in flash storage ranks first. Still, the fact that Switch 2 cartridges are significantly slower may surprise gamers."]</t>
+          <t>['Recommended Articles Nintendo Switch 2 players who already own the original Switch version of TAMGOTCHI PLAZA can access the exclusive content by purchasing the Tamagotchi Plaza update package for Nintendo Switch 2 and can access the exclusive content', 'during the switch to the Nintendo Switch 2 device.', 'TAMAGOTCHI PLAZA brings back the unique and engaging experience of setting up awesome stores and serving cute characters. The Great Gothic King declared that the Tamagotchi Fest would be held in the most exciting city on the planet Tamagotchi.']</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.5719</v>
+        <v>0.7003</v>
       </c>
       <c r="I30" t="n">
-        <v>0.098</v>
+        <v>0.137</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1762,170 +1762,174 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DL-24b1842a456f3df8f5436bc5f2ff0e03</t>
+          <t>DL-be4b0877ab72d480615d2f3254053e13</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Your Nintendo Switch 2 Launch Kit: The Best Accessories</t>
+          <t>Moving my self-hosted empire to Proxmox was a breeze</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.techlicious.com/guide/nintendo-switch-2-accessories/</t>
+          <t>https://www.xda-developers.com/thread/moving-my/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>The official Nintendo Switch 2 Pro Controller is one of the best that money can buy. From controllers to carry cases, cameras to microSD cards, there are plenty of ways to maximize your Switch 2 experience. This wireless controller offers responsive buttons, precise analog sticks, and ergonomic grips designed to keep your hands comfortable during extended play sessions. It also features built-in motion controls and HD rumble.</t>
+          <t>Nintendo has been making a lot of little weird decisions with the Switch 2. It's been a long wait for a new generation of consoles since the launch of the original hardware. Fans have speculated on a successor or major upgrade to the Switch.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.281063</v>
+        <v>5.68388</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-05T00:00:00</t>
+          <t>2025-06-04T22:16:05+00:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['From controllers to carry cases, cameras to microSD cards, there are plenty of ways to maximize your Switch 2 experience. So without further ado, here are the best Nintendo Switch 2 accessories currently (and shortly) available.', 'Best Controllers for a Premium Play Experience\nNintendo Switch 2 Pro Controller\nIf you’re planning on couch-playing with your Switch 2 in docked mode, a decent controller is an absolute must-have, and the official Nintendo Switch 2 Pro Controller is one']</t>
+          <t>["And now, that's happening again, as outlets have confirmed they won't be publishing reviews of the Switch 2 on release day due to Nintendo not providing review units this time around. But in reality, how much does it matter?", 'Switch 2 pre-orders were flying off the shelves in the US, and the extra stock available at launch is probably going to be swooped up by die hard fans.']</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.9081</v>
+        <v>0.4201</v>
       </c>
       <c r="I31" t="n">
-        <v>0.167</v>
+        <v>0.101</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DL-9d1bad91e8b4cc20db3b991779086ad1</t>
+          <t>DL-c076e5bfb5dc9961cab30b68e0ec0dc1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Islanders: New Shores to debut on PC and console in July</t>
+          <t>TAMAGOTCHI PLAZA released for the Nintendo Switch 2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.gamereactor.it/islanders-new-shores-debuttera-su-pc-e-console-a-luglio-1481313/</t>
+          <t>https://game2gether.de/2025/06/tamagotchi-plaza-erscheint-fuer-nintendo-switch-2/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>The Station has announced that their sequel to city building, Islanders: New Shores, will be released for PC and consoles in July. The game is described as a fascinating experience that allows players to "explore rooftop volcanic peaks, in fantastically intricate serene environments" the release date is set for July 10th, and the platforms are PC (Steam), Nintendo Switch (no word on Switch 2 yet), PS5 and Xbox Series X/S/S.</t>
+          <t>TAMAGOTCHI PLAZA will be released on June 27 for the Nintendo Switch and Nintendo Switch 2. The players take over different shops in Tamahiko Town and can thus interact with over 100 different Tamagotchis. It is important to expand more than a dozen different stores and expand the reputation in the city.</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4.1608124</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
+        <v>5.5119667</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-06-08T15:29:52</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Learn More Unlock Content Accept Required Service and Unlock Content TAMAGOTCHI PLAZA Nintendo Switch 2 Edition extends the gaming experience with three new stores, bringing the total to 15.']</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.7096</v>
+        <v>0.6597</v>
       </c>
       <c r="I32" t="n">
-        <v>0.111</v>
+        <v>0.125</v>
       </c>
       <c r="J32" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DL-7fdb288e26fb545394f161b0835d8979</t>
+          <t>DL-887a2385045f651122c064ee4d0928fc</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 with Mario Kart World : Here’s how to make it cheaper with the return of your old Switch!</t>
+          <t>Endless coughs to buy the latest Nintendo console... and miss it</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.phonandroid.com/nintendo-switch-2-avec-mario-kart-world-voici-comment-lavoir-moins-chere-avec-la-reprise-de-votre-ancienne-switch.html</t>
+          <t>https://www.vozpopuli.com/altavoz/cultura/colas-interminables-para-comprar-la-ultima-consola-de-nintendo-y-se-quedan-sin-ella.html</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Switch 2 + Mario Kart World is available at Darty at €499.99. You can save up to €133.20 by recycling your old Switch. The Switch 2 is a new pillar of the franchise. It introduces an open world linking all circuits and 24-player races.</t>
+          <t>Nintendo announced the launch of their new Nintendo Switch 2 console on May 5th. The lack of'stock' has caused the consequent anger of those who have been left without their longed-for toy. Even some, who had paid in advance months in advance, have ended up without theirs.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4.1213493</v>
+        <v>4.928055</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-07T05:00:34+00:00</t>
+          <t>2025-06-07T02:45:07+00:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['A thoroughly reviewed console and an unprecedented Mario Kart The Nintendo Switch 2 marks a real evolution from the original model.', 'It comes with a 7.9-inch 1080p LCD screen, a refresh rate raised to 120 Hz for increased fluidity, and 256GB of internal memory, which can be expanded via a Micro SD Express card (not compatible with older Micro SD cards).']</t>
+          <t>['The Nintendo Switch is today the third best-selling video game console in history and, at the rate it is going, everything indicates that it will soon reach second place.', 'The Nintendo Switch 2 was officially released on June 5, 2025, although there were people who were able to get it on June 4 to try it out earlier. However, there is a big problem with its release: there is not enough stock for everyone.']</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.4939</v>
+        <v>-0.7184</v>
       </c>
       <c r="I33" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DL-069b859981ec37c594fae5168c6bcee6</t>
+          <t>DL-e8fdaa27ea9510e7798fabc955bb2d44</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>All official Nintendo Switch 2 accessories: complete list</t>
+          <t>The Nintendo Switch 2 eShop is super fast.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.larazon.es/videojuegos/setup-pro/todos-accesorios-oficiales-nintendo-switch-2-lista-completa_20250603683f34e17b27927d3dba1f42.html</t>
+          <t>https://nintendon.it/2025/06/05/leshop-di-nintendo-switch-2-e-velocissimo-312800</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Nintendo has always stood out for its ability to accompany the release of its consoles with a carefully designed environment. In order to enrich the user experience, the company bets on a wide range of essential accessories that enhance the possibilities of the console. The main protagonist is the new camera, an innovative accessory that introduces unique game dynamics and improves connectivity.</t>
+          <t>the eShop on the Nintendo Switch 2 is much more responsive and responsive. Even loading the game preview through the simple tab on the main screen is significantly faster. We can only imagine that, over the next few years, this will only get better.</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4.095972</v>
+        <v>4.701721</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-03T17:46:39+00:00</t>
+          <t>2025-06-05T07:01:52+00:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['Nintendo has always stood out for its ability to accompany the release of its consoles with a carefully designed environment, and Nintendo Switch 2 is no exception.', 'Nintendo GameCube Controller: Directed at nostalgic gamers, this GameCube classic replica control offers a true retro experience for Switch 2 compatible titles. It is available on the My Nintendo Store for €69.99.', 'The standard Nintendo Switch 2 pack is carefully designed to offer players a complete experience from the moment they open the box, providing all the essential components to immerse themselves in the new generation of Nintendo.']</t>
+          <t>["If there's one part of the original Nintendo Switch that was really annoying, it was definitely the experience of using the eShop. But in the end, it came to a respectable conclusion.", 'It turns out that the eShop on the Nintendo Switch 2 is much more responsive and responsive, allowing you to enjoy the content much more smoothly, both with the classic Joycon 2 keyboards and in mouse mode.']</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.8625</v>
+        <v>0.8169</v>
       </c>
       <c r="I34" t="n">
-        <v>0.174</v>
+        <v>0.175</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1934,482 +1938,474 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DL-6d0e71949253ac54c4daa072e2911a23</t>
+          <t>DL-9ead5a4840a28021df89936d4039541b</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fortnite Nintendo Switch 2 has no 120fps mode on launch, but it’s a massive improvement over the rancid Switch 1 port</t>
+          <t>Switch 2 games load much slower from cartridges than a microSD Express card or internal storage</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.videogamer.com/news/fortnite-nintendo-switch-2-no-120fps-mode-launch/</t>
+          <t>https://www.notebookcheck.net/Switch-2-games-load-much-slower-from-cartridges-than-a-microSD-Express-card-or-internal-storage.1032520.0.html</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Epic Games has released the full list of features for the Nintendo Switch 2 Edition of its free-to-play battle royale game. Fortnite runs at 60fps in both docked and handheld play, which is heaps better than the original handheld. The new handheld has higher-quality asseta across the board with textures on-par with other costumes, actual shadows and water shaders.</t>
+          <t>Switch 2 specs include internal 256GB UFS storage, which wins the checkered flag with a time of 16.60 seconds. SanDisk, Samsung, and Lexar microSD Express cards finish second between 19.18 and 19.78 seconds, and Game Card finishes in last place.</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.4143333</v>
+        <v>4.3257656</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-04T14:57:18+00:00</t>
+          <t>2025-06-08T04:13:27+00:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>["Our team of gaming experts spend hours testing and reviewing the latest games, to ensure you're reading the most comprehensive guide possible. Rest assured, all imagery and advice is unique and original.", 'Check out how we test and review games here\nEpic Games has released the full list of features for the Nintendo Switch 2 Edition of its free-to-play battle royale game.']</t>
+          <t>['The number of ways to play or store Switch 2 games can confuse buyers. In addition to cartridges, internal storage, and microSD Express cards, gamers can experiment with Game-Key Cards.', "For Nintendo fans who prioritize speed, a new benchmark compares these different formats. It's no shock that the console's built-in flash storage ranks first. Still, the fact that Switch 2 cartridges are significantly slower may surprise gamers."]</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.8658</v>
+        <v>0.5719</v>
       </c>
       <c r="I35" t="n">
-        <v>0.185</v>
+        <v>0.098</v>
       </c>
       <c r="J35" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DL-39e749ba8f4fabb28b4c41cfc788cbe9</t>
+          <t>DL-24b1842a456f3df8f5436bc5f2ff0e03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2: everything you need to know about the new console</t>
+          <t>Your Nintendo Switch 2 Launch Kit: The Best Accessories</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.publimetro.com.mx/plus/2025/06/05/nintendo-switch-2-todo-lo-que-debes-saber-de-la-nueva-consola/</t>
+          <t>https://www.techlicious.com/guide/nintendo-switch-2-accessories/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 will cost 13,599 Mexican pesos in Mexico, with no games included. The price goes up to 14.899 in the case of the version with Mario Kart World Photo: Courtesy Nintendo of America The wait finally ended for millions of gamers as the new console officially arrived on June 5th.</t>
+          <t>The official Nintendo Switch 2 Pro Controller is one of the best that money can buy. From controllers to carry cases, cameras to microSD cards, there are plenty of ways to maximize your Switch 2 experience. This wireless controller offers responsive buttons, precise analog sticks, and ergonomic grips designed to keep your hands comfortable during extended play sessions. It also features built-in motion controls and HD rumble.</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.3168545</v>
+        <v>4.2812214</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-05T03:09:27</t>
+          <t>2025-06-05T00:00:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['Nintendo Switch 2 Photo: Courtesy of Nintendo of America It also has a rate of up to 120 fps on some titles, allowing a smoother gaming experience.', 'As for the portable mode, it has a Full HD resolution of 1920 x 1080 pixels and a refresh rate of 120 Hz.', 'The Nintendo Switch 2 can also be used in a semi-portable way thanks to the built-in support that allows you to tilt it up to 150 degrees to find the most comfortable position to play.']</t>
+          <t>['From controllers to carry cases, cameras to microSD cards, there are plenty of ways to maximize your Switch 2 experience. So without further ado, here are the best Nintendo Switch 2 accessories currently (and shortly) available.', 'Best Controllers for a Premium Play Experience\nNintendo Switch 2 Pro Controller\nIf you’re planning on couch-playing with your Switch 2 in docked mode, a decent controller is an absolute must-have, and the official Nintendo Switch 2 Pro Controller is one']</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.0772</v>
+        <v>0.9081</v>
       </c>
       <c r="I36" t="n">
-        <v>0.048</v>
+        <v>0.167</v>
       </c>
       <c r="J36" t="n">
-        <v>0.043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DL-0baa58f2b21229daa16ed87a04ee6380</t>
+          <t>DL-4a140a18c5aefde1b5970f7608d46b27</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>I missed those games on the release of Nintendo Switch 2</t>
+          <t>Nintendo Switch 2: Live updates on launch night</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://antyweb.pl/tych-gier-zabraklo-mi-na-premierze-nintendo-switch-2</t>
+          <t>https://www.independent.co.uk/extras/indybest/gadgets-tech/video-games-consoles/nintendo-switch-2-stock-live-uk-b2763929.html</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 officially went on sale yesterday and is enjoying great interest – also in Poland, where a night event was organized. Nintendo did not have a strong presence among the original titles.</t>
+          <t>Smyths Toys opened all of its shops at midnight, offering a limited amount of walk-in stoc, but doors are closing at 12.30am. Over on Oxford Street, Currys is running a launch event at its flagship store. A few retailers are holding back stock for the early hours of the morning. Retailers are gearing up to drop more Switch 2 stock online as the morning unfolds.</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.1638184</v>
+        <v>4.200737</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-06T10:30:18</t>
+          <t>2025-06-04T21:52:05+00:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['Undoubtedly the biggest hit will be Mario Kart World – a game that develops the concept of racing with the protagonists of Nintendo games giving a breath of freshness with new fun modes.', 'Special mention should be made of Cyberpunk 2077 in the Ultimate edition, which is available on the day of the Nintendo Switch 2 release and offers the full experience of Night City in a portable version.']</t>
+          <t>["Alex Lee4 June 2025 23:10\n57 minutes ago\nIt's almost time\nLess than an hour to go until retailers start going live with Nintendo Switch 2 stock. Who do you think will go first?", 'Unboxing my Switch 2 was like Christmas morning, so I’m excited for you all to experience the same.\nAre you in one of Smyths Toys’s flagship shops already? What’s the vibe? Let me know.', 'Oh, and there will be limited stock of the Nintendo Switch 2 available, too.']</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.8778</v>
+        <v>-0.3612</v>
       </c>
       <c r="I37" t="n">
-        <v>0.316</v>
+        <v>0.025</v>
       </c>
       <c r="J37" t="n">
-        <v>0.067</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DL-2a978e6f0390cba5e2c1c92d76359a8c</t>
+          <t>DL-9d1bad91e8b4cc20db3b991779086ad1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EE launches exclusive Nintendo Switch 2 bundles</t>
+          <t>Islanders: New Shores to debut on PC and console in July</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.techdigest.tv/2025/06/ee-launches-exclusive-nintendo-switch-2-bundles.html?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=ee-launches-exclusive-nintendo-switch-2-bundles</t>
+          <t>https://www.gamereactor.it/islanders-new-shores-debuttera-su-pc-e-console-a-luglio-1481313/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Share Mobile and broadband provider EE has announced a range of exclusive new bundles for the highly anticipated Nintendo Switch 2 console. Each bundle requires a £20 upfront cost on a 24-month plan and includes the new console, the upcoming Mario Kart World game and a 12-month Nintendo Switch Online subscription with Expansion Pack. A key feature across all bundles is a 24month subscription to EE’s Gamer and Video Data Pass, allowing users to stream and play games without impacting their standard data allowance </t>
+          <t>The Station has announced that their sequel to city building, Islanders: New Shores, will be released for PC and consoles in July. The game is described as a fascinating experience that allows players to "explore rooftop volcanic peaks, in fantastically intricate serene environments" the release date is set for July 10th, and the platforms are PC (Steam), Nintendo Switch (no word on Switch 2 yet), PS5 and Xbox Series X/S/S.</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.0962734</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2025-06-05T08:36:40</t>
-        </is>
-      </c>
+        <v>4.161209</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['Share\nMobile and broadband provider EE has announced a range of exclusive new bundles for the highly anticipated Nintendo Switch 2 console.', 'Available from today, June 5th, these packages aim to offer gamers an enhanced experience with included connectivity features.', 'Each bundle requires a £20 upfront cost on a 24-month plan and includes the new Nintendo Switch 2 console, the upcoming Mario Kart World game and a 12-month Nintendo Switch Online subscription with Expansion Pack.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.6249</v>
+        <v>0.7096</v>
       </c>
       <c r="I38" t="n">
-        <v>0.077</v>
+        <v>0.111</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DL-4a140a18c5aefde1b5970f7608d46b27</t>
+          <t>DL-c52009334545d09049979dae231d50d4</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2: Live updates on launch night</t>
+          <t>How to get a Nintendo Switch 2 from Best Buy, GameStop, Target and more</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.independent.co.uk/extras/indybest/gadgets-tech/video-games-consoles/nintendo-switch-2-stock-live-uk-b2763929.html</t>
+          <t>https://www.independent.co.uk/extras/indybest/us/nintendo-switch-2-gamestop-best-buy-target-b2762563.html</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Smyths Toys opened all of its shops at midnight, offering a limited amount of walk-in stoc, but doors are closing at 12.30am. Over on Oxford Street, Currys is running a launch event at its flagship store. A few retailers are holding back stock for the early hours of the morning. Retailers are gearing up to drop more Switch 2 stock online as the morning unfolds.</t>
+          <t>Your support helps us to tell the story Read more Support Now From reproductive rights to Big Tech, The Independent is on the ground when the story is developing. Your donation allows us to keep sending journalists to both sides of the story. We believe quality journalism should be available to everyone, paid for by those who can afford it.</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.9316483</v>
+        <v>4.141777</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-04T21:52:05+00:00</t>
+          <t>2025-06-03T10:15:58</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>["Alex Lee4 June 2025 23:10\n57 minutes ago\nIt's almost time\nLess than an hour to go until retailers start going live with Nintendo Switch 2 stock. Who do you think will go first?", 'Unboxing my Switch 2 was like Christmas morning, so I’m excited for you all to experience the same.\nAre you in one of Smyths Toys’s flagship shops already? What’s the vibe? Let me know.', 'Oh, and there will be limited stock of the Nintendo Switch 2 available, too.']</t>
+          <t>['We got a first look at the Nintendo Switch 2 – read our hands-on review']</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-0.3612</v>
+        <v>0.7906</v>
       </c>
       <c r="I39" t="n">
-        <v>0.025</v>
+        <v>0.123</v>
       </c>
       <c r="J39" t="n">
-        <v>0.063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DL-be4b0877ab72d480615d2f3254053e13</t>
+          <t>DL-069b859981ec37c594fae5168c6bcee6</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Moving my self-hosted empire to Proxmox was a breeze</t>
+          <t>All official Nintendo Switch 2 accessories: complete list</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.xda-developers.com/thread/moving-my/</t>
+          <t>https://www.larazon.es/videojuegos/setup-pro/todos-accesorios-oficiales-nintendo-switch-2-lista-completa_20250603683f34e17b27927d3dba1f42.html</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Nintendo has been making a lot of little weird decisions with the Switch 2. It's been a long wait for a new generation of consoles since the launch of the original hardware. Fans have speculated on a successor or major upgrade to the Switch.</t>
+          <t>Nintendo has always stood out for its ability to accompany the release of its consoles with a carefully designed environment. In order to enrich the user experience, the company bets on a wide range of essential accessories that enhance the possibilities of the console. The main protagonist is the new camera, an innovative accessory that introduces unique game dynamics and improves connectivity.</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.8678513</v>
+        <v>4.0958786</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-04T22:16:05+00:00</t>
+          <t>2025-06-03T17:46:39+00:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>["And now, that's happening again, as outlets have confirmed they won't be publishing reviews of the Switch 2 on release day due to Nintendo not providing review units this time around. But in reality, how much does it matter?", 'Switch 2 pre-orders were flying off the shelves in the US, and the extra stock available at launch is probably going to be swooped up by die hard fans.']</t>
+          <t>['Nintendo has always stood out for its ability to accompany the release of its consoles with a carefully designed environment, and Nintendo Switch 2 is no exception.', 'Nintendo GameCube Controller: Directed at nostalgic gamers, this GameCube classic replica control offers a true retro experience for Switch 2 compatible titles. It is available on the My Nintendo Store for €69.99.', 'The standard Nintendo Switch 2 pack is carefully designed to offer players a complete experience from the moment they open the box, providing all the essential components to immerse themselves in the new generation of Nintendo.']</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.4201</v>
+        <v>0.8625</v>
       </c>
       <c r="I40" t="n">
-        <v>0.101</v>
+        <v>0.174</v>
       </c>
       <c r="J40" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DL-b2b049aaa24705881044f0a75bfc6392</t>
+          <t>DL-ce5f9cdf63998a111dd0a2e7410853d6</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 : some players have had a very bad surprise with their console</t>
+          <t>Meta in talks with Disney, A24 and others to secure content for VR headsets</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.gameblog.fr/jeu-video/ed/news/nintendo-switch-2-mauvaises-surprises-696414</t>
+          <t>https://gigazine.net/gsc_news/en/20250605-meta-vr-contents-from-disney-a24/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 is always a major event, both for the manufacturer and for the players. This, unfortunately, can involve blindness. At the end of 2020, the launches of the PS5 and Xbox Series marked the story in this sense, in the midst of the coronavirus pandemic.</t>
+          <t>FFmpeg has integrated WebRTC support, enabling ultra-low latency streaming of less than 1 second with OBS, the latest codecs can be selected, and even streaming without a server is now possible X files lawsuit against eight users who tried to unfairly increase their revenue by abusing 'creator revenue sharing' Meta announces details of AI smart glasses 'Aria Gen 2', explaining cutting-edge camera and sensor technology Results of 'MLPerf Training v5.0', which</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2.666113</v>
+        <v>4.092514</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-06T11:31:30+00:00</t>
+          <t>2025-06-05T06:24:00+00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['The Nintendo Switch 2 has unfortunately not escaped some unforeseen, as some players have unfortunately had the bitter experience of opening the cardboard of their console.']</t>
+          <t>["reaffirms plans to invest $100 billion in Arizona over next five years\nPart of 'MetaHuman', a game development tool that allows you to create and move ultra-realistic 3DCG characters for free, is integrated into Unreal Engine 5.6\nThe reason why the Nintendo", "Switch 2 was not loaned to the media for pre-release review was because 'important features and updates for the console' will be provided on the release date of June 5th.", "Speculation is rife that the Chinese-made high-performance AI model 'DeepSeek-R1-0528' may have been distilled using Google's AI 'Gemini'\nAttention is drawn to the warning in the Nintendo Switch 2 manual that reads, 'Do not remove the shatterproof film"]</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>-0.4118</v>
+        <v>0.4588</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="J41" t="n">
-        <v>0.06</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DL-c52009334545d09049979dae231d50d4</t>
+          <t>DL-6d0e71949253ac54c4daa072e2911a23</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>How to get a Nintendo Switch 2 from Best Buy, GameStop, Target and more</t>
+          <t>Fortnite Nintendo Switch 2 has no 120fps mode on launch, but it’s a massive improvement over the rancid Switch 1 port</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.independent.co.uk/extras/indybest/us/nintendo-switch-2-gamestop-best-buy-target-b2762563.html</t>
+          <t>https://www.videogamer.com/news/fortnite-nintendo-switch-2-no-120fps-mode-launch/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Your support helps us to tell the story Read more Support Now From reproductive rights to Big Tech, The Independent is on the ground when the story is developing. Your donation allows us to keep sending journalists to both sides of the story. We believe quality journalism should be available to everyone, paid for by those who can afford it.</t>
+          <t>Epic Games has released the full list of features for the Nintendo Switch 2 Edition of its free-to-play battle royale game. Fortnite runs at 60fps in both docked and handheld play, which is heaps better than the original handheld. The new handheld has higher-quality asseta across the board with textures on-par with other costumes, actual shadows and water shaders.</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2.630474</v>
+        <v>3.9428139</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-03T10:15:58</t>
+          <t>2025-06-04T14:57:18+00:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['We got a first look at the Nintendo Switch 2 – read our hands-on review']</t>
+          <t>["Our team of gaming experts spend hours testing and reviewing the latest games, to ensure you're reading the most comprehensive guide possible. Rest assured, all imagery and advice is unique and original.", 'Check out how we test and review games here\nEpic Games has released the full list of features for the Nintendo Switch 2 Edition of its free-to-play battle royale game.']</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.7906</v>
+        <v>0.8658</v>
       </c>
       <c r="I42" t="n">
-        <v>0.123</v>
+        <v>0.185</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DL-9e7bd803a3254229cbb9e3b27f0fda79</t>
+          <t>DL-b080cb5509d88a1ec15ee8a2c6106938</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 is here: everything you need to know about the new console</t>
+          <t>Get the most out of your Nintendo Switch 2 with these 3 TVs I've picked to pair with it, including one of the best OLED TVs I've seen</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.lavanguardia.com/vida/20250605/10755562/nintendo-switch-2-caracteristicas-modelos-precio-accesorios-juegos.html</t>
+          <t>https://www.techradar.com/televisions/get-the-most-out-of-your-nintendo-switch-2-with-these-3-tvs-ive-picked-to-pair-with-it-including-one-of-the-best-oled-tvs-ive-seen</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 comes to stores eight years after the first model surprised with its hybrid design (portable and desktop), but also after one of the biggest commercial triumphs in the history of video games. The rise in the price of both the machine and the games has monopolized the conversation since Nintendo introduced Switch 2 at the beginning of April. This article discusses the price, but also the main features of the console, its compatibility with the original model or its accessories.</t>
+          <t>TechRadar look for VRR, 120Hz refresh rate and Auto Low Latency Mode. Low input lag for responsive performance and top-notch picture quality are also important. LG B4 48-inch 4K OLED TV : £879 now £849 at Best Buy The LG C4 provides premium OLED picture quality and a full array of gaming features.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.6206264</v>
+        <v>3.8008957</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-05T06:00:00</t>
+          <t>2025-06-06T08:00:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>["At the moment, few highlighted Games 'Cyberpunk 2077' is one of the most striking games of Nintendo Switch 2 • Mario Kart World: In the absence of a thorough trial, and with only a first hour of play, the first big must-have of Nintendo Switch 2 is this", 'This is a game that incorporates important innovations, such as the inclusion of a great open world, and that demonstrates the leap in power compared to the original Nintendo Switch. • Nintendo Switch 2 Welcome Tour: This collection of minigames and experiences', 'It would be the typical game that comes with the console, but Nintendo has decided to charge 10 euros for it. • Cyberpunk 2077 Ultimate Edition: The ambitious futuristic adventure of CD Projekt Red is one of the most surprising games to see running on']</t>
+          <t>['The Nintendo Switch 2 has finally arrived, and it brings several upgrades over its predecessor, including 4K resolution, 120Hz (at 1080p resolution) and HDR support.', 'And there’s no better time to buy one to pair with your Nintendo Switch 2 with ambitious ports such as Cyberpunk: 2077 available from launch.', 'The Switch 2 can once again take advantage of that low input lag time for ultra-responsive performance (crucial for Mario Kart World) and the B4’s 4K, HDR and 120Hz support to level-up their experience from the original Nintendo Switch.']</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.7227</v>
+        <v>0.5719</v>
       </c>
       <c r="I43" t="n">
-        <v>0.096</v>
+        <v>0.181</v>
       </c>
       <c r="J43" t="n">
-        <v>0.027</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DL-182e127a12c29e22cad855da74591ca5</t>
+          <t>DL-6b1dfb573ca972c47a35c3452e0b887c</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Zelda: Tears of the Kingdom Modded With Ray Tracing Looks Stunning in New 8K Video</t>
+          <t>With the release of the Nintendo Switch 2, what's the future for the Switch?</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://wccftech.com/zelda-tears-of-the-kingdom-ray-tracing-8k/</t>
+          <t>https://www.gamekult.com/actualite/avec-la-sortie-de-la-nintendo-switch-2-quel-avenir-pour-la-switch-3050864092.html</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>The Legend of Zelda: Tears of the Kingdom can look stunning with some choice mods on PC, which outshine the recently released Nintendo Switch 2 edition. A new video shared a few days ago shows the latest main entry in the series running on PC via an emulator at 8K resolution with some mods.</t>
+          <t>Nintendo has always shown a rigorous follow-up on its previous consoles. Examples include the 3DS, which was eligible for new features until 2019 (two years after Switch’s release), and an online store until 2023. The real question would be whether Nintendo would be willing to offer its productions on both machines at the same time.</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2.6030064</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2025-06-06T12:07:00+00:00</t>
-        </is>
-      </c>
+        <v>3.2541294</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['As even an RTX 5090 has some trouble running the game at 60 FPS at such a high resolution and with these mods, it would have been unreasonable to expect such a makeover to run on the Nintendo Switch 2, so those who wish to experience the game like never', "Related Story Batman Arkham Knight, One of the Worst Nintendo Switch Ports Ever, Gets Significant Performance Boost on Nintendo Switch 2\nThe fact that The Legend of Zelda: Tears of the Kingdom on Nintendo Switch 2 doesn't feature any transformative visual"]</t>
+          <t>['Samus will be on both Switches A situation that is explained by Nintendo’s legacy, but also by the fact that the adoption rate of the console is probably still questionable at the moment.', 'If Nintendo has not spoken out on this issue, Kyoto is well aware that the switch 2 adoption curve is more uncertain than the first one, in the sense that consumers will be much more reluctant to switch, mainly for price reasons of course.']</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.4767</v>
+        <v>-0.2732</v>
       </c>
       <c r="I44" t="n">
-        <v>0.093</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.035</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DL-2e469f3f8789d2c101197abc3c31aac9</t>
+          <t>DL-f5ec55248d270c706daae41500b0144a</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mario Kart World review – the final verdict on the Switch 2’s biggest game</t>
+          <t>Nintendo Switch 2 launches with Street Fighter 6 demo in the eShop</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://metro.co.uk/2025/06/10/mario-kart-world-review-final-verdict-switch-2s-biggest-game-23373706/</t>
+          <t>https://www.playcentral.de/nintendo-switch-2-startet-mit-street-fighter-6-demo-im-eshop-durch/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mario Kart 8 Deluxe is one of the very few games we’ve ever given a 10/10 score. That’s not something we regret either, especially after the extremely generous Booster Course DLC. The idea of making the next game an open world title seemed an excellent new direction to take the series. It’s very poorly utilised, with lots of hidden secrets and yet nothing of substance to gain from them.</t>
+          <t>Street Fighter 6 demo is now available in the Nintendo eShop. It allows players to test some of the game's modes before purchasing. The demo is available on the Nintendo Switch 2 and offers fans the opportunity to try out the game.</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2.5434074</v>
+        <v>3.204979</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-10T08:07:26+00:00</t>
+          <t>2025-06-08T17:02:54</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['Thanks to Nintendo not sending out review units of the Nintendo Switch 2 more than a day before launch we’ve previously only been able to do a review in progress of World, during which it became clear that it is not quite the game that many imagined.']</t>
+          <t>['It offers players the ability to enjoy the game in 1080p resolution with a refresh rate of 120Hz in handheld or table mode, while it supports 4K at 60Hz in dock mode.', 'Conclusion and Community Issue The availability of the free demo of Street Fighter 6 on the Nintendo Switch 2 is welcome news for all those who were disappointed by the limited number of new games introduced on the console.', 'It offers the opportunity to experience one of the best fighting games of 2023 on the new hardware. How do you find the current line-up of the Nintendo Switch 2? Are you going to try the Street Fighter 6 demo?']</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.919</v>
+        <v>0.5266999999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>0.171</v>
+        <v>0.104</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2418,86 +2414,86 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DL-f5ec55248d270c706daae41500b0144a</t>
+          <t>DL-0baa58f2b21229daa16ed87a04ee6380</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 launches with Street Fighter 6 demo in the eShop</t>
+          <t>I missed those games on the release of Nintendo Switch 2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.playcentral.de/nintendo-switch-2-startet-mit-street-fighter-6-demo-im-eshop-durch/</t>
+          <t>https://antyweb.pl/tych-gier-zabraklo-mi-na-premierze-nintendo-switch-2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Street Fighter 6 demo is now available in the Nintendo eShop. It allows players to test some of the game's modes before purchasing. The demo is available on the Nintendo Switch 2 and offers fans the opportunity to try out the game.</t>
+          <t>Nintendo Switch 2 officially went on sale yesterday and is enjoying great interest – also in Poland, where a night event was organized. Nintendo did not have a strong presence among the original titles.</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2.4696312</v>
+        <v>3.1655617</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-08T17:02:54</t>
+          <t>2025-06-06T10:30:18</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['It offers players the ability to enjoy the game in 1080p resolution with a refresh rate of 120Hz in handheld or table mode, while it supports 4K at 60Hz in dock mode.', 'Conclusion and Community Issue The availability of the free demo of Street Fighter 6 on the Nintendo Switch 2 is welcome news for all those who were disappointed by the limited number of new games introduced on the console.', 'It offers the opportunity to experience one of the best fighting games of 2023 on the new hardware. How do you find the current line-up of the Nintendo Switch 2? Are you going to try the Street Fighter 6 demo?']</t>
+          <t>['Undoubtedly the biggest hit will be Mario Kart World – a game that develops the concept of racing with the protagonists of Nintendo games giving a breath of freshness with new fun modes.', 'Special mention should be made of Cyberpunk 2077 in the Ultimate edition, which is available on the day of the Nintendo Switch 2 release and offers the full experience of Night City in a portable version.']</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.5266999999999999</v>
+        <v>0.8778</v>
       </c>
       <c r="I46" t="n">
-        <v>0.104</v>
+        <v>0.316</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DL-37c373fee1dff1bb24a16495a09080f5</t>
+          <t>DL-2a978e6f0390cba5e2c1c92d76359a8c</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 vs Nintendo Switch : what are the main differences?</t>
+          <t>EE launches exclusive Nintendo Switch 2 bundles</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.numerama.com/tech/1988347-nintendo-switch-2-vs-nintendo-switch-quelles-sont-les-principales-differences.html</t>
+          <t>https://www.techdigest.tv/2025/06/ee-launches-exclusive-nintendo-switch-2-bundles.html?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=ee-launches-exclusive-nintendo-switch-2-bundles</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Switch 2 is a direct evolution of the Switch (Standard and OLED) it is also able to play its games, thanks to backwards compatibility. The launch catalogue already offers its own exclusives with the latest Mario Kart World, available only on this new model. There are also many improvements that, when completed, make this console a much more significant advance than the OLED Switch had been compared to the classic Switch.</t>
+          <t xml:space="preserve">Share Mobile and broadband provider EE has announced a range of exclusive new bundles for the highly anticipated Nintendo Switch 2 console. Each bundle requires a £20 upfront cost on a 24-month plan and includes the new console, the upcoming Mario Kart World game and a 12-month Nintendo Switch Online subscription with Expansion Pack. A key feature across all bundles is a 24month subscription to EE’s Gamer and Video Data Pass, allowing users to stream and play games without impacting their standard data allowance </t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.4266968</v>
+        <v>3.0963783</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-10T14:12:11+00:00</t>
+          <t>2025-06-05T08:36:40</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['The Nintendo Switch 2 relies on a catalogue of exclusive games. Mario kart World is the first of its kind and there is no chance that it will be seen on previous generations. So a big argument: that of ensuring compatibility with the next games.', 'Which Nintendo Switch to choose? After reviewing the many differences between the models, the question remains: what is the best choice for Nintendo Switch in 2025?', 'In short, the Switch 2 is now the best option at Nintendo, not only because it’s the latest console to date (the OLED Switch was not specifically recommended at the time of its release). But this new Switch 2 marks a new chapter.']</t>
+          <t>['Share\nMobile and broadband provider EE has announced a range of exclusive new bundles for the highly anticipated Nintendo Switch 2 console.', 'Available from today, June 5th, these packages aim to offer gamers an enhanced experience with included connectivity features.', 'Each bundle requires a £20 upfront cost on a 24-month plan and includes the new Nintendo Switch 2 console, the upcoming Mario Kart World game and a 12-month Nintendo Switch Online subscription with Expansion Pack.']</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.8268</v>
+        <v>0.6249</v>
       </c>
       <c r="I47" t="n">
-        <v>0.132</v>
+        <v>0.077</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2506,302 +2502,306 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DL-887a2385045f651122c064ee4d0928fc</t>
+          <t>DL-37c373fee1dff1bb24a16495a09080f5</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Endless coughs to buy the latest Nintendo console... and miss it</t>
+          <t>Nintendo Switch 2 vs Nintendo Switch : what are the main differences?</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.vozpopuli.com/altavoz/cultura/colas-interminables-para-comprar-la-ultima-consola-de-nintendo-y-se-quedan-sin-ella.html</t>
+          <t>https://www.numerama.com/tech/1988347-nintendo-switch-2-vs-nintendo-switch-quelles-sont-les-principales-differences.html</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nintendo announced the launch of their new Nintendo Switch 2 console on May 5th. The lack of'stock' has caused the consequent anger of those who have been left without their longed-for toy. Even some, who had paid in advance months in advance, have ended up without theirs.</t>
+          <t>Switch 2 is a direct evolution of the Switch (Standard and OLED) it is also able to play its games, thanks to backwards compatibility. The launch catalogue already offers its own exclusives with the latest Mario Kart World, available only on this new model. There are also many improvements that, when completed, make this console a much more significant advance than the OLED Switch had been compared to the classic Switch.</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2.3237877</v>
+        <v>2.8471222</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-07T02:45:07+00:00</t>
+          <t>2025-06-10T14:12:11+00:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['The Nintendo Switch is today the third best-selling video game console in history and, at the rate it is going, everything indicates that it will soon reach second place.', 'The Nintendo Switch 2 was officially released on June 5, 2025, although there were people who were able to get it on June 4 to try it out earlier. However, there is a big problem with its release: there is not enough stock for everyone.']</t>
+          <t>['The Nintendo Switch 2 relies on a catalogue of exclusive games. Mario kart World is the first of its kind and there is no chance that it will be seen on previous generations. So a big argument: that of ensuring compatibility with the next games.', 'Which Nintendo Switch to choose? After reviewing the many differences between the models, the question remains: what is the best choice for Nintendo Switch in 2025?', 'In short, the Switch 2 is now the best option at Nintendo, not only because it’s the latest console to date (the OLED Switch was not specifically recommended at the time of its release). But this new Switch 2 marks a new chapter.']</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>-0.7184</v>
+        <v>0.8268</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="J48" t="n">
-        <v>0.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DL-ce5f9cdf63998a111dd0a2e7410853d6</t>
+          <t>DL-f18eecd6ae1aa3953cec4cf5dcc3e634</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Meta in talks with Disney, A24 and others to secure content for VR headsets</t>
+          <t>'I own a Switch 2 - this console case beats Nintendo's thanks to one main feature'</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://gigazine.net/gsc_news/en/20250605-meta-vr-contents-from-disney-a24/</t>
+          <t>https://www.birminghammail.co.uk/whats-on/shopping/i-switch-2-console-case-31823315</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FFmpeg has integrated WebRTC support, enabling ultra-low latency streaming of less than 1 second with OBS, the latest codecs can be selected, and even streaming without a server is now possible X files lawsuit against eight users who tried to unfairly increase their revenue by abusing 'creator revenue sharing' Meta announces details of AI smart glasses 'Aria Gen 2', explaining cutting-edge camera and sensor technology Results of 'MLPerf Training v5.0', which</t>
+          <t>The Nintendo Switch 2 is out and I was lucky enough to get my hands on the Switch 2 on release day. There are plenty of choices out there, including the official Nintendo Switch 2, which can be bought almost everywhere. Amazon lawnmower reduced from over £100 is 'lightweight' and 'easy to handle'</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2.3176746</v>
+        <v>2.7896347</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-05T06:24:00+00:00</t>
+          <t>2025-06-10T10:29:21+00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>["reaffirms plans to invest $100 billion in Arizona over next five years\nPart of 'MetaHuman', a game development tool that allows you to create and move ultra-realistic 3DCG characters for free, is integrated into Unreal Engine 5.6\nThe reason why the Nintendo", "Switch 2 was not loaned to the media for pre-release review was because 'important features and updates for the console' will be provided on the release date of June 5th.", "Speculation is rife that the Chinese-made high-performance AI model 'DeepSeek-R1-0528' may have been distilled using Google's AI 'Gemini'\nAttention is drawn to the warning in the Nintendo Switch 2 manual that reads, 'Do not remove the shatterproof film"]</t>
+          <t>["The Nintendo Switch 2 is out and in the search for a new case - I might have found my top choice thanks to one main feature\nI was lucky enough to get my hands on the Nintendo Switch 2 on release day, and it's definitely one of my favourite purchases so", "Without going into a massive review of the console, it is the definitive Switch experience, and it's exciting to see what the future holds for it."]</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.4588</v>
+        <v>0.7287</v>
       </c>
       <c r="I49" t="n">
-        <v>0.133</v>
+        <v>0.137</v>
       </c>
       <c r="J49" t="n">
-        <v>0.108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DL-b080cb5509d88a1ec15ee8a2c6106938</t>
+          <t>DL-b2b049aaa24705881044f0a75bfc6392</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Get the most out of your Nintendo Switch 2 with these 3 TVs I've picked to pair with it, including one of the best OLED TVs I've seen</t>
+          <t>Nintendo Switch 2 : some players have had a very bad surprise with their console</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.techradar.com/televisions/get-the-most-out-of-your-nintendo-switch-2-with-these-3-tvs-ive-picked-to-pair-with-it-including-one-of-the-best-oled-tvs-ive-seen</t>
+          <t>https://www.gameblog.fr/jeu-video/ed/news/nintendo-switch-2-mauvaises-surprises-696414</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TechRadar look for VRR, 120Hz refresh rate and Auto Low Latency Mode. Low input lag for responsive performance and top-notch picture quality are also important. LG B4 48-inch 4K OLED TV : £879 now £849 at Best Buy The LG C4 provides premium OLED picture quality and a full array of gaming features.</t>
+          <t>Nintendo Switch 2 is always a major event, both for the manufacturer and for the players. This, unfortunately, can involve blindness. At the end of 2020, the launches of the PS5 and Xbox Series marked the story in this sense, in the midst of the coronavirus pandemic.</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.0356522</v>
+        <v>2.6671867</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-06T08:00:00</t>
+          <t>2025-06-06T11:31:30+00:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['The Nintendo Switch 2 has finally arrived, and it brings several upgrades over its predecessor, including 4K resolution, 120Hz (at 1080p resolution) and HDR support.', 'And there’s no better time to buy one to pair with your Nintendo Switch 2 with ambitious ports such as Cyberpunk: 2077 available from launch.', 'The Switch 2 can once again take advantage of that low input lag time for ultra-responsive performance (crucial for Mario Kart World) and the B4’s 4K, HDR and 120Hz support to level-up their experience from the original Nintendo Switch.']</t>
+          <t>['The Nintendo Switch 2 has unfortunately not escaped some unforeseen, as some players have unfortunately had the bitter experience of opening the cardboard of their console.']</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0.5719</v>
+        <v>-0.4118</v>
       </c>
       <c r="I50" t="n">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.116</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DL-bc0bf2ef431589eeb38d530dce7bdf45</t>
+          <t>DL-9e7bd803a3254229cbb9e3b27f0fda79</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bouncemasters demo now available on Steam</t>
+          <t>Nintendo Switch 2 is here: everything you need to know about the new console</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://thatsgaming.nl/bouncemasters-demo-nu-beschikbaar-op-steam/</t>
+          <t>https://www.lavanguardia.com/vida/20250605/10755562/nintendo-switch-2-caracteristicas-modelos-precio-accesorios-juegos.html</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Bouncemasters is a fun physics-based arcade game inspired by Yetisports. The full version comes out on Steam in the third quarter of 2025. TAMAGOTCHI PLAZA is coming to the Nintendo Switch 2 and Nintendo Switch 2. Both versions will be compatible with the Tamagotchi Uni device.</t>
+          <t>Nintendo Switch 2 comes to stores eight years after the first model surprised with its hybrid design (portable and desktop), but also after one of the biggest commercial triumphs in the history of video games. The rise in the price of both the machine and the games has monopolized the conversation since Nintendo introduced Switch 2 at the beginning of April. This article discusses the price, but also the main features of the console, its compatibility with the original model or its accessories.</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.8311577</v>
+        <v>2.6207256</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-06T18:57:55+00:00</t>
+          <t>2025-06-05T06:00:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['Nintendo Switch 2 players who already own the original Switch version of TAMGOTCHI PLAZA can access the exclusive content by creating the Tamagotchi Plaza Nintendo Switch 2 upgrade package.', 'TAMAGOTCHI PLAZA brings back the unique and engaging experience of the series: setting up idiosyncratic shops and serving cute characters.']</t>
+          <t>["At the moment, few highlighted Games 'Cyberpunk 2077' is one of the most striking games of Nintendo Switch 2 • Mario Kart World: In the absence of a thorough trial, and with only a first hour of play, the first big must-have of Nintendo Switch 2 is this", 'This is a game that incorporates important innovations, such as the inclusion of a great open world, and that demonstrates the leap in power compared to the original Nintendo Switch. • Nintendo Switch 2 Welcome Tour: This collection of minigames and experiences', 'It would be the typical game that comes with the console, but Nintendo has decided to charge 10 euros for it. • Cyberpunk 2077 Ultimate Edition: The ambitious futuristic adventure of CD Projekt Red is one of the most surprising games to see running on']</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0.7579</v>
+        <v>0.7227</v>
       </c>
       <c r="I51" t="n">
-        <v>0.137</v>
+        <v>0.096</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DL-17c1cd3dca5a8d385d5f912ade6383f3</t>
+          <t>DL-182e127a12c29e22cad855da74591ca5</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 launches today. Here’s what to know</t>
+          <t>Zelda: Tears of the Kingdom Modded With Ray Tracing Looks Stunning in New 8K Video</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.wsaw.com/2025/06/05/nintendo-switch-2-launches-today-heres-what-know/</t>
+          <t>https://wccftech.com/zelda-tears-of-the-kingdom-ray-tracing-8k/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Nintendo’s new console, the Switch 2, arrives on store shelves globally after being announced in April. Nearly all US Best Buy stores opened just after midnight to accommodate eager fans. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table.</t>
+          <t>The Legend of Zelda: Tears of the Kingdom can look stunning with some choice mods on PC, which outshine the recently released Nintendo Switch 2 edition. A new video shared a few days ago shows the latest main entry in the series running on PC via an emulator at 8K resolution with some mods.</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.7731247</v>
+        <v>2.6041756</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-05T13:46:00+00:00</t>
+          <t>2025-06-06T12:07:00+00:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.', 'Nintendo Switch 2 gaming devices are stored on the day Nintendo starts selling the new consoles globally, at an electronics store in Tokyo, Japan, on June 5.\nNintendo has also given the console hardware a much-needed upgrade.']</t>
+          <t>['As even an RTX 5090 has some trouble running the game at 60 FPS at such a high resolution and with these mods, it would have been unreasonable to expect such a makeover to run on the Nintendo Switch 2, so those who wish to experience the game like never', "Related Story Batman Arkham Knight, One of the Worst Nintendo Switch Ports Ever, Gets Significant Performance Boost on Nintendo Switch 2\nThe fact that The Legend of Zelda: Tears of the Kingdom on Nintendo Switch 2 doesn't feature any transformative visual"]</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0.8442</v>
+        <v>0.4767</v>
       </c>
       <c r="I52" t="n">
-        <v>0.171</v>
+        <v>0.093</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DL-6b1dfb573ca972c47a35c3452e0b887c</t>
+          <t>DL-05605b9ac8551ba2df3061a3bb23d284</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>With the release of the Nintendo Switch 2, what's the future for the Switch?</t>
+          <t>My Switch 2 Review in Progress: It's Good, but Don't Give In to the FOMO Yet</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.gamekult.com/actualite/avec-la-sortie-de-la-nintendo-switch-2-quel-avenir-pour-la-switch-3050864092.html</t>
+          <t>https://www.cnet.com/tech/gaming/my-switch-2-review-in-progress-its-good-but-dont-give-in-to-the-fomo-yet/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Nintendo has always shown a rigorous follow-up on its previous consoles. Examples include the 3DS, which was eligible for new features until 2019 (two years after Switch’s release), and an online store until 2023. The real question would be whether Nintendo would be willing to offer its productions on both machines at the same time.</t>
+          <t>The Nintendo Switch 2 is all anyone in gaming is talking about right now, and it could very well be the biggest gadget of 2025. By now, thousands of Switch 2 owners have one in hand as well, and the company will certainly sell thousands more this year. This clearly feels like a really good upgrade to aging Switches, but it's also not anything any current Switch owner needs to rush into.</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.5550461</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
+        <v>2.49646</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-06-06T22:34:00+00:00</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['Samus will be on both Switches A situation that is explained by Nintendo’s legacy, but also by the fact that the adoption rate of the console is probably still questionable at the moment.', 'If Nintendo has not spoken out on this issue, Kyoto is well aware that the switch 2 adoption curve is more uncertain than the first one, in the sense that consumers will be much more reluctant to switch, mainly for price reasons of course.']</t>
+          <t>["By now, thousands of Switch 2 owners have one in hand as well, and the company will certainly sell thousands more this year, especially during the holidays. So, how good is Nintendo's new console? And is it worth upgrading from the original Switch?", "I haven't had enough time to fully review the Switch 2 yet, and the Switch 2 hasn't had enough time to spread its wings and grow its game library. These are early days for Nintendo's new console, but there's some stuff I can already tell you.", "It's a simple thing, but it really makes swapping them into accessories and back into the Switch feel effortless, the way Nintendo always advertised the experience as feeling."]</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-0.2732</v>
+        <v>0.8443000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>0.177</v>
       </c>
       <c r="J53" t="n">
-        <v>0.039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DL-05605b9ac8551ba2df3061a3bb23d284</t>
+          <t>DL-b108c340c0dc3990b6d0f186f3c32267</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>My Switch 2 Review in Progress: It's Good, but Don't Give In to the FOMO Yet</t>
+          <t>Nintendo Switch2 India Launch On THIS Date --Check Features And Expected Price</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.cnet.com/tech/gaming/my-switch-2-review-in-progress-its-good-but-dont-give-in-to-the-fomo-yet/</t>
+          <t>https://zeenews.india.com/technology/nintendo-switch2-india-launch-on-this-date-check-features-and-expected-price-2911893.html</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 is all anyone in gaming is talking about right now, and it could very well be the biggest gadget of 2025. By now, thousands of Switch 2 owners have one in hand as well, and the company will certainly sell thousands more this year. This clearly feels like a really good upgrade to aging Switches, but it's also not anything any current Switch owner needs to rush into.</t>
+          <t>Nintendo Switch2 has gone out of stock globally within a day of its roll out. Priced at $499, Switch 2 comes with some major features upgrade over previous gen Switch. Switch2 is Powered by Nvidia Terga T239 chip with an octa-core ARM CORTEX- A78C CPU AND 12SM Ampere GPU. It comes with 12GB LPDDR5X RAM AND Faster loading speed.</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1.5476952</v>
+        <v>2.270216</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-06T22:34:00+00:00</t>
+          <t>2025-06-06T00:00:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>["By now, thousands of Switch 2 owners have one in hand as well, and the company will certainly sell thousands more this year, especially during the holidays. So, how good is Nintendo's new console? And is it worth upgrading from the original Switch?", "I haven't had enough time to fully review the Switch 2 yet, and the Switch 2 hasn't had enough time to spread its wings and grow its game library. These are early days for Nintendo's new console, but there's some stuff I can already tell you.", "It's a simple thing, but it really makes swapping them into accessories and back into the Switch feel effortless, the way Nintendo always advertised the experience as feeling."]</t>
+          <t>['Priced at $499, Switch 2 comes with some major features upgrade over previous gen Switch.\nMajor Specification of Switch2\nDisplay: Nintendo Switch2 comes with larger 7.9-inch 1080p LCD touchscreen with HDR10 support and a refresh rate of 120Hz.']</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0.8443000000000001</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.177</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2810,86 +2810,86 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DL-f18eecd6ae1aa3953cec4cf5dcc3e634</t>
+          <t>DL-2ce32c01c084cc6ab184d989c771b28e</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>'I own a Switch 2 - this console case beats Nintendo's thanks to one main feature'</t>
+          <t>The Nintendo Switch 2 already has a flaw: its autonomy</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.birminghammail.co.uk/whats-on/shopping/i-switch-2-console-case-31823315</t>
+          <t>https://www.numerama.com/tech/1985971-la-nintendo-switch-2-a-deja-un-defaut-son-autonomie.html</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 is out and I was lucky enough to get my hands on the Switch 2 on release day. There are plenty of choices out there, including the official Nintendo Switch 2, which can be bought almost everywhere. Amazon lawnmower reduced from over £100 is 'lightweight' and 'easy to handle'</t>
+          <t>The console is at the level of the very first version of the Switch, dated 2017. Our first tests, with a console set to 50% brightness and 50% audio volume, are not likely to reassure those who feared the worst about Switch 2’s autonomy. Cyberpunk 2077 was first launched for half an hour: the console has been upgraded from 50% battery to 22% battery.</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1.5207672</v>
+        <v>2.1162453</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-10T10:29:21+00:00</t>
+          <t>2025-06-06T08:28:24</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>["The Nintendo Switch 2 is out and in the search for a new case - I might have found my top choice thanks to one main feature\nI was lucky enough to get my hands on the Nintendo Switch 2 on release day, and it's definitely one of my favourite purchases so", "Without going into a massive review of the console, it is the definitive Switch experience, and it's exciting to see what the future holds for it."]</t>
+          <t>['I accept everything Managing my choices No miracle for Nintendo Switch 2 autonomy Your data deserves better protection. Scams, viruses and ransomware are no longer fatal.', 'If we extrapolate our little experiment (which requires repeating several times to refine), we would barely exceed the two hours of play on Cyberpunk 2077, while we could hope to reach the 3h30 on The Legend of Zelda: Breath of the Wild.', 'The Legend of Zelda: Breath of the Wild consumes a lot on Nintendo Switch 2 // Source: Nino Barbey for Numerama The choice to return to an LCD panel is really not the idea of the century, especially since its refresh rate of 120 Hz must consume more (']</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0.7287</v>
+        <v>-0.738</v>
       </c>
       <c r="I55" t="n">
-        <v>0.137</v>
+        <v>0.064</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DL-518e1f4a2492da2505d9f7e5db4b46e6</t>
+          <t>DL-8eed788f4c6b98f895779a24abd5aba6</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Microsoft Launches First Portable Game Console</t>
+          <t>Nintendo Switch 2 guide: pre-order links, accessories and launch games</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://jurnalul.ro/it/tehnica/microsoft-lansare-prima-consola-jocuri-portabila-1000410.html</t>
+          <t>https://www.theshortcut.com/p/nintendo-switch-2-guide-pre-order-live</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>"Xbox Ally brings together the power offered by Xbox and the freedom offered by Windows," Bond says. The console price and exact launch dates will be announced in the coming months. Microsoft says both models evoke the brand's traditional controllers.</t>
+          <t>There are 10 tech stories in today’s Substack issue of The Shortcut Skip ahead to story 2 to 10 for more Nintendo Switch 2 is arriving at stores across the United States tonight. This is your chance to skip the line. Walmart always has more console inventory and better servers than GameStop.</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1.5027504</v>
+        <v>1.983017</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-09T00:00:00</t>
+          <t>2025-06-05T03:05:04</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['"Xbox Ally and Xbox Ally X are perfect for players who are looking for an accessible gaming experience while travelling, whether by plane or between the two comfortable indoor seats," Microsoft said in a statement, according to the AFP.', "The announcement came just days after Japan's Nintendo launched the Switch 2 portable console."]</t>
+          <t>['My personal Switch 2 pre-order from Target was delayed at the last minute. So I’m in line – with the diehard Nintendo gamers, some of whom arrived at 8am ET – hoping to secure a Switch 2 from Best Buy at midnight. Review coming soon.\nThe best part?']</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0.6369</v>
+        <v>0.7717000000000001</v>
       </c>
       <c r="I56" t="n">
-        <v>0.097</v>
+        <v>0.146</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2898,262 +2898,262 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DL-62f6feb86add6bac2ca72da8a1135b3b</t>
+          <t>DL-a693f23c7ac4e39135b5cc47d8513970</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Belkin unveils new gaming portfolio featuring power-packed charging accessories, gaming essentials</t>
+          <t>Shortly before release: Games and accessories for the Nintendo Switch 2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.tahawultech.com/business/belkin-unveils-new-gaming-portfolio-featuring-power-packed-charging-accessories-gaming-essentials/</t>
+          <t>https://www.hardwareluxx.de/index.php/news/consumer-electronics/konsolen/66294-kurz-vor-dem-release-spiele-und-zubehoer-fuer-die-nintendo-switch-2.html</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Belkin is “Leveling up your play” – bringing a new level of reliability to the gaming ecosystem that differentiates through premium materials, timeless design, and in-house engineering. The new range includes elevated accessories designed to enhance the gaming experience, featuring on-the-go charging solutions, audio gear, robust screen protection, and new travel cases built for effortless portability and protection.</t>
+          <t>Nintendo Switch 2 will finally have a successor next Thursday. A new design with a larger screen and of course a more powerful hardware should make the Switch 2 a real 4K console. Some online retailers such as Amazon, MediaMarkt or Coolblue list the starting title “Mario Kart World” from 79 euros and thus 10 euros below the actual price recommendation. This also applies to "The Legend of Zelda: Tears of the Kingdom"</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.501461</v>
+        <v>1.9260521</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-06T17:45:51+00:00</t>
+          <t>2025-06-03T08:37:58</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['Belkin’s first iteration of gaming accessories will feature products designed to be compatible with Nintendo Switch 2\nLOS ANGELES, CA – Belkin, a leading consumer electronics brand for over 40 years, today announced its entry into the gaming accessories', 'space with the launch of a new lineup designed to be compatible with the highly anticipated Nintendo Switch 2.', 'Built on decades of experience in power, connectivity and device protection, and released under Belkin’s innovation-focused Future Ventures category, this marks the company’s first collection of products tailored specifically for the gaming community.']</t>
+          <t>['Above all, you should purchase an additional memory card when buying the Nintendo Switch 2, because the integrated 256 GB could quickly become scarce. The official Nintendo SanDisk costs with 256 GB already 55 euros.', 'However, all microSD Express cards with a capacity of theoretically up to 2 TB can be used.', 'These should make data transfer rates of at least 800 MB/s possible, which in addition corresponds to the 10-fold of the predecessor and significantly restricts the selection.']</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>0.6705</v>
+        <v>0.5849</v>
       </c>
       <c r="I57" t="n">
-        <v>0.104</v>
+        <v>0.099</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DL-5dcc26e57d179cf942f68c4c1a43add8</t>
+          <t>DL-bc0bf2ef431589eeb38d530dce7bdf45</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2: Everything to know about the price and features</t>
+          <t>Bouncemasters demo now available on Steam</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://abc11.com/post/nintendo-switch-2-heres-everything-need-know-price-features/16656981/</t>
+          <t>https://thatsgaming.nl/bouncemasters-demo-nu-beschikbaar-op-steam/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>The long-awaited release of the Nintendo Switch 2 is set to arrive early Thursday morning. Here's what to know about the hype behind the Switch 2, the key features of the gaming system and how to buy it. Online pre-orders are largely sold out but gamers can purchase a limited in-store supply starting at 12:01 a.m. ET on Thursday. The Nintendo Switch has sold more than 152 million consoles.</t>
+          <t>Bouncemasters is a fun physics-based arcade game inspired by Yetisports. The full version comes out on Steam in the third quarter of 2025. TAMAGOTCHI PLAZA is coming to the Nintendo Switch 2 and Nintendo Switch 2. Both versions will be compatible with the Tamagotchi Uni device.</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1.4305553</v>
+        <v>1.8323231</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-05T16:14:46</t>
+          <t>2025-06-06T18:57:55+00:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['The price of the Nintendo Switch 2 in the U.S. is $449.99, while a bundle that includes "Mario Kart World" runs $499.99.\nThat price remains unchanged by Trumps tariffs, the Japan-based gaming giant said in April.', '"Nintendo Switch 2 accessories will experience price adjustments from those announced on April 2 due to changes in market conditions," the company said.', '"Other adjustments to the price of any Nintendo product are also possible in the future depending on market conditions."']</t>
+          <t>['Nintendo Switch 2 players who already own the original Switch version of TAMGOTCHI PLAZA can access the exclusive content by creating the Tamagotchi Plaza Nintendo Switch 2 upgrade package.', 'TAMAGOTCHI PLAZA brings back the unique and engaging experience of the series: setting up idiosyncratic shops and serving cute characters.']</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>-0.34</v>
+        <v>0.7579</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>0.137</v>
       </c>
       <c r="J58" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DL-a77fb4dd359d5198b3f658382e12f176</t>
+          <t>DL-17c1cd3dca5a8d385d5f912ade6383f3</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>These Nintendo Switch 2 Edition upgrades can keep you from breaking the bank</t>
+          <t>The Nintendo Switch 2 launches today. Here’s what to know</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.pockettactics.com/nintendo-switch/switch-2-edition-upgrades</t>
+          <t>https://www.wsaw.com/2025/06/05/nintendo-switch-2-launches-today-heres-what-know/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>I picked up the Nintendo Switch 2 yesterday, losing many hours already to the likes of Mario Kart World and Cyberpunk 2077. On top of the price of the console itself, it'll cost you $1.2k to buy all of the Switch 2 launch games. If you do have those two excellent RPGs, you can actually upgrade them to their Switch 2 versions for free. I'm thrilled to see Pokémon Scarlet and Violet get one.</t>
+          <t>Nintendo’s new console, the Switch 2, arrives on store shelves globally after being announced in April. Nearly all US Best Buy stores opened just after midnight to accommodate eager fans. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table.</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1.3596745</v>
+        <v>1.7731934</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-06T17:42:06</t>
+          <t>2025-06-05T13:46:00+00:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['Looking to the future, it appears as though Nintendo is partial to Switch 2 upgrades, just like Xbox and PlayStation with their respective games and consoles, as one of the best Mario Party games, Super Mario Party Jamboree – Nintendo Switch 2 Edition', 'With an upgrade price of $19.99, you can enjoy Kirby and the Forgotten Land Switch 2 Edition. Better still, this comes with the Star-Crossed World DLC, giving you something completely new to experience as you revisit this fun Kirby adventure.', "While I already have a Nintendo Switch 2, I do like knowing that people who don't intend to pick it up just yet – perhaps even for a couple of years – have a reasonable option to upgrade some new Switch games they do buy between now and then, with other"]</t>
+          <t>['In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.', 'Nintendo Switch 2 gaming devices are stored on the day Nintendo starts selling the new consoles globally, at an electronics store in Tokyo, Japan, on June 5.\nNintendo has also given the console hardware a much-needed upgrade.']</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>0.8979</v>
+        <v>0.8442</v>
       </c>
       <c r="I59" t="n">
-        <v>0.181</v>
+        <v>0.171</v>
       </c>
       <c r="J59" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DL-2ce32c01c084cc6ab184d989c771b28e</t>
+          <t>DL-48f470a3b04e45099a9bd8f8b9d0942b</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 already has a flaw: its autonomy</t>
+          <t>What comes in the box of the Nintendo Switch 2? Look at the unboxing of the console, the Pro Controller and the camera.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.numerama.com/tech/1985971-la-nintendo-switch-2-a-deja-un-defaut-son-autonomie.html</t>
+          <t>https://www.tecmundo.com.br/voxel/501558-o-que-vem-na-caixa-do-nintendo-switch-2-confira-unboxing-do-console-pro-controller-e-camera.htm</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>The console is at the level of the very first version of the Switch, dated 2017. Our first tests, with a console set to 50% brightness and 50% audio volume, are not likely to reassure those who feared the worst about Switch 2’s autonomy. Cyberpunk 2077 was first launched for half an hour: the console has been upgraded from 50% battery to 22% battery.</t>
+          <t>Derek Keller introduces the new model of the Big N, which brings a series of innovations over the first Switch. The new model accompanies the game Mario Kart World, one of the launch titles of the new console. In addition to highlighting the visual and functional changes, the video also reveals technical details and curiosities about the accessories.</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.3132324</v>
+        <v>1.7010574</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-06T08:28:24</t>
+          <t>2025-06-05T21:33:00+00:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['I accept everything Managing my choices No miracle for Nintendo Switch 2 autonomy Your data deserves better protection. Scams, viruses and ransomware are no longer fatal.', 'If we extrapolate our little experiment (which requires repeating several times to refine), we would barely exceed the two hours of play on Cyberpunk 2077, while we could hope to reach the 3h30 on The Legend of Zelda: Breath of the Wild.', 'The Legend of Zelda: Breath of the Wild consumes a lot on Nintendo Switch 2 // Source: Nino Barbey for Numerama The choice to return to an LCD panel is really not the idea of the century, especially since its refresh rate of 120 Hz must consume more (']</t>
+          <t>['In addition to highlighting the visual and functional changes to the device, the video also reveals technical details and curiosities about the accessories, paving the way for the upcoming full reviews that will soon be available on the Voxel channel', "More compact box and redesigned design One of the first noticeable changes on the Nintendo Switch 2 is the new packaging format. Even though it's a physically larger console, the box has been optimized and it's more compact and organized."]</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-0.738</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DL-f93e2da6e1d3e279a286496afdb81d0a</t>
+          <t>DL-56a2f5145d0be40c3efde1b4a27402f4</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>I Can't Believe How Much Easier Voice Chat Is on the Switch 2</t>
+          <t>Nintendo Switch 2: The LCD screen receives fierce criticism from fans and experts - and we too would have liked a different display</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://au.pcmag.com/gaming-systems/111364/i-cant-believe-how-much-easier-voice-chat-is-on-the-switch-2</t>
+          <t>https://www.gamepro.de/artikel/nintendo-switch-2-lcd-bildschirm-erntet-heftige-kritik,3434354.html</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>The Switch 2 promises one of the company’s most ambitious online features yet with GameChat. I tested it before launch to see how Nintendo uses cameras and microphones to turn online gaming into a more fun, welcoming experience. Nintendo Switch 2 should support most USB-C webcams, even those with lower resolutions.</t>
+          <t>Switch 2 is out and despite many new display features there is some strong criticism, both from fans and tech enthusiasts. We have therefore looked into it ourselves and also measured it, and we are also disenchanted. The LCD display from the Taiwanese manufacturer InnoLux brings some great functions – for example HDR for higher color dynamics, 120 Hertz and VRR – but also disappoints massively in some central points.</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1.2323608</v>
+        <v>1.5776062</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-03T14:12:48+00:00</t>
+          <t>2025-06-08T17:30:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>["The Switch 2 promises one of the company’s most ambitious online features yet with GameChat, which is the system's new online communication system.", 'I tested it before launch to see how Nintendo uses cameras and microphones to turn online gaming into a more fun, welcoming experience.', "GameChat is so baked into the Switch 2 experience that there's a dedicated button for it on the Joy-Con controllers. Pressing the new C button launches the GameChat menu that lets you create a lobby or see which friends are online and ready to play."]</t>
+          <t>['Until a pixel is switched to another color, it takes a while, and the resulting image artifacts are perceived as ghosting or blurring.', 'And in this respect, the Switch 2 display with its 120 Hertz is particularly vulnerable, as many buyers write in the comments below the post. How do we rate the display of the Nintendo Switch 2?']</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0.9226</v>
+        <v>0.1531</v>
       </c>
       <c r="I61" t="n">
-        <v>0.264</v>
+        <v>0.108</v>
       </c>
       <c r="J61" t="n">
-        <v>0.038</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DL-b108c340c0dc3990b6d0f186f3c32267</t>
+          <t>DL-518e1f4a2492da2505d9f7e5db4b46e6</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Nintendo Switch2 India Launch On THIS Date --Check Features And Expected Price</t>
+          <t>Microsoft Launches First Portable Game Console</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://zeenews.india.com/technology/nintendo-switch2-india-launch-on-this-date-check-features-and-expected-price-2911893.html</t>
+          <t>https://jurnalul.ro/it/tehnica/microsoft-lansare-prima-consola-jocuri-portabila-1000410.html</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Nintendo Switch2 has gone out of stock globally within a day of its roll out. Priced at $499, Switch 2 comes with some major features upgrade over previous gen Switch. Switch2 is Powered by Nvidia Terga T239 chip with an octa-core ARM CORTEX- A78C CPU AND 12SM Ampere GPU. It comes with 12GB LPDDR5X RAM AND Faster loading speed.</t>
+          <t>"Xbox Ally brings together the power offered by Xbox and the freedom offered by Windows," Bond says. The console price and exact launch dates will be announced in the coming months. Microsoft says both models evoke the brand's traditional controllers.</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1.2009792</v>
+        <v>1.504303</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-06-06T00:00:00</t>
+          <t>2025-06-09T00:00:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['Priced at $499, Switch 2 comes with some major features upgrade over previous gen Switch.\nMajor Specification of Switch2\nDisplay: Nintendo Switch2 comes with larger 7.9-inch 1080p LCD touchscreen with HDR10 support and a refresh rate of 120Hz.']</t>
+          <t>['"Xbox Ally and Xbox Ally X are perfect for players who are looking for an accessible gaming experience while travelling, whether by plane or between the two comfortable indoor seats," Microsoft said in a statement, according to the AFP.', "The announcement came just days after Japan's Nintendo launched the Switch 2 portable console."]</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>0.6369</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3162,170 +3162,174 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DL-201b8ebcf779d686eb6aa318af25eaa9</t>
+          <t>DL-62f6feb86add6bac2ca72da8a1135b3b</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Launched sales of Nintendo Switch 2 - in which countries the console is available</t>
+          <t>Belkin unveils new gaming portfolio featuring power-packed charging accessories, gaming essentials</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://games.24tv.ua/ru/startovali-prodazhi-nintendo-switch-2-v-kakih-stranah-dostupna-konsol-games_n2839620/amp</t>
+          <t>https://www.tahawultech.com/business/belkin-unveils-new-gaming-portfolio-featuring-power-packed-charging-accessories-gaming-essentials/</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Nintendo decided to seriously oppose speculators who traditionally buy consoles for resale at an inflated price. Fans began to take seats in queues a few hours before the opening of the stores. Some even took a break from work to buy a novelty.</t>
+          <t>Belkin is “Leveling up your play” – bringing a new level of reliability to the gaming ecosystem that differentiates through premium materials, timeless design, and in-house engineering. The new range includes elevated accessories designed to enhance the gaming experience, featuring on-the-go charging solutions, audio gear, robust screen protection, and new travel cases built for effortless portability and protection.</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1.0896988</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
+        <v>1.5023041</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-06-06T17:45:51+00:00</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['It should be noted that neither in Ukraine nor in Russia Nintendo products are officially sold. On the eve of Nvidia CEO Jensen Huang said that Switch 2 will receive special AI processors that improve the gaming experience in real time.']</t>
+          <t>['Belkin’s first iteration of gaming accessories will feature products designed to be compatible with Nintendo Switch 2\nLOS ANGELES, CA – Belkin, a leading consumer electronics brand for over 40 years, today announced its entry into the gaming accessories', 'space with the launch of a new lineup designed to be compatible with the highly anticipated Nintendo Switch 2.', 'Built on decades of experience in power, connectivity and device protection, and released under Belkin’s innovation-focused Future Ventures category, this marks the company’s first collection of products tailored specifically for the gaming community.']</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-0.1779</v>
+        <v>0.6705</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="J63" t="n">
-        <v>0.042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DL-9403699c5a8c3acb6752501c45ccc38e</t>
+          <t>DL-5dcc26e57d179cf942f68c4c1a43add8</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 – Release brings 20 games directly</t>
+          <t>Nintendo Switch 2: Everything to know about the price and features</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.toptechnews.de/2025/06/05/nintendo-switch-2-release-bringt-direkt-20-spiele-mit-sich/</t>
+          <t>https://abc11.com/post/nintendo-switch-2-heres-everything-need-know-price-features/16656981/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2, Mario Kart World and more than 20 other titles are now available. Nintendo Switch 2 is the first new Nintendo console to be released since the introduction of Nintendo Switch eight years ago. The new Joy-Con 2 controllers are magnetically attached to the console and can be operated like a mouse by sliding them on a surface.</t>
+          <t>The long-awaited release of the Nintendo Switch 2 is set to arrive early Thursday morning. Here's what to know about the hype behind the Switch 2, the key features of the gaming system and how to buy it. Online pre-orders are largely sold out but gamers can purchase a limited in-store supply starting at 12:01 a.m. ET on Thursday. The Nintendo Switch has sold more than 152 million consoles.</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1.0810337</v>
+        <v>1.4306087</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-05T15:28:24+00:00</t>
+          <t>2025-06-05T16:14:46</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['If a compatible USB-C camera, such as the Nintendo Switch 2 camera (available separately), is connected, up to four people can also communicate with each other via video chat.', 'To optimize the gaming experience of Nintendo Switch titles on Nintendo Switch 2, there will be free updates for selected games that improve graphics or add new features, for example.2 The content of the free updates varies by game.', 'Sid Meier’s Civilization® VII – Nintendo Switch 2 Edition: Players can now influence the course of history on Nintendo Switch 2.']</t>
+          <t>['The price of the Nintendo Switch 2 in the U.S. is $449.99, while a bundle that includes "Mario Kart World" runs $499.99.\nThat price remains unchanged by Trumps tariffs, the Japan-based gaming giant said in April.', '"Nintendo Switch 2 accessories will experience price adjustments from those announced on April 2 due to changes in market conditions," the company said.', '"Other adjustments to the price of any Nintendo product are also possible in the future depending on market conditions."']</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>0.743</v>
+        <v>-0.34</v>
       </c>
       <c r="I64" t="n">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DL-90b89c57db6bd0dda29585ae2b322970</t>
+          <t>DL-a77fb4dd359d5198b3f658382e12f176</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Switch 2 is important for Nintendo, but also for a Nvidia that does not want to lose ground against AMD.</t>
+          <t>These Nintendo Switch 2 Edition upgrades can keep you from breaking the bank</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.xataka.com/videojuegos/switch-2-importante-para-nintendo-tambien-para-nvidia-que-no-quiere-perder-terreno-amd</t>
+          <t>https://www.pockettactics.com/nintendo-switch/switch-2-edition-upgrades</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 returns to the load When a leading company, what it wants is to have even more part of the cake. Nvidia dominates the world of PC video games with an iron hand. AMD is doing well with its latest generations, but the singing voice is still carried by the company led by Jensen Huang.</t>
+          <t>I picked up the Nintendo Switch 2 yesterday, losing many hours already to the likes of Mario Kart World and Cyberpunk 2077. On top of the price of the console itself, it'll cost you $1.2k to buy all of the Switch 2 launch games. If you do have those two excellent RPGs, you can actually upgrade them to their Switch 2 versions for free. I'm thrilled to see Pokémon Scarlet and Violet get one.</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.0760536</v>
+        <v>1.3605194</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-06T21:47:33+00:00</t>
+          <t>2025-06-06T17:42:06</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['Nintendo Switch 2 is here.', 'When a new generation of consoles arrives, beyond the new games and experiences it enables, there is a fundamental issue that may not be of much interest to all users, but is of vital importance to the technology industry: who signs the processor.']</t>
+          <t>['Looking to the future, it appears as though Nintendo is partial to Switch 2 upgrades, just like Xbox and PlayStation with their respective games and consoles, as one of the best Mario Party games, Super Mario Party Jamboree – Nintendo Switch 2 Edition', 'With an upgrade price of $19.99, you can enjoy Kirby and the Forgotten Land Switch 2 Edition. Better still, this comes with the Star-Crossed World DLC, giving you something completely new to experience as you revisit this fun Kirby adventure.', "While I already have a Nintendo Switch 2, I do like knowing that people who don't intend to pick it up just yet – perhaps even for a couple of years – have a reasonable option to upgrade some new Switch games they do buy between now and then, with other"]</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>0.4118</v>
+        <v>0.8979</v>
       </c>
       <c r="I65" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.181</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DL-8eed788f4c6b98f895779a24abd5aba6</t>
+          <t>DL-4de785c3d00dac3779286d8e34763c81</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 guide: pre-order links, accessories and launch games</t>
+          <t>How to Transfer Your Switch Data to Nintendo Switch 2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.theshortcut.com/p/nintendo-switch-2-guide-pre-order-live</t>
+          <t>https://www.iphoneincanada.ca/2025/06/05/how-to-transfer-your-data-nintendo-switch-2/</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>There are 10 tech stories in today’s Substack issue of The Shortcut Skip ahead to story 2 to 10 for more Nintendo Switch 2 is arriving at stores across the United States tonight. This is your chance to skip the line. Walmart always has more console inventory and better servers than GameStop.</t>
+          <t>Nintendo provides a streamlined way to conduct a system transfer from Nintendo Switch to the Switch 2. Players can transfer profile data, save data, screenshots or video, and system settings. Nintendo notes that there is an expiry date for all system transfer data.</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.0605202</v>
+        <v>1.3527374</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-05T03:05:04</t>
+          <t>2025-06-05T11:06:10+00:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['My personal Switch 2 pre-order from Target was delayed at the last minute. So I’m in line – with the diehard Nintendo gamers, some of whom arrived at 8am ET – hoping to secure a Switch 2 from Best Buy at midnight. Review coming soon.\nThe best part?']</t>
+          <t>['By selecting ‘ I Don’t Have a Nintendo Switch 2 Yet’, you can upload your data to Nintendo’s servers in anticipation of when your Nintendo Switch 2 arrives.', 'Follow the on-screen prompts until you’re sent a ‘Verification code’ to your My Nintendo account email address. Input the code and select ‘Send Data to the Server’. This will then upload your save data to Nintendo’s cloud servers.', 'Once the upload is complete, you can review the system transfer information and select ‘Start Restoring Factory Settings’ to complete the process. Note: This will delete all data from the original console.']</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.7717000000000001</v>
+        <v>0.4939</v>
       </c>
       <c r="I66" t="n">
-        <v>0.146</v>
+        <v>0.076</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3334,86 +3338,86 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DL-cbe41ea394a2ced64f8f9324991f8418</t>
+          <t>DL-1f7196f9804c69956dd1ea78f94a50cf</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Osceola County Sheriff Lopez to make first court appearance after facing federal charges</t>
+          <t>Switch 2: Why Nintendo doesn't want you to remove the display slide</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://spotonflorida.com/central-florida/5775312/osceola-county-sheriff-lopez-to-make.html</t>
+          <t>https://t3n.de/news/switch-2-nintendo-display-folie-1691041/</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sheriff Marcos Lopez has been booked at Lake County Jail without bond. Over 250,000 pay homage to Pope Francis as world leaders prepare to attend funeral.</t>
+          <t>On June 5, 2025, the new Nintendo console Switch 2 will officially go on sale. Pre-ordering is currently not possible on major online trading platforms. It is currently unknown when the console will be available again. Nintendo explicitly warns against removing the factory-mounted display slide.</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1.0512486</v>
+        <v>1.3452911</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-06-06T14:15:38+00:00</t>
+          <t>2025-06-04T11:45:37</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['Environment Day\n09:49 Disneyland ride shuts down after car derails off track: Witness\n08:35 Ex-GOP congressman David Jolly launches Democratic run for Florida governor (Video)\n08:35 Tavares residents concerned over proposed mixed-use development (Video)\n08:35 Experience', "Kissimmee aims to boost visitors through 'gastro tourism,' value-focused vacations (Video)\n08:35 The Morning News | Live Central Florida headlines, weather and traffic (Video)\n08:34 Gamers camp out for Nintendo Switch 2 (Video)\n08:34 Are traffic control"]</t>
+          <t>['Switch 2 is supposed to get new charging mode Nintendo is supposed to have found a solution for this with the Switch 2 – namely a battery-saving charging mode as usual with smartphones.', "View 8 images This retro technology has collector's value today Source: More on this topic MIT Technology Review Nintendo"]</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-0.2969</v>
+        <v>-0.1027</v>
       </c>
       <c r="I67" t="n">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.093</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DL-f75243e86744d36c28e7960ee772b4c0</t>
+          <t>DL-c7b1d654f43bf3a0aede5a40cc6ebaca</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Microsoft unveils Xbox gaming handheld launching in 2025 (updated with hands-on)</t>
+          <t>You probably don't have this Switch 2 launch title on your screen and it comes with a pretty cool co-op feature</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://venturebeat.com/business/microsoft-unveils-xbox-gaming-handheld-launching-in-2025/</t>
+          <t>https://www.gamepro.de/artikel/nintendo-switch-2-gameshare-survival-kids,3434002.html</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Microsoft is diving into the handheld gaming market with its own Xbox-branded handheld in partnership with PC maker Asus. It has the Windows OS, a full Xbox screen experience, and Armoury Crate SE as a central hub for device management. The handheld will compete with rivals such as the Nintendo Switch 2 and the Valve Steam Deck.</t>
+          <t>This week, Nintendo Switch 2 comes out with a whole series of launch titles that you can play directly on the new console on June 5th. This includes Survival Kids, which besides Mario Kart World or Donkey Kong flies rather under the radar. You take on the role of four children who are stranded on an island and explore crafts and the surroundings to find a way home.</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.0158577</v>
+        <v>1.2888756</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-06-08T20:53:17+00:00</t>
+          <t>2025-06-03T11:27:17+00:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['“The Xbox experience grows with you,” said Sarah Bond, president of Xbox, in the Xbox Showcase.\nThe company plans to launch the handheld in 2025. As such, it will compete with rivals such as the Nintendo Switch 2 and the Valve Steam Deck.', 'This one promises the power of an Xbox experience in your hands. It has a seven-inch IPS VRR screen.\nThe move could inspire both fear and derision, as the prospect for such a move has done in the past.']</t>
+          <t>['So you can play locally on a total of three devices as long as at least one person in the group has a Nintendo Switch 2 and the game supports GameShare. In the case of Survival Kids, the game runs via GameShare with two consoles for both in 60 fps.', 'On the other hand, if you start on three devices, the frame rate is reduced to 30 fps for everyone involved. Nevertheless, this way of playing together is a cool thing that has a lot of potential.']</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.0772</v>
+        <v>0.34</v>
       </c>
       <c r="I68" t="n">
-        <v>0.024</v>
+        <v>0.036</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3422,174 +3426,174 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DL-1c59b6df7e032db28024c576f73acce5</t>
+          <t>DL-0baa3766bc883eba68c2dbbae1038cce</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>It started - Switch 2 with the first technical problems. Difficulties when downloading Mario Kart World</t>
+          <t>Donkey Kong Bananza: Release date, trailer and highlights</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.gram.pl/news/zaczelo-sie-switch-2-z-pierwszymi-problemami-technicznymi-utrudnienia-przy-pobieraniu-mario-kart-world</t>
+          <t>https://www.netcost-security.fr/mobilite/252228/donkey-kong-bananza-date-de-sortie-bande-annonce-et-exclusivites-eclairantes/</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Players who wanted to start their adventure with Nintendo Switch 2 reported serious problems with downloading the game. Error 2813-0171 The phrase "Mario Kart World doesn't want to be downloaded" quickly began to dominate search engines and forums. The source of the problem may be differences in console boot packages.</t>
+          <t>The Nintendo Switch 2 is now available with an exciting set of new games. Donkey Kong Bonanza is a must-see for fans of the iconic character. Discover key details, including the release date and pre-command options.</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1.0081596</v>
+        <v>1.2868042</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-06-06T10:10:00</t>
+          <t>2025-06-06T16:22:33+00:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['Users who purchased Nintendo Switch 2 with Mario Kart World graphics printed directly on the box have problems activating the game.', 'In turn, people who purchased the version with the attached sticker and download code, seem not to experience difficulties. GramTV reports: This is confirmed by reports from the USA.']</t>
+          <t>['To make the Switch 2 more attractive, Nintendo has released a number of games compatible only with this console. One of the games in question is a new title with Donkey Kong.', 'We will review the details of the new game, the release date of Donkey Kong Bonanza, the price, the pre-order options and the gameplay. Note that this game is only available for the Nintendo Switch 2.']</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-0.743</v>
+        <v>0.4939</v>
       </c>
       <c r="I69" t="n">
-        <v>0.065</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J69" t="n">
-        <v>0.196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DL-a693f23c7ac4e39135b5cc47d8513970</t>
+          <t>DL-fb44e9ba1c36059416a5f81b3d4717bc</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Shortly before release: Games and accessories for the Nintendo Switch 2</t>
+          <t>Nintendo Switch 2 is here - first impressions</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.hardwareluxx.de/index.php/news/consumer-electronics/konsolen/66294-kurz-vor-dem-release-spiele-und-zubehoer-fuer-die-nintendo-switch-2.html</t>
+          <t>https://www.gram.pl/artykul/nintendo-switch-2-juz-tu-jest-pierwsze-wrazenia</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 will finally have a successor next Thursday. A new design with a larger screen and of course a more powerful hardware should make the Switch 2 a real 4K console. Some online retailers such as Amazon, MediaMarkt or Coolblue list the starting title “Mario Kart World” from 79 euros and thus 10 euros below the actual price recommendation. This also applies to "The Legend of Zelda: Tears of the Kingdom"</t>
+          <t>Nintendo Switch 2 is one of my favorite consoles, which has accompanied me in various roles for over eight years. The first Switch was with me until the release of the OLED version in 2021. I forgave myself for Lite, because it did not correspond to my preferences of playing mainly on TV.</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1.0046387</v>
+        <v>1.2802124</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-06-03T08:37:58</t>
+          <t>2025-06-07T19:00:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['Above all, you should purchase an additional memory card when buying the Nintendo Switch 2, because the integrated 256 GB could quickly become scarce. The official Nintendo SanDisk costs with 256 GB already 55 euros.', 'However, all microSD Express cards with a capacity of theoretically up to 2 TB can be used.', 'These should make data transfer rates of at least 800 MB/s possible, which in addition corresponds to the 10-fold of the predecessor and significantly restricts the selection.']</t>
+          <t>['But when the long-awaited Switch 2 appeared on the horizon, placing a pre-release order was obvious.', 'I will immediately point out that this text is not a racial review of the equipment, but rather an impression, a collection of first impressions and thoughts about the new Nintendo toy.', 'Nintendo Switch 2 is a console that can be labeled the “new generation”, and at the same time it is very strongly rooted in what the first Switch accustomed us to. More a subdued but significant evolution than a surprising revolution.']</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.5849</v>
+        <v>0.7351</v>
       </c>
       <c r="I70" t="n">
-        <v>0.099</v>
+        <v>0.133</v>
       </c>
       <c r="J70" t="n">
-        <v>0.028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DL-616a7e8681b35c912aff6ad9ed350a31</t>
+          <t>DL-194cd17a14f69417b82c9c6d47023133</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 launches today. Here's what to know</t>
+          <t>High demand makes Nintendo Switch 2 sell out in Brazil on its first day of release.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.erienewsnow.com/story/52829208/the-nintendo-switch-2-launches-today-heres-what-to-know</t>
+          <t>https://www1.folha.uol.com.br/tec/2025/06/alta-demanda-faz-nintendo-switch-2-esgotar-no-brasil-no-primeiro-dia-de-vendas.shtml</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Nintendo's new console, the Switch 2, arrives on store shelves globally after being announced in April. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table; or on. TV when plugged in to its accompanying dock, like its predecessor. Nintendo’s decision to stick with a winning template for the Switch 2 is a testament to the original’s popularity.</t>
+          <t>Nintendo Switch 2, a new video game console from the Japanese company, went off the shelf this Friday in the global markets. It's already sold out in major Brazilian stores due to high demand. The console has a suggested price of R$4,499.90 in the standard version, no games.</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.9118271</v>
+        <v>1.2787685</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-06-05T13:22:00+00:00</t>
+          <t>2025-06-05T21:23:16+00:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.\nNintendo has also given the console hardware a much-needed upgrade.', 'The Switch 2 has a larger 7.9-inch display compared to the original Switch’s 6.2-inch screen, and the Joy-Cons now snap to the console magnetically, which should make them easier to attach or remove from the console.']</t>
+          <t>['Ampere predicts that Switch 2 sales will surpass 100 million units by 2030. See more about the Nintendo Switch 2.', 'Novelties The new console will have an improved 7.9-inch LCD screen, with HDR support and refresh rates of up to 120 Hz, ensuring smoother display.']</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.9136</v>
+        <v>-0.4019</v>
       </c>
       <c r="I71" t="n">
-        <v>0.194</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DL-736adae141649efa336e9f7ce03ea527</t>
+          <t>DL-9403699c5a8c3acb6752501c45ccc38e</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 launches today. Here’s what to know</t>
+          <t>Nintendo Switch 2 – Release brings 20 games directly</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://localnews8.com/money/cnn-business-consumer/2025/06/05/the-nintendo-switch-2-launches-today-heres-what-to-know/</t>
+          <t>https://www.toptechnews.de/2025/06/05/nintendo-switch-2-release-bringt-direkt-20-spiele-mit-sich/</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Nintendo's new console, the Switch 2, arrives on store shelves globally after being announced in April. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table; or on. a TV when plugged in to its accompanying dock, like its predecessor. Nintendo’s decision to stick with a winning template for the Switch 2 is a testament to the original’s popularity.</t>
+          <t>Nintendo Switch 2, Mario Kart World and more than 20 other titles are now available. Nintendo Switch 2 is the first new Nintendo console to be released since the introduction of Nintendo Switch eight years ago. The new Joy-Con 2 controllers are magnetically attached to the console and can be operated like a mouse by sliding them on a surface.</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.9118271</v>
+        <v>1.2504692</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-06-05T13:14:10</t>
+          <t>2025-06-05T15:28:24+00:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.\nNintendo has also given the console hardware a much-needed upgrade.', 'The Switch 2 has a larger 7.9-inch display compared to the original Switch’s 6.2-inch screen, and the Joy-Cons now snap to the console magnetically, which should make them easier to attach or remove from the console.']</t>
+          <t>['If a compatible USB-C camera, such as the Nintendo Switch 2 camera (available separately), is connected, up to four people can also communicate with each other via video chat.', 'To optimize the gaming experience of Nintendo Switch titles on Nintendo Switch 2, there will be free updates for selected games that improve graphics or add new features, for example.2 The content of the free updates varies by game.', 'Sid Meier’s Civilization® VII – Nintendo Switch 2 Edition: Players can now influence the course of history on Nintendo Switch 2.']</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.9136</v>
+        <v>0.743</v>
       </c>
       <c r="I72" t="n">
-        <v>0.194</v>
+        <v>0.106</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3598,174 +3602,170 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DL-876ccd4580e6106d2c30aa8425da537a</t>
+          <t>DL-f93e2da6e1d3e279a286496afdb81d0a</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 launches today. Here’s what to know</t>
+          <t>I Can't Believe How Much Easier Voice Chat Is on the Switch 2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://ustimesmirror.com/the-nintendo-switch-2-launches-today-heres-what-to-know/</t>
+          <t>https://au.pcmag.com/gaming-systems/111364/i-cant-believe-how-much-easier-voice-chat-is-on-the-switch-2</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Nintendo's new console, the Switch 2, arrives on store shelves globally. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table. Nintendo’s decision to stick with a winning template for the Switch 2 is a testament to the original’s popularity but also a gamble that its success will endure.</t>
+          <t>The Switch 2 promises one of the company’s most ambitious online features yet with GameChat. I tested it before launch to see how Nintendo uses cameras and microphones to turn online gaming into a more fun, welcoming experience. Nintendo Switch 2 should support most USB-C webcams, even those with lower resolutions.</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.9118271</v>
+        <v>1.2323341</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-06-05T15:15:59+00:00</t>
+          <t>2025-06-03T14:12:48+00:00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['The Switch 2 iterates its predecessor with several new features, including a Game Chat function that lets gamers communicate with other players by tapping a button on the console.', 'In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.\nNintendo has also given the console hardware a much-needed upgrade.']</t>
+          <t>["The Switch 2 promises one of the company’s most ambitious online features yet with GameChat, which is the system's new online communication system.", 'I tested it before launch to see how Nintendo uses cameras and microphones to turn online gaming into a more fun, welcoming experience.', "GameChat is so baked into the Switch 2 experience that there's a dedicated button for it on the Joy-Con controllers. Pressing the new C button launches the GameChat menu that lets you create a lobby or see which friends are online and ready to play."]</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.8922</v>
+        <v>0.9226</v>
       </c>
       <c r="I73" t="n">
-        <v>0.212</v>
+        <v>0.264</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DL-58363b4cfde0e0889c7251f2961ae5ee</t>
+          <t>DL-876ccd4580e6106d2c30aa8425da537a</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 : a promising new breath despite some disillusionment</t>
+          <t>The Nintendo Switch 2 launches today. Here’s what to know</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://s2pmag.ch/avis-la-nintendo-switch-2-un-nouveau-souffle-prometteur-malgre-quelques-desillusions/</t>
+          <t>https://ustimesmirror.com/the-nintendo-switch-2-launches-today-heres-what-to-know/</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 has finally slipped into our hands. What lessons can we learn from these first moments of ownership? A complete and careful case The Switch 2 comes in a package with an almost confusing simplicity, compact dimensions that are unmistakably reminiscent of its grandmother. The console is delivered ready for use, accompanied by the necessary accessories to take full advantage of it.</t>
+          <t>Nintendo's new console, the Switch 2, arrives on store shelves globally. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table. Nintendo’s decision to stick with a winning template for the Switch 2 is a testament to the original’s popularity but also a gamble that its success will endure.</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.8862343</v>
+        <v>1.1889267</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-06-09T06:16:01</t>
+          <t>2025-06-05T15:15:59+00:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['A balanced review, promises to be confirmed In the end, this Nintendo Switch 2 turns out to be capable of the best as well as the least good, offering contrasting experiences according to titles and usages.']</t>
+          <t>['The Switch 2 iterates its predecessor with several new features, including a Game Chat function that lets gamers communicate with other players by tapping a button on the console.', 'In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.\nNintendo has also given the console hardware a much-needed upgrade.']</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.5413</v>
+        <v>0.8922</v>
       </c>
       <c r="I74" t="n">
-        <v>0.094</v>
+        <v>0.212</v>
       </c>
       <c r="J74" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DL-d31952a6c00a7f14a8bb1d96ce43f30c</t>
+          <t>DL-201b8ebcf779d686eb6aa318af25eaa9</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Video games: Microsoft unveils the first portable versions of the Xbox</t>
+          <t>Launched sales of Nintendo Switch 2 - in which countries the console is available</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.lessentiel.lu/fr/story/jeux-video-microsoft-devoile-les-premieres-versions-portables-de-la-xbox-103361849</t>
+          <t>https://games.24tv.ua/ru/startovali-prodazhi-nintendo-switch-2-v-kakih-stranah-dostupna-konsol-games_n2839620/amp</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Xbox portable consoles, ROG Ally and Ally X, designed with Asus, will be marketed for the end of the year celebrations. This Twitter content cannot be displayed due to your current choice of cookies. The price of the consoles and exact date of their launch will be announced in the coming months.</t>
+          <t>Nintendo decided to seriously oppose speculators who traditionally buy consoles for resale at an inflated price. Fans began to take seats in queues a few hours before the opening of the stores. Some even took a break from work to buy a novelty.</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.8698616</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2025-06-10T09:56:00+00:00</t>
-        </is>
-      </c>
+        <v>1.089735</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>["Faced with Nintendo Switch 2 The design of both models evokes the brand's traditional handles, with the same buttons, joysticks and handles, but with a longer format to integrate a central screen.", '"Xbox Ally and Xbox Ally X are perfect for players looking for an accessible gaming experience on the go, whether between two planes or between two comfortable lounge chairs," Microsoft said in a press release.']</t>
+          <t>['It should be noted that neither in Ukraine nor in Russia Nintendo products are officially sold. On the eve of Nvidia CEO Jensen Huang said that Switch 2 will receive special AI processors that improve the gaming experience in real time.']</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>-0.1779</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DL-48f470a3b04e45099a9bd8f8b9d0942b</t>
+          <t>DL-90b89c57db6bd0dda29585ae2b322970</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>What comes in the box of the Nintendo Switch 2? Look at the unboxing of the console, the Pro Controller and the camera.</t>
+          <t>Switch 2 is important for Nintendo, but also for a Nvidia that does not want to lose ground against AMD.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.tecmundo.com.br/voxel/501558-o-que-vem-na-caixa-do-nintendo-switch-2-confira-unboxing-do-console-pro-controller-e-camera.htm</t>
+          <t>https://www.xataka.com/videojuegos/switch-2-importante-para-nintendo-tambien-para-nvidia-que-no-quiere-perder-terreno-amd</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Derek Keller introduces the new model of the Big N, which brings a series of innovations over the first Switch. The new model accompanies the game Mario Kart World, one of the launch titles of the new console. In addition to highlighting the visual and functional changes, the video also reveals technical details and curiosities about the accessories.</t>
+          <t>Nintendo Switch 2 returns to the load When a leading company, what it wants is to have even more part of the cake. Nvidia dominates the world of PC video games with an iron hand. AMD is doing well with its latest generations, but the singing voice is still carried by the company led by Jensen Huang.</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.79125595</v>
+        <v>1.0767269</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-06-05T21:33:00+00:00</t>
+          <t>2025-06-06T21:47:33+00:00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['In addition to highlighting the visual and functional changes to the device, the video also reveals technical details and curiosities about the accessories, paving the way for the upcoming full reviews that will soon be available on the Voxel channel', "More compact box and redesigned design One of the first noticeable changes on the Nintendo Switch 2 is the new packaging format. Even though it's a physically larger console, the box has been optimized and it's more compact and organized."]</t>
+          <t>['Nintendo Switch 2 is here.', 'When a new generation of consoles arrives, beyond the new games and experiences it enables, there is a fundamental issue that may not be of much interest to all users, but is of vital importance to the technology industry: who signs the processor.']</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>0.4118</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3774,86 +3774,86 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DL-56a2f5145d0be40c3efde1b4a27402f4</t>
+          <t>DL-cbe41ea394a2ced64f8f9324991f8418</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2: The LCD screen receives fierce criticism from fans and experts - and we too would have liked a different display</t>
+          <t>Osceola County Sheriff Lopez to make first court appearance after facing federal charges</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.gamepro.de/artikel/nintendo-switch-2-lcd-bildschirm-erntet-heftige-kritik,3434354.html</t>
+          <t>https://spotonflorida.com/central-florida/5775312/osceola-county-sheriff-lopez-to-make.html</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Switch 2 is out and despite many new display features there is some strong criticism, both from fans and tech enthusiasts. We have therefore looked into it ourselves and also measured it, and we are also disenchanted. The LCD display from the Taiwanese manufacturer InnoLux brings some great functions – for example HDR for higher color dynamics, 120 Hertz and VRR – but also disappoints massively in some central points.</t>
+          <t>Sheriff Marcos Lopez has been booked at Lake County Jail without bond. Over 250,000 pay homage to Pope Francis as world leaders prepare to attend funeral.</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.7887001</v>
+        <v>1.0517502</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-06-08T17:30:00</t>
+          <t>2025-06-06T14:15:38+00:00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['Until a pixel is switched to another color, it takes a while, and the resulting image artifacts are perceived as ghosting or blurring.', 'And in this respect, the Switch 2 display with its 120 Hertz is particularly vulnerable, as many buyers write in the comments below the post. How do we rate the display of the Nintendo Switch 2?']</t>
+          <t>['Environment Day\n09:49 Disneyland ride shuts down after car derails off track: Witness\n08:35 Ex-GOP congressman David Jolly launches Democratic run for Florida governor (Video)\n08:35 Tavares residents concerned over proposed mixed-use development (Video)\n08:35 Experience', "Kissimmee aims to boost visitors through 'gastro tourism,' value-focused vacations (Video)\n08:35 The Morning News | Live Central Florida headlines, weather and traffic (Video)\n08:34 Gamers camp out for Nintendo Switch 2 (Video)\n08:34 Are traffic control"]</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.1531</v>
+        <v>-0.2969</v>
       </c>
       <c r="I77" t="n">
-        <v>0.108</v>
+        <v>0.048</v>
       </c>
       <c r="J77" t="n">
-        <v>0.073</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DL-380770c64735dbc1c56d63a05fb4b763</t>
+          <t>DL-f75243e86744d36c28e7960ee772b4c0</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>What are the best TVs to choose for the Nintendo Switch 2?</t>
+          <t>Microsoft unveils Xbox gaming handheld launching in 2025 (updated with hands-on)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.frandroid.com/guide-dachat/2638901_quels-sont-les-meilleurs-tv-a-choisir-pour-la-switch-2</t>
+          <t>https://venturebeat.com/business/microsoft-unveils-xbox-gaming-handheld-launching-in-2025/</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 is available and to take full advantage of the power of the new Nintendo console, it is essential to choose a TV at the right height. The definition The Ultra HD 4K definition is now indispensable for the Switch 2, which offers graphics in very high resolution when used in dock mode. This resolution provides an image of remarkable sharpness, with finer details and greater immersion.</t>
+          <t>Microsoft is diving into the handheld gaming market with its own Xbox-branded handheld in partnership with PC maker Asus. It has the Windows OS, a full Xbox screen experience, and Armoury Crate SE as a central hub for device management. The handheld will compete with rivals such as the Nintendo Switch 2 and the Valve Steam Deck.</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.7773247</v>
+        <v>1.0159073</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-06-07T17:00:06</t>
+          <t>2025-06-08T20:53:17+00:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['Philips The One PUS8909 // Source: Philips In short, whether you prefer reactivity, image quality, brightness or immersion, there are now televisions perfectly suited to the Nintendo Switch 2.', 'OLED, Mini LED, QLED or LED, each technology has its advantages, but all the references cited here guarantee a fluid, immersive gaming experience that is faithful to the vision of Nintendo game creators.', 'All you need to know about the Switch 2 Want to know everything about the Nintendo Switch 2 after the Direct announcements? Find our video recap on YouTube for a quick and clear summary.']</t>
+          <t>['“The Xbox experience grows with you,” said Sarah Bond, president of Xbox, in the Xbox Showcase.\nThe company plans to launch the handheld in 2025. As such, it will compete with rivals such as the Nintendo Switch 2 and the Valve Steam Deck.', 'This one promises the power of an Xbox experience in your hands. It has a seven-inch IPS VRR screen.\nThe move could inspire both fear and derision, as the prospect for such a move has done in the past.']</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.7964</v>
+        <v>0.0772</v>
       </c>
       <c r="I78" t="n">
-        <v>0.114</v>
+        <v>0.024</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -3862,86 +3862,86 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DL-4de785c3d00dac3779286d8e34763c81</t>
+          <t>DL-1c59b6df7e032db28024c576f73acce5</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>How to Transfer Your Switch Data to Nintendo Switch 2</t>
+          <t>It started - Switch 2 with the first technical problems. Difficulties when downloading Mario Kart World</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.iphoneincanada.ca/2025/06/05/how-to-transfer-your-data-nintendo-switch-2/</t>
+          <t>https://www.gram.pl/news/zaczelo-sie-switch-2-z-pierwszymi-problemami-technicznymi-utrudnienia-przy-pobieraniu-mario-kart-world</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Nintendo provides a streamlined way to conduct a system transfer from Nintendo Switch to the Switch 2. Players can transfer profile data, save data, screenshots or video, and system settings. Nintendo notes that there is an expiry date for all system transfer data.</t>
+          <t>Players who wanted to start their adventure with Nintendo Switch 2 reported serious problems with downloading the game. Error 2813-0171 The phrase "Mario Kart World doesn't want to be downloaded" quickly began to dominate search engines and forums. The source of the problem may be differences in console boot packages.</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.7033691399999999</v>
+        <v>1.0086613</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-06-05T11:06:10+00:00</t>
+          <t>2025-06-06T10:10:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['By selecting ‘ I Don’t Have a Nintendo Switch 2 Yet’, you can upload your data to Nintendo’s servers in anticipation of when your Nintendo Switch 2 arrives.', 'Follow the on-screen prompts until you’re sent a ‘Verification code’ to your My Nintendo account email address. Input the code and select ‘Send Data to the Server’. This will then upload your save data to Nintendo’s cloud servers.', 'Once the upload is complete, you can review the system transfer information and select ‘Start Restoring Factory Settings’ to complete the process. Note: This will delete all data from the original console.']</t>
+          <t>['Users who purchased Nintendo Switch 2 with Mario Kart World graphics printed directly on the box have problems activating the game.', 'In turn, people who purchased the version with the attached sticker and download code, seem not to experience difficulties. GramTV reports: This is confirmed by reports from the USA.']</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.4939</v>
+        <v>-0.743</v>
       </c>
       <c r="I79" t="n">
-        <v>0.076</v>
+        <v>0.065</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DL-c7b1d654f43bf3a0aede5a40cc6ebaca</t>
+          <t>DL-736adae141649efa336e9f7ce03ea527</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>You probably don't have this Switch 2 launch title on your screen and it comes with a pretty cool co-op feature</t>
+          <t>The Nintendo Switch 2 launches today. Here’s what to know</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.gamepro.de/artikel/nintendo-switch-2-gameshare-survival-kids,3434002.html</t>
+          <t>https://localnews8.com/money/cnn-business-consumer/2025/06/05/the-nintendo-switch-2-launches-today-heres-what-to-know/</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>This week, Nintendo Switch 2 comes out with a whole series of launch titles that you can play directly on the new console on June 5th. This includes Survival Kids, which besides Mario Kart World or Donkey Kong flies rather under the radar. You take on the role of four children who are stranded on an island and explore crafts and the surroundings to find a way home.</t>
+          <t>Nintendo's new console, the Switch 2, arrives on store shelves globally after being announced in April. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table; or on. a TV when plugged in to its accompanying dock, like its predecessor. Nintendo’s decision to stick with a winning template for the Switch 2 is a testament to the original’s popularity.</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.67687225</v>
+        <v>0.9118633</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-06-03T11:27:17+00:00</t>
+          <t>2025-06-05T13:14:10</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['So you can play locally on a total of three devices as long as at least one person in the group has a Nintendo Switch 2 and the game supports GameShare. In the case of Survival Kids, the game runs via GameShare with two consoles for both in 60 fps.', 'On the other hand, if you start on three devices, the frame rate is reduced to 30 fps for everyone involved. Nevertheless, this way of playing together is a cool thing that has a lot of potential.']</t>
+          <t>['In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.\nNintendo has also given the console hardware a much-needed upgrade.', 'The Switch 2 has a larger 7.9-inch display compared to the original Switch’s 6.2-inch screen, and the Joy-Cons now snap to the console magnetically, which should make them easier to attach or remove from the console.']</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.34</v>
+        <v>0.9136</v>
       </c>
       <c r="I80" t="n">
-        <v>0.036</v>
+        <v>0.194</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3950,130 +3950,130 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DL-194cd17a14f69417b82c9c6d47023133</t>
+          <t>DL-616a7e8681b35c912aff6ad9ed350a31</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>High demand makes Nintendo Switch 2 sell out in Brazil on its first day of release.</t>
+          <t>The Nintendo Switch 2 launches today. Here's what to know</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www1.folha.uol.com.br/tec/2025/06/alta-demanda-faz-nintendo-switch-2-esgotar-no-brasil-no-primeiro-dia-de-vendas.shtml</t>
+          <t>https://www.erienewsnow.com/story/52829208/the-nintendo-switch-2-launches-today-heres-what-to-know</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2, a new video game console from the Japanese company, went off the shelf this Friday in the global markets. It's already sold out in major Brazilian stores due to high demand. The console has a suggested price of R$4,499.90 in the standard version, no games.</t>
+          <t>Nintendo's new console, the Switch 2, arrives on store shelves globally after being announced in April. The Switch 2, priced at $450 in the US, can be played in handheld mode, when propped up on a table; or on. TV when plugged in to its accompanying dock, like its predecessor. Nintendo’s decision to stick with a winning template for the Switch 2 is a testament to the original’s popularity.</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.6762066</v>
+        <v>0.9118633</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-06-05T21:23:16+00:00</t>
+          <t>2025-06-05T13:22:00+00:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['Ampere predicts that Switch 2 sales will surpass 100 million units by 2030. See more about the Nintendo Switch 2.', 'Novelties The new console will have an improved 7.9-inch LCD screen, with HDR support and refresh rates of up to 120 Hz, ensuring smoother display.']</t>
+          <t>['In the Switch 2 version of “Metroid Prime 4: Beyond,” players will be able to move the Joy-Con like a mouse for more precise aiming when shooting enemies.', '“People who may play on a PC with a mouse and a keyboard, that’s an experience they can’t replicate,” Bowser said.\nNintendo has also given the console hardware a much-needed upgrade.', 'The Switch 2 has a larger 7.9-inch display compared to the original Switch’s 6.2-inch screen, and the Joy-Cons now snap to the console magnetically, which should make them easier to attach or remove from the console.']</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>-0.4019</v>
+        <v>0.9136</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>0.194</v>
       </c>
       <c r="J81" t="n">
-        <v>0.081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DL-1f7196f9804c69956dd1ea78f94a50cf</t>
+          <t>DL-58363b4cfde0e0889c7251f2961ae5ee</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Switch 2: Why Nintendo doesn't want you to remove the display slide</t>
+          <t>The Nintendo Switch 2 : a promising new breath despite some disillusionment</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://t3n.de/news/switch-2-nintendo-display-folie-1691041/</t>
+          <t>https://s2pmag.ch/avis-la-nintendo-switch-2-un-nouveau-souffle-prometteur-malgre-quelques-desillusions/</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>On June 5, 2025, the new Nintendo console Switch 2 will officially go on sale. Pre-ordering is currently not possible on major online trading platforms. It is currently unknown when the console will be available again. Nintendo explicitly warns against removing the factory-mounted display slide.</t>
+          <t>The Nintendo Switch 2 has finally slipped into our hands. What lessons can we learn from these first moments of ownership? A complete and careful case The Switch 2 comes in a package with an almost confusing simplicity, compact dimensions that are unmistakably reminiscent of its grandmother. The console is delivered ready for use, accompanied by the necessary accessories to take full advantage of it.</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.67266464</v>
+        <v>0.88768387</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-06-04T11:45:37</t>
+          <t>2025-06-09T06:16:01</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['Switch 2 is supposed to get new charging mode Nintendo is supposed to have found a solution for this with the Switch 2 – namely a battery-saving charging mode as usual with smartphones.', "View 8 images This retro technology has collector's value today Source: More on this topic MIT Technology Review Nintendo"]</t>
+          <t>['A balanced review, promises to be confirmed In the end, this Nintendo Switch 2 turns out to be capable of the best as well as the least good, offering contrasting experiences according to titles and usages.']</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>-0.1027</v>
+        <v>0.5413</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>0.094</v>
       </c>
       <c r="J82" t="n">
-        <v>0.032</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DL-0baa3766bc883eba68c2dbbae1038cce</t>
+          <t>DL-d31952a6c00a7f14a8bb1d96ce43f30c</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Donkey Kong Bananza: Release date, trailer and highlights</t>
+          <t>Video games: Microsoft unveils the first portable versions of the Xbox</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.netcost-security.fr/mobilite/252228/donkey-kong-bananza-date-de-sortie-bande-annonce-et-exclusivites-eclairantes/</t>
+          <t>https://www.lessentiel.lu/fr/story/jeux-video-microsoft-devoile-les-premieres-versions-portables-de-la-xbox-103361849</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>The Nintendo Switch 2 is now available with an exciting set of new games. Donkey Kong Bonanza is a must-see for fans of the iconic character. Discover key details, including the release date and pre-command options.</t>
+          <t>Xbox portable consoles, ROG Ally and Ally X, designed with Asus, will be marketed for the end of the year celebrations. This Twitter content cannot be displayed due to your current choice of cookies. The price of the consoles and exact date of their launch will be announced in the coming months.</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.67111206</v>
+        <v>0.8702202</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-06-06T16:22:33+00:00</t>
+          <t>2025-06-10T09:56:00+00:00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['To make the Switch 2 more attractive, Nintendo has released a number of games compatible only with this console. One of the games in question is a new title with Donkey Kong.', 'We will review the details of the new game, the release date of Donkey Kong Bonanza, the price, the pre-order options and the gameplay. Note that this game is only available for the Nintendo Switch 2.']</t>
+          <t>["Faced with Nintendo Switch 2 The design of both models evokes the brand's traditional handles, with the same buttons, joysticks and handles, but with a longer format to integrate a central screen.", '"Xbox Ally and Xbox Ally X are perfect for players looking for an accessible gaming experience on the go, whether between two planes or between two comfortable lounge chairs," Microsoft said in a press release.']</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>0.4939</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -4082,86 +4082,86 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DL-c530336e1b88c22a95418a5f5123d3a8</t>
+          <t>DL-52361e315938e25ca5f998c23b324103</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>I think Nintendo played it very safe with Switch 2 - but that's not a bad thing</t>
+          <t>Nintendo Switch 2: Should I buy it now or wait?</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.indy100.com/gaming/nintendo-switch-2-first-impressions-features-gameplay-gamechat-gameshare</t>
+          <t>https://www.presse-citron.net/nintendo-switch-2-faut-il-lacheter-maintenant-ou-attendre/</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Nintendo has just straight up called this the Switch 2 - no SNES, Wii-U or 3DS confusion here, it's clearly a successor to the Switch. This is very indicative of the route Nintendo has gone down with the new console. It's undeniably more of an upgrade rather than something completely new and revolutionary with Nintendo seemingly playing it very safe. There are now a lot more competitors in this market because of its success, such as the Steam Deck.</t>
+          <t>Nintendo is changing its habits with the Switch 2. For the first time in years, the Kyoto firm did not send its console to journalists several weeks before the launch. As a result, in-depth testing will arrive after the sale, leaving some players in uncertainty.</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.6582527</v>
+        <v>0.83535385</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-06-05T15:07:15</t>
+          <t>2025-06-05T10:19:31+00:00</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['With the Switch and this concept proving such a hit, Nintendo has understandably not wanted to veer too much away from what made the original Switch so successful, instead refining the experience with the Switch 2 with new features, better performance']</t>
+          <t>['So, are we buying Switch 2 today or not? The decision ultimately depends on your player profile and your priorities. The unconditional Nintendo fans and early adopters assumed will in any case dark without remorse.', 'I think the more measured players will benefit from waiting for our full review next week by identifying the console’s strengths and weaknesses, and then being able to make a fully informed choice.']</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>0.8687</v>
+        <v>-0.34</v>
       </c>
       <c r="I84" t="n">
-        <v>0.175</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DL-fb44e9ba1c36059416a5f81b3d4717bc</t>
+          <t>DL-380770c64735dbc1c56d63a05fb4b763</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 is here - first impressions</t>
+          <t>What are the best TVs to choose for the Nintendo Switch 2?</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.gram.pl/artykul/nintendo-switch-2-juz-tu-jest-pierwsze-wrazenia</t>
+          <t>https://www.frandroid.com/guide-dachat/2638901_quels-sont-les-meilleurs-tv-a-choisir-pour-la-switch-2</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 is one of my favorite consoles, which has accompanied me in various roles for over eight years. The first Switch was with me until the release of the OLED version in 2021. I forgave myself for Lite, because it did not correspond to my preferences of playing mainly on TV.</t>
+          <t>The Nintendo Switch 2 is available and to take full advantage of the power of the new Nintendo console, it is essential to choose a TV at the right height. The definition The Ultra HD 4K definition is now indispensable for the Switch 2, which offers graphics in very high resolution when used in dock mode. This resolution provides an image of remarkable sharpness, with finer details and greater immersion.</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.6255646</v>
+        <v>0.7776336700000001</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-06-07T19:00:00</t>
+          <t>2025-06-07T17:00:06</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['But when the long-awaited Switch 2 appeared on the horizon, placing a pre-release order was obvious.', 'I will immediately point out that this text is not a racial review of the equipment, but rather an impression, a collection of first impressions and thoughts about the new Nintendo toy.', 'Nintendo Switch 2 is a console that can be labeled the “new generation”, and at the same time it is very strongly rooted in what the first Switch accustomed us to. More a subdued but significant evolution than a surprising revolution.']</t>
+          <t>['Philips The One PUS8909 // Source: Philips In short, whether you prefer reactivity, image quality, brightness or immersion, there are now televisions perfectly suited to the Nintendo Switch 2.', 'OLED, Mini LED, QLED or LED, each technology has its advantages, but all the references cited here guarantee a fluid, immersive gaming experience that is faithful to the vision of Nintendo game creators.', 'All you need to know about the Switch 2 Want to know everything about the Nintendo Switch 2 after the Direct announcements? Find our video recap on YouTube for a quick and clear summary.']</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>0.7351</v>
+        <v>0.7964</v>
       </c>
       <c r="I85" t="n">
-        <v>0.133</v>
+        <v>0.114</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -4170,174 +4170,174 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DL-6f733f86e304a8935fcf4754a27bb178</t>
+          <t>DL-c530336e1b88c22a95418a5f5123d3a8</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>New Florida education commissioner selected, Trump and Putin discuss Ukraine and Iran and Pasco County launches "Summer Haul Pass"</t>
+          <t>I think Nintendo played it very safe with Switch 2 - but that's not a bad thing</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://baynews9.com/fl/tampa/evening-briefing/2025/06/04/evening-briefing-tampa-june-4-2025</t>
+          <t>https://www.indy100.com/gaming/nintendo-switch-2-first-impressions-features-gameplay-gamechat-gameshare</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Your Weather Planner It will be partly to mostly cloudy on Thursday with highs in the upper 80s. Low temperatures fall to the mid 70s overnight with scattered storms ending in the evening. Donald Trump talks to Putin on Ukraine and Iran, says it was 'not a conversation that will lead to immediate Peace'</t>
+          <t>Nintendo has just straight up called this the Switch 2 - no SNES, Wii-U or 3DS confusion here, it's clearly a successor to the Switch. This is very indicative of the route Nintendo has gone down with the new console. It's undeniably more of an upgrade rather than something completely new and revolutionary with Nintendo seemingly playing it very safe. There are now a lot more competitors in this market because of its success, such as the Steam Deck.</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.6108513</v>
+        <v>0.65828323</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-06-04T20:45:00+00:00</t>
+          <t>2025-06-05T15:07:15</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>["NATO defence ministers meeting\nBET Experience 2025, annual week of 'entertainment, engagement, and empowerment all anchored in the brilliance and creativity of Black culture' ahead of the Black Entertainment Television\nNintendo releases the new Nintendo", 'Switch 2 games console, which features a bigger screen and better graphics than its predecessor.']</t>
+          <t>['With the Switch and this concept proving such a hit, Nintendo has understandably not wanted to veer too much away from what made the original Switch so successful, instead refining the experience with the Switch 2 with new features, better performance']</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>0.34</v>
+        <v>0.8687</v>
       </c>
       <c r="I86" t="n">
-        <v>0.064</v>
+        <v>0.175</v>
       </c>
       <c r="J86" t="n">
-        <v>0.038</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DL-52361e315938e25ca5f998c23b324103</t>
+          <t>DL-d75fb6cd5f8f9f354bda0b190d88b772</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2: Should I buy it now or wait?</t>
+          <t>10 Tech Stocks on Wall Street’s Radar</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.presse-citron.net/nintendo-switch-2-faut-il-lacheter-maintenant-ou-attendre/</t>
+          <t>https://www.insidermonkey.com/blog/10-tech-stocks-on-wall-streets-radar-1549836/</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Nintendo is changing its habits with the Switch 2. For the first time in years, the Kyoto firm did not send its console to journalists several weeks before the launch. As a result, in-depth testing will arrive after the sale, leaving some players in uncertainty.</t>
+          <t>Mark Malek said that not all sectors react the same to market headlines. He added that news can even create chances for late investors to join in. In fact, the opportunity in the mid to long term will transcend these sort of news items.</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.43597412</v>
+        <v>0.6415367</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-06-05T10:19:31+00:00</t>
+          <t>2025-06-09T14:02:05+00:00</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['So, are we buying Switch 2 today or not? The decision ultimately depends on your player profile and your priorities. The unconditional Nintendo fans and early adopters assumed will in any case dark without remorse.', 'I think the more measured players will benefit from waiting for our full review next week by identifying the console’s strengths and weaknesses, and then being able to make a fully informed choice.']</t>
+          <t>['On June 5, B.Riley increased its price target on Silicon Motion Technology Corporation (NASDAQ:SIMO) to $90 from $75 and reaffirmed its Buy rating on the stock.', 'The firm pointed to the expanded Nvidia Bluefield DPU win and the upcoming Nintendo Switch 2 cycle as drivers of longer-term gains for the company.']</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>-0.34</v>
+        <v>0.7845</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>0.182</v>
       </c>
       <c r="J87" t="n">
-        <v>0.053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DL-265565bae7e63a61079d64b43bdbf11e</t>
+          <t>DL-6f733f86e304a8935fcf4754a27bb178</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2: What is the real power of the console Cyberpunk 2077 answers</t>
+          <t>New Florida education commissioner selected, Trump and Putin discuss Ukraine and Iran and Pasco County launches "Summer Haul Pass"</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://diariodelyaqui.mx/nacional/nintendo-switch-2-cual-es-la-verdadera-potencia-de-la-consola-cyberpunk-2077-lo-responde/110733</t>
+          <t>https://baynews9.com/fl/tampa/evening-briefing/2025/06/04/evening-briefing-tampa-june-4-2025</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Cyberpunk 2077 has been a technically demanding game. This is why it was a surprise to see it run smoothly on Nintendo Switch 2 with a good graphical level. The CD Projekt Red game has served as an unofficial but very revealing test of the console's potential.</t>
+          <t>Your Weather Planner It will be partly to mostly cloudy on Thursday with highs in the upper 80s. Low temperatures fall to the mid 70s overnight with scattered storms ending in the evening. Donald Trump talks to Putin on Ukraine and Iran, says it was 'not a conversation that will lead to immediate Peace'</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.38476562</v>
+        <v>0.61086273</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-06-06T00:00:00</t>
+          <t>2025-06-04T20:45:00+00:00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['COMPARISON WITH OTHER CONSOLIDATIONS An analysis conducted by the Bits Analyzer channel compared the performance of Cyberpunk 2077 on Switch 2 to that of PS4 Pro and Xbox Series S.', "In 'Quality' mode, the Nintendo console achieves 1080p on both laptop and desktop thanks to the DLSS.", "In 'Resolution' mode, it maintains this resolution on the dock, but on the laptop it drops to 720p, with an increase in frame rate of up to 40 fps, although not always stable."]</t>
+          <t>["NATO defence ministers meeting\nBET Experience 2025, annual week of 'entertainment, engagement, and empowerment all anchored in the brilliance and creativity of Black culture' ahead of the Black Entertainment Television\nNintendo releases the new Nintendo", 'Switch 2 games console, which features a bigger screen and better graphics than its predecessor.']</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>0.2617</v>
+        <v>0.34</v>
       </c>
       <c r="I88" t="n">
-        <v>0.08</v>
+        <v>0.064</v>
       </c>
       <c r="J88" t="n">
-        <v>0.033</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DL-d75fb6cd5f8f9f354bda0b190d88b772</t>
+          <t>DL-bc097bf1484dc8cb970325f8ea1be195</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>10 Tech Stocks on Wall Street’s Radar</t>
+          <t>Roman Sands RE:Build release date revealed</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.insidermonkey.com/blog/10-tech-stocks-on-wall-streets-radar-1549836/</t>
+          <t>https://www.devx.com/daily-news/roman-sands-rebuild-release-date-revealed/</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Mark Malek said that not all sectors react the same to market headlines. He added that news can even create chances for late investors to join in. In fact, the opportunity in the mid to long term will transcend these sort of news items.</t>
+          <t>Roman Sands RE:Build is coming to PS5 and PS4 on September 12th. The game focuses on providing great service and making connections with others. There are also some upcoming gaming events: The Xbox Games Showcase 2025 will feature The Outer Worlds 2 Direct on June 8 at 1:00 pm.</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.28679657</v>
+        <v>0.5885391</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-06-09T14:02:05+00:00</t>
+          <t>2025-06-09T17:16:20+00:00</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['On June 5, B.Riley increased its price target on Silicon Motion Technology Corporation (NASDAQ:SIMO) to $90 from $75 and reaffirmed its Buy rating on the stock.', 'The firm pointed to the expanded Nvidia Bluefield DPU win and the upcoming Nintendo Switch 2 cycle as drivers of longer-term gains for the company.']</t>
+          <t>['Other gaming news includes:\nReviews of how Zelda Tears of the Kingdom and Breath of the Wild run on the new Nintendo Switch 2. A look at what makes the game The Bornless different from other extraction games.', 'First impressions of the Nintendo Switch 2 after three days. The gaming community also celebrated diversity during Pride 2025. It featured LGBT voices in horror and talks with Nicole Maines and Michael Varrati.']</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>0.7845</v>
+        <v>0.6249</v>
       </c>
       <c r="I89" t="n">
-        <v>0.182</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -4346,44 +4346,132 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>DL-d48247f986f1dcf830f4674167808b7f</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Nintendo Switch 2: Comparison video proves how much better Mario Odysssey looks on the new console</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.gamepro.de/artikel/vergleichsvideo-super-mario-odyssey-switch-2,3434189.html</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Super Mario Odyssey is one of the Switch games that get a free upgrade on Switch 2. This means that you don't have to pay extra 10 Euros or have the Nintendo Switch Online subscription with expansion package. You can look forward to a higher resolution and a better, respectively more stable performance on Switch 2, even in a nicer one.</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.461895</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2025-06-05T17:15:00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>['The refresh rate struggles on Switch 1, but at least occasionally with a few minor breaks when it comes to complex, busy areas. Overall, the Switch 2 beats a bit better here, but also the original ran most of the time very smoothly.', 'What stands out is that the image on the Nintendo Switch 2 is much crisper and sharper thanks to the higher resolution. Even details that are farther away are now better recognizable. Overall, the impression is even more round.']</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>0.9476</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>DL-265565bae7e63a61079d64b43bdbf11e</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Nintendo Switch 2: What is the real power of the console Cyberpunk 2077 answers</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://diariodelyaqui.mx/nacional/nintendo-switch-2-cual-es-la-verdadera-potencia-de-la-consola-cyberpunk-2077-lo-responde/110733</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Cyberpunk 2077 has been a technically demanding game. This is why it was a surprise to see it run smoothly on Nintendo Switch 2 with a good graphical level. The CD Projekt Red game has served as an unofficial but very revealing test of the console's potential.</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.38500977</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2025-06-06T00:00:00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>['COMPARISON WITH OTHER CONSOLIDATIONS An analysis conducted by the Bits Analyzer channel compared the performance of Cyberpunk 2077 on Switch 2 to that of PS4 Pro and Xbox Series S.', "In 'Quality' mode, the Nintendo console achieves 1080p on both laptop and desktop thanks to the DLSS.", "In 'Resolution' mode, it maintains this resolution on the dock, but on the laptop it drops to 720p, with an increase in frame rate of up to 40 fps, although not always stable."]</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>0.2617</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>DL-1c749b3242262132fa02efa86da3ad6e</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Mario Kart World review: You need to know these things before it drops</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>https://www.the-independent.com/extras/indybest/gadgets-tech/video-games-consoles/mario-kart-world-review-b2763892.html</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Your support helps us to tell the story Read more Support Now From reproductive rights to climate change to Big Tech, The Independent is on the ground when the story is developing. Your donation allows us to keep sending journalists to both sides of the story. We choose not to lock Americans out of our reporting and analysis with paywalls. Expectations are sky-high for the latest entry in the 33-year-old racing series, which carries the weight of a new console’s fortunes on its shoulders.</t>
         </is>
       </c>
-      <c r="E90" t="n">
-        <v>0.15307999</v>
-      </c>
-      <c r="F90" t="inlineStr">
+      <c r="E92" t="n">
+        <v>0.3213997</v>
+      </c>
+      <c r="F92" t="inlineStr">
         <is>
           <t>2025-06-04T20:26:36</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['That feels choppy compared to the silky smooth frame rate of single player mode at first, but your eyes will adjust to the difference before you’ve finished your first race.\nopen image in gallery Split-screen dials back the frame rate but keeps 24-player', 'races and the ability to explore the open world ( Nintendo )\nAs an aside, if you don’t think you can spot the difference between games running at 30, 60 and 120 frames per second, the Nintendo Switch 2 Welcome Tour has a special minigame where you can']</t>
         </is>
       </c>
-      <c r="H90" t="n">
+      <c r="H92" t="n">
         <v>0.7906</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I92" t="n">
         <v>0.089</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4456,7 +4544,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>What are the latest and most unbiased reviews or ratings or experiences on the Nintendo Switch 2. Please ensure the articles are solely on the Nintendo Switch 2.</t>
+          <t>Articles with the words 'reviews' or 'ratings' or 'experiences' and Nintendo Switch 2 in the Title</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -4516,14 +4604,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>What are the latest and most unbiased reviews or ratings or experiences on the Nintendo Switch 2. Please ensure the articles are solely on the Nintendo Switch 2.</t>
+          <t>Articles with the words 'reviews' or 'ratings' or 'experiences' and Nintendo Switch 2 in the Title</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>321.1636</v>
+        <v>452.753</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
@@ -530,42 +530,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DL-56b3456fa4d4c2c0316f8c748ec38942</t>
+          <t>DL-735f6f5e7ee6d998aecda59ababcdbcc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 Welcome Tour Review</t>
+          <t>How I plan to review the Nintendo Switch 2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.rocketchainsaw.com.au/review/nintendo-switch-2-welcome-tour-review/</t>
+          <t>https://www.theverge.com/nintendo/679346/nintendo-switch-2-review-guidelines-plan-launch</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The Welcome Tour is presented as a virtual museum, an enormous virtual representation of the Switch 2. The camera is set high from an isometric perspective, sometimes zooming out to encompass an entire area with people browsing the exhibits like ants. There’s even some mildly funny dialogue and little set pieces thrown in among the attendees you can chat to.</t>
+          <t>Nintendo has decided to not send out early review units to The Verge or other outlets, citing the need for day-one software updates. It’s a way to explore every facet of a new console and get a wide variety of perspectives. This time, we’re going to start with those deeper dives.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>162.88614</v>
+        <v>253.28822</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-09T04:20:44+00:00</t>
+          <t>2025-06-04T12:00:00+00:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Almost everything about the Switch 2 ahead of launch has been a little weird, from the confusing messaging and high pricing to the unfortunately timed connection with spiking tariffs.', 'Intent to keep that strange energy going, Nintendo has decided to not send out early review units to The Verge or other outlets, citing the need for day-one software updates. (This was not the case with the original Switch.)']</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.8126</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.132</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -574,42 +574,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DL-2a418e6f75f602bcd521348ca4edc33a</t>
+          <t>DL-56b3456fa4d4c2c0316f8c748ec38942</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 Camera review - good for GameChat but not much else</t>
+          <t>Nintendo Switch 2 Welcome Tour Review</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.pockettactics.com/nintendo-switch-2-camera-review</t>
+          <t>https://www.rocketchainsaw.com.au/review/nintendo-switch-2-welcome-tour-review/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>I'm talking about the Nintendo Switch 2 Camera. It doesn't have many uses outside of GameChat, the Switch 2's new social feature, and a few Mario Party Jamboree – Switch 2 Edition minigames. At Pocket Tactics, our experts spend days testing games, phones, tech, and services. We always share honest opinions to help you buy the best.</t>
+          <t>The Welcome Tour is presented as a virtual museum, an enormous virtual representation of the Switch 2. The camera is set high from an isometric perspective, sometimes zooming out to encompass an entire area with people browsing the exhibits like ants. There’s even some mildly funny dialogue and little set pieces thrown in among the attendees you can chat to.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>157.21655</v>
+        <v>247.76453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-07T16:55:45</t>
+          <t>2025-06-09T04:20:44+00:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>["Unlike most reviews on Pocket Tactics, I'm not scoring the Nintendo Switch 2 Camera out of 10 right now. That's because I've not used any other Switch 2 cameras, so there's no prior context to base a score on.", "For more of our post-launch coverage, be sure to take a look at our Nintendo Switch 2 review, Nintendo Switch 2 Pro Controller review, and Mario Kart World review while you're here.", "Or, if you'd rather grab something to complete your new gaming setup, see our guides to the best Nintendo Switch 2 accessories and the best Nintendo Switch 2 controllers."]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9337</v>
+        <v>0.8126</v>
       </c>
       <c r="I4" t="n">
-        <v>0.247</v>
+        <v>0.132</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -618,42 +618,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DL-735f6f5e7ee6d998aecda59ababcdbcc</t>
+          <t>DL-2a418e6f75f602bcd521348ca4edc33a</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>How I plan to review the Nintendo Switch 2</t>
+          <t>Nintendo Switch 2 Camera review - good for GameChat but not much else</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.theverge.com/nintendo/679346/nintendo-switch-2-review-guidelines-plan-launch</t>
+          <t>https://www.pockettactics.com/nintendo-switch-2-camera-review</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nintendo has decided to not send out early review units to The Verge or other outlets, citing the need for day-one software updates. It’s a way to explore every facet of a new console and get a wide variety of perspectives. This time, we’re going to start with those deeper dives.</t>
+          <t>I'm talking about the Nintendo Switch 2 Camera. It doesn't have many uses outside of GameChat, the Switch 2's new social feature, and a few Mario Party Jamboree – Switch 2 Edition minigames. At Pocket Tactics, our experts spend days testing games, phones, tech, and services. We always share honest opinions to help you buy the best.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76.49751000000001</v>
+        <v>225.1066</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04T12:00:00+00:00</t>
+          <t>2025-06-07T16:55:45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Almost everything about the Switch 2 ahead of launch has been a little weird, from the confusing messaging and high pricing to the unfortunately timed connection with spiking tariffs.', 'Intent to keep that strange energy going, Nintendo has decided to not send out early review units to The Verge or other outlets, citing the need for day-one software updates. (This was not the case with the original Switch.)']</t>
+          <t>["Unlike most reviews on Pocket Tactics, I'm not scoring the Nintendo Switch 2 Camera out of 10 right now. That's because I've not used any other Switch 2 cameras, so there's no prior context to base a score on.", "For more of our post-launch coverage, be sure to take a look at our Nintendo Switch 2 review, Nintendo Switch 2 Pro Controller review, and Mario Kart World review while you're here.", "Or, if you'd rather grab something to complete your new gaming setup, see our guides to the best Nintendo Switch 2 accessories and the best Nintendo Switch 2 controllers."]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.9337</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.247</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -662,130 +662,130 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DL-b4835f4fe1a96ea2d9f3e5a83449cefc</t>
+          <t>DL-4b86e968a9b1646ef4716b8b7c26d9ad</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>I've already tried the'mouse' mode on Nintendo Switch 2, it opens a door that has so far been closed on consoles.</t>
+          <t>Starting shot for Nintendo Switch 2 – German streamer is already playing Mario Kart World</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.xataka.com/videojuegos/he-probado-modo-raton-nintendo-switch-2-abre-puerta-ahora-cerrada-consolas</t>
+          <t>https://www.giga.de/games/startschuss-fuer-nintendo-switch-2-deutsche-streamerin-zockt-schon-mario-kart-world--01JWXN645JPPJSCMF79ZYQ7SQH</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 is not a machine to experiment with. The 152 million Switches sold are a reflection that the company has achieved a product that people have liked. They don't need something as disruptive as Switch or Wii in their day, but a continuous console. And apart from the size, a change comes with the optical technology.</t>
+          <t>Nintendo Switch 2: Day-One Patch is here The first gamers already have their Switch 2 at home. Version 20.1.1 is live and there are first experiences with the new hybrid console. Nintendo didn't miss a day, it's already June 5th in New Zealand.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.77198</v>
+        <v>47.643147</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05T16:15:49</t>
+          <t>2025-06-04T14:23:08+00:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Turning to the Joy-Con Nintendo Switch 2 is not a machine to experiment with. The 152 million Switches sold, and rising, are a reflection that the company has achieved a product that people have liked.']</t>
+          <t>['Nintendo Switch 2: Day-One Patch is here The first gamers already have their Switch 2 at home. Until now, the console was completely useless – a day-one patch from Nintendo was missing. That has now changed.', 'The German streamer LostKittn has not only got her Switch 2, she is even now playing Mario Kart World on Twitch. According to the pinned message of a chat moderator, she has received the console from Nintendo and is allowed to play since 2 pm.', 'Players showcase Switch 2 eShop Other players also share their experiences with Switch 2. On Reddit, users show GabSam, for example, the new and improved Nintendo eShop. It now runs much more smoothly than the one on the old console.']</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.0644</v>
+        <v>-0.1531</v>
       </c>
       <c r="I6" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.031</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DL-4b86e968a9b1646ef4716b8b7c26d9ad</t>
+          <t>DL-b4835f4fe1a96ea2d9f3e5a83449cefc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Starting shot for Nintendo Switch 2 – German streamer is already playing Mario Kart World</t>
+          <t>I've already tried the'mouse' mode on Nintendo Switch 2, it opens a door that has so far been closed on consoles.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.giga.de/games/startschuss-fuer-nintendo-switch-2-deutsche-streamerin-zockt-schon-mario-kart-world--01JWXN645JPPJSCMF79ZYQ7SQH</t>
+          <t>https://www.xataka.com/videojuegos/he-probado-modo-raton-nintendo-switch-2-abre-puerta-ahora-cerrada-consolas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2: Day-One Patch is here The first gamers already have their Switch 2 at home. Version 20.1.1 is live and there are first experiences with the new hybrid console. Nintendo didn't miss a day, it's already June 5th in New Zealand.</t>
+          <t>Nintendo Switch 2 is not a machine to experiment with. The 152 million Switches sold are a reflection that the company has achieved a product that people have liked. They don't need something as disruptive as Switch or Wii in their day, but a continuous console. And apart from the size, a change comes with the optical technology.</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.68355</v>
+        <v>41.942944</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-04T14:23:08+00:00</t>
+          <t>2025-06-05T16:15:49</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Nintendo Switch 2: Day-One Patch is here The first gamers already have their Switch 2 at home. Until now, the console was completely useless – a day-one patch from Nintendo was missing. That has now changed.', 'The German streamer LostKittn has not only got her Switch 2, she is even now playing Mario Kart World on Twitch. According to the pinned message of a chat moderator, she has received the console from Nintendo and is allowed to play since 2 pm.', 'Players showcase Switch 2 eShop Other players also share their experiences with Switch 2. On Reddit, users show GabSam, for example, the new and improved Nintendo eShop. It now runs much more smoothly than the one on the old console.']</t>
+          <t>['Turning to the Joy-Con Nintendo Switch 2 is not a machine to experiment with. The 152 million Switches sold, and rising, are a reflection that the company has achieved a product that people have liked.']</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-0.1531</v>
+        <v>0.0644</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="J7" t="n">
-        <v>0.039</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DL-22ae66fc1f099f020d69886b1441e56e</t>
+          <t>DL-fa269e8a0e19a32b2bf0f8ce731d82b1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nintendo sells 3.5 million Switch 2 consoles in four days</t>
+          <t>Mario Kart World on Metacritic: First test scores are live and an absolute dream!</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://gameliner.nl/nieuws/nintendo-verkoopt-35-miljoen-switch-2-consoles-binnen-vier-dagen/51020</t>
+          <t>https://www.gamepro.de/artikel/mario-kart-world-metacritic-erste-tests-wertung,3434246.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 is the most successful launch in the history of Nintendo hardware. The desired console sold over 3.5 million copies in four days. This is an indication of the trust Nintendo has in producing a console that is more than worth the effort.</t>
+          <t>Nintendo Switch 2 is here and we're shooting our first 37 minutes in Mario Kart World Autoplay What's being praised? Nintenduo gives it a score of 92 and writes: "Everything can still change" Nintendo has perfectly balanced classic and modern elements to create an engaging and accessible experience that will delight both veterans and newcomers.</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>23.607367</v>
+        <v>39.233864</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-11T08:15:00+00:00</t>
+          <t>2025-06-06T10:14:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['And of course, this is also an indication of the trust that Nintendo has in producing a console that is more than worth the effort.', "The 3.5 million units sold in four days make the Nintendo Switch 2 the most successful launch in the history of Nintendo hardware. Check out our Nintendo Switch 2 review here. In addition, we've got a Mario Kart World review ready for you."]</t>
+          <t>["The first ratings for Mario Kart World are enthusiastic. No Nintendo Switch 2 consoles and review samples were sent in advance, we received Nintendo's newest flagship on release day.", "37:48 The Nintendo Switch 2 is here and we're shooting our first 37 minutes in Mario Kart World Autoplay What's being praised?", 'This means: Mario Kart World is the latest and perhaps best part of the long-standing arcade racing series and is taken to the next level with the hardware of Nintendo Switch 2 and an extensive roster of drivers, tracks and endless fun.']</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.8927</v>
+        <v>0.9413</v>
       </c>
       <c r="I8" t="n">
-        <v>0.235</v>
+        <v>0.252</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -794,42 +794,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DL-fa269e8a0e19a32b2bf0f8ce731d82b1</t>
+          <t>DL-22ae66fc1f099f020d69886b1441e56e</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mario Kart World on Metacritic: First test scores are live and an absolute dream!</t>
+          <t>Nintendo sells 3.5 million Switch 2 consoles in four days</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.gamepro.de/artikel/mario-kart-world-metacritic-erste-tests-wertung,3434246.html</t>
+          <t>https://gameliner.nl/nieuws/nintendo-verkoopt-35-miljoen-switch-2-consoles-binnen-vier-dagen/51020</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 is here and we're shooting our first 37 minutes in Mario Kart World Autoplay What's being praised? Nintenduo gives it a score of 92 and writes: "Everything can still change" Nintendo has perfectly balanced classic and modern elements to create an engaging and accessible experience that will delight both veterans and newcomers.</t>
+          <t>Nintendo Switch 2 is the most successful launch in the history of Nintendo hardware. The desired console sold over 3.5 million copies in four days. This is an indication of the trust Nintendo has in producing a console that is more than worth the effort.</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.954624</v>
+        <v>37.532463</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06T10:14:00</t>
+          <t>2025-06-11T08:15:00+00:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>["The first ratings for Mario Kart World are enthusiastic. No Nintendo Switch 2 consoles and review samples were sent in advance, we received Nintendo's newest flagship on release day.", "37:48 The Nintendo Switch 2 is here and we're shooting our first 37 minutes in Mario Kart World Autoplay What's being praised?", 'This means: Mario Kart World is the latest and perhaps best part of the long-standing arcade racing series and is taken to the next level with the hardware of Nintendo Switch 2 and an extensive roster of drivers, tracks and endless fun.']</t>
+          <t>['And of course, this is also an indication of the trust that Nintendo has in producing a console that is more than worth the effort.', "The 3.5 million units sold in four days make the Nintendo Switch 2 the most successful launch in the history of Nintendo hardware. Check out our Nintendo Switch 2 review here. In addition, we've got a Mario Kart World review ready for you."]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.9413</v>
+        <v>0.8927</v>
       </c>
       <c r="I9" t="n">
-        <v>0.252</v>
+        <v>0.235</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16.278522</v>
+        <v>34.85138</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -882,130 +882,130 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DL-05650dfb79bd8bf7ef997bb2ce2f3cd3</t>
+          <t>DL-2fa26bf724852abc5c72c9f822028c52</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 First Impressions And A Surprising Purchasing Score</t>
+          <t>Zelda: The underrated game that deserves a remake for Switch 2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://hothardware.com/news/nintendo-switch-2-first-impressions-and-a-surprising-purchasing</t>
+          <t>https://www.zazoom.it/2025-06-07/zelda-il-gioco-sottovalutato-che-merita-un-remake-per-switch-2/17144781/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 is finally out, and I have some first impressions on the experience of both playing and purchasing the console. I was not lucky enough to secure a preorder ahead of the console's June 5th release. Third-party entrepreneurs were already listing the console for a premium over its $449 MSRP. My local Walmart was nearly empty and upon inquiring, I was told it had around six to eight consoles still available in the back.</t>
+          <t>Nintendo would have the opportunity to strengthen the connection between the past and the future, providing an unforgettable experience. With the advent of the new console, the challenge for Nintendo will be to continue to innovate and deliver experiences that meet the expectations of the passionate. The Legend of Zelda: Tears of the Kingdom game shows up on Nintendo Switch 2 with 20 minutes of gameplay.</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.011366</v>
+        <v>24.060257</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-06T14:31:00+00:00</t>
+          <t>2025-06-07T18:16:28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['The Nintendo Switch 2 is finally out, and I have some first impressions on the experience of both playing and purchasing the console.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.5673</v>
+        <v>0.8779</v>
       </c>
       <c r="I11" t="n">
-        <v>0.114</v>
+        <v>0.178</v>
       </c>
       <c r="J11" t="n">
-        <v>0.054</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DL-2fa26bf724852abc5c72c9f822028c52</t>
+          <t>DL-05650dfb79bd8bf7ef997bb2ce2f3cd3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Zelda: The underrated game that deserves a remake for Switch 2</t>
+          <t>Nintendo Switch 2 First Impressions And A Surprising Purchasing Score</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.zazoom.it/2025-06-07/zelda-il-gioco-sottovalutato-che-merita-un-remake-per-switch-2/17144781/</t>
+          <t>https://hothardware.com/news/nintendo-switch-2-first-impressions-and-a-surprising-purchasing</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nintendo would have the opportunity to strengthen the connection between the past and the future, providing an unforgettable experience. With the advent of the new console, the challenge for Nintendo will be to continue to innovate and deliver experiences that meet the expectations of the passionate. The Legend of Zelda: Tears of the Kingdom game shows up on Nintendo Switch 2 with 20 minutes of gameplay.</t>
+          <t>Nintendo Switch 2 is finally out, and I have some first impressions on the experience of both playing and purchasing the console. I was not lucky enough to secure a preorder ahead of the console's June 5th release. Third-party entrepreneurs were already listing the console for a premium over its $449 MSRP. My local Walmart was nearly empty and upon inquiring, I was told it had around six to eight consoles still available in the back.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>11.431488</v>
+        <v>21.127535</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-07T18:16:28</t>
+          <t>2025-06-06T14:31:00+00:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['The Nintendo Switch 2 is finally out, and I have some first impressions on the experience of both playing and purchasing the console.']</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8779</v>
+        <v>0.5673</v>
       </c>
       <c r="I12" t="n">
-        <v>0.178</v>
+        <v>0.114</v>
       </c>
       <c r="J12" t="n">
-        <v>0.026</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DL-cce7387fccad72acd7b577de07a1a6e3</t>
+          <t>DL-8d8caf04d65da8ebac6136b7cec59a11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 unboxing: What do you get with the console?</t>
+          <t>Nintendo Switch 2 Unboxing, Setup &amp; What You Need to Know</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.indy100.com/gaming/nintendo-switch-2-unboxing-console-2672317405</t>
+          <t>https://www.geeky-gadgets.com/nintendo-switch-2-4/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nintendo has sent review units out to media outlets for them to check out the new console and games running on it. The first thing that will be seen when unboxing are the two new Joy-Con controllers and main part of the console with the bigger screen. Below that on the next layer down is a brief user manual, a HDMI cable to connect the dock to a TV and the wrist strap accessories that connect to the Switch 2.</t>
+          <t>This guide explores the unboxing experience, setup process, design changes, hardware advancements, and new features, while also comparing it to the original Nintendo Switch. The packaging is compact and eco-friendly, underscoring Nintendo’s commitment to reducing environmental impact. Inside the box, you’ll find: The Nintendo Switch 2 console Two redesigned Joy-Con controllers A revamped dock featuring an Ethernet port An HDMI cable A power adapter.</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9.850194999999999</v>
+        <v>19.452656</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-05T15:19:37</t>
+          <t>2025-06-08T13:00:24</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['Nintendo has sent Switch 2 review units out to media outlets for them to check out the new console and games running on it.\nindy100 is very fortunate to have been sent one of these units and this is what comes in the box - read our first impressions of']</t>
+          <t>['The video below from Zollotech gives us a detailed look at the new Switch console.\nUnboxing: What’s Inside the Box?\nThe unboxing experience of the Nintendo Switch 2 reflects a focus on simplicity and sustainability.', 'Setting Up: From Box to Gameplay\nSetting up the Nintendo Switch 2 is a straightforward process designed to get you gaming quickly.', 'New Features: Enhancing the Experience\nThe Nintendo Switch 2 introduces several new features that enhance the overall user experience and cater to modern gaming needs:\nOnline Functionality: Faster download speeds and a more stable connection improve multiplayer']</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.5859</v>
+        <v>0.8979</v>
       </c>
       <c r="I13" t="n">
-        <v>0.048</v>
+        <v>0.166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1014,42 +1014,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DL-8d8caf04d65da8ebac6136b7cec59a11</t>
+          <t>DL-f955c260113cb461bc83d07b7ef513dd</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 Unboxing, Setup &amp; What You Need to Know</t>
+          <t>Nintendo Switch 2 Comes With a Below-Average Display and Disappointing HDR Support, New In-Depth Analysis Reveals</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.geeky-gadgets.com/nintendo-switch-2-4/</t>
+          <t>https://wccftech.com/nintendo-switch-2-below-average-hdr/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>This guide explores the unboxing experience, setup process, design changes, hardware advancements, and new features, while also comparing it to the original Nintendo Switch. The packaging is compact and eco-friendly, underscoring Nintendo’s commitment to reducing environmental impact. Inside the box, you’ll find: The Nintendo Switch 2 console Two redesigned Joy-Con controllers A revamped dock featuring an Ethernet port An HDMI cable A power adapter.</t>
+          <t>The new analysis by GamingTech takes a good look at the new Nintendo system's display. Measuring the brightness in Zelda: Breath of the Wild returned a maximum value of 420 nits, but in Cyberpunk 2077, it is locked to 450 nit, likely the maximum peak brightness the display is capable of. This peak brightness is not even close to providing a proper HDR experience.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.254066</v>
+        <v>15.894136</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-08T13:00:24</t>
+          <t>2025-06-05T11:37:00+00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['The video below from Zollotech gives us a detailed look at the new Switch console.\nUnboxing: What’s Inside the Box?\nThe unboxing experience of the Nintendo Switch 2 reflects a focus on simplicity and sustainability.', 'Setting Up: From Box to Gameplay\nSetting up the Nintendo Switch 2 is a straightforward process designed to get you gaming quickly.', 'New Features: Enhancing the Experience\nThe Nintendo Switch 2 introduces several new features that enhance the overall user experience and cater to modern gaming needs:\nOnline Functionality: Faster download speeds and a more stable connection improve multiplayer']</t>
+          <t>["Related Story Level Up Your Switch 2 Experience With Mumba’s Blade Series, Clear Series Dockable Cases, and Carrying Case\nThe Nintendo Switch 2's HDR support in docked mode fares a little better.", 'The system-level calibration is found to be adequate, and in games like Cyberpunk 2077, the system delivers an HDR experience on par with that of the other versions of the game.', 'In other games like Zelda: Breath of the Wild, the HDR experience is rather disappointing, as the game looks washed out due to its aesthetics and the lack of contrast.\nThe Nintendo Switch 2 launches today worldwide.']</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8979</v>
+        <v>0.928</v>
       </c>
       <c r="I14" t="n">
-        <v>0.166</v>
+        <v>0.231</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1058,42 +1058,42 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DL-f955c260113cb461bc83d07b7ef513dd</t>
+          <t>DL-daa7370e17bbf6699977f90dd9dcc32e</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2 Comes With a Below-Average Display and Disappointing HDR Support, New In-Depth Analysis Reveals</t>
+          <t>Nintendo Switch 2: New game console officially launches today</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://wccftech.com/nintendo-switch-2-below-average-hdr/</t>
+          <t>https://www.appgefahren.de/nintendo-switch-2-neue-spielkonsole-geht-heute-offiziell-an-den-start-380403.html</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The new analysis by GamingTech takes a good look at the new Nintendo system's display. Measuring the brightness in Zelda: Breath of the Wild returned a maximum value of 420 nits, but in Cyberpunk 2077, it is locked to 450 nit, likely the maximum peak brightness the display is capable of. This peak brightness is not even close to providing a proper HDR experience.</t>
+          <t>Nintendo officially unveiled the new generation of the popular Switch game console, the Nintendo Switch 2. The new model, equipped with a 7.9′′ screen and support for 4K content, is now available on the market. At the same thickness, the console features a significantly larger 7.9-inch LCD screen, 1080p resolution, HDR support, and frame rates of up to 120 fps. If the Switch 2 is connected to a TV via the also updated dock. For 4K playback, the frame</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7.694647</v>
+        <v>15.065298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05T11:37:00+00:00</t>
+          <t>2025-06-05T12:38:11+00:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>["Related Story Level Up Your Switch 2 Experience With Mumba’s Blade Series, Clear Series Dockable Cases, and Carrying Case\nThe Nintendo Switch 2's HDR support in docked mode fares a little better.", 'The system-level calibration is found to be adequate, and in games like Cyberpunk 2077, the system delivers an HDR experience on par with that of the other versions of the game.', 'In other games like Zelda: Breath of the Wild, the HDR experience is rather disappointing, as the game looks washed out due to its aesthetics and the lack of contrast.\nThe Nintendo Switch 2 launches today worldwide.']</t>
+          <t>['But what can the new Nintendo Switch 2 do? Compared to its predecessor, the Nintendo Switch (OLED), the Switch 2 has done quite a bit.', 'At the same thickness, the console features a significantly larger 7.9-inch LCD screen, 1080p resolution, HDR support, and frame rates of up to 120 fps.']</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.928</v>
+        <v>0.802</v>
       </c>
       <c r="I15" t="n">
-        <v>0.231</v>
+        <v>0.111</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1102,42 +1102,42 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DL-daa7370e17bbf6699977f90dd9dcc32e</t>
+          <t>DL-cce7387fccad72acd7b577de07a1a6e3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nintendo Switch 2: New game console officially launches today</t>
+          <t>Nintendo Switch 2 unboxing: What do you get with the console?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.appgefahren.de/nintendo-switch-2-neue-spielkonsole-geht-heute-offiziell-an-den-start-380403.html</t>
+          <t>https://www.indy100.com/gaming/nintendo-switch-2-unboxing-console-2672317405</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nintendo officially unveiled the new generation of the popular Switch game console, the Nintendo Switch 2. The new model, equipped with a 7.9′′ screen and support for 4K content, is now available on the market. At the same thickness, the console features a significantly larger 7.9-inch LCD screen, 1080p resolution, HDR support, and frame rates of up to 120 fps. If the Switch 2 is connected to a TV via the also updated dock. For 4K playback, the frame</t>
+          <t>Nintendo has sent review units out to media outlets for them to check out the new console and games running on it. The first thing that will be seen when unboxing are the two new Joy-Con controllers and main part of the console with the bigger screen. Below that on the next layer down is a brief user manual, a HDMI cable to connect the dock to a TV and the wrist strap accessories that connect to the Switch 2.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.661373</v>
+        <v>14.92691</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05T12:38:11+00:00</t>
+          <t>2025-06-05T15:19:37</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['But what can the new Nintendo Switch 2 do? Compared to its predecessor, the Nintendo Switch (OLED), the Switch 2 has done quite a bit.', 'At the same thickness, the console features a significantly larger 7.9-inch LCD screen, 1080p resolution, HDR support, and frame rates of up to 120 fps.']</t>
+          <t>['Nintendo has sent Switch 2 review units out to media outlets for them to check out the new console and games running on it.\nindy100 is very fortunate to have been sent one of these units and this is what comes in the box - read our first impressions of']</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.802</v>
+        <v>0.5859</v>
       </c>
       <c r="I16" t="n">
-        <v>0.111</v>
+        <v>0.048</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B2" t="n">
         <v>15</v>
